--- a/result/NCDC_weather_data/stations_imputed/59562099999.xlsx
+++ b/result/NCDC_weather_data/stations_imputed/59562099999.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R484"/>
+  <dimension ref="A1:S484"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -524,6 +524,11 @@
           <t>SNDP</t>
         </is>
       </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>RH</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -552,7 +557,7 @@
         <v>158.36</v>
       </c>
       <c r="H2" t="n">
-        <v>141.08</v>
+        <v>60.6</v>
       </c>
       <c r="I2" t="n">
         <v>102.29</v>
@@ -580,6 +585,9 @@
         <v>0</v>
       </c>
       <c r="R2" t="inlineStr"/>
+      <c r="S2" t="n">
+        <v>3.200197898690787</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -608,7 +616,7 @@
         <v>156.2</v>
       </c>
       <c r="H3" t="n">
-        <v>137.3</v>
+        <v>58.5</v>
       </c>
       <c r="I3" t="n">
         <v>102.13</v>
@@ -636,6 +644,9 @@
         <v>0</v>
       </c>
       <c r="R3" t="inlineStr"/>
+      <c r="S3" t="n">
+        <v>3.073101543364999</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -664,7 +675,7 @@
         <v>157.82</v>
       </c>
       <c r="H4" t="n">
-        <v>140.9</v>
+        <v>60.5</v>
       </c>
       <c r="I4" t="n">
         <v>102.01</v>
@@ -692,6 +703,9 @@
         <v>0</v>
       </c>
       <c r="R4" t="inlineStr"/>
+      <c r="S4" t="n">
+        <v>3.231560407764733</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -720,7 +734,7 @@
         <v>157.82</v>
       </c>
       <c r="H5" t="n">
-        <v>146.84</v>
+        <v>63.8</v>
       </c>
       <c r="I5" t="n">
         <v>101.89</v>
@@ -748,6 +762,9 @@
         <v>0.000508</v>
       </c>
       <c r="R5" t="inlineStr"/>
+      <c r="S5" t="n">
+        <v>3.762014264619268</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -776,7 +793,7 @@
         <v>162.68</v>
       </c>
       <c r="H6" t="n">
-        <v>150.98</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="I6" t="n">
         <v>101.62</v>
@@ -804,6 +821,9 @@
         <v>0.002032</v>
       </c>
       <c r="R6" t="inlineStr"/>
+      <c r="S6" t="n">
+        <v>3.671827212758878</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -832,7 +852,7 @@
         <v>155.3</v>
       </c>
       <c r="H7" t="n">
-        <v>140.18</v>
+        <v>60.1</v>
       </c>
       <c r="I7" t="n">
         <v>102</v>
@@ -860,6 +880,9 @@
         <v>0.001016</v>
       </c>
       <c r="R7" t="inlineStr"/>
+      <c r="S7" t="n">
+        <v>3.394188295022555</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -888,7 +911,7 @@
         <v>154.58</v>
       </c>
       <c r="H8" t="n">
-        <v>138.02</v>
+        <v>58.9</v>
       </c>
       <c r="I8" t="n">
         <v>102.04</v>
@@ -916,6 +939,9 @@
         <v>0.000508</v>
       </c>
       <c r="R8" t="inlineStr"/>
+      <c r="S8" t="n">
+        <v>3.271799178112926</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -944,7 +970,7 @@
         <v>153.68</v>
       </c>
       <c r="H9" t="n">
-        <v>137.66</v>
+        <v>58.7</v>
       </c>
       <c r="I9" t="n">
         <v>101.85</v>
@@ -972,6 +998,9 @@
         <v>0</v>
       </c>
       <c r="R9" t="inlineStr"/>
+      <c r="S9" t="n">
+        <v>3.321496130730375</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1000,7 +1029,7 @@
         <v>156.56</v>
       </c>
       <c r="H10" t="n">
-        <v>140.54</v>
+        <v>60.3</v>
       </c>
       <c r="I10" t="n">
         <v>101.56</v>
@@ -1028,6 +1057,9 @@
         <v>0</v>
       </c>
       <c r="R10" t="inlineStr"/>
+      <c r="S10" t="n">
+        <v>3.311543298532549</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1056,7 +1088,7 @@
         <v>158.72</v>
       </c>
       <c r="H11" t="n">
-        <v>143.24</v>
+        <v>61.8</v>
       </c>
       <c r="I11" t="n">
         <v>101.44</v>
@@ -1084,6 +1116,9 @@
         <v>0</v>
       </c>
       <c r="R11" t="inlineStr"/>
+      <c r="S11" t="n">
+        <v>3.35094480231835</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1112,7 +1147,7 @@
         <v>147.2</v>
       </c>
       <c r="H12" t="n">
-        <v>132.08</v>
+        <v>55.6</v>
       </c>
       <c r="I12" t="n">
         <v>101.85</v>
@@ -1140,6 +1175,9 @@
         <v>0</v>
       </c>
       <c r="R12" t="inlineStr"/>
+      <c r="S12" t="n">
+        <v>3.429865467601469</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1168,7 +1206,7 @@
         <v>143.96</v>
       </c>
       <c r="H13" t="n">
-        <v>122.9</v>
+        <v>50.5</v>
       </c>
       <c r="I13" t="n">
         <v>101.97</v>
@@ -1196,6 +1234,9 @@
         <v>0</v>
       </c>
       <c r="R13" t="inlineStr"/>
+      <c r="S13" t="n">
+        <v>2.930196669886411</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1224,7 +1265,7 @@
         <v>148.64</v>
       </c>
       <c r="H14" t="n">
-        <v>131.9</v>
+        <v>55.5</v>
       </c>
       <c r="I14" t="n">
         <v>101.99</v>
@@ -1252,6 +1293,9 @@
         <v>0</v>
       </c>
       <c r="R14" t="inlineStr"/>
+      <c r="S14" t="n">
+        <v>3.278118679260716</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1280,7 +1324,7 @@
         <v>147.02</v>
       </c>
       <c r="H15" t="n">
-        <v>127.22</v>
+        <v>52.9</v>
       </c>
       <c r="I15" t="n">
         <v>102.05</v>
@@ -1308,6 +1352,9 @@
         <v>0</v>
       </c>
       <c r="R15" t="inlineStr"/>
+      <c r="S15" t="n">
+        <v>3.023928454192706</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1336,7 +1383,7 @@
         <v>156.56</v>
       </c>
       <c r="H16" t="n">
-        <v>138.38</v>
+        <v>59.1</v>
       </c>
       <c r="I16" t="n">
         <v>101.98</v>
@@ -1364,6 +1411,9 @@
         <v>0</v>
       </c>
       <c r="R16" t="inlineStr"/>
+      <c r="S16" t="n">
+        <v>3.130679490479436</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1392,7 +1442,7 @@
         <v>159.08</v>
       </c>
       <c r="H17" t="n">
-        <v>147.38</v>
+        <v>64.09999999999999</v>
       </c>
       <c r="I17" t="n">
         <v>101.97</v>
@@ -1420,6 +1470,9 @@
         <v>0.001016</v>
       </c>
       <c r="R17" t="inlineStr"/>
+      <c r="S17" t="n">
+        <v>3.687890379421724</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1448,7 +1501,7 @@
         <v>160.16</v>
       </c>
       <c r="H18" t="n">
-        <v>145.4</v>
+        <v>63</v>
       </c>
       <c r="I18" t="n">
         <v>101.88</v>
@@ -1476,6 +1529,9 @@
         <v>0.002032</v>
       </c>
       <c r="R18" t="inlineStr"/>
+      <c r="S18" t="n">
+        <v>3.408453304082192</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1504,7 +1560,7 @@
         <v>156.92</v>
       </c>
       <c r="H19" t="n">
-        <v>141.26</v>
+        <v>60.7</v>
       </c>
       <c r="I19" t="n">
         <v>101.77</v>
@@ -1532,6 +1588,9 @@
         <v>0.000508</v>
       </c>
       <c r="R19" t="inlineStr"/>
+      <c r="S19" t="n">
+        <v>3.341326686633613</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1560,7 +1619,7 @@
         <v>155.84</v>
       </c>
       <c r="H20" t="n">
-        <v>141.08</v>
+        <v>60.6</v>
       </c>
       <c r="I20" t="n">
         <v>101.71</v>
@@ -1588,6 +1647,9 @@
         <v>0</v>
       </c>
       <c r="R20" t="inlineStr"/>
+      <c r="S20" t="n">
+        <v>3.423889326611826</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1616,7 +1678,7 @@
         <v>155.84</v>
       </c>
       <c r="H21" t="n">
-        <v>141.44</v>
+        <v>60.8</v>
       </c>
       <c r="I21" t="n">
         <v>101.84</v>
@@ -1644,6 +1706,9 @@
         <v>0</v>
       </c>
       <c r="R21" t="inlineStr"/>
+      <c r="S21" t="n">
+        <v>3.455877373506751</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1672,7 +1737,7 @@
         <v>151.52</v>
       </c>
       <c r="H22" t="n">
-        <v>143.24</v>
+        <v>61.8</v>
       </c>
       <c r="I22" t="n">
         <v>101.86</v>
@@ -1700,6 +1765,9 @@
         <v>0.001016</v>
       </c>
       <c r="R22" t="inlineStr"/>
+      <c r="S22" t="n">
+        <v>4.0723498078781</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1728,7 +1796,7 @@
         <v>151.7</v>
       </c>
       <c r="H23" t="n">
-        <v>147.2</v>
+        <v>64</v>
       </c>
       <c r="I23" t="n">
         <v>101.4</v>
@@ -1756,6 +1824,9 @@
         <v>0.009906</v>
       </c>
       <c r="R23" t="inlineStr"/>
+      <c r="S23" t="n">
+        <v>4.48208499108641</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1784,7 +1855,7 @@
         <v>164.66</v>
       </c>
       <c r="H24" t="n">
-        <v>152.96</v>
+        <v>67.2</v>
       </c>
       <c r="I24" t="n">
         <v>101</v>
@@ -1812,6 +1883,9 @@
         <v>0.011938</v>
       </c>
       <c r="R24" t="inlineStr"/>
+      <c r="S24" t="n">
+        <v>3.663815038707604</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1840,7 +1914,7 @@
         <v>158.9</v>
       </c>
       <c r="H25" t="n">
-        <v>147.74</v>
+        <v>64.3</v>
       </c>
       <c r="I25" t="n">
         <v>101.41</v>
@@ -1868,6 +1942,9 @@
         <v>0.007958666666666666</v>
       </c>
       <c r="R25" t="inlineStr"/>
+      <c r="S25" t="n">
+        <v>3.739396503716761</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1896,7 +1973,7 @@
         <v>158.54</v>
       </c>
       <c r="H26" t="n">
-        <v>145.22</v>
+        <v>62.9</v>
       </c>
       <c r="I26" t="n">
         <v>101.67</v>
@@ -1924,6 +2001,9 @@
         <v>0.003979333333333333</v>
       </c>
       <c r="R26" t="inlineStr"/>
+      <c r="S26" t="n">
+        <v>3.541772318558384</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1952,7 +2032,7 @@
         <v>161.78</v>
       </c>
       <c r="H27" t="n">
-        <v>148.28</v>
+        <v>64.59999999999999</v>
       </c>
       <c r="I27" t="n">
         <v>101.68</v>
@@ -1980,6 +2060,9 @@
         <v>0</v>
       </c>
       <c r="R27" t="inlineStr"/>
+      <c r="S27" t="n">
+        <v>3.51328927190507</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -2008,7 +2091,7 @@
         <v>160.52</v>
       </c>
       <c r="H28" t="n">
-        <v>151.34</v>
+        <v>66.3</v>
       </c>
       <c r="I28" t="n">
         <v>101.66</v>
@@ -2036,6 +2119,9 @@
         <v>0.004064</v>
       </c>
       <c r="R28" t="inlineStr"/>
+      <c r="S28" t="n">
+        <v>3.92079354405581</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -2064,7 +2150,7 @@
         <v>156.38</v>
       </c>
       <c r="H29" t="n">
-        <v>149.54</v>
+        <v>65.3</v>
       </c>
       <c r="I29" t="n">
         <v>101.5</v>
@@ -2092,6 +2178,9 @@
         <v>0.000508</v>
       </c>
       <c r="R29" t="inlineStr"/>
+      <c r="S29" t="n">
+        <v>4.185284812974594</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -2120,7 +2209,7 @@
         <v>151.7</v>
       </c>
       <c r="H30" t="n">
-        <v>145.04</v>
+        <v>62.8</v>
       </c>
       <c r="I30" t="n">
         <v>101.12</v>
@@ -2148,6 +2237,9 @@
         <v>0.020066</v>
       </c>
       <c r="R30" t="inlineStr"/>
+      <c r="S30" t="n">
+        <v>4.242998250815181</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -2176,7 +2268,7 @@
         <v>151.88</v>
       </c>
       <c r="H31" t="n">
-        <v>136.58</v>
+        <v>58.1</v>
       </c>
       <c r="I31" t="n">
         <v>101.62</v>
@@ -2204,6 +2296,9 @@
         <v>0</v>
       </c>
       <c r="R31" t="inlineStr"/>
+      <c r="S31" t="n">
+        <v>3.391963520136447</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -2232,7 +2327,7 @@
         <v>149.72</v>
       </c>
       <c r="H32" t="n">
-        <v>127.22</v>
+        <v>52.9</v>
       </c>
       <c r="I32" t="n">
         <v>102.07</v>
@@ -2260,6 +2355,9 @@
         <v>0</v>
       </c>
       <c r="R32" t="inlineStr"/>
+      <c r="S32" t="n">
+        <v>2.8036013892768</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -2288,7 +2386,7 @@
         <v>156.56</v>
       </c>
       <c r="H33" t="n">
-        <v>135.5</v>
+        <v>57.5</v>
       </c>
       <c r="I33" t="n">
         <v>101.86</v>
@@ -2316,6 +2414,9 @@
         <v>0</v>
       </c>
       <c r="R33" t="inlineStr"/>
+      <c r="S33" t="n">
+        <v>2.902776738648107</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -2344,7 +2445,7 @@
         <v>161.78</v>
       </c>
       <c r="H34" t="n">
-        <v>143.78</v>
+        <v>62.1</v>
       </c>
       <c r="I34" t="n">
         <v>101.7</v>
@@ -2372,6 +2473,9 @@
         <v>0</v>
       </c>
       <c r="R34" t="inlineStr"/>
+      <c r="S34" t="n">
+        <v>3.133997927421071</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -2400,7 +2504,7 @@
         <v>159.08</v>
       </c>
       <c r="H35" t="n">
-        <v>146.12</v>
+        <v>63.4</v>
       </c>
       <c r="I35" t="n">
         <v>101.55</v>
@@ -2428,6 +2532,9 @@
         <v>0</v>
       </c>
       <c r="R35" t="inlineStr"/>
+      <c r="S35" t="n">
+        <v>3.572087646287596</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -2456,7 +2563,7 @@
         <v>154.04</v>
       </c>
       <c r="H36" t="n">
-        <v>136.04</v>
+        <v>57.8</v>
       </c>
       <c r="I36" t="n">
         <v>101.94</v>
@@ -2484,6 +2591,9 @@
         <v>0</v>
       </c>
       <c r="R36" t="inlineStr"/>
+      <c r="S36" t="n">
+        <v>3.152123577706974</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -2512,7 +2622,7 @@
         <v>149.9</v>
       </c>
       <c r="H37" t="n">
-        <v>131.18</v>
+        <v>55.1</v>
       </c>
       <c r="I37" t="n">
         <v>102.26</v>
@@ -2540,6 +2650,9 @@
         <v>0</v>
       </c>
       <c r="R37" t="inlineStr"/>
+      <c r="S37" t="n">
+        <v>3.104493483545569</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -2568,7 +2681,7 @@
         <v>149.54</v>
       </c>
       <c r="H38" t="n">
-        <v>130.82</v>
+        <v>54.9</v>
       </c>
       <c r="I38" t="n">
         <v>102.2</v>
@@ -2596,6 +2709,9 @@
         <v>0</v>
       </c>
       <c r="R38" t="inlineStr"/>
+      <c r="S38" t="n">
+        <v>3.105611003221624</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -2624,7 +2740,7 @@
         <v>152.06</v>
       </c>
       <c r="H39" t="n">
-        <v>144.14</v>
+        <v>62.3</v>
       </c>
       <c r="I39" t="n">
         <v>101.67</v>
@@ -2652,6 +2768,9 @@
         <v>0.002032</v>
       </c>
       <c r="R39" t="inlineStr"/>
+      <c r="S39" t="n">
+        <v>4.105771836879792</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -2680,7 +2799,7 @@
         <v>151.7</v>
       </c>
       <c r="H40" t="n">
-        <v>139.1</v>
+        <v>59.5</v>
       </c>
       <c r="I40" t="n">
         <v>101.92</v>
@@ -2708,6 +2827,9 @@
         <v>0.000508</v>
       </c>
       <c r="R40" t="inlineStr"/>
+      <c r="S40" t="n">
+        <v>3.641083442947114</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -2736,7 +2858,7 @@
         <v>156.56</v>
       </c>
       <c r="H41" t="n">
-        <v>141.98</v>
+        <v>61.1</v>
       </c>
       <c r="I41" t="n">
         <v>101.74</v>
@@ -2764,6 +2886,9 @@
         <v>0</v>
       </c>
       <c r="R41" t="inlineStr"/>
+      <c r="S41" t="n">
+        <v>3.437042375850426</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -2792,7 +2917,7 @@
         <v>160.88</v>
       </c>
       <c r="H42" t="n">
-        <v>145.22</v>
+        <v>62.9</v>
       </c>
       <c r="I42" t="n">
         <v>101.68</v>
@@ -2820,6 +2945,9 @@
         <v>0</v>
       </c>
       <c r="R42" t="inlineStr"/>
+      <c r="S42" t="n">
+        <v>3.329088320341025</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -2848,7 +2976,7 @@
         <v>161.6</v>
       </c>
       <c r="H43" t="n">
-        <v>149.72</v>
+        <v>65.40000000000001</v>
       </c>
       <c r="I43" t="n">
         <v>101.47</v>
@@ -2876,6 +3004,9 @@
         <v>0</v>
       </c>
       <c r="R43" t="inlineStr"/>
+      <c r="S43" t="n">
+        <v>3.659905274040875</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -2904,7 +3035,7 @@
         <v>166.64</v>
       </c>
       <c r="H44" t="n">
-        <v>150.08</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="I44" t="n">
         <v>101.39</v>
@@ -2932,6 +3063,9 @@
         <v>0</v>
       </c>
       <c r="R44" t="inlineStr"/>
+      <c r="S44" t="n">
+        <v>3.241160525598921</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -2960,7 +3094,7 @@
         <v>166.1</v>
       </c>
       <c r="H45" t="n">
-        <v>147.02</v>
+        <v>63.9</v>
       </c>
       <c r="I45" t="n">
         <v>101.26</v>
@@ -2988,6 +3122,9 @@
         <v>0</v>
       </c>
       <c r="R45" t="inlineStr"/>
+      <c r="S45" t="n">
+        <v>3.042809547544342</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -3016,7 +3153,7 @@
         <v>150.44</v>
       </c>
       <c r="H46" t="n">
-        <v>134.78</v>
+        <v>57.1</v>
       </c>
       <c r="I46" t="n">
         <v>101.68</v>
@@ -3044,6 +3181,9 @@
         <v>0</v>
       </c>
       <c r="R46" t="inlineStr"/>
+      <c r="S46" t="n">
+        <v>3.366014066807167</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -3072,7 +3212,7 @@
         <v>155.48</v>
       </c>
       <c r="H47" t="n">
-        <v>129.56</v>
+        <v>54.2</v>
       </c>
       <c r="I47" t="n">
         <v>101.64</v>
@@ -3100,6 +3240,9 @@
         <v>0</v>
       </c>
       <c r="R47" t="inlineStr"/>
+      <c r="S47" t="n">
+        <v>2.550593750965013</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -3128,7 +3271,7 @@
         <v>156.38</v>
       </c>
       <c r="H48" t="n">
-        <v>136.4</v>
+        <v>58</v>
       </c>
       <c r="I48" t="n">
         <v>101.47</v>
@@ -3156,6 +3299,9 @@
         <v>0</v>
       </c>
       <c r="R48" t="inlineStr"/>
+      <c r="S48" t="n">
+        <v>2.986835955445711</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -3184,7 +3330,7 @@
         <v>159.98</v>
       </c>
       <c r="H49" t="n">
-        <v>144.14</v>
+        <v>62.3</v>
       </c>
       <c r="I49" t="n">
         <v>101.37</v>
@@ -3212,6 +3358,9 @@
         <v>0</v>
       </c>
       <c r="R49" t="inlineStr"/>
+      <c r="S49" t="n">
+        <v>3.316399706410362</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -3240,7 +3389,7 @@
         <v>161.06</v>
       </c>
       <c r="H50" t="n">
-        <v>144.86</v>
+        <v>62.7</v>
       </c>
       <c r="I50" t="n">
         <v>101.34</v>
@@ -3268,6 +3417,9 @@
         <v>0</v>
       </c>
       <c r="R50" t="inlineStr"/>
+      <c r="S50" t="n">
+        <v>3.283113638169267</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -3296,7 +3448,7 @@
         <v>153.5</v>
       </c>
       <c r="H51" t="n">
-        <v>143.24</v>
+        <v>61.8</v>
       </c>
       <c r="I51" t="n">
         <v>101.63</v>
@@ -3324,6 +3476,9 @@
         <v>0</v>
       </c>
       <c r="R51" t="inlineStr"/>
+      <c r="S51" t="n">
+        <v>3.85702538062815</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -3352,7 +3507,7 @@
         <v>137.66</v>
       </c>
       <c r="H52" t="n">
-        <v>124.52</v>
+        <v>51.4</v>
       </c>
       <c r="I52" t="n">
         <v>102.19</v>
@@ -3380,6 +3535,9 @@
         <v>0</v>
       </c>
       <c r="R52" t="inlineStr"/>
+      <c r="S52" t="n">
+        <v>3.68134465002771</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -3408,7 +3566,7 @@
         <v>141.08</v>
       </c>
       <c r="H53" t="n">
-        <v>125.42</v>
+        <v>51.9</v>
       </c>
       <c r="I53" t="n">
         <v>102.21</v>
@@ -3436,6 +3594,9 @@
         <v>0</v>
       </c>
       <c r="R53" t="inlineStr"/>
+      <c r="S53" t="n">
+        <v>3.412990883313276</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -3464,7 +3625,7 @@
         <v>151.52</v>
       </c>
       <c r="H54" t="n">
-        <v>139.64</v>
+        <v>59.8</v>
       </c>
       <c r="I54" t="n">
         <v>102.03</v>
@@ -3492,6 +3653,9 @@
         <v>0</v>
       </c>
       <c r="R54" t="inlineStr"/>
+      <c r="S54" t="n">
+        <v>3.710950208059796</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -3520,7 +3684,7 @@
         <v>144.32</v>
       </c>
       <c r="H55" t="n">
-        <v>135.68</v>
+        <v>57.6</v>
       </c>
       <c r="I55" t="n">
         <v>102.13</v>
@@ -3548,6 +3712,9 @@
         <v>0.004064</v>
       </c>
       <c r="R55" t="inlineStr"/>
+      <c r="S55" t="n">
+        <v>4.095357818776614</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -3576,7 +3743,7 @@
         <v>147.92</v>
       </c>
       <c r="H56" t="n">
-        <v>129.74</v>
+        <v>54.3</v>
       </c>
       <c r="I56" t="n">
         <v>102.39</v>
@@ -3604,6 +3771,9 @@
         <v>0</v>
       </c>
       <c r="R56" t="inlineStr"/>
+      <c r="S56" t="n">
+        <v>3.15650972909985</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -3632,7 +3802,7 @@
         <v>154.4</v>
       </c>
       <c r="H57" t="n">
-        <v>135.68</v>
+        <v>57.6</v>
       </c>
       <c r="I57" t="n">
         <v>102.2</v>
@@ -3660,6 +3830,9 @@
         <v>0</v>
       </c>
       <c r="R57" t="inlineStr"/>
+      <c r="S57" t="n">
+        <v>3.09193995479836</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -3688,7 +3861,7 @@
         <v>156.74</v>
       </c>
       <c r="H58" t="n">
-        <v>143.6</v>
+        <v>62</v>
       </c>
       <c r="I58" t="n">
         <v>101.96</v>
@@ -3716,6 +3889,9 @@
         <v>0</v>
       </c>
       <c r="R58" t="inlineStr"/>
+      <c r="S58" t="n">
+        <v>3.565799295430798</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -3744,7 +3920,7 @@
         <v>156.2</v>
       </c>
       <c r="H59" t="n">
-        <v>139.64</v>
+        <v>59.8</v>
       </c>
       <c r="I59" t="n">
         <v>101.96</v>
@@ -3772,6 +3948,9 @@
         <v>0</v>
       </c>
       <c r="R59" t="inlineStr"/>
+      <c r="S59" t="n">
+        <v>3.266611901601087</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -3800,7 +3979,7 @@
         <v>162.68</v>
       </c>
       <c r="H60" t="n">
-        <v>141.62</v>
+        <v>60.9</v>
       </c>
       <c r="I60" t="n">
         <v>101.81</v>
@@ -3828,6 +4007,9 @@
         <v>0</v>
       </c>
       <c r="R60" t="inlineStr"/>
+      <c r="S60" t="n">
+        <v>2.895861240691198</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -3856,7 +4038,7 @@
         <v>163.94</v>
       </c>
       <c r="H61" t="n">
-        <v>150.98</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="I61" t="n">
         <v>101.64</v>
@@ -3884,6 +4066,9 @@
         <v>0</v>
       </c>
       <c r="R61" t="inlineStr"/>
+      <c r="S61" t="n">
+        <v>3.553492516338381</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -3912,7 +4097,7 @@
         <v>161.96</v>
       </c>
       <c r="H62" t="n">
-        <v>150.98</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="I62" t="n">
         <v>101.71</v>
@@ -3940,6 +4125,9 @@
         <v>0</v>
       </c>
       <c r="R62" t="inlineStr"/>
+      <c r="S62" t="n">
+        <v>3.741550002855069</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -3968,7 +4156,7 @@
         <v>163.76</v>
       </c>
       <c r="H63" t="n">
-        <v>149.9</v>
+        <v>65.5</v>
       </c>
       <c r="I63" t="n">
         <v>101.61</v>
@@ -3996,6 +4184,9 @@
         <v>0</v>
       </c>
       <c r="R63" t="inlineStr"/>
+      <c r="S63" t="n">
+        <v>3.475064347364256</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -4024,7 +4215,7 @@
         <v>167.54</v>
       </c>
       <c r="H64" t="n">
-        <v>153.32</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="I64" t="n">
         <v>101.27</v>
@@ -4052,6 +4243,9 @@
         <v>0</v>
       </c>
       <c r="R64" t="inlineStr"/>
+      <c r="S64" t="n">
+        <v>3.433405871293529</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -4080,7 +4274,7 @@
         <v>165.2</v>
       </c>
       <c r="H65" t="n">
-        <v>151.16</v>
+        <v>66.2</v>
       </c>
       <c r="I65" t="n">
         <v>101.41</v>
@@ -4108,6 +4302,9 @@
         <v>0</v>
       </c>
       <c r="R65" t="inlineStr"/>
+      <c r="S65" t="n">
+        <v>3.455135962507404</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -4136,7 +4333,7 @@
         <v>162.14</v>
       </c>
       <c r="H66" t="n">
-        <v>141.62</v>
+        <v>60.9</v>
       </c>
       <c r="I66" t="n">
         <v>101.5</v>
@@ -4164,6 +4361,9 @@
         <v>0</v>
       </c>
       <c r="R66" t="inlineStr"/>
+      <c r="S66" t="n">
+        <v>2.936986954296729</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -4192,7 +4392,7 @@
         <v>156.38</v>
       </c>
       <c r="H67" t="n">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="I67" t="n">
         <v>101.31</v>
@@ -4220,6 +4420,9 @@
         <v>0</v>
       </c>
       <c r="R67" t="inlineStr"/>
+      <c r="S67" t="n">
+        <v>3.281353886965111</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -4248,7 +4451,7 @@
         <v>152.96</v>
       </c>
       <c r="H68" t="n">
-        <v>122.9</v>
+        <v>50.5</v>
       </c>
       <c r="I68" t="n">
         <v>101.73</v>
@@ -4276,6 +4479,9 @@
         <v>0</v>
       </c>
       <c r="R68" t="inlineStr"/>
+      <c r="S68" t="n">
+        <v>2.277280061133493</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -4304,7 +4510,7 @@
         <v>159.8</v>
       </c>
       <c r="H69" t="n">
-        <v>129.56</v>
+        <v>54.2</v>
       </c>
       <c r="I69" t="n">
         <v>101.78</v>
@@ -4332,6 +4538,9 @@
         <v>0</v>
       </c>
       <c r="R69" t="inlineStr"/>
+      <c r="S69" t="n">
+        <v>2.27234143316188</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -4360,7 +4569,7 @@
         <v>160.52</v>
       </c>
       <c r="H70" t="n">
-        <v>131.54</v>
+        <v>55.3</v>
       </c>
       <c r="I70" t="n">
         <v>101.61</v>
@@ -4388,6 +4597,9 @@
         <v>0</v>
       </c>
       <c r="R70" t="inlineStr"/>
+      <c r="S70" t="n">
+        <v>2.351387005150057</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -4416,7 +4628,7 @@
         <v>163.22</v>
       </c>
       <c r="H71" t="n">
-        <v>144.86</v>
+        <v>62.7</v>
       </c>
       <c r="I71" t="n">
         <v>101.45</v>
@@ -4444,6 +4656,9 @@
         <v>0</v>
       </c>
       <c r="R71" t="inlineStr"/>
+      <c r="S71" t="n">
+        <v>3.102816219739768</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -4472,7 +4687,7 @@
         <v>164.3</v>
       </c>
       <c r="H72" t="n">
-        <v>144.14</v>
+        <v>62.3</v>
       </c>
       <c r="I72" t="n">
         <v>101.47</v>
@@ -4500,6 +4715,9 @@
         <v>0</v>
       </c>
       <c r="R72" t="inlineStr"/>
+      <c r="S72" t="n">
+        <v>2.962143543696367</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -4528,7 +4746,7 @@
         <v>164.12</v>
       </c>
       <c r="H73" t="n">
-        <v>150.98</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="I73" t="n">
         <v>101.33</v>
@@ -4556,6 +4774,9 @@
         <v>0</v>
       </c>
       <c r="R73" t="inlineStr"/>
+      <c r="S73" t="n">
+        <v>3.536960262733997</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -4584,7 +4805,7 @@
         <v>163.04</v>
       </c>
       <c r="H74" t="n">
-        <v>153.14</v>
+        <v>67.3</v>
       </c>
       <c r="I74" t="n">
         <v>101.22</v>
@@ -4612,6 +4833,9 @@
         <v>0.003048</v>
       </c>
       <c r="R74" t="inlineStr"/>
+      <c r="S74" t="n">
+        <v>3.838060523596075</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -4640,7 +4864,7 @@
         <v>167.18</v>
       </c>
       <c r="H75" t="n">
-        <v>153.14</v>
+        <v>67.3</v>
       </c>
       <c r="I75" t="n">
         <v>101.16</v>
@@ -4668,6 +4892,9 @@
         <v>0</v>
       </c>
       <c r="R75" t="inlineStr"/>
+      <c r="S75" t="n">
+        <v>3.449660649739648</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -4696,7 +4923,7 @@
         <v>168.44</v>
       </c>
       <c r="H76" t="n">
-        <v>152.96</v>
+        <v>67.2</v>
       </c>
       <c r="I76" t="n">
         <v>101.25</v>
@@ -4724,6 +4951,9 @@
         <v>0</v>
       </c>
       <c r="R76" t="inlineStr"/>
+      <c r="S76" t="n">
+        <v>3.32601397156898</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -4752,7 +4982,7 @@
         <v>169.52</v>
       </c>
       <c r="H77" t="n">
-        <v>158.9</v>
+        <v>70.5</v>
       </c>
       <c r="I77" t="n">
         <v>100.74</v>
@@ -4780,6 +5010,9 @@
         <v>0</v>
       </c>
       <c r="R77" t="inlineStr"/>
+      <c r="S77" t="n">
+        <v>3.743426083030471</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -4808,7 +5041,7 @@
         <v>164.84</v>
       </c>
       <c r="H78" t="n">
-        <v>153.86</v>
+        <v>67.7</v>
       </c>
       <c r="I78" t="n">
         <v>100.8</v>
@@ -4836,6 +5069,9 @@
         <v>0</v>
       </c>
       <c r="R78" t="inlineStr"/>
+      <c r="S78" t="n">
+        <v>3.728879824763062</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -4864,7 +5100,7 @@
         <v>163.04</v>
       </c>
       <c r="H79" t="n">
-        <v>153.32</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="I79" t="n">
         <v>101.18</v>
@@ -4892,6 +5128,9 @@
         <v>0</v>
       </c>
       <c r="R79" t="inlineStr"/>
+      <c r="S79" t="n">
+        <v>3.855188768942974</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -4920,7 +5159,7 @@
         <v>161.96</v>
       </c>
       <c r="H80" t="n">
-        <v>158.36</v>
+        <v>70.2</v>
       </c>
       <c r="I80" t="n">
         <v>101.46</v>
@@ -4948,6 +5187,9 @@
         <v>0.004064</v>
       </c>
       <c r="R80" t="inlineStr"/>
+      <c r="S80" t="n">
+        <v>4.486786704366576</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -4976,7 +5218,7 @@
         <v>170.78</v>
       </c>
       <c r="H81" t="n">
-        <v>163.58</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="I81" t="n">
         <v>101.31</v>
@@ -5004,6 +5246,9 @@
         <v>0</v>
       </c>
       <c r="R81" t="inlineStr"/>
+      <c r="S81" t="n">
+        <v>4.058636906673804</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -5032,7 +5277,7 @@
         <v>166.1</v>
       </c>
       <c r="H82" t="n">
-        <v>155.12</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="I82" t="n">
         <v>101.21</v>
@@ -5060,6 +5305,9 @@
         <v>0</v>
       </c>
       <c r="R82" t="inlineStr"/>
+      <c r="S82" t="n">
+        <v>3.723724123338511</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -5088,7 +5336,7 @@
         <v>154.4</v>
       </c>
       <c r="H83" t="n">
-        <v>148.64</v>
+        <v>64.8</v>
       </c>
       <c r="I83" t="n">
         <v>101.45</v>
@@ -5116,6 +5364,9 @@
         <v>0</v>
       </c>
       <c r="R83" t="inlineStr"/>
+      <c r="S83" t="n">
+        <v>4.316823629305362</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -5144,7 +5395,7 @@
         <v>159.08</v>
       </c>
       <c r="H84" t="n">
-        <v>146.12</v>
+        <v>63.4</v>
       </c>
       <c r="I84" t="n">
         <v>101.6</v>
@@ -5172,6 +5423,9 @@
         <v>0</v>
       </c>
       <c r="R84" t="inlineStr"/>
+      <c r="S84" t="n">
+        <v>3.572087646287596</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -5200,7 +5454,7 @@
         <v>171.32</v>
       </c>
       <c r="H85" t="n">
-        <v>159.08</v>
+        <v>70.59999999999999</v>
       </c>
       <c r="I85" t="n">
         <v>101.16</v>
@@ -5228,6 +5482,9 @@
         <v>0</v>
       </c>
       <c r="R85" t="inlineStr"/>
+      <c r="S85" t="n">
+        <v>3.593618889889542</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -5256,7 +5513,7 @@
         <v>175.82</v>
       </c>
       <c r="H86" t="n">
-        <v>162.5</v>
+        <v>72.5</v>
       </c>
       <c r="I86" t="n">
         <v>101.01</v>
@@ -5284,6 +5541,9 @@
         <v>0</v>
       </c>
       <c r="R86" t="inlineStr"/>
+      <c r="S86" t="n">
+        <v>3.491079184909535</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -5312,7 +5572,7 @@
         <v>161.24</v>
       </c>
       <c r="H87" t="n">
-        <v>150.8</v>
+        <v>66</v>
       </c>
       <c r="I87" t="n">
         <v>101.47</v>
@@ -5340,6 +5600,9 @@
         <v>0</v>
       </c>
       <c r="R87" t="inlineStr"/>
+      <c r="S87" t="n">
+        <v>3.795769485433107</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -5368,7 +5631,7 @@
         <v>162.32</v>
       </c>
       <c r="H88" t="n">
-        <v>145.4</v>
+        <v>63</v>
       </c>
       <c r="I88" t="n">
         <v>101.74</v>
@@ -5396,6 +5659,9 @@
         <v>0</v>
       </c>
       <c r="R88" t="inlineStr"/>
+      <c r="S88" t="n">
+        <v>3.220462694077633</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -5424,7 +5690,7 @@
         <v>167.72</v>
       </c>
       <c r="H89" t="n">
-        <v>150.44</v>
+        <v>65.8</v>
       </c>
       <c r="I89" t="n">
         <v>101.7</v>
@@ -5452,6 +5718,9 @@
         <v>0</v>
       </c>
       <c r="R89" t="inlineStr"/>
+      <c r="S89" t="n">
+        <v>3.181587797841323</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -5480,7 +5749,7 @@
         <v>171.14</v>
       </c>
       <c r="H90" t="n">
-        <v>156.74</v>
+        <v>69.3</v>
       </c>
       <c r="I90" t="n">
         <v>101.64</v>
@@ -5508,6 +5777,9 @@
         <v>0</v>
       </c>
       <c r="R90" t="inlineStr"/>
+      <c r="S90" t="n">
+        <v>3.410067518439095</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -5536,7 +5808,7 @@
         <v>170.06</v>
       </c>
       <c r="H91" t="n">
-        <v>156.74</v>
+        <v>69.3</v>
       </c>
       <c r="I91" t="n">
         <v>101.66</v>
@@ -5564,6 +5836,9 @@
         <v>0</v>
       </c>
       <c r="R91" t="inlineStr"/>
+      <c r="S91" t="n">
+        <v>3.503739614222443</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -5592,7 +5867,7 @@
         <v>158</v>
       </c>
       <c r="H92" t="n">
-        <v>138.2</v>
+        <v>59</v>
       </c>
       <c r="I92" t="n">
         <v>102.03</v>
@@ -5620,6 +5895,9 @@
         <v>0</v>
       </c>
       <c r="R92" t="inlineStr"/>
+      <c r="S92" t="n">
+        <v>2.998092503101741</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -5648,7 +5926,7 @@
         <v>155.48</v>
       </c>
       <c r="H93" t="n">
-        <v>135.32</v>
+        <v>57.4</v>
       </c>
       <c r="I93" t="n">
         <v>101.97</v>
@@ -5676,6 +5954,9 @@
         <v>0</v>
       </c>
       <c r="R93" t="inlineStr"/>
+      <c r="S93" t="n">
+        <v>2.97436308880559</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -5704,7 +5985,7 @@
         <v>152.42</v>
       </c>
       <c r="H94" t="n">
-        <v>135.32</v>
+        <v>57.4</v>
       </c>
       <c r="I94" t="n">
         <v>102.12</v>
@@ -5732,6 +6013,9 @@
         <v>0</v>
       </c>
       <c r="R94" t="inlineStr"/>
+      <c r="S94" t="n">
+        <v>3.232896681680153</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -5760,7 +6044,7 @@
         <v>161.24</v>
       </c>
       <c r="H95" t="n">
-        <v>142.16</v>
+        <v>61.2</v>
       </c>
       <c r="I95" t="n">
         <v>102.17</v>
@@ -5788,6 +6072,9 @@
         <v>0</v>
       </c>
       <c r="R95" t="inlineStr"/>
+      <c r="S95" t="n">
+        <v>3.04922478741289</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -5816,7 +6103,7 @@
         <v>158</v>
       </c>
       <c r="H96" t="n">
-        <v>145.76</v>
+        <v>63.2</v>
       </c>
       <c r="I96" t="n">
         <v>101.92</v>
@@ -5844,6 +6131,9 @@
         <v>0</v>
       </c>
       <c r="R96" t="inlineStr"/>
+      <c r="S96" t="n">
+        <v>3.64281535639522</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -5872,7 +6162,7 @@
         <v>161.96</v>
       </c>
       <c r="H97" t="n">
-        <v>146.84</v>
+        <v>63.8</v>
       </c>
       <c r="I97" t="n">
         <v>101.66</v>
@@ -5900,6 +6190,9 @@
         <v>0</v>
       </c>
       <c r="R97" t="inlineStr"/>
+      <c r="S97" t="n">
+        <v>3.371925813162486</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -5928,7 +6221,7 @@
         <v>162.86</v>
       </c>
       <c r="H98" t="n">
-        <v>143.24</v>
+        <v>61.8</v>
       </c>
       <c r="I98" t="n">
         <v>101.62</v>
@@ -5956,6 +6249,9 @@
         <v>0</v>
       </c>
       <c r="R98" t="inlineStr"/>
+      <c r="S98" t="n">
+        <v>3.004943341968593</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -5984,7 +6280,7 @@
         <v>160.88</v>
       </c>
       <c r="H99" t="n">
-        <v>138.92</v>
+        <v>59.4</v>
       </c>
       <c r="I99" t="n">
         <v>101.56</v>
@@ -6012,6 +6308,9 @@
         <v>0</v>
       </c>
       <c r="R99" t="inlineStr"/>
+      <c r="S99" t="n">
+        <v>2.830453579850404</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -6040,7 +6339,7 @@
         <v>167</v>
       </c>
       <c r="H100" t="n">
-        <v>148.46</v>
+        <v>64.7</v>
       </c>
       <c r="I100" t="n">
         <v>101.34</v>
@@ -6068,6 +6367,9 @@
         <v>0</v>
       </c>
       <c r="R100" t="inlineStr"/>
+      <c r="S100" t="n">
+        <v>3.083553527393907</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -6096,7 +6398,7 @@
         <v>169.7</v>
       </c>
       <c r="H101" t="n">
-        <v>158.9</v>
+        <v>70.5</v>
       </c>
       <c r="I101" t="n">
         <v>101.26</v>
@@ -6124,6 +6426,9 @@
         <v>0</v>
       </c>
       <c r="R101" t="inlineStr"/>
+      <c r="S101" t="n">
+        <v>3.726476429781118</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -6152,7 +6457,7 @@
         <v>172.04</v>
       </c>
       <c r="H102" t="n">
-        <v>161.6</v>
+        <v>72</v>
       </c>
       <c r="I102" t="n">
         <v>101.06</v>
@@ -6180,6 +6485,9 @@
         <v>0</v>
       </c>
       <c r="R102" t="inlineStr"/>
+      <c r="S102" t="n">
+        <v>3.75081352467129</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -6208,7 +6516,7 @@
         <v>171.86</v>
       </c>
       <c r="H103" t="n">
-        <v>161.96</v>
+        <v>72.2</v>
       </c>
       <c r="I103" t="n">
         <v>100.87</v>
@@ -6236,6 +6544,9 @@
         <v>0.000508</v>
       </c>
       <c r="R103" t="inlineStr"/>
+      <c r="S103" t="n">
+        <v>3.800373929588027</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -6264,7 +6575,7 @@
         <v>170.6</v>
       </c>
       <c r="H104" t="n">
-        <v>157.64</v>
+        <v>69.8</v>
       </c>
       <c r="I104" t="n">
         <v>100.66</v>
@@ -6292,6 +6603,9 @@
         <v>0</v>
       </c>
       <c r="R104" t="inlineStr"/>
+      <c r="S104" t="n">
+        <v>3.533242565362607</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -6320,7 +6634,7 @@
         <v>171.32</v>
       </c>
       <c r="H105" t="n">
-        <v>156.2</v>
+        <v>69</v>
       </c>
       <c r="I105" t="n">
         <v>100.81</v>
@@ -6348,6 +6662,9 @@
         <v>0</v>
       </c>
       <c r="R105" t="inlineStr"/>
+      <c r="S105" t="n">
+        <v>3.350214252857743</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -6376,7 +6693,7 @@
         <v>163.22</v>
       </c>
       <c r="H106" t="n">
-        <v>147.74</v>
+        <v>64.3</v>
       </c>
       <c r="I106" t="n">
         <v>101.19</v>
@@ -6404,6 +6721,9 @@
         <v>0</v>
       </c>
       <c r="R106" t="inlineStr"/>
+      <c r="S106" t="n">
+        <v>3.3379394230821</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -6432,7 +6752,7 @@
         <v>161.6</v>
       </c>
       <c r="H107" t="n">
-        <v>141.44</v>
+        <v>60.8</v>
       </c>
       <c r="I107" t="n">
         <v>101.39</v>
@@ -6460,6 +6780,9 @@
         <v>0</v>
       </c>
       <c r="R107" t="inlineStr"/>
+      <c r="S107" t="n">
+        <v>2.965004121220153</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -6488,7 +6811,7 @@
         <v>161.06</v>
       </c>
       <c r="H108" t="n">
-        <v>141.62</v>
+        <v>60.9</v>
       </c>
       <c r="I108" t="n">
         <v>101.55</v>
@@ -6516,6 +6839,9 @@
         <v>0</v>
       </c>
       <c r="R108" t="inlineStr"/>
+      <c r="S108" t="n">
+        <v>3.021340020845036</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -6544,7 +6870,7 @@
         <v>166.28</v>
       </c>
       <c r="H109" t="n">
-        <v>151.34</v>
+        <v>66.3</v>
       </c>
       <c r="I109" t="n">
         <v>101.55</v>
@@ -6572,6 +6898,9 @@
         <v>0</v>
       </c>
       <c r="R109" t="inlineStr"/>
+      <c r="S109" t="n">
+        <v>3.375691100902448</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -6600,7 +6929,7 @@
         <v>159.62</v>
       </c>
       <c r="H110" t="n">
-        <v>148.64</v>
+        <v>64.8</v>
       </c>
       <c r="I110" t="n">
         <v>101.68</v>
@@ -6628,6 +6957,9 @@
         <v>0</v>
       </c>
       <c r="R110" t="inlineStr"/>
+      <c r="S110" t="n">
+        <v>3.75278184789368</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -6656,7 +6988,7 @@
         <v>160.88</v>
       </c>
       <c r="H111" t="n">
-        <v>149</v>
+        <v>65</v>
       </c>
       <c r="I111" t="n">
         <v>101.38</v>
@@ -6684,6 +7016,9 @@
         <v>0</v>
       </c>
       <c r="R111" t="inlineStr"/>
+      <c r="S111" t="n">
+        <v>3.663020721724323</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -6712,7 +7047,7 @@
         <v>169.88</v>
       </c>
       <c r="H112" t="n">
-        <v>156.56</v>
+        <v>69.2</v>
       </c>
       <c r="I112" t="n">
         <v>101.33</v>
@@ -6740,6 +7075,9 @@
         <v>0</v>
       </c>
       <c r="R112" t="inlineStr"/>
+      <c r="S112" t="n">
+        <v>3.50419989612645</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -6768,7 +7106,7 @@
         <v>177.08</v>
       </c>
       <c r="H113" t="n">
-        <v>165.74</v>
+        <v>74.3</v>
       </c>
       <c r="I113" t="n">
         <v>101.26</v>
@@ -6796,6 +7134,9 @@
         <v>0</v>
       </c>
       <c r="R113" t="inlineStr"/>
+      <c r="S113" t="n">
+        <v>3.656806948490864</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -6824,7 +7165,7 @@
         <v>177.98</v>
       </c>
       <c r="H114" t="n">
-        <v>166.1</v>
+        <v>74.5</v>
       </c>
       <c r="I114" t="n">
         <v>100.94</v>
@@ -6852,6 +7193,9 @@
         <v>0</v>
       </c>
       <c r="R114" t="inlineStr"/>
+      <c r="S114" t="n">
+        <v>3.608385078846548</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -6880,7 +7224,7 @@
         <v>178.52</v>
       </c>
       <c r="H115" t="n">
-        <v>164.48</v>
+        <v>73.59999999999999</v>
       </c>
       <c r="I115" t="n">
         <v>101.01</v>
@@ -6908,6 +7252,9 @@
         <v>0</v>
       </c>
       <c r="R115" t="inlineStr"/>
+      <c r="S115" t="n">
+        <v>3.427379464898722</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -6936,7 +7283,7 @@
         <v>182.84</v>
       </c>
       <c r="H116" t="n">
-        <v>171.5</v>
+        <v>77.5</v>
       </c>
       <c r="I116" t="n">
         <v>100.83</v>
@@ -6964,6 +7311,9 @@
         <v>0</v>
       </c>
       <c r="R116" t="inlineStr"/>
+      <c r="S116" t="n">
+        <v>3.644949922088256</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -6992,7 +7342,7 @@
         <v>177.8</v>
       </c>
       <c r="H117" t="n">
-        <v>169.88</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="I117" t="n">
         <v>101.08</v>
@@ -7020,6 +7370,9 @@
         <v>0</v>
       </c>
       <c r="R117" t="inlineStr"/>
+      <c r="S117" t="n">
+        <v>3.960565886732109</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -7048,7 +7401,7 @@
         <v>179.24</v>
       </c>
       <c r="H118" t="n">
-        <v>166.82</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="I118" t="n">
         <v>101.13</v>
@@ -7076,6 +7429,9 @@
         <v>0</v>
       </c>
       <c r="R118" t="inlineStr"/>
+      <c r="S118" t="n">
+        <v>3.560252485851607</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -7104,7 +7460,7 @@
         <v>174.56</v>
       </c>
       <c r="H119" t="n">
-        <v>165.92</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="I119" t="n">
         <v>101.18</v>
@@ -7132,6 +7488,9 @@
         <v>0</v>
       </c>
       <c r="R119" t="inlineStr"/>
+      <c r="S119" t="n">
+        <v>3.906006975156317</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -7160,7 +7519,7 @@
         <v>158.72</v>
       </c>
       <c r="H120" t="n">
-        <v>149.54</v>
+        <v>65.3</v>
       </c>
       <c r="I120" t="n">
         <v>101.48</v>
@@ -7188,6 +7547,9 @@
         <v>0.000254</v>
       </c>
       <c r="R120" t="inlineStr"/>
+      <c r="S120" t="n">
+        <v>3.931327313268711</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -7216,7 +7578,7 @@
         <v>168.44</v>
       </c>
       <c r="H121" t="n">
-        <v>156.92</v>
+        <v>69.40000000000001</v>
       </c>
       <c r="I121" t="n">
         <v>101.27</v>
@@ -7244,6 +7606,9 @@
         <v>0.000508</v>
       </c>
       <c r="R121" t="inlineStr"/>
+      <c r="S121" t="n">
+        <v>3.666147890273556</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -7272,7 +7637,7 @@
         <v>175.28</v>
       </c>
       <c r="H122" t="n">
-        <v>161.96</v>
+        <v>72.2</v>
       </c>
       <c r="I122" t="n">
         <v>101.03</v>
@@ -7300,6 +7665,9 @@
         <v>0</v>
       </c>
       <c r="R122" t="inlineStr"/>
+      <c r="S122" t="n">
+        <v>3.492099854425068</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -7328,7 +7696,7 @@
         <v>175.64</v>
       </c>
       <c r="H123" t="n">
-        <v>163.76</v>
+        <v>73.2</v>
       </c>
       <c r="I123" t="n">
         <v>101.15</v>
@@ -7356,6 +7724,9 @@
         <v>0</v>
       </c>
       <c r="R123" t="inlineStr"/>
+      <c r="S123" t="n">
+        <v>3.613629933494747</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -7384,7 +7755,7 @@
         <v>172.4</v>
       </c>
       <c r="H124" t="n">
-        <v>161.42</v>
+        <v>71.90000000000001</v>
       </c>
       <c r="I124" t="n">
         <v>101.28</v>
@@ -7412,6 +7783,9 @@
         <v>0</v>
       </c>
       <c r="R124" t="inlineStr"/>
+      <c r="S124" t="n">
+        <v>3.70130781888189</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -7440,7 +7814,7 @@
         <v>175.1</v>
       </c>
       <c r="H125" t="n">
-        <v>161.24</v>
+        <v>71.8</v>
       </c>
       <c r="I125" t="n">
         <v>101.27</v>
@@ -7468,6 +7842,9 @@
         <v>0</v>
       </c>
       <c r="R125" t="inlineStr"/>
+      <c r="S125" t="n">
+        <v>3.447437239033758</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -7496,7 +7873,7 @@
         <v>174.56</v>
       </c>
       <c r="H126" t="n">
-        <v>160.52</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="I126" t="n">
         <v>101.23</v>
@@ -7524,6 +7901,9 @@
         <v>0</v>
       </c>
       <c r="R126" t="inlineStr"/>
+      <c r="S126" t="n">
+        <v>3.433478413230012</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -7552,7 +7932,7 @@
         <v>179.24</v>
       </c>
       <c r="H127" t="n">
-        <v>165.38</v>
+        <v>74.09999999999999</v>
       </c>
       <c r="I127" t="n">
         <v>100.97</v>
@@ -7580,6 +7960,9 @@
         <v>0</v>
       </c>
       <c r="R127" t="inlineStr"/>
+      <c r="S127" t="n">
+        <v>3.44110570280123</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -7608,7 +7991,7 @@
         <v>172.4</v>
       </c>
       <c r="H128" t="n">
-        <v>164.84</v>
+        <v>73.8</v>
       </c>
       <c r="I128" t="n">
         <v>100.89</v>
@@ -7636,6 +8019,9 @@
         <v>0.004064</v>
       </c>
       <c r="R128" t="inlineStr"/>
+      <c r="S128" t="n">
+        <v>4.016352092251952</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -7664,7 +8050,7 @@
         <v>177.08</v>
       </c>
       <c r="H129" t="n">
-        <v>162.68</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="I129" t="n">
         <v>100.81</v>
@@ -7692,6 +8078,9 @@
         <v>0</v>
       </c>
       <c r="R129" t="inlineStr"/>
+      <c r="S129" t="n">
+        <v>3.400008156475408</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
@@ -7720,7 +8109,7 @@
         <v>178.34</v>
       </c>
       <c r="H130" t="n">
-        <v>163.58</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="I130" t="n">
         <v>100.66</v>
@@ -7748,6 +8137,9 @@
         <v>0</v>
       </c>
       <c r="R130" t="inlineStr"/>
+      <c r="S130" t="n">
+        <v>3.369342157089262</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
@@ -7776,7 +8168,7 @@
         <v>168.26</v>
       </c>
       <c r="H131" t="n">
-        <v>161.96</v>
+        <v>72.2</v>
       </c>
       <c r="I131" t="n">
         <v>101.03</v>
@@ -7804,6 +8196,9 @@
         <v>0.000508</v>
       </c>
       <c r="R131" t="inlineStr"/>
+      <c r="S131" t="n">
+        <v>4.160629143195506</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -7832,7 +8227,7 @@
         <v>161.78</v>
       </c>
       <c r="H132" t="n">
-        <v>156.74</v>
+        <v>69.3</v>
       </c>
       <c r="I132" t="n">
         <v>101.09</v>
@@ -7860,6 +8255,9 @@
         <v>0.000508</v>
       </c>
       <c r="R132" t="inlineStr"/>
+      <c r="S132" t="n">
+        <v>4.333546518631576</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
@@ -7888,7 +8286,7 @@
         <v>159.44</v>
       </c>
       <c r="H133" t="n">
-        <v>149.72</v>
+        <v>65.40000000000001</v>
       </c>
       <c r="I133" t="n">
         <v>101.11</v>
@@ -7916,6 +8314,9 @@
         <v>0.003048</v>
       </c>
       <c r="R133" t="inlineStr"/>
+      <c r="S133" t="n">
+        <v>3.874331860258193</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
@@ -7944,7 +8345,7 @@
         <v>165.02</v>
       </c>
       <c r="H134" t="n">
-        <v>152.78</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="I134" t="n">
         <v>101.31</v>
@@ -7972,6 +8373,9 @@
         <v>0</v>
       </c>
       <c r="R134" t="inlineStr"/>
+      <c r="S134" t="n">
+        <v>3.613789274863488</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
@@ -8000,7 +8404,7 @@
         <v>169.34</v>
       </c>
       <c r="H135" t="n">
-        <v>160.16</v>
+        <v>71.2</v>
       </c>
       <c r="I135" t="n">
         <v>101.36</v>
@@ -8028,6 +8432,9 @@
         <v>0</v>
       </c>
       <c r="R135" t="inlineStr"/>
+      <c r="S135" t="n">
+        <v>3.876849323853439</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -8056,7 +8463,7 @@
         <v>171.14</v>
       </c>
       <c r="H136" t="n">
-        <v>165.92</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="I136" t="n">
         <v>101.03</v>
@@ -8084,6 +8491,9 @@
         <v>0.000508</v>
       </c>
       <c r="R136" t="inlineStr"/>
+      <c r="S136" t="n">
+        <v>4.252064776511539</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
@@ -8112,7 +8522,7 @@
         <v>175.64</v>
       </c>
       <c r="H137" t="n">
-        <v>166.46</v>
+        <v>74.7</v>
       </c>
       <c r="I137" t="n">
         <v>100.62</v>
@@ -8140,6 +8550,9 @@
         <v>0</v>
       </c>
       <c r="R137" t="inlineStr"/>
+      <c r="S137" t="n">
+        <v>3.852632965343633</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
@@ -8168,7 +8581,7 @@
         <v>172.04</v>
       </c>
       <c r="H138" t="n">
-        <v>160.7</v>
+        <v>71.5</v>
       </c>
       <c r="I138" t="n">
         <v>100.83</v>
@@ -8196,6 +8609,9 @@
         <v>0</v>
       </c>
       <c r="R138" t="inlineStr"/>
+      <c r="S138" t="n">
+        <v>3.670492546043932</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
@@ -8224,7 +8640,7 @@
         <v>172.04</v>
       </c>
       <c r="H139" t="n">
-        <v>163.22</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="I139" t="n">
         <v>100.82</v>
@@ -8252,6 +8668,9 @@
         <v>0</v>
       </c>
       <c r="R139" t="inlineStr"/>
+      <c r="S139" t="n">
+        <v>3.899174085286056</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
@@ -8280,7 +8699,7 @@
         <v>176.54</v>
       </c>
       <c r="H140" t="n">
-        <v>165.56</v>
+        <v>74.2</v>
       </c>
       <c r="I140" t="n">
         <v>100.86</v>
@@ -8308,6 +8727,9 @@
         <v>0.000508</v>
       </c>
       <c r="R140" t="inlineStr"/>
+      <c r="S140" t="n">
+        <v>3.689462469212382</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
@@ -8336,7 +8758,7 @@
         <v>177.8</v>
       </c>
       <c r="H141" t="n">
-        <v>170.42</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="I141" t="n">
         <v>100.99</v>
@@ -8364,6 +8786,9 @@
         <v>0</v>
       </c>
       <c r="R141" t="inlineStr"/>
+      <c r="S141" t="n">
+        <v>4.010727518381062</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
@@ -8392,7 +8817,7 @@
         <v>171.14</v>
       </c>
       <c r="H142" t="n">
-        <v>167.54</v>
+        <v>75.3</v>
       </c>
       <c r="I142" t="n">
         <v>100.78</v>
@@ -8420,6 +8845,9 @@
         <v>0.000508</v>
       </c>
       <c r="R142" t="inlineStr"/>
+      <c r="S142" t="n">
+        <v>4.417677050442054</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
@@ -8448,7 +8876,7 @@
         <v>176.54</v>
       </c>
       <c r="H143" t="n">
-        <v>167.72</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="I143" t="n">
         <v>100.52</v>
@@ -8476,6 +8904,9 @@
         <v>0</v>
       </c>
       <c r="R143" t="inlineStr"/>
+      <c r="S143" t="n">
+        <v>3.882357633422238</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
@@ -8504,7 +8935,7 @@
         <v>176.72</v>
       </c>
       <c r="H144" t="n">
-        <v>167.9</v>
+        <v>75.5</v>
       </c>
       <c r="I144" t="n">
         <v>100.56</v>
@@ -8532,6 +8963,9 @@
         <v>0</v>
       </c>
       <c r="R144" t="inlineStr"/>
+      <c r="S144" t="n">
+        <v>3.881743395418638</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
@@ -8560,7 +8994,7 @@
         <v>182.3</v>
       </c>
       <c r="H145" t="n">
-        <v>169.16</v>
+        <v>76.2</v>
       </c>
       <c r="I145" t="n">
         <v>100.59</v>
@@ -8588,6 +9022,9 @@
         <v>0</v>
       </c>
       <c r="R145" t="inlineStr"/>
+      <c r="S145" t="n">
+        <v>3.496061404132565</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
@@ -8616,7 +9053,7 @@
         <v>185</v>
       </c>
       <c r="H146" t="n">
-        <v>169.34</v>
+        <v>76.3</v>
       </c>
       <c r="I146" t="n">
         <v>100.54</v>
@@ -8644,6 +9081,9 @@
         <v>0</v>
       </c>
       <c r="R146" t="inlineStr"/>
+      <c r="S146" t="n">
+        <v>3.294235858629745</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
@@ -8672,7 +9112,7 @@
         <v>188.42</v>
       </c>
       <c r="H147" t="n">
-        <v>169.7</v>
+        <v>76.5</v>
       </c>
       <c r="I147" t="n">
         <v>100.49</v>
@@ -8700,6 +9140,9 @@
         <v>0</v>
       </c>
       <c r="R147" t="inlineStr"/>
+      <c r="S147" t="n">
+        <v>3.068152852448991</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
@@ -8728,7 +9171,7 @@
         <v>183.38</v>
       </c>
       <c r="H148" t="n">
-        <v>169.88</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="I148" t="n">
         <v>100.78</v>
@@ -8756,6 +9199,9 @@
         <v>0</v>
       </c>
       <c r="R148" t="inlineStr"/>
+      <c r="S148" t="n">
+        <v>3.465613338185367</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
@@ -8784,7 +9230,7 @@
         <v>183.74</v>
       </c>
       <c r="H149" t="n">
-        <v>171.68</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="I149" t="n">
         <v>100.6</v>
@@ -8812,6 +9258,9 @@
         <v>0</v>
       </c>
       <c r="R149" t="inlineStr"/>
+      <c r="S149" t="n">
+        <v>3.583204947015261</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
@@ -8840,7 +9289,7 @@
         <v>181.76</v>
       </c>
       <c r="H150" t="n">
-        <v>167.18</v>
+        <v>75.09999999999999</v>
       </c>
       <c r="I150" t="n">
         <v>100.68</v>
@@ -8868,6 +9317,9 @@
         <v>0</v>
       </c>
       <c r="R150" t="inlineStr"/>
+      <c r="S150" t="n">
+        <v>3.38042618995146</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
@@ -8896,7 +9348,7 @@
         <v>183.02</v>
       </c>
       <c r="H151" t="n">
-        <v>170.6</v>
+        <v>77</v>
       </c>
       <c r="I151" t="n">
         <v>100.61</v>
@@ -8924,6 +9376,9 @@
         <v>0</v>
       </c>
       <c r="R151" t="inlineStr"/>
+      <c r="S151" t="n">
+        <v>3.554351727977082</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
@@ -8952,7 +9407,7 @@
         <v>189.14</v>
       </c>
       <c r="H152" t="n">
-        <v>168.44</v>
+        <v>75.8</v>
       </c>
       <c r="I152" t="n">
         <v>100.21</v>
@@ -8980,6 +9435,9 @@
         <v>0</v>
       </c>
       <c r="R152" t="inlineStr"/>
+      <c r="S152" t="n">
+        <v>2.930052630339611</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
@@ -9008,7 +9466,7 @@
         <v>192.92</v>
       </c>
       <c r="H153" t="n">
-        <v>165.2</v>
+        <v>74</v>
       </c>
       <c r="I153" t="n">
         <v>100.22</v>
@@ -9036,6 +9494,9 @@
         <v>0</v>
       </c>
       <c r="R153" t="inlineStr"/>
+      <c r="S153" t="n">
+        <v>2.490508900736387</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
@@ -9064,7 +9525,7 @@
         <v>176.54</v>
       </c>
       <c r="H154" t="n">
-        <v>167.18</v>
+        <v>75.09999999999999</v>
       </c>
       <c r="I154" t="n">
         <v>100.73</v>
@@ -9092,6 +9553,9 @@
         <v>0</v>
       </c>
       <c r="R154" t="inlineStr"/>
+      <c r="S154" t="n">
+        <v>3.833346336067257</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
@@ -9120,7 +9584,7 @@
         <v>185.9</v>
       </c>
       <c r="H155" t="n">
-        <v>166.82</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="I155" t="n">
         <v>100.71</v>
@@ -9148,6 +9612,9 @@
         <v>0</v>
       </c>
       <c r="R155" t="inlineStr"/>
+      <c r="S155" t="n">
+        <v>3.040343927055357</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
@@ -9176,7 +9643,7 @@
         <v>181.76</v>
       </c>
       <c r="H156" t="n">
-        <v>169.52</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="I156" t="n">
         <v>100.85</v>
@@ -9204,6 +9671,9 @@
         <v>0</v>
       </c>
       <c r="R156" t="inlineStr"/>
+      <c r="S156" t="n">
+        <v>3.571131148348491</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
@@ -9232,7 +9702,7 @@
         <v>184.46</v>
       </c>
       <c r="H157" t="n">
-        <v>168.26</v>
+        <v>75.7</v>
       </c>
       <c r="I157" t="n">
         <v>100.72</v>
@@ -9260,6 +9730,9 @@
         <v>0</v>
       </c>
       <c r="R157" t="inlineStr"/>
+      <c r="S157" t="n">
+        <v>3.252924346820714</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
@@ -9288,7 +9761,7 @@
         <v>185.72</v>
       </c>
       <c r="H158" t="n">
-        <v>172.94</v>
+        <v>78.3</v>
       </c>
       <c r="I158" t="n">
         <v>100.93</v>
@@ -9316,6 +9789,9 @@
         <v>0</v>
       </c>
       <c r="R158" t="inlineStr"/>
+      <c r="S158" t="n">
+        <v>3.521717440361802</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
@@ -9344,7 +9820,7 @@
         <v>184.1</v>
       </c>
       <c r="H159" t="n">
-        <v>171.14</v>
+        <v>77.3</v>
       </c>
       <c r="I159" t="n">
         <v>100.89</v>
@@ -9372,6 +9848,9 @@
         <v>0</v>
       </c>
       <c r="R159" t="inlineStr"/>
+      <c r="S159" t="n">
+        <v>3.508708629094206</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
@@ -9400,7 +9879,7 @@
         <v>186.44</v>
       </c>
       <c r="H160" t="n">
-        <v>168.44</v>
+        <v>75.8</v>
       </c>
       <c r="I160" t="n">
         <v>100.71</v>
@@ -9428,6 +9907,9 @@
         <v>0</v>
       </c>
       <c r="R160" t="inlineStr"/>
+      <c r="S160" t="n">
+        <v>3.118883335027249</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
@@ -9456,7 +9938,7 @@
         <v>184.46</v>
       </c>
       <c r="H161" t="n">
-        <v>168.26</v>
+        <v>75.7</v>
       </c>
       <c r="I161" t="n">
         <v>100.73</v>
@@ -9484,6 +9966,9 @@
         <v>0</v>
       </c>
       <c r="R161" t="inlineStr"/>
+      <c r="S161" t="n">
+        <v>3.252924346820714</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
@@ -9512,7 +9997,7 @@
         <v>184.46</v>
       </c>
       <c r="H162" t="n">
-        <v>167.72</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="I162" t="n">
         <v>100.67</v>
@@ -9540,6 +10025,9 @@
         <v>0</v>
       </c>
       <c r="R162" t="inlineStr"/>
+      <c r="S162" t="n">
+        <v>3.211935784461367</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
@@ -9568,7 +10056,7 @@
         <v>187.16</v>
       </c>
       <c r="H163" t="n">
-        <v>166.82</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="I163" t="n">
         <v>100.41</v>
@@ -9596,6 +10084,9 @@
         <v>0</v>
       </c>
       <c r="R163" t="inlineStr"/>
+      <c r="S163" t="n">
+        <v>2.952506057867122</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
@@ -9624,7 +10115,7 @@
         <v>185.36</v>
       </c>
       <c r="H164" t="n">
-        <v>169.88</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="I164" t="n">
         <v>101.1</v>
@@ -9652,6 +10143,9 @@
         <v>0</v>
       </c>
       <c r="R164" t="inlineStr"/>
+      <c r="S164" t="n">
+        <v>3.308036018330825</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
@@ -9680,7 +10174,7 @@
         <v>185</v>
       </c>
       <c r="H165" t="n">
-        <v>165.74</v>
+        <v>74.3</v>
       </c>
       <c r="I165" t="n">
         <v>101.14</v>
@@ -9708,6 +10202,9 @@
         <v>0</v>
       </c>
       <c r="R165" t="inlineStr"/>
+      <c r="S165" t="n">
+        <v>3.0267926577593</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
@@ -9736,7 +10233,7 @@
         <v>184.82</v>
       </c>
       <c r="H166" t="n">
-        <v>167.36</v>
+        <v>75.2</v>
       </c>
       <c r="I166" t="n">
         <v>100.91</v>
@@ -9764,6 +10261,9 @@
         <v>0</v>
       </c>
       <c r="R166" t="inlineStr"/>
+      <c r="S166" t="n">
+        <v>3.15805592806514</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
@@ -9792,7 +10292,7 @@
         <v>183.38</v>
       </c>
       <c r="H167" t="n">
-        <v>167.54</v>
+        <v>75.3</v>
       </c>
       <c r="I167" t="n">
         <v>101</v>
@@ -9820,6 +10320,9 @@
         <v>0</v>
       </c>
       <c r="R167" t="inlineStr"/>
+      <c r="S167" t="n">
+        <v>3.280768597836236</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
@@ -9848,7 +10351,7 @@
         <v>185</v>
       </c>
       <c r="H168" t="n">
-        <v>168.8</v>
+        <v>76</v>
       </c>
       <c r="I168" t="n">
         <v>101.12</v>
@@ -9876,6 +10379,9 @@
         <v>0</v>
       </c>
       <c r="R168" t="inlineStr"/>
+      <c r="S168" t="n">
+        <v>3.252881451502642</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
@@ -9904,7 +10410,7 @@
         <v>183.02</v>
       </c>
       <c r="H169" t="n">
-        <v>170.24</v>
+        <v>76.8</v>
       </c>
       <c r="I169" t="n">
         <v>100.91</v>
@@ -9932,6 +10438,9 @@
         <v>0</v>
       </c>
       <c r="R169" t="inlineStr"/>
+      <c r="S169" t="n">
+        <v>3.524681427410118</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
@@ -9960,7 +10469,7 @@
         <v>188.24</v>
       </c>
       <c r="H170" t="n">
-        <v>170.6</v>
+        <v>77</v>
       </c>
       <c r="I170" t="n">
         <v>100.68</v>
@@ -9988,6 +10497,9 @@
         <v>0</v>
       </c>
       <c r="R170" t="inlineStr"/>
+      <c r="S170" t="n">
+        <v>3.146230699915312</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
@@ -10016,7 +10528,7 @@
         <v>178.52</v>
       </c>
       <c r="H171" t="n">
-        <v>168.62</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="I171" t="n">
         <v>100.64</v>
@@ -10044,6 +10556,9 @@
         <v>0.014986</v>
       </c>
       <c r="R171" t="inlineStr"/>
+      <c r="S171" t="n">
+        <v>3.779170084937179</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
@@ -10072,7 +10587,7 @@
         <v>187.88</v>
       </c>
       <c r="H172" t="n">
-        <v>173.3</v>
+        <v>78.5</v>
       </c>
       <c r="I172" t="n">
         <v>100.41</v>
@@ -10100,6 +10615,9 @@
         <v>0</v>
       </c>
       <c r="R172" t="inlineStr"/>
+      <c r="S172" t="n">
+        <v>3.377243221179877</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
@@ -10128,7 +10646,7 @@
         <v>183.74</v>
       </c>
       <c r="H173" t="n">
-        <v>169.7</v>
+        <v>76.5</v>
       </c>
       <c r="I173" t="n">
         <v>100.37</v>
@@ -10156,6 +10674,9 @@
         <v>0</v>
       </c>
       <c r="R173" t="inlineStr"/>
+      <c r="S173" t="n">
+        <v>3.421900688381607</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
@@ -10184,7 +10705,7 @@
         <v>186.98</v>
       </c>
       <c r="H174" t="n">
-        <v>172.94</v>
+        <v>78.3</v>
       </c>
       <c r="I174" t="n">
         <v>100.95</v>
@@ -10212,6 +10733,9 @@
         <v>0</v>
       </c>
       <c r="R174" t="inlineStr"/>
+      <c r="S174" t="n">
+        <v>3.41988833550018</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
@@ -10240,7 +10764,7 @@
         <v>187.52</v>
       </c>
       <c r="H175" t="n">
-        <v>174.2</v>
+        <v>79</v>
       </c>
       <c r="I175" t="n">
         <v>101.19</v>
@@ -10268,6 +10792,9 @@
         <v>0</v>
       </c>
       <c r="R175" t="inlineStr"/>
+      <c r="S175" t="n">
+        <v>3.476781860886301</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
@@ -10296,7 +10823,7 @@
         <v>187.7</v>
       </c>
       <c r="H176" t="n">
-        <v>171.68</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="I176" t="n">
         <v>101.2</v>
@@ -10324,6 +10851,9 @@
         <v>0</v>
       </c>
       <c r="R176" t="inlineStr"/>
+      <c r="S176" t="n">
+        <v>3.266668881307817</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
@@ -10352,7 +10882,7 @@
         <v>183.92</v>
       </c>
       <c r="H177" t="n">
-        <v>168.98</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="I177" t="n">
         <v>100.96</v>
@@ -10380,6 +10910,9 @@
         <v>0</v>
       </c>
       <c r="R177" t="inlineStr"/>
+      <c r="S177" t="n">
+        <v>3.350557615046844</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
@@ -10408,7 +10941,7 @@
         <v>189.86</v>
       </c>
       <c r="H178" t="n">
-        <v>174.74</v>
+        <v>79.3</v>
       </c>
       <c r="I178" t="n">
         <v>100.7</v>
@@ -10436,6 +10969,9 @@
         <v>0</v>
       </c>
       <c r="R178" t="inlineStr"/>
+      <c r="S178" t="n">
+        <v>3.335438912242874</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
@@ -10464,7 +11000,7 @@
         <v>186.98</v>
       </c>
       <c r="H179" t="n">
-        <v>169.34</v>
+        <v>76.3</v>
       </c>
       <c r="I179" t="n">
         <v>100.87</v>
@@ -10492,6 +11028,9 @@
         <v>0</v>
       </c>
       <c r="R179" t="inlineStr"/>
+      <c r="S179" t="n">
+        <v>3.14555285156925</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
@@ -10520,7 +11059,7 @@
         <v>188.06</v>
       </c>
       <c r="H180" t="n">
-        <v>168.8</v>
+        <v>76</v>
       </c>
       <c r="I180" t="n">
         <v>100.78</v>
@@ -10548,6 +11087,9 @@
         <v>0</v>
       </c>
       <c r="R180" t="inlineStr"/>
+      <c r="S180" t="n">
+        <v>3.029336665923344</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
@@ -10576,7 +11118,7 @@
         <v>187.16</v>
       </c>
       <c r="H181" t="n">
-        <v>170.24</v>
+        <v>76.8</v>
       </c>
       <c r="I181" t="n">
         <v>100.6</v>
@@ -10604,6 +11146,9 @@
         <v>0</v>
       </c>
       <c r="R181" t="inlineStr"/>
+      <c r="S181" t="n">
+        <v>3.198924248903596</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
@@ -10632,7 +11177,7 @@
         <v>189.5</v>
       </c>
       <c r="H182" t="n">
-        <v>166.64</v>
+        <v>74.8</v>
       </c>
       <c r="I182" t="n">
         <v>100.28</v>
@@ -10660,6 +11205,9 @@
         <v>0</v>
       </c>
       <c r="R182" t="inlineStr"/>
+      <c r="S182" t="n">
+        <v>2.785470805454783</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
@@ -10688,7 +11236,7 @@
         <v>185.36</v>
       </c>
       <c r="H183" t="n">
-        <v>163.94</v>
+        <v>73.3</v>
       </c>
       <c r="I183" t="n">
         <v>100.42</v>
@@ -10716,6 +11264,9 @@
         <v>0</v>
       </c>
       <c r="R183" t="inlineStr"/>
+      <c r="S183" t="n">
+        <v>2.875821469197396</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
@@ -10744,7 +11295,7 @@
         <v>186.8</v>
       </c>
       <c r="H184" t="n">
-        <v>172.22</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="I184" t="n">
         <v>100.68</v>
@@ -10772,6 +11323,9 @@
         <v>0</v>
       </c>
       <c r="R184" t="inlineStr"/>
+      <c r="S184" t="n">
+        <v>3.377543062131829</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
@@ -10800,7 +11354,7 @@
         <v>177.62</v>
       </c>
       <c r="H185" t="n">
-        <v>169.34</v>
+        <v>76.3</v>
       </c>
       <c r="I185" t="n">
         <v>100.91</v>
@@ -10828,6 +11382,9 @@
         <v>0</v>
       </c>
       <c r="R185" t="inlineStr"/>
+      <c r="S185" t="n">
+        <v>3.928048876024329</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
@@ -10856,7 +11413,7 @@
         <v>178.16</v>
       </c>
       <c r="H186" t="n">
-        <v>166.82</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="I186" t="n">
         <v>101.01</v>
@@ -10884,6 +11441,9 @@
         <v>0.000508</v>
       </c>
       <c r="R186" t="inlineStr"/>
+      <c r="S186" t="n">
+        <v>3.654284863871096</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
@@ -10912,7 +11472,7 @@
         <v>180.68</v>
       </c>
       <c r="H187" t="n">
-        <v>167</v>
+        <v>75</v>
       </c>
       <c r="I187" t="n">
         <v>101.01</v>
@@ -10940,6 +11500,9 @@
         <v>0</v>
       </c>
       <c r="R187" t="inlineStr"/>
+      <c r="S187" t="n">
+        <v>3.453962655024091</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
@@ -10968,7 +11531,7 @@
         <v>182.66</v>
       </c>
       <c r="H188" t="n">
-        <v>167.9</v>
+        <v>75.5</v>
       </c>
       <c r="I188" t="n">
         <v>100.94</v>
@@ -10996,6 +11559,9 @@
         <v>0</v>
       </c>
       <c r="R188" t="inlineStr"/>
+      <c r="S188" t="n">
+        <v>3.365472659318686</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
@@ -11024,7 +11590,7 @@
         <v>184.28</v>
       </c>
       <c r="H189" t="n">
-        <v>169.34</v>
+        <v>76.3</v>
       </c>
       <c r="I189" t="n">
         <v>100.81</v>
@@ -11052,6 +11618,9 @@
         <v>0</v>
       </c>
       <c r="R189" t="inlineStr"/>
+      <c r="S189" t="n">
+        <v>3.350382843690941</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
@@ -11080,7 +11649,7 @@
         <v>179.6</v>
       </c>
       <c r="H190" t="n">
-        <v>167.9</v>
+        <v>75.5</v>
       </c>
       <c r="I190" t="n">
         <v>101</v>
@@ -11108,6 +11677,9 @@
         <v>0.001016</v>
       </c>
       <c r="R190" t="inlineStr"/>
+      <c r="S190" t="n">
+        <v>3.62041375543233</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
@@ -11136,7 +11708,7 @@
         <v>185.36</v>
       </c>
       <c r="H191" t="n">
-        <v>167</v>
+        <v>75</v>
       </c>
       <c r="I191" t="n">
         <v>100.85</v>
@@ -11164,6 +11736,9 @@
         <v>0</v>
       </c>
       <c r="R191" t="inlineStr"/>
+      <c r="S191" t="n">
+        <v>3.092037687304657</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
@@ -11192,7 +11767,7 @@
         <v>186.08</v>
       </c>
       <c r="H192" t="n">
-        <v>167.18</v>
+        <v>75.09999999999999</v>
       </c>
       <c r="I192" t="n">
         <v>100.96</v>
@@ -11220,6 +11795,9 @@
         <v>0</v>
       </c>
       <c r="R192" t="inlineStr"/>
+      <c r="S192" t="n">
+        <v>3.053397830677516</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
@@ -11248,7 +11826,7 @@
         <v>189.86</v>
       </c>
       <c r="H193" t="n">
-        <v>169.88</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="I193" t="n">
         <v>100.9</v>
@@ -11276,6 +11854,9 @@
         <v>0</v>
       </c>
       <c r="R193" t="inlineStr"/>
+      <c r="S193" t="n">
+        <v>2.98074965336909</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
@@ -11304,7 +11885,7 @@
         <v>186.8</v>
       </c>
       <c r="H194" t="n">
-        <v>170.42</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="I194" t="n">
         <v>100.78</v>
@@ -11332,6 +11913,9 @@
         <v>0</v>
       </c>
       <c r="R194" t="inlineStr"/>
+      <c r="S194" t="n">
+        <v>3.239327606564812</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
@@ -11360,7 +11944,7 @@
         <v>181.58</v>
       </c>
       <c r="H195" t="n">
-        <v>168.26</v>
+        <v>75.7</v>
       </c>
       <c r="I195" t="n">
         <v>100.78</v>
@@ -11388,6 +11972,9 @@
         <v>0.011938</v>
       </c>
       <c r="R195" t="inlineStr"/>
+      <c r="S195" t="n">
+        <v>3.48222402533984</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
@@ -11416,7 +12003,7 @@
         <v>183.38</v>
       </c>
       <c r="H196" t="n">
-        <v>169.16</v>
+        <v>76.2</v>
       </c>
       <c r="I196" t="n">
         <v>100.78</v>
@@ -11444,6 +12031,9 @@
         <v>0</v>
       </c>
       <c r="R196" t="inlineStr"/>
+      <c r="S196" t="n">
+        <v>3.407816976749787</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
@@ -11472,7 +12062,7 @@
         <v>186.8</v>
       </c>
       <c r="H197" t="n">
-        <v>169.34</v>
+        <v>76.3</v>
       </c>
       <c r="I197" t="n">
         <v>100.73</v>
@@ -11500,6 +12090,9 @@
         <v>0</v>
       </c>
       <c r="R197" t="inlineStr"/>
+      <c r="S197" t="n">
+        <v>3.158732046996546</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
@@ -11528,7 +12121,7 @@
         <v>186.08</v>
       </c>
       <c r="H198" t="n">
-        <v>168.26</v>
+        <v>75.7</v>
       </c>
       <c r="I198" t="n">
         <v>100.93</v>
@@ -11556,6 +12149,9 @@
         <v>0</v>
       </c>
       <c r="R198" t="inlineStr"/>
+      <c r="S198" t="n">
+        <v>3.131900687115589</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
@@ -11584,7 +12180,7 @@
         <v>185.9</v>
       </c>
       <c r="H199" t="n">
-        <v>168.08</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="I199" t="n">
         <v>100.75</v>
@@ -11612,6 +12208,9 @@
         <v>0</v>
       </c>
       <c r="R199" t="inlineStr"/>
+      <c r="S199" t="n">
+        <v>3.131820392213829</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
@@ -11640,7 +12239,7 @@
         <v>187.7</v>
       </c>
       <c r="H200" t="n">
-        <v>166.82</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="I200" t="n">
         <v>100.64</v>
@@ -11668,6 +12267,9 @@
         <v>0</v>
       </c>
       <c r="R200" t="inlineStr"/>
+      <c r="S200" t="n">
+        <v>2.915795351783027</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
@@ -11696,7 +12298,7 @@
         <v>175.46</v>
       </c>
       <c r="H201" t="n">
-        <v>169.16</v>
+        <v>76.2</v>
       </c>
       <c r="I201" t="n">
         <v>100.86</v>
@@ -11724,6 +12326,9 @@
         <v>0.024892</v>
       </c>
       <c r="R201" t="inlineStr"/>
+      <c r="S201" t="n">
+        <v>4.123120261913373</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
@@ -11752,7 +12357,7 @@
         <v>188.42</v>
       </c>
       <c r="H202" t="n">
-        <v>170.78</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="I202" t="n">
         <v>100.86</v>
@@ -11780,6 +12385,9 @@
         <v>0</v>
       </c>
       <c r="R202" t="inlineStr"/>
+      <c r="S202" t="n">
+        <v>3.146338300958979</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
@@ -11808,7 +12416,7 @@
         <v>183.38</v>
       </c>
       <c r="H203" t="n">
-        <v>170.42</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="I203" t="n">
         <v>100.93</v>
@@ -11836,6 +12444,9 @@
         <v>0</v>
       </c>
       <c r="R203" t="inlineStr"/>
+      <c r="S203" t="n">
+        <v>3.50950626275206</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
@@ -11864,7 +12475,7 @@
         <v>184.64</v>
       </c>
       <c r="H204" t="n">
-        <v>168.62</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="I204" t="n">
         <v>100.99</v>
@@ -11892,6 +12503,9 @@
         <v>0</v>
       </c>
       <c r="R204" t="inlineStr"/>
+      <c r="S204" t="n">
+        <v>3.266659850647457</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
@@ -11920,7 +12534,7 @@
         <v>185.36</v>
       </c>
       <c r="H205" t="n">
-        <v>169.52</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="I205" t="n">
         <v>100.68</v>
@@ -11948,6 +12562,9 @@
         <v>0</v>
       </c>
       <c r="R205" t="inlineStr"/>
+      <c r="S205" t="n">
+        <v>3.280353073674706</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
@@ -11976,7 +12593,7 @@
         <v>187.16</v>
       </c>
       <c r="H206" t="n">
-        <v>171.32</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="I206" t="n">
         <v>100.5</v>
@@ -12004,6 +12621,9 @@
         <v>0</v>
       </c>
       <c r="R206" t="inlineStr"/>
+      <c r="S206" t="n">
+        <v>3.280287720788419</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
@@ -12032,7 +12652,7 @@
         <v>183.74</v>
       </c>
       <c r="H207" t="n">
-        <v>170.78</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="I207" t="n">
         <v>100.07</v>
@@ -12060,6 +12680,9 @@
         <v>0</v>
       </c>
       <c r="R207" t="inlineStr"/>
+      <c r="S207" t="n">
+        <v>3.509100659486111</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
@@ -12088,7 +12711,7 @@
         <v>184.64</v>
       </c>
       <c r="H208" t="n">
-        <v>168.62</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="I208" t="n">
         <v>99.63</v>
@@ -12116,6 +12739,9 @@
         <v>0</v>
       </c>
       <c r="R208" t="inlineStr"/>
+      <c r="S208" t="n">
+        <v>3.266659850647457</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
@@ -12144,7 +12770,7 @@
         <v>186.44</v>
       </c>
       <c r="H209" t="n">
-        <v>169.34</v>
+        <v>76.3</v>
       </c>
       <c r="I209" t="n">
         <v>99.19</v>
@@ -12172,6 +12798,9 @@
         <v>0</v>
       </c>
       <c r="R209" t="inlineStr"/>
+      <c r="S209" t="n">
+        <v>3.185289777117423</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
@@ -12200,7 +12829,7 @@
         <v>188.42</v>
       </c>
       <c r="H210" t="n">
-        <v>170.96</v>
+        <v>77.2</v>
       </c>
       <c r="I210" t="n">
         <v>100.33</v>
@@ -12228,6 +12857,9 @@
         <v>0</v>
       </c>
       <c r="R210" t="inlineStr"/>
+      <c r="S210" t="n">
+        <v>3.15953263531687</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
@@ -12256,7 +12888,7 @@
         <v>181.58</v>
       </c>
       <c r="H211" t="n">
-        <v>169.52</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="I211" t="n">
         <v>101.1</v>
@@ -12284,6 +12916,9 @@
         <v>0</v>
       </c>
       <c r="R211" t="inlineStr"/>
+      <c r="S211" t="n">
+        <v>3.58646387084518</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
@@ -12312,7 +12947,7 @@
         <v>177.44</v>
       </c>
       <c r="H212" t="n">
-        <v>159.08</v>
+        <v>70.59999999999999</v>
       </c>
       <c r="I212" t="n">
         <v>101.4</v>
@@ -12340,6 +12975,9 @@
         <v>0</v>
       </c>
       <c r="R212" t="inlineStr"/>
+      <c r="S212" t="n">
+        <v>3.090576857523685</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
@@ -12368,7 +13006,7 @@
         <v>179.24</v>
       </c>
       <c r="H213" t="n">
-        <v>154.04</v>
+        <v>67.8</v>
       </c>
       <c r="I213" t="n">
         <v>101.29</v>
@@ -12396,6 +13034,9 @@
         <v>0</v>
       </c>
       <c r="R213" t="inlineStr"/>
+      <c r="S213" t="n">
+        <v>2.615944043147456</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
@@ -12424,7 +13065,7 @@
         <v>181.22</v>
       </c>
       <c r="H214" t="n">
-        <v>156.38</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="I214" t="n">
         <v>101.13</v>
@@ -12452,6 +13093,9 @@
         <v>0</v>
       </c>
       <c r="R214" t="inlineStr"/>
+      <c r="S214" t="n">
+        <v>2.642315231763822</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
@@ -12480,7 +13124,7 @@
         <v>184.28</v>
       </c>
       <c r="H215" t="n">
-        <v>163.04</v>
+        <v>72.8</v>
       </c>
       <c r="I215" t="n">
         <v>100.36</v>
@@ -12508,6 +13152,9 @@
         <v>0</v>
       </c>
       <c r="R215" t="inlineStr"/>
+      <c r="S215" t="n">
+        <v>2.886943136286801</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
@@ -12536,7 +13183,7 @@
         <v>183.38</v>
       </c>
       <c r="H216" t="n">
-        <v>167.9</v>
+        <v>75.5</v>
       </c>
       <c r="I216" t="n">
         <v>100.34</v>
@@ -12564,6 +13211,9 @@
         <v>0</v>
       </c>
       <c r="R216" t="inlineStr"/>
+      <c r="S216" t="n">
+        <v>3.308647190096039</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
@@ -12592,7 +13242,7 @@
         <v>178.16</v>
       </c>
       <c r="H217" t="n">
-        <v>165.92</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="I217" t="n">
         <v>100.48</v>
@@ -12620,6 +13270,9 @@
         <v>0</v>
       </c>
       <c r="R217" t="inlineStr"/>
+      <c r="S217" t="n">
+        <v>3.577436036495444</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
@@ -12648,7 +13301,7 @@
         <v>181.4</v>
       </c>
       <c r="H218" t="n">
-        <v>162.5</v>
+        <v>72.5</v>
       </c>
       <c r="I218" t="n">
         <v>100.5</v>
@@ -12676,6 +13329,9 @@
         <v>0</v>
       </c>
       <c r="R218" t="inlineStr"/>
+      <c r="S218" t="n">
+        <v>3.050965909645724</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
@@ -12704,7 +13360,7 @@
         <v>181.58</v>
       </c>
       <c r="H219" t="n">
-        <v>165.92</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="I219" t="n">
         <v>100.46</v>
@@ -12732,6 +13388,9 @@
         <v>0</v>
       </c>
       <c r="R219" t="inlineStr"/>
+      <c r="S219" t="n">
+        <v>3.295471044854507</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
@@ -12760,7 +13419,7 @@
         <v>178.88</v>
       </c>
       <c r="H220" t="n">
-        <v>165.02</v>
+        <v>73.90000000000001</v>
       </c>
       <c r="I220" t="n">
         <v>100.71</v>
@@ -12788,6 +13447,9 @@
         <v>0</v>
       </c>
       <c r="R220" t="inlineStr"/>
+      <c r="S220" t="n">
+        <v>3.441581886617742</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
@@ -12816,7 +13478,7 @@
         <v>176.54</v>
       </c>
       <c r="H221" t="n">
-        <v>157.1</v>
+        <v>69.5</v>
       </c>
       <c r="I221" t="n">
         <v>100.94</v>
@@ -12844,6 +13506,9 @@
         <v>0</v>
       </c>
       <c r="R221" t="inlineStr"/>
+      <c r="S221" t="n">
+        <v>3.010535081845431</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
@@ -12872,7 +13537,7 @@
         <v>175.1</v>
       </c>
       <c r="H222" t="n">
-        <v>158.9</v>
+        <v>70.5</v>
       </c>
       <c r="I222" t="n">
         <v>101.05</v>
@@ -12900,6 +13565,9 @@
         <v>0</v>
       </c>
       <c r="R222" t="inlineStr"/>
+      <c r="S222" t="n">
+        <v>3.258067225018555</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
@@ -12928,7 +13596,7 @@
         <v>175.28</v>
       </c>
       <c r="H223" t="n">
-        <v>153.86</v>
+        <v>67.7</v>
       </c>
       <c r="I223" t="n">
         <v>101.02</v>
@@ -12956,6 +13624,9 @@
         <v>0</v>
       </c>
       <c r="R223" t="inlineStr"/>
+      <c r="S223" t="n">
+        <v>2.867461599927144</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
@@ -12984,7 +13655,7 @@
         <v>183.74</v>
       </c>
       <c r="H224" t="n">
-        <v>165.56</v>
+        <v>74.2</v>
       </c>
       <c r="I224" t="n">
         <v>100.99</v>
@@ -13012,6 +13683,9 @@
         <v>0</v>
       </c>
       <c r="R224" t="inlineStr"/>
+      <c r="S224" t="n">
+        <v>3.104507457870595</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
@@ -13040,7 +13714,7 @@
         <v>181.4</v>
       </c>
       <c r="H225" t="n">
-        <v>165.92</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="I225" t="n">
         <v>100.99</v>
@@ -13068,6 +13742,9 @@
         <v>0</v>
       </c>
       <c r="R225" t="inlineStr"/>
+      <c r="S225" t="n">
+        <v>3.309632228943829</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
@@ -13096,7 +13773,7 @@
         <v>181.76</v>
       </c>
       <c r="H226" t="n">
-        <v>166.64</v>
+        <v>74.8</v>
       </c>
       <c r="I226" t="n">
         <v>101.24</v>
@@ -13124,6 +13801,9 @@
         <v>0</v>
       </c>
       <c r="R226" t="inlineStr"/>
+      <c r="S226" t="n">
+        <v>3.337671396888686</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
@@ -13152,7 +13832,7 @@
         <v>182.12</v>
       </c>
       <c r="H227" t="n">
-        <v>166.1</v>
+        <v>74.5</v>
       </c>
       <c r="I227" t="n">
         <v>101.39</v>
@@ -13180,6 +13860,9 @@
         <v>0</v>
       </c>
       <c r="R227" t="inlineStr"/>
+      <c r="S227" t="n">
+        <v>3.26729739611585</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
@@ -13208,7 +13891,7 @@
         <v>182.48</v>
       </c>
       <c r="H228" t="n">
-        <v>165.74</v>
+        <v>74.3</v>
       </c>
       <c r="I228" t="n">
         <v>101.48</v>
@@ -13236,6 +13919,9 @@
         <v>0</v>
       </c>
       <c r="R228" t="inlineStr"/>
+      <c r="S228" t="n">
+        <v>3.212035472500224</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
@@ -13264,7 +13950,7 @@
         <v>180.32</v>
       </c>
       <c r="H229" t="n">
-        <v>168.62</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="I229" t="n">
         <v>101.42</v>
@@ -13292,6 +13978,9 @@
         <v>0</v>
       </c>
       <c r="R229" t="inlineStr"/>
+      <c r="S229" t="n">
+        <v>3.619022162905231</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
@@ -13320,7 +14009,7 @@
         <v>178.88</v>
       </c>
       <c r="H230" t="n">
-        <v>163.94</v>
+        <v>73.3</v>
       </c>
       <c r="I230" t="n">
         <v>101.38</v>
@@ -13348,6 +14037,9 @@
         <v>0</v>
       </c>
       <c r="R230" t="inlineStr"/>
+      <c r="S230" t="n">
+        <v>3.35434711018238</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
@@ -13376,7 +14068,7 @@
         <v>180.14</v>
       </c>
       <c r="H231" t="n">
-        <v>161.06</v>
+        <v>71.7</v>
       </c>
       <c r="I231" t="n">
         <v>101.41</v>
@@ -13404,6 +14096,9 @@
         <v>0</v>
       </c>
       <c r="R231" t="inlineStr"/>
+      <c r="S231" t="n">
+        <v>3.037447984838882</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
@@ -13432,7 +14127,7 @@
         <v>185</v>
       </c>
       <c r="H232" t="n">
-        <v>163.04</v>
+        <v>72.8</v>
       </c>
       <c r="I232" t="n">
         <v>101.5</v>
@@ -13460,6 +14155,9 @@
         <v>0</v>
       </c>
       <c r="R232" t="inlineStr"/>
+      <c r="S232" t="n">
+        <v>2.838562649426664</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
@@ -13488,7 +14186,7 @@
         <v>173.48</v>
       </c>
       <c r="H233" t="n">
-        <v>162.86</v>
+        <v>72.7</v>
       </c>
       <c r="I233" t="n">
         <v>101.52</v>
@@ -13516,6 +14214,9 @@
         <v>0</v>
       </c>
       <c r="R233" t="inlineStr"/>
+      <c r="S233" t="n">
+        <v>3.729990423844999</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
@@ -13544,7 +14245,7 @@
         <v>169.34</v>
       </c>
       <c r="H234" t="n">
-        <v>149.54</v>
+        <v>65.3</v>
       </c>
       <c r="I234" t="n">
         <v>101.55</v>
@@ -13572,6 +14273,9 @@
         <v>0</v>
       </c>
       <c r="R234" t="inlineStr"/>
+      <c r="S234" t="n">
+        <v>2.985593465871154</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
@@ -13600,7 +14304,7 @@
         <v>168.62</v>
       </c>
       <c r="H235" t="n">
-        <v>143.6</v>
+        <v>62</v>
       </c>
       <c r="I235" t="n">
         <v>101.53</v>
@@ -13628,6 +14332,9 @@
         <v>0</v>
       </c>
       <c r="R235" t="inlineStr"/>
+      <c r="S235" t="n">
+        <v>2.615611944334747</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
@@ -13656,7 +14363,7 @@
         <v>172.4</v>
       </c>
       <c r="H236" t="n">
-        <v>154.58</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="I236" t="n">
         <v>101.34</v>
@@ -13684,6 +14391,9 @@
         <v>0</v>
       </c>
       <c r="R236" t="inlineStr"/>
+      <c r="S236" t="n">
+        <v>3.134037107994375</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
@@ -13712,7 +14422,7 @@
         <v>175.82</v>
       </c>
       <c r="H237" t="n">
-        <v>156.92</v>
+        <v>69.40000000000001</v>
       </c>
       <c r="I237" t="n">
         <v>101.18</v>
@@ -13740,6 +14450,9 @@
         <v>0</v>
       </c>
       <c r="R237" t="inlineStr"/>
+      <c r="S237" t="n">
+        <v>3.050523468264142</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
@@ -13768,7 +14481,7 @@
         <v>181.04</v>
       </c>
       <c r="H238" t="n">
-        <v>168.26</v>
+        <v>75.7</v>
       </c>
       <c r="I238" t="n">
         <v>100.53</v>
@@ -13796,6 +14509,9 @@
         <v>0</v>
       </c>
       <c r="R238" t="inlineStr"/>
+      <c r="S238" t="n">
+        <v>3.527346760664432</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
@@ -13824,7 +14540,7 @@
         <v>179.24</v>
       </c>
       <c r="H239" t="n">
-        <v>171.5</v>
+        <v>77.5</v>
       </c>
       <c r="I239" t="n">
         <v>100.68</v>
@@ -13852,6 +14568,9 @@
         <v>0.000508</v>
       </c>
       <c r="R239" t="inlineStr"/>
+      <c r="S239" t="n">
+        <v>3.972061570121044</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
@@ -13880,7 +14599,7 @@
         <v>166.82</v>
       </c>
       <c r="H240" t="n">
-        <v>146.48</v>
+        <v>63.6</v>
       </c>
       <c r="I240" t="n">
         <v>101.45</v>
@@ -13908,6 +14627,9 @@
         <v>0</v>
       </c>
       <c r="R240" t="inlineStr"/>
+      <c r="S240" t="n">
+        <v>2.946669182188128</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
@@ -13936,7 +14658,7 @@
         <v>168.98</v>
       </c>
       <c r="H241" t="n">
-        <v>145.58</v>
+        <v>63.1</v>
       </c>
       <c r="I241" t="n">
         <v>101.66</v>
@@ -13964,6 +14686,9 @@
         <v>0</v>
       </c>
       <c r="R241" t="inlineStr"/>
+      <c r="S241" t="n">
+        <v>2.726218848238259</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
@@ -13992,7 +14717,7 @@
         <v>172.76</v>
       </c>
       <c r="H242" t="n">
-        <v>149</v>
+        <v>65</v>
       </c>
       <c r="I242" t="n">
         <v>101.73</v>
@@ -14020,6 +14745,9 @@
         <v>0</v>
       </c>
       <c r="R242" t="inlineStr"/>
+      <c r="S242" t="n">
+        <v>2.703699808867533</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
@@ -14048,7 +14776,7 @@
         <v>174.02</v>
       </c>
       <c r="H243" t="n">
-        <v>168.8</v>
+        <v>76</v>
       </c>
       <c r="I243" t="n">
         <v>101.39</v>
@@ -14076,6 +14804,9 @@
         <v>0.007873999999999999</v>
       </c>
       <c r="R243" t="inlineStr"/>
+      <c r="S243" t="n">
+        <v>4.235941158679974</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
@@ -14104,7 +14835,7 @@
         <v>167.36</v>
       </c>
       <c r="H244" t="n">
-        <v>159.26</v>
+        <v>70.7</v>
       </c>
       <c r="I244" t="n">
         <v>101.44</v>
@@ -14132,6 +14863,9 @@
         <v>0</v>
       </c>
       <c r="R244" t="inlineStr"/>
+      <c r="S244" t="n">
+        <v>3.988803085783078</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
@@ -14160,7 +14894,7 @@
         <v>164.12</v>
       </c>
       <c r="H245" t="n">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="I245" t="n">
         <v>101.88</v>
@@ -14188,6 +14922,9 @@
         <v>0</v>
       </c>
       <c r="R245" t="inlineStr"/>
+      <c r="S245" t="n">
+        <v>2.674989126521042</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
@@ -14216,7 +14953,7 @@
         <v>172.04</v>
       </c>
       <c r="H246" t="n">
-        <v>149.9</v>
+        <v>65.5</v>
       </c>
       <c r="I246" t="n">
         <v>101.47</v>
@@ -14244,6 +14981,9 @@
         <v>0</v>
       </c>
       <c r="R246" t="inlineStr"/>
+      <c r="S246" t="n">
+        <v>2.815384557131904</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
@@ -14272,7 +15012,7 @@
         <v>172.76</v>
       </c>
       <c r="H247" t="n">
-        <v>151.88</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="I247" t="n">
         <v>101.41</v>
@@ -14300,6 +15040,9 @@
         <v>0</v>
       </c>
       <c r="R247" t="inlineStr"/>
+      <c r="S247" t="n">
+        <v>2.905432795393463</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
@@ -14328,7 +15071,7 @@
         <v>173.3</v>
       </c>
       <c r="H248" t="n">
-        <v>155.66</v>
+        <v>68.7</v>
       </c>
       <c r="I248" t="n">
         <v>101.26</v>
@@ -14356,6 +15099,9 @@
         <v>0</v>
       </c>
       <c r="R248" t="inlineStr"/>
+      <c r="S248" t="n">
+        <v>3.147222711553711</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
@@ -14384,7 +15130,7 @@
         <v>170.78</v>
       </c>
       <c r="H249" t="n">
-        <v>157.28</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="I249" t="n">
         <v>100.93</v>
@@ -14412,6 +15158,9 @@
         <v>0</v>
       </c>
       <c r="R249" t="inlineStr"/>
+      <c r="S249" t="n">
+        <v>3.48660700551237</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
@@ -14440,7 +15189,7 @@
         <v>166.1</v>
       </c>
       <c r="H250" t="n">
-        <v>163.04</v>
+        <v>72.8</v>
       </c>
       <c r="I250" t="n">
         <v>100.76</v>
@@ -14468,6 +15217,9 @@
         <v>0.020066</v>
       </c>
       <c r="R250" t="inlineStr"/>
+      <c r="S250" t="n">
+        <v>4.511472872538574</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
@@ -14496,7 +15248,7 @@
         <v>169.34</v>
       </c>
       <c r="H251" t="n">
-        <v>155.48</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="I251" t="n">
         <v>100.96</v>
@@ -14524,6 +15276,9 @@
         <v>0</v>
       </c>
       <c r="R251" t="inlineStr"/>
+      <c r="S251" t="n">
+        <v>3.459500459801533</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
@@ -14552,7 +15307,7 @@
         <v>171.14</v>
       </c>
       <c r="H252" t="n">
-        <v>157.64</v>
+        <v>69.8</v>
       </c>
       <c r="I252" t="n">
         <v>101.11</v>
@@ -14580,6 +15335,9 @@
         <v>0</v>
       </c>
       <c r="R252" t="inlineStr"/>
+      <c r="S252" t="n">
+        <v>3.485753760369212</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
@@ -14608,7 +15366,7 @@
         <v>172.04</v>
       </c>
       <c r="H253" t="n">
-        <v>159.08</v>
+        <v>70.59999999999999</v>
       </c>
       <c r="I253" t="n">
         <v>101.61</v>
@@ -14636,6 +15394,9 @@
         <v>0</v>
       </c>
       <c r="R253" t="inlineStr"/>
+      <c r="S253" t="n">
+        <v>3.529611401056645</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
@@ -14664,7 +15425,7 @@
         <v>160.34</v>
       </c>
       <c r="H254" t="n">
-        <v>149.9</v>
+        <v>65.5</v>
       </c>
       <c r="I254" t="n">
         <v>101.89</v>
@@ -14692,6 +15453,9 @@
         <v>0</v>
       </c>
       <c r="R254" t="inlineStr"/>
+      <c r="S254" t="n">
+        <v>3.800313766281936</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
@@ -14720,7 +15484,7 @@
         <v>164.66</v>
       </c>
       <c r="H255" t="n">
-        <v>150.98</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="I255" t="n">
         <v>101.75</v>
@@ -14748,6 +15512,9 @@
         <v>0</v>
       </c>
       <c r="R255" t="inlineStr"/>
+      <c r="S255" t="n">
+        <v>3.487909633771463</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
@@ -14776,7 +15543,7 @@
         <v>168.26</v>
       </c>
       <c r="H256" t="n">
-        <v>157.1</v>
+        <v>69.5</v>
       </c>
       <c r="I256" t="n">
         <v>101.69</v>
@@ -14804,6 +15571,9 @@
         <v>0</v>
       </c>
       <c r="R256" t="inlineStr"/>
+      <c r="S256" t="n">
+        <v>3.699141158667751</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
@@ -14832,7 +15602,7 @@
         <v>170.96</v>
       </c>
       <c r="H257" t="n">
-        <v>157.82</v>
+        <v>69.90000000000001</v>
       </c>
       <c r="I257" t="n">
         <v>101.65</v>
@@ -14860,6 +15630,9 @@
         <v>0</v>
       </c>
       <c r="R257" t="inlineStr"/>
+      <c r="S257" t="n">
+        <v>3.516875662597828</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
@@ -14888,7 +15661,7 @@
         <v>172.94</v>
       </c>
       <c r="H258" t="n">
-        <v>156.74</v>
+        <v>69.3</v>
       </c>
       <c r="I258" t="n">
         <v>101.65</v>
@@ -14916,6 +15689,9 @@
         <v>0</v>
       </c>
       <c r="R258" t="inlineStr"/>
+      <c r="S258" t="n">
+        <v>3.260497612153413</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
@@ -14944,7 +15720,7 @@
         <v>175.64</v>
       </c>
       <c r="H259" t="n">
-        <v>163.4</v>
+        <v>73</v>
       </c>
       <c r="I259" t="n">
         <v>101.46</v>
@@ -14972,6 +15748,9 @@
         <v>0</v>
       </c>
       <c r="R259" t="inlineStr"/>
+      <c r="S259" t="n">
+        <v>3.582739463367933</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
@@ -15000,7 +15779,7 @@
         <v>176</v>
       </c>
       <c r="H260" t="n">
-        <v>162.68</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="I260" t="n">
         <v>101.58</v>
@@ -15028,6 +15807,9 @@
         <v>0</v>
       </c>
       <c r="R260" t="inlineStr"/>
+      <c r="S260" t="n">
+        <v>3.490746400398947</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
@@ -15056,7 +15838,7 @@
         <v>171.5</v>
       </c>
       <c r="H261" t="n">
-        <v>158.72</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="I261" t="n">
         <v>101.69</v>
@@ -15084,6 +15866,9 @@
         <v>0</v>
       </c>
       <c r="R261" t="inlineStr"/>
+      <c r="S261" t="n">
+        <v>3.546400252728181</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
@@ -15112,7 +15897,7 @@
         <v>172.22</v>
       </c>
       <c r="H262" t="n">
-        <v>157.64</v>
+        <v>69.8</v>
       </c>
       <c r="I262" t="n">
         <v>101.61</v>
@@ -15140,6 +15925,9 @@
         <v>0</v>
       </c>
       <c r="R262" t="inlineStr"/>
+      <c r="S262" t="n">
+        <v>3.393040220553701</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
@@ -15168,7 +15956,7 @@
         <v>170.78</v>
       </c>
       <c r="H263" t="n">
-        <v>161.24</v>
+        <v>71.8</v>
       </c>
       <c r="I263" t="n">
         <v>101.42</v>
@@ -15196,6 +15984,9 @@
         <v>0</v>
       </c>
       <c r="R263" t="inlineStr"/>
+      <c r="S263" t="n">
+        <v>3.83747333999654</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
@@ -15224,7 +16015,7 @@
         <v>170.6</v>
       </c>
       <c r="H264" t="n">
-        <v>160.16</v>
+        <v>71.2</v>
       </c>
       <c r="I264" t="n">
         <v>101.52</v>
@@ -15252,6 +16043,9 @@
         <v>0</v>
       </c>
       <c r="R264" t="inlineStr"/>
+      <c r="S264" t="n">
+        <v>3.755836866793542</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
@@ -15280,7 +16074,7 @@
         <v>170.06</v>
       </c>
       <c r="H265" t="n">
-        <v>162.32</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="I265" t="n">
         <v>101.35</v>
@@ -15308,6 +16102,9 @@
         <v>0.021082</v>
       </c>
       <c r="R265" t="inlineStr"/>
+      <c r="S265" t="n">
+        <v>4.010092895865039</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
@@ -15336,7 +16133,7 @@
         <v>169.88</v>
       </c>
       <c r="H266" t="n">
-        <v>159.62</v>
+        <v>70.90000000000001</v>
       </c>
       <c r="I266" t="n">
         <v>101.4</v>
@@ -15364,6 +16161,9 @@
         <v>0</v>
       </c>
       <c r="R266" t="inlineStr"/>
+      <c r="S266" t="n">
+        <v>3.774856636283221</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
@@ -15392,7 +16192,7 @@
         <v>167.9</v>
       </c>
       <c r="H267" t="n">
-        <v>155.12</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="I267" t="n">
         <v>101.63</v>
@@ -15420,6 +16220,9 @@
         <v>0</v>
       </c>
       <c r="R267" t="inlineStr"/>
+      <c r="S267" t="n">
+        <v>3.556453631802934</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
@@ -15448,7 +16251,7 @@
         <v>167.18</v>
       </c>
       <c r="H268" t="n">
-        <v>151.88</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="I268" t="n">
         <v>101.56</v>
@@ -15476,6 +16279,9 @@
         <v>0</v>
       </c>
       <c r="R268" t="inlineStr"/>
+      <c r="S268" t="n">
+        <v>3.343525567263054</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
@@ -15504,7 +16310,7 @@
         <v>160.7</v>
       </c>
       <c r="H269" t="n">
-        <v>141.44</v>
+        <v>60.8</v>
       </c>
       <c r="I269" t="n">
         <v>101.74</v>
@@ -15532,6 +16338,9 @@
         <v>0</v>
       </c>
       <c r="R269" t="inlineStr"/>
+      <c r="S269" t="n">
+        <v>3.035960311289827</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
@@ -15560,7 +16369,7 @@
         <v>168.26</v>
       </c>
       <c r="H270" t="n">
-        <v>147.02</v>
+        <v>63.9</v>
       </c>
       <c r="I270" t="n">
         <v>101.64</v>
@@ -15588,6 +16397,9 @@
         <v>0</v>
       </c>
       <c r="R270" t="inlineStr"/>
+      <c r="S270" t="n">
+        <v>2.879673798594187</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
@@ -15616,7 +16428,7 @@
         <v>162.5</v>
       </c>
       <c r="H271" t="n">
-        <v>141.08</v>
+        <v>60.6</v>
       </c>
       <c r="I271" t="n">
         <v>101.25</v>
@@ -15644,6 +16456,9 @@
         <v>0</v>
       </c>
       <c r="R271" t="inlineStr"/>
+      <c r="S271" t="n">
+        <v>2.869204100090933</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
@@ -15672,7 +16487,7 @@
         <v>163.4</v>
       </c>
       <c r="H272" t="n">
-        <v>142.7</v>
+        <v>61.5</v>
       </c>
       <c r="I272" t="n">
         <v>101.42</v>
@@ -15700,6 +16515,9 @@
         <v>0</v>
       </c>
       <c r="R272" t="inlineStr"/>
+      <c r="S272" t="n">
+        <v>2.922223564183962</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
@@ -15728,7 +16546,7 @@
         <v>157.82</v>
       </c>
       <c r="H273" t="n">
-        <v>140.72</v>
+        <v>60.4</v>
       </c>
       <c r="I273" t="n">
         <v>101.83</v>
@@ -15756,6 +16574,9 @@
         <v>0</v>
       </c>
       <c r="R273" t="inlineStr"/>
+      <c r="S273" t="n">
+        <v>3.216545157000347</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
@@ -15784,7 +16605,7 @@
         <v>132.26</v>
       </c>
       <c r="H274" t="n">
-        <v>113.72</v>
+        <v>45.4</v>
       </c>
       <c r="I274" t="n">
         <v>102.35</v>
@@ -15812,6 +16633,9 @@
         <v>0</v>
       </c>
       <c r="R274" t="inlineStr"/>
+      <c r="S274" t="n">
+        <v>3.197871630921106</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
@@ -15840,7 +16664,7 @@
         <v>149</v>
       </c>
       <c r="H275" t="n">
-        <v>119.12</v>
+        <v>48.4</v>
       </c>
       <c r="I275" t="n">
         <v>102.05</v>
@@ -15868,6 +16692,9 @@
         <v>0</v>
       </c>
       <c r="R275" t="inlineStr"/>
+      <c r="S275" t="n">
+        <v>2.28688229065831</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
@@ -15896,7 +16723,7 @@
         <v>148.28</v>
       </c>
       <c r="H276" t="n">
-        <v>117.86</v>
+        <v>47.7</v>
       </c>
       <c r="I276" t="n">
         <v>101.51</v>
@@ -15924,6 +16751,9 @@
         <v>0</v>
       </c>
       <c r="R276" t="inlineStr"/>
+      <c r="S276" t="n">
+        <v>2.252188261376013</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
@@ -15952,7 +16782,7 @@
         <v>139.46</v>
       </c>
       <c r="H277" t="n">
-        <v>111.92</v>
+        <v>44.4</v>
       </c>
       <c r="I277" t="n">
         <v>102.12</v>
@@ -15980,6 +16810,9 @@
         <v>0</v>
       </c>
       <c r="R277" t="inlineStr"/>
+      <c r="S277" t="n">
+        <v>2.448498148576375</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
@@ -16008,7 +16841,7 @@
         <v>144.68</v>
       </c>
       <c r="H278" t="n">
-        <v>114.62</v>
+        <v>45.9</v>
       </c>
       <c r="I278" t="n">
         <v>102.2</v>
@@ -16036,6 +16869,9 @@
         <v>0</v>
       </c>
       <c r="R278" t="inlineStr"/>
+      <c r="S278" t="n">
+        <v>2.274708969239131</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
@@ -16064,7 +16900,7 @@
         <v>150.98</v>
       </c>
       <c r="H279" t="n">
-        <v>117.86</v>
+        <v>47.7</v>
       </c>
       <c r="I279" t="n">
         <v>102.25</v>
@@ -16092,6 +16928,9 @@
         <v>0</v>
       </c>
       <c r="R279" t="inlineStr"/>
+      <c r="S279" t="n">
+        <v>2.089102340620471</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
@@ -16120,7 +16959,7 @@
         <v>155.3</v>
       </c>
       <c r="H280" t="n">
-        <v>133.52</v>
+        <v>56.4</v>
       </c>
       <c r="I280" t="n">
         <v>102.23</v>
@@ -16148,6 +16987,9 @@
         <v>0</v>
       </c>
       <c r="R280" t="inlineStr"/>
+      <c r="S280" t="n">
+        <v>2.849710224601369</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
@@ -16176,7 +17018,7 @@
         <v>162.32</v>
       </c>
       <c r="H281" t="n">
-        <v>141.26</v>
+        <v>60.7</v>
       </c>
       <c r="I281" t="n">
         <v>102.07</v>
@@ -16204,6 +17046,9 @@
         <v>0</v>
       </c>
       <c r="R281" t="inlineStr"/>
+      <c r="S281" t="n">
+        <v>2.896161871624636</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
@@ -16232,7 +17077,7 @@
         <v>158.18</v>
       </c>
       <c r="H282" t="n">
-        <v>142.52</v>
+        <v>61.4</v>
       </c>
       <c r="I282" t="n">
         <v>102.18</v>
@@ -16260,6 +17105,9 @@
         <v>0</v>
       </c>
       <c r="R282" t="inlineStr"/>
+      <c r="S282" t="n">
+        <v>3.337207254988547</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
@@ -16288,7 +17136,7 @@
         <v>158.54</v>
       </c>
       <c r="H283" t="n">
-        <v>140.36</v>
+        <v>60.2</v>
       </c>
       <c r="I283" t="n">
         <v>102.18</v>
@@ -16316,6 +17164,9 @@
         <v>0</v>
       </c>
       <c r="R283" t="inlineStr"/>
+      <c r="S283" t="n">
+        <v>3.126092484049758</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
@@ -16344,7 +17195,7 @@
         <v>158.54</v>
       </c>
       <c r="H284" t="n">
-        <v>145.22</v>
+        <v>62.9</v>
       </c>
       <c r="I284" t="n">
         <v>102.02</v>
@@ -16372,6 +17223,9 @@
         <v>0</v>
       </c>
       <c r="R284" t="inlineStr"/>
+      <c r="S284" t="n">
+        <v>3.541772318558384</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
@@ -16400,7 +17254,7 @@
         <v>154.22</v>
       </c>
       <c r="H285" t="n">
-        <v>136.4</v>
+        <v>58</v>
       </c>
       <c r="I285" t="n">
         <v>102.2</v>
@@ -16428,6 +17282,9 @@
         <v>0</v>
       </c>
       <c r="R285" t="inlineStr"/>
+      <c r="S285" t="n">
+        <v>3.166575889794557</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
@@ -16456,7 +17313,7 @@
         <v>158.72</v>
       </c>
       <c r="H286" t="n">
-        <v>148.82</v>
+        <v>64.90000000000001</v>
       </c>
       <c r="I286" t="n">
         <v>101.76</v>
@@ -16484,6 +17341,9 @@
         <v>0</v>
       </c>
       <c r="R286" t="inlineStr"/>
+      <c r="S286" t="n">
+        <v>3.860918877579097</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
@@ -16512,7 +17372,7 @@
         <v>166.1</v>
       </c>
       <c r="H287" t="n">
-        <v>150.44</v>
+        <v>65.8</v>
       </c>
       <c r="I287" t="n">
         <v>101.28</v>
@@ -16540,6 +17400,9 @@
         <v>0</v>
       </c>
       <c r="R287" t="inlineStr"/>
+      <c r="S287" t="n">
+        <v>3.316011961058483</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
@@ -16568,7 +17431,7 @@
         <v>169.16</v>
       </c>
       <c r="H288" t="n">
-        <v>156.02</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="I288" t="n">
         <v>100.84</v>
@@ -16596,6 +17459,9 @@
         <v>0</v>
       </c>
       <c r="R288" t="inlineStr"/>
+      <c r="S288" t="n">
+        <v>3.521577883969691</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
@@ -16624,7 +17490,7 @@
         <v>161.78</v>
       </c>
       <c r="H289" t="n">
-        <v>145.04</v>
+        <v>62.8</v>
       </c>
       <c r="I289" t="n">
         <v>101.28</v>
@@ -16652,6 +17518,9 @@
         <v>0</v>
       </c>
       <c r="R289" t="inlineStr"/>
+      <c r="S289" t="n">
+        <v>3.236477568508958</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
@@ -16680,7 +17549,7 @@
         <v>150.62</v>
       </c>
       <c r="H290" t="n">
-        <v>129.38</v>
+        <v>54.1</v>
       </c>
       <c r="I290" t="n">
         <v>101.98</v>
@@ -16708,6 +17577,9 @@
         <v>0</v>
       </c>
       <c r="R290" t="inlineStr"/>
+      <c r="S290" t="n">
+        <v>2.899248207330557</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
@@ -16736,7 +17608,7 @@
         <v>153.5</v>
       </c>
       <c r="H291" t="n">
-        <v>138.38</v>
+        <v>59.1</v>
       </c>
       <c r="I291" t="n">
         <v>102.19</v>
@@ -16764,6 +17636,9 @@
         <v>0</v>
       </c>
       <c r="R291" t="inlineStr"/>
+      <c r="S291" t="n">
+        <v>3.401265424073025</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
@@ -16792,7 +17667,7 @@
         <v>154.04</v>
       </c>
       <c r="H292" t="n">
-        <v>140.54</v>
+        <v>60.3</v>
       </c>
       <c r="I292" t="n">
         <v>102.12</v>
@@ -16820,6 +17695,9 @@
         <v>0</v>
       </c>
       <c r="R292" t="inlineStr"/>
+      <c r="S292" t="n">
+        <v>3.545184168865349</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
@@ -16848,7 +17726,7 @@
         <v>140.9</v>
       </c>
       <c r="H293" t="n">
-        <v>122.36</v>
+        <v>50.2</v>
       </c>
       <c r="I293" t="n">
         <v>102.32</v>
@@ -16876,6 +17754,9 @@
         <v>0</v>
       </c>
       <c r="R293" t="inlineStr"/>
+      <c r="S293" t="n">
+        <v>3.153521097770085</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
@@ -16904,7 +17785,7 @@
         <v>135.14</v>
       </c>
       <c r="H294" t="n">
-        <v>110.3</v>
+        <v>43.5</v>
       </c>
       <c r="I294" t="n">
         <v>102.28</v>
@@ -16932,6 +17813,9 @@
         <v>0</v>
       </c>
       <c r="R294" t="inlineStr"/>
+      <c r="S294" t="n">
+        <v>2.655929904025739</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
@@ -16960,7 +17844,7 @@
         <v>151.52</v>
       </c>
       <c r="H295" t="n">
-        <v>124.16</v>
+        <v>51.2</v>
       </c>
       <c r="I295" t="n">
         <v>101.8</v>
@@ -16988,6 +17872,9 @@
         <v>0</v>
       </c>
       <c r="R295" t="inlineStr"/>
+      <c r="S295" t="n">
+        <v>2.452985860298727</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
@@ -17016,7 +17903,7 @@
         <v>138.38</v>
       </c>
       <c r="H296" t="n">
-        <v>121.82</v>
+        <v>49.9</v>
       </c>
       <c r="I296" t="n">
         <v>102.13</v>
@@ -17044,6 +17931,9 @@
         <v>0</v>
       </c>
       <c r="R296" t="inlineStr"/>
+      <c r="S296" t="n">
+        <v>3.344787271116988</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
@@ -17072,7 +17962,7 @@
         <v>131.18</v>
       </c>
       <c r="H297" t="n">
-        <v>110.12</v>
+        <v>43.4</v>
       </c>
       <c r="I297" t="n">
         <v>102.25</v>
@@ -17100,6 +17990,9 @@
         <v>0</v>
       </c>
       <c r="R297" t="inlineStr"/>
+      <c r="S297" t="n">
+        <v>2.979244033243085</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
@@ -17128,7 +18021,7 @@
         <v>153.32</v>
       </c>
       <c r="H298" t="n">
-        <v>123.8</v>
+        <v>51</v>
       </c>
       <c r="I298" t="n">
         <v>101.95</v>
@@ -17156,6 +18049,9 @@
         <v>0</v>
       </c>
       <c r="R298" t="inlineStr"/>
+      <c r="S298" t="n">
+        <v>2.311699684771116</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
@@ -17184,7 +18080,7 @@
         <v>156.02</v>
       </c>
       <c r="H299" t="n">
-        <v>132.98</v>
+        <v>56.1</v>
       </c>
       <c r="I299" t="n">
         <v>101.66</v>
@@ -17212,6 +18108,9 @@
         <v>0</v>
       </c>
       <c r="R299" t="inlineStr"/>
+      <c r="S299" t="n">
+        <v>2.754973245363837</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
@@ -17240,7 +18139,7 @@
         <v>157.82</v>
       </c>
       <c r="H300" t="n">
-        <v>143.96</v>
+        <v>62.2</v>
       </c>
       <c r="I300" t="n">
         <v>101.86</v>
@@ -17268,6 +18167,9 @@
         <v>0</v>
       </c>
       <c r="R300" t="inlineStr"/>
+      <c r="S300" t="n">
+        <v>3.496185410346884</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
@@ -17296,7 +18198,7 @@
         <v>159.26</v>
       </c>
       <c r="H301" t="n">
-        <v>151.88</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="I301" t="n">
         <v>101.56</v>
@@ -17324,6 +18226,9 @@
         <v>0.000508</v>
       </c>
       <c r="R301" t="inlineStr"/>
+      <c r="S301" t="n">
+        <v>4.108452705252369</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="n">
@@ -17352,7 +18257,7 @@
         <v>163.4</v>
       </c>
       <c r="H302" t="n">
-        <v>154.04</v>
+        <v>67.8</v>
       </c>
       <c r="I302" t="n">
         <v>101.34</v>
@@ -17380,6 +18285,9 @@
         <v>0</v>
       </c>
       <c r="R302" t="inlineStr"/>
+      <c r="S302" t="n">
+        <v>3.887782327547756</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
@@ -17408,7 +18316,7 @@
         <v>163.76</v>
       </c>
       <c r="H303" t="n">
-        <v>153.5</v>
+        <v>67.5</v>
       </c>
       <c r="I303" t="n">
         <v>101.59</v>
@@ -17436,6 +18344,9 @@
         <v>0</v>
       </c>
       <c r="R303" t="inlineStr"/>
+      <c r="S303" t="n">
+        <v>3.800600532687637</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
@@ -17464,7 +18375,7 @@
         <v>163.22</v>
       </c>
       <c r="H304" t="n">
-        <v>153.86</v>
+        <v>67.7</v>
       </c>
       <c r="I304" t="n">
         <v>101.74</v>
@@ -17492,6 +18403,9 @@
         <v>0</v>
       </c>
       <c r="R304" t="inlineStr"/>
+      <c r="S304" t="n">
+        <v>3.888709303508996</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
@@ -17520,7 +18434,7 @@
         <v>165.38</v>
       </c>
       <c r="H305" t="n">
-        <v>156.74</v>
+        <v>69.3</v>
       </c>
       <c r="I305" t="n">
         <v>101.58</v>
@@ -17548,6 +18462,9 @@
         <v>0.001016</v>
       </c>
       <c r="R305" t="inlineStr"/>
+      <c r="S305" t="n">
+        <v>3.94683145342419</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="n">
@@ -17576,7 +18493,7 @@
         <v>163.22</v>
       </c>
       <c r="H306" t="n">
-        <v>153.32</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="I306" t="n">
         <v>101.55</v>
@@ -17604,6 +18521,9 @@
         <v>0</v>
       </c>
       <c r="R306" t="inlineStr"/>
+      <c r="S306" t="n">
+        <v>3.837173607688879</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="n">
@@ -17632,7 +18552,7 @@
         <v>168.62</v>
       </c>
       <c r="H307" t="n">
-        <v>153.68</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="I307" t="n">
         <v>101.54</v>
@@ -17660,6 +18580,9 @@
         <v>0</v>
       </c>
       <c r="R307" t="inlineStr"/>
+      <c r="S307" t="n">
+        <v>3.370355188262568</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="n">
@@ -17688,7 +18611,7 @@
         <v>168.26</v>
       </c>
       <c r="H308" t="n">
-        <v>151.52</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="I308" t="n">
         <v>101.38</v>
@@ -17716,6 +18639,9 @@
         <v>0</v>
       </c>
       <c r="R308" t="inlineStr"/>
+      <c r="S308" t="n">
+        <v>3.223899395159926</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="n">
@@ -17744,7 +18670,7 @@
         <v>169.7</v>
       </c>
       <c r="H309" t="n">
-        <v>154.76</v>
+        <v>68.2</v>
       </c>
       <c r="I309" t="n">
         <v>101.3</v>
@@ -17772,6 +18698,9 @@
         <v>0</v>
       </c>
       <c r="R309" t="inlineStr"/>
+      <c r="S309" t="n">
+        <v>3.368112440126827</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
@@ -17800,7 +18729,7 @@
         <v>161.24</v>
       </c>
       <c r="H310" t="n">
-        <v>146.12</v>
+        <v>63.4</v>
       </c>
       <c r="I310" t="n">
         <v>101.84</v>
@@ -17828,6 +18757,9 @@
         <v>0</v>
       </c>
       <c r="R310" t="inlineStr"/>
+      <c r="S310" t="n">
+        <v>3.374046072307157</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="n">
@@ -17856,7 +18788,7 @@
         <v>161.78</v>
       </c>
       <c r="H311" t="n">
-        <v>141.98</v>
+        <v>61.1</v>
       </c>
       <c r="I311" t="n">
         <v>101.65</v>
@@ -17884,6 +18816,9 @@
         <v>0</v>
       </c>
       <c r="R311" t="inlineStr"/>
+      <c r="S311" t="n">
+        <v>2.992434010572021</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="n">
@@ -17912,7 +18847,7 @@
         <v>158.54</v>
       </c>
       <c r="H312" t="n">
-        <v>133.34</v>
+        <v>56.3</v>
       </c>
       <c r="I312" t="n">
         <v>101.9</v>
@@ -17940,6 +18875,9 @@
         <v>0</v>
       </c>
       <c r="R312" t="inlineStr"/>
+      <c r="S312" t="n">
+        <v>2.599929970442141</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="n">
@@ -17968,7 +18906,7 @@
         <v>161.24</v>
       </c>
       <c r="H313" t="n">
-        <v>144.14</v>
+        <v>62.3</v>
       </c>
       <c r="I313" t="n">
         <v>101.67</v>
@@ -17996,6 +18934,9 @@
         <v>0</v>
       </c>
       <c r="R313" t="inlineStr"/>
+      <c r="S313" t="n">
+        <v>3.208110307330743</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="n">
@@ -18024,7 +18965,7 @@
         <v>152.42</v>
       </c>
       <c r="H314" t="n">
-        <v>127.76</v>
+        <v>53.2</v>
       </c>
       <c r="I314" t="n">
         <v>102.58</v>
@@ -18052,6 +18993,9 @@
         <v>0</v>
       </c>
       <c r="R314" t="inlineStr"/>
+      <c r="S314" t="n">
+        <v>2.640484524215565</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="n">
@@ -18080,7 +19024,7 @@
         <v>160.16</v>
       </c>
       <c r="H315" t="n">
-        <v>137.48</v>
+        <v>58.6</v>
       </c>
       <c r="I315" t="n">
         <v>102.05</v>
@@ -18108,6 +19052,9 @@
         <v>0</v>
       </c>
       <c r="R315" t="inlineStr"/>
+      <c r="S315" t="n">
+        <v>2.77818894397419</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
@@ -18136,7 +19083,7 @@
         <v>151.52</v>
       </c>
       <c r="H316" t="n">
-        <v>128.66</v>
+        <v>53.7</v>
       </c>
       <c r="I316" t="n">
         <v>102.42</v>
@@ -18164,6 +19111,9 @@
         <v>0</v>
       </c>
       <c r="R316" t="inlineStr"/>
+      <c r="S316" t="n">
+        <v>2.773526555513802</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
@@ -18192,7 +19142,7 @@
         <v>149.9</v>
       </c>
       <c r="H317" t="n">
-        <v>130.1</v>
+        <v>54.5</v>
       </c>
       <c r="I317" t="n">
         <v>102.36</v>
@@ -18220,6 +19170,9 @@
         <v>0</v>
       </c>
       <c r="R317" t="inlineStr"/>
+      <c r="S317" t="n">
+        <v>3.015719284633967</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="n">
@@ -18248,7 +19201,7 @@
         <v>154.04</v>
       </c>
       <c r="H318" t="n">
-        <v>119.84</v>
+        <v>48.8</v>
       </c>
       <c r="I318" t="n">
         <v>102.3</v>
@@ -18276,6 +19229,9 @@
         <v>0</v>
       </c>
       <c r="R318" t="inlineStr"/>
+      <c r="S318" t="n">
+        <v>2.030704637655552</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="n">
@@ -18304,7 +19260,7 @@
         <v>160.7</v>
       </c>
       <c r="H319" t="n">
-        <v>125.78</v>
+        <v>52.1</v>
       </c>
       <c r="I319" t="n">
         <v>102.1</v>
@@ -18332,6 +19288,9 @@
         <v>0</v>
       </c>
       <c r="R319" t="inlineStr"/>
+      <c r="S319" t="n">
+        <v>2.002465631254595</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="n">
@@ -18360,7 +19319,7 @@
         <v>163.76</v>
       </c>
       <c r="H320" t="n">
-        <v>135.14</v>
+        <v>57.3</v>
       </c>
       <c r="I320" t="n">
         <v>101.82</v>
@@ -18388,6 +19347,9 @@
         <v>0</v>
       </c>
       <c r="R320" t="inlineStr"/>
+      <c r="S320" t="n">
+        <v>2.377440497436909</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="n">
@@ -18416,7 +19378,7 @@
         <v>161.6</v>
       </c>
       <c r="H321" t="n">
-        <v>137.84</v>
+        <v>58.8</v>
       </c>
       <c r="I321" t="n">
         <v>101.85</v>
@@ -18444,6 +19406,9 @@
         <v>0</v>
       </c>
       <c r="R321" t="inlineStr"/>
+      <c r="S321" t="n">
+        <v>2.700217652069541</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="n">
@@ -18472,7 +19437,7 @@
         <v>163.22</v>
       </c>
       <c r="H322" t="n">
-        <v>132.08</v>
+        <v>55.6</v>
       </c>
       <c r="I322" t="n">
         <v>101.85</v>
@@ -18500,6 +19465,9 @@
         <v>0</v>
       </c>
       <c r="R322" t="inlineStr"/>
+      <c r="S322" t="n">
+        <v>2.222763993005854</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="n">
@@ -18528,7 +19496,7 @@
         <v>154.76</v>
       </c>
       <c r="H323" t="n">
-        <v>130.64</v>
+        <v>54.8</v>
       </c>
       <c r="I323" t="n">
         <v>102</v>
@@ -18556,6 +19524,9 @@
         <v>0</v>
       </c>
       <c r="R323" t="inlineStr"/>
+      <c r="S323" t="n">
+        <v>2.677525457739976</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="n">
@@ -18584,7 +19555,7 @@
         <v>153.14</v>
       </c>
       <c r="H324" t="n">
-        <v>135.5</v>
+        <v>57.5</v>
       </c>
       <c r="I324" t="n">
         <v>101.58</v>
@@ -18612,6 +19583,9 @@
         <v>0</v>
       </c>
       <c r="R324" t="inlineStr"/>
+      <c r="S324" t="n">
+        <v>3.184839788679698</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="n">
@@ -18640,7 +19614,7 @@
         <v>159.08</v>
       </c>
       <c r="H325" t="n">
-        <v>139.1</v>
+        <v>59.5</v>
       </c>
       <c r="I325" t="n">
         <v>101.79</v>
@@ -18668,6 +19642,9 @@
         <v>0</v>
       </c>
       <c r="R325" t="inlineStr"/>
+      <c r="S325" t="n">
+        <v>2.982311451127198</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="n">
@@ -18696,7 +19673,7 @@
         <v>163.58</v>
       </c>
       <c r="H326" t="n">
-        <v>149.72</v>
+        <v>65.40000000000001</v>
       </c>
       <c r="I326" t="n">
         <v>101.44</v>
@@ -18724,6 +19701,9 @@
         <v>0</v>
       </c>
       <c r="R326" t="inlineStr"/>
+      <c r="S326" t="n">
+        <v>3.475633466197469</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="n">
@@ -18752,7 +19732,7 @@
         <v>173.3</v>
       </c>
       <c r="H327" t="n">
-        <v>159.98</v>
+        <v>71.09999999999999</v>
       </c>
       <c r="I327" t="n">
         <v>101.41</v>
@@ -18780,6 +19760,9 @@
         <v>0</v>
       </c>
       <c r="R327" t="inlineStr"/>
+      <c r="S327" t="n">
+        <v>3.496132223104195</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="n">
@@ -18808,7 +19791,7 @@
         <v>171.32</v>
       </c>
       <c r="H328" t="n">
-        <v>156.56</v>
+        <v>69.2</v>
       </c>
       <c r="I328" t="n">
         <v>101.34</v>
@@ -18836,6 +19819,9 @@
         <v>0</v>
       </c>
       <c r="R328" t="inlineStr"/>
+      <c r="S328" t="n">
+        <v>3.379847130714837</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="n">
@@ -18864,7 +19850,7 @@
         <v>161.96</v>
       </c>
       <c r="H329" t="n">
-        <v>148.64</v>
+        <v>64.8</v>
       </c>
       <c r="I329" t="n">
         <v>101.47</v>
@@ -18892,6 +19878,9 @@
         <v>0</v>
       </c>
       <c r="R329" t="inlineStr"/>
+      <c r="S329" t="n">
+        <v>3.528592445308222</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="n">
@@ -18920,7 +19909,7 @@
         <v>167.36</v>
       </c>
       <c r="H330" t="n">
-        <v>146.84</v>
+        <v>63.8</v>
       </c>
       <c r="I330" t="n">
         <v>101.58</v>
@@ -18948,6 +19937,9 @@
         <v>0</v>
       </c>
       <c r="R330" t="inlineStr"/>
+      <c r="S330" t="n">
+        <v>2.932959321789375</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="n">
@@ -18976,7 +19968,7 @@
         <v>164.48</v>
       </c>
       <c r="H331" t="n">
-        <v>147.56</v>
+        <v>64.2</v>
       </c>
       <c r="I331" t="n">
         <v>101.68</v>
@@ -19004,6 +19996,9 @@
         <v>0</v>
       </c>
       <c r="R331" t="inlineStr"/>
+      <c r="S331" t="n">
+        <v>3.21600214377967</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="n">
@@ -19032,7 +20027,7 @@
         <v>163.04</v>
       </c>
       <c r="H332" t="n">
-        <v>153.68</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="I332" t="n">
         <v>101.3</v>
@@ -19060,6 +20055,9 @@
         <v>0</v>
       </c>
       <c r="R332" t="inlineStr"/>
+      <c r="S332" t="n">
+        <v>3.889641513355039</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="n">
@@ -19088,7 +20086,7 @@
         <v>160.88</v>
       </c>
       <c r="H333" t="n">
-        <v>154.4</v>
+        <v>68</v>
       </c>
       <c r="I333" t="n">
         <v>101.2</v>
@@ -19116,6 +20114,9 @@
         <v>0</v>
       </c>
       <c r="R333" t="inlineStr"/>
+      <c r="S333" t="n">
+        <v>4.189615768172862</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="n">
@@ -19144,7 +20145,7 @@
         <v>163.58</v>
       </c>
       <c r="H334" t="n">
-        <v>153.14</v>
+        <v>67.3</v>
       </c>
       <c r="I334" t="n">
         <v>101.33</v>
@@ -19172,6 +20173,9 @@
         <v>0</v>
       </c>
       <c r="R334" t="inlineStr"/>
+      <c r="S334" t="n">
+        <v>3.784553226757527</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="n">
@@ -19200,7 +20204,7 @@
         <v>158.72</v>
       </c>
       <c r="H335" t="n">
-        <v>147.02</v>
+        <v>63.9</v>
       </c>
       <c r="I335" t="n">
         <v>101.64</v>
@@ -19228,6 +20232,9 @@
         <v>0</v>
       </c>
       <c r="R335" t="inlineStr"/>
+      <c r="S335" t="n">
+        <v>3.68960604618276</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="n">
@@ -19256,7 +20263,7 @@
         <v>155.48</v>
       </c>
       <c r="H336" t="n">
-        <v>130.82</v>
+        <v>54.9</v>
       </c>
       <c r="I336" t="n">
         <v>102.1</v>
@@ -19284,6 +20291,9 @@
         <v>0</v>
       </c>
       <c r="R336" t="inlineStr"/>
+      <c r="S336" t="n">
+        <v>2.638552741790182</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="n">
@@ -19312,7 +20322,7 @@
         <v>160.7</v>
       </c>
       <c r="H337" t="n">
-        <v>143.06</v>
+        <v>61.7</v>
       </c>
       <c r="I337" t="n">
         <v>101.5</v>
@@ -19340,6 +20350,9 @@
         <v>0</v>
       </c>
       <c r="R337" t="inlineStr"/>
+      <c r="S337" t="n">
+        <v>3.165223005582667</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="n">
@@ -19368,7 +20381,7 @@
         <v>168.98</v>
       </c>
       <c r="H338" t="n">
-        <v>146.12</v>
+        <v>63.4</v>
       </c>
       <c r="I338" t="n">
         <v>101.33</v>
@@ -19396,6 +20409,9 @@
         <v>0</v>
       </c>
       <c r="R338" t="inlineStr"/>
+      <c r="S338" t="n">
+        <v>2.763874542308108</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="n">
@@ -19424,7 +20440,7 @@
         <v>172.22</v>
       </c>
       <c r="H339" t="n">
-        <v>153.32</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="I339" t="n">
         <v>101.29</v>
@@ -19452,6 +20468,9 @@
         <v>0</v>
       </c>
       <c r="R339" t="inlineStr"/>
+      <c r="S339" t="n">
+        <v>3.051739479775305</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="n">
@@ -19480,7 +20499,7 @@
         <v>173.12</v>
       </c>
       <c r="H340" t="n">
-        <v>158.72</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="I340" t="n">
         <v>100.66</v>
@@ -19508,6 +20527,9 @@
         <v>0</v>
       </c>
       <c r="R340" t="inlineStr"/>
+      <c r="S340" t="n">
+        <v>3.406272139669543</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="n">
@@ -19536,7 +20558,7 @@
         <v>171.32</v>
       </c>
       <c r="H341" t="n">
-        <v>154.76</v>
+        <v>68.2</v>
       </c>
       <c r="I341" t="n">
         <v>101.11</v>
@@ -19564,6 +20586,9 @@
         <v>0</v>
       </c>
       <c r="R341" t="inlineStr"/>
+      <c r="S341" t="n">
+        <v>3.23389265328747</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="n">
@@ -19592,7 +20617,7 @@
         <v>168.08</v>
       </c>
       <c r="H342" t="n">
-        <v>143.42</v>
+        <v>61.9</v>
       </c>
       <c r="I342" t="n">
         <v>101.45</v>
@@ -19620,6 +20645,9 @@
         <v>0</v>
       </c>
       <c r="R342" t="inlineStr"/>
+      <c r="S342" t="n">
+        <v>2.639486156222591</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="n">
@@ -19648,7 +20676,7 @@
         <v>175.82</v>
       </c>
       <c r="H343" t="n">
-        <v>156.2</v>
+        <v>69</v>
       </c>
       <c r="I343" t="n">
         <v>101.29</v>
@@ -19676,6 +20704,9 @@
         <v>0</v>
       </c>
       <c r="R343" t="inlineStr"/>
+      <c r="S343" t="n">
+        <v>2.997300650116369</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="n">
@@ -19704,7 +20735,7 @@
         <v>178.52</v>
       </c>
       <c r="H344" t="n">
-        <v>164.84</v>
+        <v>73.8</v>
       </c>
       <c r="I344" t="n">
         <v>100.43</v>
@@ -19732,6 +20763,9 @@
         <v>0</v>
       </c>
       <c r="R344" t="inlineStr"/>
+      <c r="S344" t="n">
+        <v>3.456818250352587</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="n">
@@ -19760,7 +20794,7 @@
         <v>168.62</v>
       </c>
       <c r="H345" t="n">
-        <v>156.02</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="I345" t="n">
         <v>101.45</v>
@@ -19788,6 +20822,9 @@
         <v>0</v>
       </c>
       <c r="R345" t="inlineStr"/>
+      <c r="S345" t="n">
+        <v>3.570019714220105</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="n">
@@ -19816,7 +20853,7 @@
         <v>178.16</v>
       </c>
       <c r="H346" t="n">
-        <v>166.82</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="I346" t="n">
         <v>100.98</v>
@@ -19844,6 +20881,9 @@
         <v>0</v>
       </c>
       <c r="R346" t="inlineStr"/>
+      <c r="S346" t="n">
+        <v>3.654284863871096</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="n">
@@ -19872,7 +20912,7 @@
         <v>169.88</v>
       </c>
       <c r="H347" t="n">
-        <v>155.3</v>
+        <v>68.5</v>
       </c>
       <c r="I347" t="n">
         <v>101.25</v>
@@ -19900,6 +20940,9 @@
         <v>0</v>
       </c>
       <c r="R347" t="inlineStr"/>
+      <c r="S347" t="n">
+        <v>3.397674381934126</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="n">
@@ -19928,7 +20971,7 @@
         <v>169.88</v>
       </c>
       <c r="H348" t="n">
-        <v>149.36</v>
+        <v>65.2</v>
       </c>
       <c r="I348" t="n">
         <v>101.51</v>
@@ -19956,6 +20999,9 @@
         <v>0</v>
       </c>
       <c r="R348" t="inlineStr"/>
+      <c r="S348" t="n">
+        <v>2.931958333348564</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="n">
@@ -19984,7 +21030,7 @@
         <v>174.2</v>
       </c>
       <c r="H349" t="n">
-        <v>159.26</v>
+        <v>70.7</v>
       </c>
       <c r="I349" t="n">
         <v>101.58</v>
@@ -20012,6 +21058,9 @@
         <v>0</v>
       </c>
       <c r="R349" t="inlineStr"/>
+      <c r="S349" t="n">
+        <v>3.360209715401465</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="n">
@@ -20040,7 +21089,7 @@
         <v>181.4</v>
       </c>
       <c r="H350" t="n">
-        <v>165.38</v>
+        <v>74.09999999999999</v>
       </c>
       <c r="I350" t="n">
         <v>101.56</v>
@@ -20068,6 +21117,9 @@
         <v>0</v>
       </c>
       <c r="R350" t="inlineStr"/>
+      <c r="S350" t="n">
+        <v>3.267589363185444</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="n">
@@ -20096,7 +21148,7 @@
         <v>182.12</v>
       </c>
       <c r="H351" t="n">
-        <v>164.48</v>
+        <v>73.59999999999999</v>
       </c>
       <c r="I351" t="n">
         <v>101.13</v>
@@ -20124,6 +21176,9 @@
         <v>0</v>
       </c>
       <c r="R351" t="inlineStr"/>
+      <c r="S351" t="n">
+        <v>3.144205032616883</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="n">
@@ -20152,7 +21207,7 @@
         <v>174.56</v>
       </c>
       <c r="H352" t="n">
-        <v>164.66</v>
+        <v>73.7</v>
       </c>
       <c r="I352" t="n">
         <v>100.59</v>
@@ -20180,6 +21235,9 @@
         <v>0</v>
       </c>
       <c r="R352" t="inlineStr"/>
+      <c r="S352" t="n">
+        <v>3.791066444707137</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="n">
@@ -20208,7 +21266,7 @@
         <v>158.54</v>
       </c>
       <c r="H353" t="n">
-        <v>143.78</v>
+        <v>62.1</v>
       </c>
       <c r="I353" t="n">
         <v>101.42</v>
@@ -20236,6 +21294,9 @@
         <v>0</v>
       </c>
       <c r="R353" t="inlineStr"/>
+      <c r="S353" t="n">
+        <v>3.413938428168747</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="n">
@@ -20264,7 +21325,7 @@
         <v>164.84</v>
       </c>
       <c r="H354" t="n">
-        <v>145.94</v>
+        <v>63.3</v>
       </c>
       <c r="I354" t="n">
         <v>101.46</v>
@@ -20292,6 +21353,9 @@
         <v>0</v>
       </c>
       <c r="R354" t="inlineStr"/>
+      <c r="S354" t="n">
+        <v>3.058184157943609</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="n">
@@ -20320,7 +21384,7 @@
         <v>161.06</v>
       </c>
       <c r="H355" t="n">
-        <v>156.2</v>
+        <v>69</v>
       </c>
       <c r="I355" t="n">
         <v>101.13</v>
@@ -20348,6 +21412,9 @@
         <v>0</v>
       </c>
       <c r="R355" t="inlineStr"/>
+      <c r="S355" t="n">
+        <v>4.358271248437497</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="n">
@@ -20376,7 +21443,7 @@
         <v>160.34</v>
       </c>
       <c r="H356" t="n">
-        <v>153.86</v>
+        <v>67.7</v>
       </c>
       <c r="I356" t="n">
         <v>101.23</v>
@@ -20404,6 +21471,9 @@
         <v>0.00508</v>
       </c>
       <c r="R356" t="inlineStr"/>
+      <c r="S356" t="n">
+        <v>4.193438459005744</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="n">
@@ -20432,7 +21502,7 @@
         <v>176.54</v>
       </c>
       <c r="H357" t="n">
-        <v>163.94</v>
+        <v>73.3</v>
       </c>
       <c r="I357" t="n">
         <v>100.98</v>
@@ -20460,6 +21530,9 @@
         <v>0</v>
       </c>
       <c r="R357" t="inlineStr"/>
+      <c r="S357" t="n">
+        <v>3.550207456339063</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="n">
@@ -20488,7 +21561,7 @@
         <v>182.12</v>
       </c>
       <c r="H358" t="n">
-        <v>167.36</v>
+        <v>75.2</v>
       </c>
       <c r="I358" t="n">
         <v>100.95</v>
@@ -20516,6 +21589,9 @@
         <v>0</v>
       </c>
       <c r="R358" t="inlineStr"/>
+      <c r="S358" t="n">
+        <v>3.365853215444645</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" t="n">
@@ -20544,7 +21620,7 @@
         <v>180.68</v>
       </c>
       <c r="H359" t="n">
-        <v>168.62</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="I359" t="n">
         <v>100.63</v>
@@ -20572,6 +21648,9 @@
         <v>0</v>
       </c>
       <c r="R359" t="inlineStr"/>
+      <c r="S359" t="n">
+        <v>3.587974563704269</v>
+      </c>
     </row>
     <row r="360">
       <c r="A360" t="n">
@@ -20600,7 +21679,7 @@
         <v>164.12</v>
       </c>
       <c r="H360" t="n">
-        <v>157.1</v>
+        <v>69.5</v>
       </c>
       <c r="I360" t="n">
         <v>101.17</v>
@@ -20628,6 +21707,9 @@
         <v>0</v>
       </c>
       <c r="R360" t="inlineStr"/>
+      <c r="S360" t="n">
+        <v>4.113318803396012</v>
+      </c>
     </row>
     <row r="361">
       <c r="A361" t="n">
@@ -20656,7 +21738,7 @@
         <v>172.04</v>
       </c>
       <c r="H361" t="n">
-        <v>165.74</v>
+        <v>74.3</v>
       </c>
       <c r="I361" t="n">
         <v>101.27</v>
@@ -20684,6 +21766,9 @@
         <v>0</v>
       </c>
       <c r="R361" t="inlineStr"/>
+      <c r="S361" t="n">
+        <v>4.139898010263553</v>
+      </c>
     </row>
     <row r="362">
       <c r="A362" t="n">
@@ -20712,7 +21797,7 @@
         <v>172.76</v>
       </c>
       <c r="H362" t="n">
-        <v>156.02</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="I362" t="n">
         <v>101.14</v>
@@ -20740,6 +21825,9 @@
         <v>0</v>
       </c>
       <c r="R362" t="inlineStr"/>
+      <c r="S362" t="n">
+        <v>3.217920131792136</v>
+      </c>
     </row>
     <row r="363">
       <c r="A363" t="n">
@@ -20768,7 +21856,7 @@
         <v>183.2</v>
       </c>
       <c r="H363" t="n">
-        <v>166.28</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="I363" t="n">
         <v>100.85</v>
@@ -20796,6 +21884,9 @@
         <v>0</v>
       </c>
       <c r="R363" t="inlineStr"/>
+      <c r="S363" t="n">
+        <v>3.198333596311277</v>
+      </c>
     </row>
     <row r="364">
       <c r="A364" t="n">
@@ -20824,7 +21915,7 @@
         <v>186.08</v>
       </c>
       <c r="H364" t="n">
-        <v>162.32</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="I364" t="n">
         <v>99.59999999999999</v>
@@ -20852,6 +21943,9 @@
         <v>0</v>
       </c>
       <c r="R364" t="inlineStr"/>
+      <c r="S364" t="n">
+        <v>2.720536084115782</v>
+      </c>
     </row>
     <row r="365">
       <c r="A365" t="n">
@@ -20880,7 +21974,7 @@
         <v>183.56</v>
       </c>
       <c r="H365" t="n">
-        <v>170.06</v>
+        <v>76.7</v>
       </c>
       <c r="I365" t="n">
         <v>100.97</v>
@@ -20908,6 +22002,9 @@
         <v>0</v>
       </c>
       <c r="R365" t="inlineStr"/>
+      <c r="S365" t="n">
+        <v>3.465438618991009</v>
+      </c>
     </row>
     <row r="366">
       <c r="A366" t="n">
@@ -20936,7 +22033,7 @@
         <v>180.32</v>
       </c>
       <c r="H366" t="n">
-        <v>170.06</v>
+        <v>76.7</v>
       </c>
       <c r="I366" t="n">
         <v>101</v>
@@ -20964,6 +22061,9 @@
         <v>0</v>
       </c>
       <c r="R366" t="inlineStr"/>
+      <c r="S366" t="n">
+        <v>3.742898805023837</v>
+      </c>
     </row>
     <row r="367">
       <c r="A367" t="n">
@@ -20992,7 +22092,7 @@
         <v>183.56</v>
       </c>
       <c r="H367" t="n">
-        <v>170.78</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="I367" t="n">
         <v>101.04</v>
@@ -21020,6 +22120,9 @@
         <v>0</v>
       </c>
       <c r="R367" t="inlineStr"/>
+      <c r="S367" t="n">
+        <v>3.524027403868778</v>
+      </c>
     </row>
     <row r="368">
       <c r="A368" t="n">
@@ -21048,7 +22151,7 @@
         <v>178.16</v>
       </c>
       <c r="H368" t="n">
-        <v>168.98</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="I368" t="n">
         <v>100.77</v>
@@ -21076,6 +22179,9 @@
         <v>0</v>
       </c>
       <c r="R368" t="inlineStr"/>
+      <c r="S368" t="n">
+        <v>3.844481846260781</v>
+      </c>
     </row>
     <row r="369">
       <c r="A369" t="n">
@@ -21104,7 +22210,7 @@
         <v>186.26</v>
       </c>
       <c r="H369" t="n">
-        <v>172.58</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="I369" t="n">
         <v>100.41</v>
@@ -21132,6 +22238,9 @@
         <v>0</v>
       </c>
       <c r="R369" t="inlineStr"/>
+      <c r="S369" t="n">
+        <v>3.448840292847289</v>
+      </c>
     </row>
     <row r="370">
       <c r="A370" t="n">
@@ -21160,7 +22269,7 @@
         <v>187.7</v>
       </c>
       <c r="H370" t="n">
-        <v>170.96</v>
+        <v>77.2</v>
       </c>
       <c r="I370" t="n">
         <v>100.75</v>
@@ -21188,6 +22297,9 @@
         <v>0</v>
       </c>
       <c r="R370" t="inlineStr"/>
+      <c r="S370" t="n">
+        <v>3.212526517376083</v>
+      </c>
     </row>
     <row r="371">
       <c r="A371" t="n">
@@ -21216,7 +22328,7 @@
         <v>182.66</v>
       </c>
       <c r="H371" t="n">
-        <v>168.98</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="I371" t="n">
         <v>100.91</v>
@@ -21244,6 +22356,9 @@
         <v>0</v>
       </c>
       <c r="R371" t="inlineStr"/>
+      <c r="S371" t="n">
+        <v>3.451779550486709</v>
+      </c>
     </row>
     <row r="372">
       <c r="A372" t="n">
@@ -21272,7 +22387,7 @@
         <v>180.68</v>
       </c>
       <c r="H372" t="n">
-        <v>168.08</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="I372" t="n">
         <v>101.05</v>
@@ -21300,6 +22415,9 @@
         <v>0</v>
       </c>
       <c r="R372" t="inlineStr"/>
+      <c r="S372" t="n">
+        <v>3.542820462071832</v>
+      </c>
     </row>
     <row r="373">
       <c r="A373" t="n">
@@ -21328,7 +22446,7 @@
         <v>185.18</v>
       </c>
       <c r="H373" t="n">
-        <v>166.82</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="I373" t="n">
         <v>101.12</v>
@@ -21356,6 +22474,9 @@
         <v>0</v>
       </c>
       <c r="R373" t="inlineStr"/>
+      <c r="S373" t="n">
+        <v>3.091944566236682</v>
+      </c>
     </row>
     <row r="374">
       <c r="A374" t="n">
@@ -21384,7 +22505,7 @@
         <v>187.88</v>
       </c>
       <c r="H374" t="n">
-        <v>168.44</v>
+        <v>75.8</v>
       </c>
       <c r="I374" t="n">
         <v>101.14</v>
@@ -21412,6 +22533,9 @@
         <v>0</v>
       </c>
       <c r="R374" t="inlineStr"/>
+      <c r="S374" t="n">
+        <v>3.016413660300716</v>
+      </c>
     </row>
     <row r="375">
       <c r="A375" t="n">
@@ -21440,7 +22564,7 @@
         <v>176.54</v>
       </c>
       <c r="H375" t="n">
-        <v>165.38</v>
+        <v>74.09999999999999</v>
       </c>
       <c r="I375" t="n">
         <v>101.19</v>
@@ -21468,6 +22592,9 @@
         <v>0</v>
       </c>
       <c r="R375" t="inlineStr"/>
+      <c r="S375" t="n">
+        <v>3.673763350531608</v>
+      </c>
     </row>
     <row r="376">
       <c r="A376" t="n">
@@ -21496,7 +22623,7 @@
         <v>177.26</v>
       </c>
       <c r="H376" t="n">
-        <v>170.24</v>
+        <v>76.8</v>
       </c>
       <c r="I376" t="n">
         <v>100.85</v>
@@ -21524,6 +22651,9 @@
         <v>0.007873999999999999</v>
       </c>
       <c r="R376" t="inlineStr"/>
+      <c r="S376" t="n">
+        <v>4.046640487094384</v>
+      </c>
     </row>
     <row r="377">
       <c r="A377" t="n">
@@ -21552,7 +22682,7 @@
         <v>184.28</v>
       </c>
       <c r="H377" t="n">
-        <v>170.42</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="I377" t="n">
         <v>100.96</v>
@@ -21580,6 +22710,9 @@
         <v>0</v>
       </c>
       <c r="R377" t="inlineStr"/>
+      <c r="S377" t="n">
+        <v>3.435868404364549</v>
+      </c>
     </row>
     <row r="378">
       <c r="A378" t="n">
@@ -21608,7 +22741,7 @@
         <v>187.52</v>
       </c>
       <c r="H378" t="n">
-        <v>173.12</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="I378" t="n">
         <v>101.1</v>
@@ -21636,6 +22769,9 @@
         <v>0</v>
       </c>
       <c r="R378" t="inlineStr"/>
+      <c r="S378" t="n">
+        <v>3.391388374449928</v>
+      </c>
     </row>
     <row r="379">
       <c r="A379" t="n">
@@ -21664,7 +22800,7 @@
         <v>185.18</v>
       </c>
       <c r="H379" t="n">
-        <v>169.7</v>
+        <v>76.5</v>
       </c>
       <c r="I379" t="n">
         <v>100.62</v>
@@ -21692,6 +22828,9 @@
         <v>0</v>
       </c>
       <c r="R379" t="inlineStr"/>
+      <c r="S379" t="n">
+        <v>3.308076371717982</v>
+      </c>
     </row>
     <row r="380">
       <c r="A380" t="n">
@@ -21720,7 +22859,7 @@
         <v>185.9</v>
       </c>
       <c r="H380" t="n">
-        <v>165.02</v>
+        <v>73.90000000000001</v>
       </c>
       <c r="I380" t="n">
         <v>100.73</v>
@@ -21748,6 +22887,9 @@
         <v>0</v>
       </c>
       <c r="R380" t="inlineStr"/>
+      <c r="S380" t="n">
+        <v>2.913617851562314</v>
+      </c>
     </row>
     <row r="381">
       <c r="A381" t="n">
@@ -21776,7 +22918,7 @@
         <v>187.52</v>
       </c>
       <c r="H381" t="n">
-        <v>168.08</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="I381" t="n">
         <v>100.78</v>
@@ -21804,6 +22946,9 @@
         <v>0</v>
       </c>
       <c r="R381" t="inlineStr"/>
+      <c r="S381" t="n">
+        <v>3.016066497477139</v>
+      </c>
     </row>
     <row r="382">
       <c r="A382" t="n">
@@ -21832,7 +22977,7 @@
         <v>186.98</v>
       </c>
       <c r="H382" t="n">
-        <v>172.22</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="I382" t="n">
         <v>100.87</v>
@@ -21860,6 +23005,9 @@
         <v>0</v>
       </c>
       <c r="R382" t="inlineStr"/>
+      <c r="S382" t="n">
+        <v>3.363450920279447</v>
+      </c>
     </row>
     <row r="383">
       <c r="A383" t="n">
@@ -21888,7 +23036,7 @@
         <v>185.18</v>
       </c>
       <c r="H383" t="n">
-        <v>170.42</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="I383" t="n">
         <v>100.84</v>
@@ -21916,6 +23064,9 @@
         <v>0</v>
       </c>
       <c r="R383" t="inlineStr"/>
+      <c r="S383" t="n">
+        <v>3.364075172822912</v>
+      </c>
     </row>
     <row r="384">
       <c r="A384" t="n">
@@ -21944,7 +23095,7 @@
         <v>188.6</v>
       </c>
       <c r="H384" t="n">
-        <v>168.62</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="I384" t="n">
         <v>100.89</v>
@@ -21972,6 +23123,9 @@
         <v>0</v>
       </c>
       <c r="R384" t="inlineStr"/>
+      <c r="S384" t="n">
+        <v>2.979238701114818</v>
+      </c>
     </row>
     <row r="385">
       <c r="A385" t="n">
@@ -22000,7 +23154,7 @@
         <v>185.36</v>
       </c>
       <c r="H385" t="n">
-        <v>169.88</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="I385" t="n">
         <v>100.99</v>
@@ -22028,6 +23182,9 @@
         <v>0</v>
       </c>
       <c r="R385" t="inlineStr"/>
+      <c r="S385" t="n">
+        <v>3.308036018330825</v>
+      </c>
     </row>
     <row r="386">
       <c r="A386" t="n">
@@ -22056,7 +23213,7 @@
         <v>186.08</v>
       </c>
       <c r="H386" t="n">
-        <v>167.72</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="I386" t="n">
         <v>100.72</v>
@@ -22084,6 +23241,9 @@
         <v>0</v>
       </c>
       <c r="R386" t="inlineStr"/>
+      <c r="S386" t="n">
+        <v>3.092437086696297</v>
+      </c>
     </row>
     <row r="387">
       <c r="A387" t="n">
@@ -22112,7 +23272,7 @@
         <v>179.78</v>
       </c>
       <c r="H387" t="n">
-        <v>169.88</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="I387" t="n">
         <v>100.3</v>
@@ -22140,6 +23300,9 @@
         <v>0.007112</v>
       </c>
       <c r="R387" t="inlineStr"/>
+      <c r="S387" t="n">
+        <v>3.775806595660906</v>
+      </c>
     </row>
     <row r="388">
       <c r="A388" t="n">
@@ -22168,7 +23331,7 @@
         <v>188.24</v>
       </c>
       <c r="H388" t="n">
-        <v>171.5</v>
+        <v>77.5</v>
       </c>
       <c r="I388" t="n">
         <v>100.62</v>
@@ -22196,6 +23359,9 @@
         <v>0</v>
       </c>
       <c r="R388" t="inlineStr"/>
+      <c r="S388" t="n">
+        <v>3.212713862652971</v>
+      </c>
     </row>
     <row r="389">
       <c r="A389" t="n">
@@ -22224,7 +23390,7 @@
         <v>182.84</v>
       </c>
       <c r="H389" t="n">
-        <v>171.14</v>
+        <v>77.3</v>
       </c>
       <c r="I389" t="n">
         <v>100.96</v>
@@ -22252,6 +23418,9 @@
         <v>0</v>
       </c>
       <c r="R389" t="inlineStr"/>
+      <c r="S389" t="n">
+        <v>3.614617691403584</v>
+      </c>
     </row>
     <row r="390">
       <c r="A390" t="n">
@@ -22280,7 +23449,7 @@
         <v>184.82</v>
       </c>
       <c r="H390" t="n">
-        <v>166.82</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="I390" t="n">
         <v>101.14</v>
@@ -22308,6 +23477,9 @@
         <v>0</v>
       </c>
       <c r="R390" t="inlineStr"/>
+      <c r="S390" t="n">
+        <v>3.118138533499349</v>
+      </c>
     </row>
     <row r="391">
       <c r="A391" t="n">
@@ -22336,7 +23508,7 @@
         <v>186.08</v>
       </c>
       <c r="H391" t="n">
-        <v>166.82</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="I391" t="n">
         <v>101.19</v>
@@ -22364,6 +23536,9 @@
         <v>0</v>
       </c>
       <c r="R391" t="inlineStr"/>
+      <c r="S391" t="n">
+        <v>3.02760557490795</v>
+      </c>
     </row>
     <row r="392">
       <c r="A392" t="n">
@@ -22392,7 +23567,7 @@
         <v>189.14</v>
       </c>
       <c r="H392" t="n">
-        <v>170.6</v>
+        <v>77</v>
       </c>
       <c r="I392" t="n">
         <v>101.01</v>
@@ -22420,6 +23595,9 @@
         <v>0</v>
       </c>
       <c r="R392" t="inlineStr"/>
+      <c r="S392" t="n">
+        <v>3.081676331222567</v>
+      </c>
     </row>
     <row r="393">
       <c r="A393" t="n">
@@ -22448,7 +23626,7 @@
         <v>186.08</v>
       </c>
       <c r="H393" t="n">
-        <v>168.98</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="I393" t="n">
         <v>100.72</v>
@@ -22476,6 +23654,9 @@
         <v>0</v>
       </c>
       <c r="R393" t="inlineStr"/>
+      <c r="S393" t="n">
+        <v>3.185185365664512</v>
+      </c>
     </row>
     <row r="394">
       <c r="A394" t="n">
@@ -22504,7 +23685,7 @@
         <v>184.64</v>
       </c>
       <c r="H394" t="n">
-        <v>167.9</v>
+        <v>75.5</v>
       </c>
       <c r="I394" t="n">
         <v>100.51</v>
@@ -22532,6 +23713,9 @@
         <v>0</v>
       </c>
       <c r="R394" t="inlineStr"/>
+      <c r="S394" t="n">
+        <v>3.211944267460917</v>
+      </c>
     </row>
     <row r="395">
       <c r="A395" t="n">
@@ -22560,7 +23744,7 @@
         <v>178.16</v>
       </c>
       <c r="H395" t="n">
-        <v>169.34</v>
+        <v>76.3</v>
       </c>
       <c r="I395" t="n">
         <v>100.74</v>
@@ -22588,6 +23772,9 @@
         <v>0.000508</v>
       </c>
       <c r="R395" t="inlineStr"/>
+      <c r="S395" t="n">
+        <v>3.876986655656995</v>
+      </c>
     </row>
     <row r="396">
       <c r="A396" t="n">
@@ -22616,7 +23803,7 @@
         <v>181.76</v>
       </c>
       <c r="H396" t="n">
-        <v>170.06</v>
+        <v>76.7</v>
       </c>
       <c r="I396" t="n">
         <v>100.81</v>
@@ -22644,6 +23831,9 @@
         <v>0</v>
       </c>
       <c r="R396" t="inlineStr"/>
+      <c r="S396" t="n">
+        <v>3.61641738688619</v>
+      </c>
     </row>
     <row r="397">
       <c r="A397" t="n">
@@ -22672,7 +23862,7 @@
         <v>181.04</v>
       </c>
       <c r="H397" t="n">
-        <v>165.56</v>
+        <v>74.2</v>
       </c>
       <c r="I397" t="n">
         <v>100.54</v>
@@ -22700,6 +23890,9 @@
         <v>0</v>
       </c>
       <c r="R397" t="inlineStr"/>
+      <c r="S397" t="n">
+        <v>3.309852226183759</v>
+      </c>
     </row>
     <row r="398">
       <c r="A398" t="n">
@@ -22728,7 +23921,7 @@
         <v>182.48</v>
       </c>
       <c r="H398" t="n">
-        <v>165.2</v>
+        <v>74</v>
       </c>
       <c r="I398" t="n">
         <v>100.17</v>
@@ -22756,6 +23949,9 @@
         <v>0</v>
       </c>
       <c r="R398" t="inlineStr"/>
+      <c r="S398" t="n">
+        <v>3.171206865617541</v>
+      </c>
     </row>
     <row r="399">
       <c r="A399" t="n">
@@ -22784,7 +23980,7 @@
         <v>188.42</v>
       </c>
       <c r="H399" t="n">
-        <v>169.34</v>
+        <v>76.3</v>
       </c>
       <c r="I399" t="n">
         <v>99.67</v>
@@ -22812,6 +24008,9 @@
         <v>0</v>
       </c>
       <c r="R399" t="inlineStr"/>
+      <c r="S399" t="n">
+        <v>3.042461357027669</v>
+      </c>
     </row>
     <row r="400">
       <c r="A400" t="n">
@@ -22840,7 +24039,7 @@
         <v>203.72</v>
       </c>
       <c r="H400" t="n">
-        <v>156.74</v>
+        <v>69.3</v>
       </c>
       <c r="I400" t="n">
         <v>99.40000000000001</v>
@@ -22868,6 +24067,9 @@
         <v>0</v>
       </c>
       <c r="R400" t="inlineStr"/>
+      <c r="S400" t="n">
+        <v>1.601242928775401</v>
+      </c>
     </row>
     <row r="401">
       <c r="A401" t="n">
@@ -22896,7 +24098,7 @@
         <v>187.52</v>
       </c>
       <c r="H401" t="n">
-        <v>166.64</v>
+        <v>74.8</v>
       </c>
       <c r="I401" t="n">
         <v>99.82000000000001</v>
@@ -22924,6 +24126,9 @@
         <v>0</v>
       </c>
       <c r="R401" t="inlineStr"/>
+      <c r="S401" t="n">
+        <v>2.91556679057752</v>
+      </c>
     </row>
     <row r="402">
       <c r="A402" t="n">
@@ -22952,7 +24157,7 @@
         <v>178.88</v>
       </c>
       <c r="H402" t="n">
-        <v>164.12</v>
+        <v>73.40000000000001</v>
       </c>
       <c r="I402" t="n">
         <v>100</v>
@@ -22980,6 +24185,9 @@
         <v>0</v>
       </c>
       <c r="R402" t="inlineStr"/>
+      <c r="S402" t="n">
+        <v>3.368753895298762</v>
+      </c>
     </row>
     <row r="403">
       <c r="A403" t="n">
@@ -23008,7 +24216,7 @@
         <v>184.1</v>
       </c>
       <c r="H403" t="n">
-        <v>162.5</v>
+        <v>72.5</v>
       </c>
       <c r="I403" t="n">
         <v>99.84999999999999</v>
@@ -23036,6 +24244,9 @@
         <v>0</v>
       </c>
       <c r="R403" t="inlineStr"/>
+      <c r="S403" t="n">
+        <v>2.861992055789933</v>
+      </c>
     </row>
     <row r="404">
       <c r="A404" t="n">
@@ -23064,7 +24275,7 @@
         <v>189.32</v>
       </c>
       <c r="H404" t="n">
-        <v>165.02</v>
+        <v>73.90000000000001</v>
       </c>
       <c r="I404" t="n">
         <v>99.94</v>
@@ -23092,6 +24303,9 @@
         <v>0</v>
       </c>
       <c r="R404" t="inlineStr"/>
+      <c r="S404" t="n">
+        <v>2.691826052918853</v>
+      </c>
     </row>
     <row r="405">
       <c r="A405" t="n">
@@ -23120,7 +24334,7 @@
         <v>181.94</v>
       </c>
       <c r="H405" t="n">
-        <v>172.04</v>
+        <v>77.8</v>
       </c>
       <c r="I405" t="n">
         <v>100.36</v>
@@ -23148,6 +24362,9 @@
         <v>0.000508</v>
       </c>
       <c r="R405" t="inlineStr"/>
+      <c r="S405" t="n">
+        <v>3.7704984911551</v>
+      </c>
     </row>
     <row r="406">
       <c r="A406" t="n">
@@ -23176,7 +24393,7 @@
         <v>183.02</v>
       </c>
       <c r="H406" t="n">
-        <v>171.86</v>
+        <v>77.7</v>
       </c>
       <c r="I406" t="n">
         <v>100.48</v>
@@ -23204,6 +24421,9 @@
         <v>0</v>
       </c>
       <c r="R406" t="inlineStr"/>
+      <c r="S406" t="n">
+        <v>3.659877601432212</v>
+      </c>
     </row>
     <row r="407">
       <c r="A407" t="n">
@@ -23232,7 +24452,7 @@
         <v>183.56</v>
       </c>
       <c r="H407" t="n">
-        <v>171.32</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="I407" t="n">
         <v>100.42</v>
@@ -23260,6 +24480,9 @@
         <v>0</v>
       </c>
       <c r="R407" t="inlineStr"/>
+      <c r="S407" t="n">
+        <v>3.568520241415532</v>
+      </c>
     </row>
     <row r="408">
       <c r="A408" t="n">
@@ -23288,7 +24511,7 @@
         <v>186.8</v>
       </c>
       <c r="H408" t="n">
-        <v>171.5</v>
+        <v>77.5</v>
       </c>
       <c r="I408" t="n">
         <v>100.47</v>
@@ -23316,6 +24539,9 @@
         <v>0</v>
       </c>
       <c r="R408" t="inlineStr"/>
+      <c r="S408" t="n">
+        <v>3.321666701572883</v>
+      </c>
     </row>
     <row r="409">
       <c r="A409" t="n">
@@ -23344,7 +24570,7 @@
         <v>185.18</v>
       </c>
       <c r="H409" t="n">
-        <v>169.7</v>
+        <v>76.5</v>
       </c>
       <c r="I409" t="n">
         <v>100.53</v>
@@ -23372,6 +24598,9 @@
         <v>0</v>
       </c>
       <c r="R409" t="inlineStr"/>
+      <c r="S409" t="n">
+        <v>3.308076371717982</v>
+      </c>
     </row>
     <row r="410">
       <c r="A410" t="n">
@@ -23400,7 +24629,7 @@
         <v>178.16</v>
       </c>
       <c r="H410" t="n">
-        <v>168.44</v>
+        <v>75.8</v>
       </c>
       <c r="I410" t="n">
         <v>100.62</v>
@@ -23428,6 +24657,9 @@
         <v>0</v>
       </c>
       <c r="R410" t="inlineStr"/>
+      <c r="S410" t="n">
+        <v>3.796159821099339</v>
+      </c>
     </row>
     <row r="411">
       <c r="A411" t="n">
@@ -23456,7 +24688,7 @@
         <v>183.74</v>
       </c>
       <c r="H411" t="n">
-        <v>170.6</v>
+        <v>77</v>
       </c>
       <c r="I411" t="n">
         <v>100.77</v>
@@ -23484,6 +24716,9 @@
         <v>0</v>
       </c>
       <c r="R411" t="inlineStr"/>
+      <c r="S411" t="n">
+        <v>3.494437389691393</v>
+      </c>
     </row>
     <row r="412">
       <c r="A412" t="n">
@@ -23512,7 +24747,7 @@
         <v>188.24</v>
       </c>
       <c r="H412" t="n">
-        <v>171.14</v>
+        <v>77.3</v>
       </c>
       <c r="I412" t="n">
         <v>100.58</v>
@@ -23540,6 +24775,9 @@
         <v>0</v>
       </c>
       <c r="R412" t="inlineStr"/>
+      <c r="S412" t="n">
+        <v>3.185978576822211</v>
+      </c>
     </row>
     <row r="413">
       <c r="A413" t="n">
@@ -23568,7 +24806,7 @@
         <v>187.7</v>
       </c>
       <c r="H413" t="n">
-        <v>171.68</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="I413" t="n">
         <v>100.56</v>
@@ -23596,6 +24834,9 @@
         <v>0</v>
       </c>
       <c r="R413" t="inlineStr"/>
+      <c r="S413" t="n">
+        <v>3.266668881307817</v>
+      </c>
     </row>
     <row r="414">
       <c r="A414" t="n">
@@ -23624,7 +24865,7 @@
         <v>185.54</v>
       </c>
       <c r="H414" t="n">
-        <v>169.7</v>
+        <v>76.5</v>
       </c>
       <c r="I414" t="n">
         <v>100.37</v>
@@ -23652,6 +24893,9 @@
         <v>0</v>
       </c>
       <c r="R414" t="inlineStr"/>
+      <c r="S414" t="n">
+        <v>3.280333268274802</v>
+      </c>
     </row>
     <row r="415">
       <c r="A415" t="n">
@@ -23680,7 +24924,7 @@
         <v>187.16</v>
       </c>
       <c r="H415" t="n">
-        <v>167.54</v>
+        <v>75.3</v>
       </c>
       <c r="I415" t="n">
         <v>100.34</v>
@@ -23708,6 +24952,9 @@
         <v>0</v>
       </c>
       <c r="R415" t="inlineStr"/>
+      <c r="S415" t="n">
+        <v>3.002993331539205</v>
+      </c>
     </row>
     <row r="416">
       <c r="A416" t="n">
@@ -23736,7 +24983,7 @@
         <v>174.2</v>
       </c>
       <c r="H416" t="n">
-        <v>168.44</v>
+        <v>75.8</v>
       </c>
       <c r="I416" t="n">
         <v>100.32</v>
@@ -23764,6 +25011,9 @@
         <v>0.014986</v>
       </c>
       <c r="R416" t="inlineStr"/>
+      <c r="S416" t="n">
+        <v>4.181748575462833</v>
+      </c>
     </row>
     <row r="417">
       <c r="A417" t="n">
@@ -23792,7 +25042,7 @@
         <v>175.46</v>
       </c>
       <c r="H417" t="n">
-        <v>170.42</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="I417" t="n">
         <v>99.26000000000001</v>
@@ -23820,6 +25070,9 @@
         <v>0.022098</v>
       </c>
       <c r="R417" t="inlineStr"/>
+      <c r="S417" t="n">
+        <v>4.246154203699579</v>
+      </c>
     </row>
     <row r="418">
       <c r="A418" t="n">
@@ -23848,7 +25101,7 @@
         <v>179.06</v>
       </c>
       <c r="H418" t="n">
-        <v>172.76</v>
+        <v>78.2</v>
       </c>
       <c r="I418" t="n">
         <v>100.05</v>
@@ -23876,6 +25129,9 @@
         <v>0.00508</v>
       </c>
       <c r="R418" t="inlineStr"/>
+      <c r="S418" t="n">
+        <v>4.1073861692794</v>
+      </c>
     </row>
     <row r="419">
       <c r="A419" t="n">
@@ -23904,7 +25160,7 @@
         <v>181.04</v>
       </c>
       <c r="H419" t="n">
-        <v>171.86</v>
+        <v>77.7</v>
       </c>
       <c r="I419" t="n">
         <v>100.86</v>
@@ -23932,6 +25188,9 @@
         <v>0</v>
       </c>
       <c r="R419" t="inlineStr"/>
+      <c r="S419" t="n">
+        <v>3.83618302979076</v>
+      </c>
     </row>
     <row r="420">
       <c r="A420" t="n">
@@ -23960,7 +25219,7 @@
         <v>173.66</v>
       </c>
       <c r="H420" t="n">
-        <v>161.06</v>
+        <v>71.7</v>
       </c>
       <c r="I420" t="n">
         <v>100.88</v>
@@ -23988,6 +25247,9 @@
         <v>0</v>
       </c>
       <c r="R420" t="inlineStr"/>
+      <c r="S420" t="n">
+        <v>3.556520828848427</v>
+      </c>
     </row>
     <row r="421">
       <c r="A421" t="n">
@@ -24016,7 +25278,7 @@
         <v>181.22</v>
       </c>
       <c r="H421" t="n">
-        <v>160.34</v>
+        <v>71.3</v>
       </c>
       <c r="I421" t="n">
         <v>100.83</v>
@@ -24044,6 +25306,9 @@
         <v>0</v>
       </c>
       <c r="R421" t="inlineStr"/>
+      <c r="S421" t="n">
+        <v>2.909108065774643</v>
+      </c>
     </row>
     <row r="422">
       <c r="A422" t="n">
@@ -24072,7 +25337,7 @@
         <v>182.84</v>
       </c>
       <c r="H422" t="n">
-        <v>167</v>
+        <v>75</v>
       </c>
       <c r="I422" t="n">
         <v>101.2</v>
@@ -24100,6 +25365,9 @@
         <v>0</v>
       </c>
       <c r="R422" t="inlineStr"/>
+      <c r="S422" t="n">
+        <v>3.280945520488903</v>
+      </c>
     </row>
     <row r="423">
       <c r="A423" t="n">
@@ -24128,7 +25396,7 @@
         <v>183.74</v>
       </c>
       <c r="H423" t="n">
-        <v>167.9</v>
+        <v>75.5</v>
       </c>
       <c r="I423" t="n">
         <v>101.23</v>
@@ -24156,6 +25424,9 @@
         <v>0</v>
       </c>
       <c r="R423" t="inlineStr"/>
+      <c r="S423" t="n">
+        <v>3.280665893277019</v>
+      </c>
     </row>
     <row r="424">
       <c r="A424" t="n">
@@ -24184,7 +25455,7 @@
         <v>184.28</v>
       </c>
       <c r="H424" t="n">
-        <v>167.9</v>
+        <v>75.5</v>
       </c>
       <c r="I424" t="n">
         <v>101.1</v>
@@ -24212,6 +25483,9 @@
         <v>0</v>
       </c>
       <c r="R424" t="inlineStr"/>
+      <c r="S424" t="n">
+        <v>3.239223836781528</v>
+      </c>
     </row>
     <row r="425">
       <c r="A425" t="n">
@@ -24240,7 +25514,7 @@
         <v>186.26</v>
       </c>
       <c r="H425" t="n">
-        <v>167.54</v>
+        <v>75.3</v>
       </c>
       <c r="I425" t="n">
         <v>101.09</v>
@@ -24268,6 +25542,9 @@
         <v>0</v>
       </c>
       <c r="R425" t="inlineStr"/>
+      <c r="S425" t="n">
+        <v>3.066485928505824</v>
+      </c>
     </row>
     <row r="426">
       <c r="A426" t="n">
@@ -24296,7 +25573,7 @@
         <v>180.86</v>
       </c>
       <c r="H426" t="n">
-        <v>160.52</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="I426" t="n">
         <v>100.82</v>
@@ -24324,6 +25601,9 @@
         <v>0</v>
       </c>
       <c r="R426" t="inlineStr"/>
+      <c r="S426" t="n">
+        <v>2.946980304408678</v>
+      </c>
     </row>
     <row r="427">
       <c r="A427" t="n">
@@ -24352,7 +25632,7 @@
         <v>190.04</v>
       </c>
       <c r="H427" t="n">
-        <v>159.98</v>
+        <v>71.09999999999999</v>
       </c>
       <c r="I427" t="n">
         <v>100.49</v>
@@ -24380,6 +25660,9 @@
         <v>0</v>
       </c>
       <c r="R427" t="inlineStr"/>
+      <c r="S427" t="n">
+        <v>2.34681766138198</v>
+      </c>
     </row>
     <row r="428">
       <c r="A428" t="n">
@@ -24408,7 +25691,7 @@
         <v>184.28</v>
       </c>
       <c r="H428" t="n">
-        <v>168.62</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="I428" t="n">
         <v>99.84999999999999</v>
@@ -24436,6 +25719,9 @@
         <v>0</v>
       </c>
       <c r="R428" t="inlineStr"/>
+      <c r="S428" t="n">
+        <v>3.294404128387693</v>
+      </c>
     </row>
     <row r="429">
       <c r="A429" t="n">
@@ -24464,7 +25750,7 @@
         <v>172.22</v>
       </c>
       <c r="H429" t="n">
-        <v>167.54</v>
+        <v>75.3</v>
       </c>
       <c r="I429" t="n">
         <v>100.56</v>
@@ -24492,6 +25778,9 @@
         <v>0.039878</v>
       </c>
       <c r="R429" t="inlineStr"/>
+      <c r="S429" t="n">
+        <v>4.300176358980462</v>
+      </c>
     </row>
     <row r="430">
       <c r="A430" t="n">
@@ -24520,7 +25809,7 @@
         <v>170.42</v>
       </c>
       <c r="H430" t="n">
-        <v>162.86</v>
+        <v>72.7</v>
       </c>
       <c r="I430" t="n">
         <v>101.04</v>
@@ -24548,6 +25837,9 @@
         <v>0.000508</v>
       </c>
       <c r="R430" t="inlineStr"/>
+      <c r="S430" t="n">
+        <v>4.025657430790273</v>
+      </c>
     </row>
     <row r="431">
       <c r="A431" t="n">
@@ -24576,7 +25868,7 @@
         <v>176.9</v>
       </c>
       <c r="H431" t="n">
-        <v>168.62</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="I431" t="n">
         <v>101.37</v>
@@ -24604,6 +25896,9 @@
         <v>0</v>
       </c>
       <c r="R431" t="inlineStr"/>
+      <c r="S431" t="n">
+        <v>3.930599532383171</v>
+      </c>
     </row>
     <row r="432">
       <c r="A432" t="n">
@@ -24632,7 +25927,7 @@
         <v>176.36</v>
       </c>
       <c r="H432" t="n">
-        <v>164.12</v>
+        <v>73.40000000000001</v>
       </c>
       <c r="I432" t="n">
         <v>101.44</v>
@@ -24660,6 +25955,9 @@
         <v>0.000508</v>
       </c>
       <c r="R432" t="inlineStr"/>
+      <c r="S432" t="n">
+        <v>3.58114758145634</v>
+      </c>
     </row>
     <row r="433">
       <c r="A433" t="n">
@@ -24688,7 +25986,7 @@
         <v>168.62</v>
       </c>
       <c r="H433" t="n">
-        <v>151.52</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="I433" t="n">
         <v>101.48</v>
@@ -24716,6 +26014,9 @@
         <v>0</v>
       </c>
       <c r="R433" t="inlineStr"/>
+      <c r="S433" t="n">
+        <v>3.194605908762391</v>
+      </c>
     </row>
     <row r="434">
       <c r="A434" t="n">
@@ -24744,7 +26045,7 @@
         <v>169.88</v>
       </c>
       <c r="H434" t="n">
-        <v>149.54</v>
+        <v>65.3</v>
       </c>
       <c r="I434" t="n">
         <v>101.82</v>
@@ -24772,6 +26073,9 @@
         <v>0</v>
       </c>
       <c r="R434" t="inlineStr"/>
+      <c r="S434" t="n">
+        <v>2.945221886105986</v>
+      </c>
     </row>
     <row r="435">
       <c r="A435" t="n">
@@ -24800,7 +26104,7 @@
         <v>174.38</v>
       </c>
       <c r="H435" t="n">
-        <v>156.92</v>
+        <v>69.40000000000001</v>
       </c>
       <c r="I435" t="n">
         <v>101.47</v>
@@ -24828,6 +26132,9 @@
         <v>0</v>
       </c>
       <c r="R435" t="inlineStr"/>
+      <c r="S435" t="n">
+        <v>3.160316799744531</v>
+      </c>
     </row>
     <row r="436">
       <c r="A436" t="n">
@@ -24856,7 +26163,7 @@
         <v>176.18</v>
       </c>
       <c r="H436" t="n">
-        <v>157.46</v>
+        <v>69.7</v>
       </c>
       <c r="I436" t="n">
         <v>101.58</v>
@@ -24884,6 +26191,9 @@
         <v>0</v>
       </c>
       <c r="R436" t="inlineStr"/>
+      <c r="S436" t="n">
+        <v>3.063881803776243</v>
+      </c>
     </row>
     <row r="437">
       <c r="A437" t="n">
@@ -24912,7 +26222,7 @@
         <v>170.78</v>
       </c>
       <c r="H437" t="n">
-        <v>152.78</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="I437" t="n">
         <v>101.9</v>
@@ -24940,6 +26250,9 @@
         <v>0</v>
       </c>
       <c r="R437" t="inlineStr"/>
+      <c r="S437" t="n">
+        <v>3.121519558928391</v>
+      </c>
     </row>
     <row r="438">
       <c r="A438" t="n">
@@ -24968,7 +26281,7 @@
         <v>172.94</v>
       </c>
       <c r="H438" t="n">
-        <v>157.82</v>
+        <v>69.90000000000001</v>
       </c>
       <c r="I438" t="n">
         <v>101.87</v>
@@ -24996,6 +26309,9 @@
         <v>0</v>
       </c>
       <c r="R438" t="inlineStr"/>
+      <c r="S438" t="n">
+        <v>3.347500942138449</v>
+      </c>
     </row>
     <row r="439">
       <c r="A439" t="n">
@@ -25024,7 +26340,7 @@
         <v>176.36</v>
       </c>
       <c r="H439" t="n">
-        <v>159.62</v>
+        <v>70.90000000000001</v>
       </c>
       <c r="I439" t="n">
         <v>101.51</v>
@@ -25052,6 +26368,9 @@
         <v>0</v>
       </c>
       <c r="R439" t="inlineStr"/>
+      <c r="S439" t="n">
+        <v>3.214659189864809</v>
+      </c>
     </row>
     <row r="440">
       <c r="A440" t="n">
@@ -25080,7 +26399,7 @@
         <v>174.74</v>
       </c>
       <c r="H440" t="n">
-        <v>158.18</v>
+        <v>70.09999999999999</v>
       </c>
       <c r="I440" t="n">
         <v>101.41</v>
@@ -25108,6 +26427,9 @@
         <v>0</v>
       </c>
       <c r="R440" t="inlineStr"/>
+      <c r="S440" t="n">
+        <v>3.230069234574859</v>
+      </c>
     </row>
     <row r="441">
       <c r="A441" t="n">
@@ -25136,7 +26458,7 @@
         <v>171.68</v>
       </c>
       <c r="H441" t="n">
-        <v>156.02</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="I441" t="n">
         <v>101.41</v>
@@ -25164,6 +26486,9 @@
         <v>0</v>
       </c>
       <c r="R441" t="inlineStr"/>
+      <c r="S441" t="n">
+        <v>3.305617217171416</v>
+      </c>
     </row>
     <row r="442">
       <c r="A442" t="n">
@@ -25192,7 +26517,7 @@
         <v>168.26</v>
       </c>
       <c r="H442" t="n">
-        <v>152.78</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="I442" t="n">
         <v>101.58</v>
@@ -25220,6 +26545,9 @@
         <v>0</v>
       </c>
       <c r="R442" t="inlineStr"/>
+      <c r="S442" t="n">
+        <v>3.326371189274877</v>
+      </c>
     </row>
     <row r="443">
       <c r="A443" t="n">
@@ -25248,7 +26576,7 @@
         <v>169.52</v>
       </c>
       <c r="H443" t="n">
-        <v>154.58</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="I443" t="n">
         <v>101.68</v>
@@ -25276,6 +26604,9 @@
         <v>0</v>
       </c>
       <c r="R443" t="inlineStr"/>
+      <c r="S443" t="n">
+        <v>3.368476727596571</v>
+      </c>
     </row>
     <row r="444">
       <c r="A444" t="n">
@@ -25304,7 +26635,7 @@
         <v>172.04</v>
       </c>
       <c r="H444" t="n">
-        <v>153.5</v>
+        <v>67.5</v>
       </c>
       <c r="I444" t="n">
         <v>101.72</v>
@@ -25332,6 +26663,9 @@
         <v>0</v>
       </c>
       <c r="R444" t="inlineStr"/>
+      <c r="S444" t="n">
+        <v>3.079123428512005</v>
+      </c>
     </row>
     <row r="445">
       <c r="A445" t="n">
@@ -25360,7 +26694,7 @@
         <v>175.46</v>
       </c>
       <c r="H445" t="n">
-        <v>154.58</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="I445" t="n">
         <v>101.5</v>
@@ -25388,6 +26722,9 @@
         <v>0</v>
       </c>
       <c r="R445" t="inlineStr"/>
+      <c r="S445" t="n">
+        <v>2.905952947329844</v>
+      </c>
     </row>
     <row r="446">
       <c r="A446" t="n">
@@ -25416,7 +26753,7 @@
         <v>175.46</v>
       </c>
       <c r="H446" t="n">
-        <v>155.3</v>
+        <v>68.5</v>
       </c>
       <c r="I446" t="n">
         <v>101.39</v>
@@ -25444,6 +26781,9 @@
         <v>0</v>
       </c>
       <c r="R446" t="inlineStr"/>
+      <c r="S446" t="n">
+        <v>2.957854678014053</v>
+      </c>
     </row>
     <row r="447">
       <c r="A447" t="n">
@@ -25472,7 +26812,7 @@
         <v>176.36</v>
       </c>
       <c r="H447" t="n">
-        <v>155.3</v>
+        <v>68.5</v>
       </c>
       <c r="I447" t="n">
         <v>101.44</v>
@@ -25500,6 +26840,9 @@
         <v>0</v>
       </c>
       <c r="R447" t="inlineStr"/>
+      <c r="S447" t="n">
+        <v>2.893451653519508</v>
+      </c>
     </row>
     <row r="448">
       <c r="A448" t="n">
@@ -25528,7 +26871,7 @@
         <v>175.64</v>
       </c>
       <c r="H448" t="n">
-        <v>161.06</v>
+        <v>71.7</v>
       </c>
       <c r="I448" t="n">
         <v>101.59</v>
@@ -25556,6 +26899,9 @@
         <v>0</v>
       </c>
       <c r="R448" t="inlineStr"/>
+      <c r="S448" t="n">
+        <v>3.387388329372185</v>
+      </c>
     </row>
     <row r="449">
       <c r="A449" t="n">
@@ -25584,7 +26930,7 @@
         <v>170.96</v>
       </c>
       <c r="H449" t="n">
-        <v>152.06</v>
+        <v>66.7</v>
       </c>
       <c r="I449" t="n">
         <v>101.78</v>
@@ -25612,6 +26958,9 @@
         <v>0</v>
       </c>
       <c r="R449" t="inlineStr"/>
+      <c r="S449" t="n">
+        <v>3.052455776395004</v>
+      </c>
     </row>
     <row r="450">
       <c r="A450" t="n">
@@ -25640,7 +26989,7 @@
         <v>173.12</v>
       </c>
       <c r="H450" t="n">
-        <v>152.78</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="I450" t="n">
         <v>101.7</v>
@@ -25668,6 +27017,9 @@
         <v>0</v>
       </c>
       <c r="R450" t="inlineStr"/>
+      <c r="S450" t="n">
+        <v>2.944639861098256</v>
+      </c>
     </row>
     <row r="451">
       <c r="A451" t="n">
@@ -25696,7 +27048,7 @@
         <v>176.36</v>
       </c>
       <c r="H451" t="n">
-        <v>157.82</v>
+        <v>69.90000000000001</v>
       </c>
       <c r="I451" t="n">
         <v>101.58</v>
@@ -25724,6 +27076,9 @@
         <v>0</v>
       </c>
       <c r="R451" t="inlineStr"/>
+      <c r="S451" t="n">
+        <v>3.077305211019685</v>
+      </c>
     </row>
     <row r="452">
       <c r="A452" t="n">
@@ -25752,7 +27107,7 @@
         <v>176.36</v>
       </c>
       <c r="H452" t="n">
-        <v>160.7</v>
+        <v>71.5</v>
       </c>
       <c r="I452" t="n">
         <v>101.65</v>
@@ -25780,6 +27135,9 @@
         <v>0</v>
       </c>
       <c r="R452" t="inlineStr"/>
+      <c r="S452" t="n">
+        <v>3.299557944227996</v>
+      </c>
     </row>
     <row r="453">
       <c r="A453" t="n">
@@ -25808,7 +27166,7 @@
         <v>174.02</v>
       </c>
       <c r="H453" t="n">
-        <v>158</v>
+        <v>70</v>
       </c>
       <c r="I453" t="n">
         <v>101.77</v>
@@ -25836,6 +27194,9 @@
         <v>0</v>
       </c>
       <c r="R453" t="inlineStr"/>
+      <c r="S453" t="n">
+        <v>3.273525681235227</v>
+      </c>
     </row>
     <row r="454">
       <c r="A454" t="n">
@@ -25864,7 +27225,7 @@
         <v>169.16</v>
       </c>
       <c r="H454" t="n">
-        <v>151.88</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="I454" t="n">
         <v>101.99</v>
@@ -25892,6 +27253,9 @@
         <v>0</v>
       </c>
       <c r="R454" t="inlineStr"/>
+      <c r="S454" t="n">
+        <v>3.179602804473452</v>
+      </c>
     </row>
     <row r="455">
       <c r="A455" t="n">
@@ -25920,7 +27284,7 @@
         <v>162.5</v>
       </c>
       <c r="H455" t="n">
-        <v>141.62</v>
+        <v>60.9</v>
       </c>
       <c r="I455" t="n">
         <v>102.26</v>
@@ -25948,6 +27312,9 @@
         <v>0</v>
       </c>
       <c r="R455" t="inlineStr"/>
+      <c r="S455" t="n">
+        <v>2.909493298060199</v>
+      </c>
     </row>
     <row r="456">
       <c r="A456" t="n">
@@ -25976,7 +27343,7 @@
         <v>161.96</v>
       </c>
       <c r="H456" t="n">
-        <v>142.34</v>
+        <v>61.3</v>
       </c>
       <c r="I456" t="n">
         <v>102.25</v>
@@ -26004,6 +27371,9 @@
         <v>0</v>
       </c>
       <c r="R456" t="inlineStr"/>
+      <c r="S456" t="n">
+        <v>3.006097618336984</v>
+      </c>
     </row>
     <row r="457">
       <c r="A457" t="n">
@@ -26032,7 +27402,7 @@
         <v>164.48</v>
       </c>
       <c r="H457" t="n">
-        <v>151.34</v>
+        <v>66.3</v>
       </c>
       <c r="I457" t="n">
         <v>102.15</v>
@@ -26060,6 +27430,9 @@
         <v>0</v>
       </c>
       <c r="R457" t="inlineStr"/>
+      <c r="S457" t="n">
+        <v>3.535749819194745</v>
+      </c>
     </row>
     <row r="458">
       <c r="A458" t="n">
@@ -26088,7 +27461,7 @@
         <v>167.36</v>
       </c>
       <c r="H458" t="n">
-        <v>152.06</v>
+        <v>66.7</v>
       </c>
       <c r="I458" t="n">
         <v>102</v>
@@ -26116,6 +27489,9 @@
         <v>0</v>
       </c>
       <c r="R458" t="inlineStr"/>
+      <c r="S458" t="n">
+        <v>3.343134232110414</v>
+      </c>
     </row>
     <row r="459">
       <c r="A459" t="n">
@@ -26144,7 +27520,7 @@
         <v>154.22</v>
       </c>
       <c r="H459" t="n">
-        <v>122</v>
+        <v>50</v>
       </c>
       <c r="I459" t="n">
         <v>102.22</v>
@@ -26172,6 +27548,9 @@
         <v>0</v>
       </c>
       <c r="R459" t="inlineStr"/>
+      <c r="S459" t="n">
+        <v>2.146134523898823</v>
+      </c>
     </row>
     <row r="460">
       <c r="A460" t="n">
@@ -26200,7 +27579,7 @@
         <v>159.26</v>
       </c>
       <c r="H460" t="n">
-        <v>124.52</v>
+        <v>51.4</v>
       </c>
       <c r="I460" t="n">
         <v>101.99</v>
@@ -26228,6 +27607,9 @@
         <v>0</v>
       </c>
       <c r="R460" t="inlineStr"/>
+      <c r="S460" t="n">
+        <v>2.009503265045301</v>
+      </c>
     </row>
     <row r="461">
       <c r="A461" t="n">
@@ -26256,7 +27638,7 @@
         <v>164.3</v>
       </c>
       <c r="H461" t="n">
-        <v>140.9</v>
+        <v>60.5</v>
       </c>
       <c r="I461" t="n">
         <v>101.69</v>
@@ -26284,6 +27666,9 @@
         <v>0</v>
       </c>
       <c r="R461" t="inlineStr"/>
+      <c r="S461" t="n">
+        <v>2.725367307446577</v>
+      </c>
     </row>
     <row r="462">
       <c r="A462" t="n">
@@ -26312,7 +27697,7 @@
         <v>170.24</v>
       </c>
       <c r="H462" t="n">
-        <v>142.7</v>
+        <v>61.5</v>
       </c>
       <c r="I462" t="n">
         <v>101.52</v>
@@ -26340,6 +27725,9 @@
         <v>0</v>
       </c>
       <c r="R462" t="inlineStr"/>
+      <c r="S462" t="n">
+        <v>2.453537198695528</v>
+      </c>
     </row>
     <row r="463">
       <c r="A463" t="n">
@@ -26368,7 +27756,7 @@
         <v>165.2</v>
       </c>
       <c r="H463" t="n">
-        <v>144.86</v>
+        <v>62.7</v>
       </c>
       <c r="I463" t="n">
         <v>101.77</v>
@@ -26396,6 +27784,9 @@
         <v>0</v>
       </c>
       <c r="R463" t="inlineStr"/>
+      <c r="S463" t="n">
+        <v>2.947800709400862</v>
+      </c>
     </row>
     <row r="464">
       <c r="A464" t="n">
@@ -26424,7 +27815,7 @@
         <v>163.94</v>
       </c>
       <c r="H464" t="n">
-        <v>135.32</v>
+        <v>57.4</v>
       </c>
       <c r="I464" t="n">
         <v>102.07</v>
@@ -26452,6 +27843,9 @@
         <v>0</v>
       </c>
       <c r="R464" t="inlineStr"/>
+      <c r="S464" t="n">
+        <v>2.377645838231199</v>
+      </c>
     </row>
     <row r="465">
       <c r="A465" t="n">
@@ -26480,7 +27874,7 @@
         <v>167.36</v>
       </c>
       <c r="H465" t="n">
-        <v>141.98</v>
+        <v>61.1</v>
       </c>
       <c r="I465" t="n">
         <v>101.99</v>
@@ -26508,6 +27902,9 @@
         <v>0</v>
       </c>
       <c r="R465" t="inlineStr"/>
+      <c r="S465" t="n">
+        <v>2.590632120957039</v>
+      </c>
     </row>
     <row r="466">
       <c r="A466" t="n">
@@ -26536,7 +27933,7 @@
         <v>161.96</v>
       </c>
       <c r="H466" t="n">
-        <v>143.78</v>
+        <v>62.1</v>
       </c>
       <c r="I466" t="n">
         <v>102.15</v>
@@ -26564,6 +27961,9 @@
         <v>0</v>
       </c>
       <c r="R466" t="inlineStr"/>
+      <c r="S466" t="n">
+        <v>3.119261897109256</v>
+      </c>
     </row>
     <row r="467">
       <c r="A467" t="n">
@@ -26592,7 +27992,7 @@
         <v>164.12</v>
       </c>
       <c r="H467" t="n">
-        <v>145.76</v>
+        <v>63.2</v>
       </c>
       <c r="I467" t="n">
         <v>101.93</v>
@@ -26620,6 +28020,9 @@
         <v>0</v>
       </c>
       <c r="R467" t="inlineStr"/>
+      <c r="S467" t="n">
+        <v>3.101421607265656</v>
+      </c>
     </row>
     <row r="468">
       <c r="A468" t="n">
@@ -26648,7 +28051,7 @@
         <v>162.68</v>
       </c>
       <c r="H468" t="n">
-        <v>153.68</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="I468" t="n">
         <v>101.45</v>
@@ -26676,6 +28079,9 @@
         <v>0</v>
       </c>
       <c r="R468" t="inlineStr"/>
+      <c r="S468" t="n">
+        <v>3.926299133817076</v>
+      </c>
     </row>
     <row r="469">
       <c r="A469" t="n">
@@ -26704,7 +28110,7 @@
         <v>161.06</v>
       </c>
       <c r="H469" t="n">
-        <v>138.38</v>
+        <v>59.1</v>
       </c>
       <c r="I469" t="n">
         <v>101.58</v>
@@ -26732,6 +28138,9 @@
         <v>0</v>
       </c>
       <c r="R469" t="inlineStr"/>
+      <c r="S469" t="n">
+        <v>2.777691287596642</v>
+      </c>
     </row>
     <row r="470">
       <c r="A470" t="n">
@@ -26760,7 +28169,7 @@
         <v>172.58</v>
       </c>
       <c r="H470" t="n">
-        <v>150.8</v>
+        <v>66</v>
       </c>
       <c r="I470" t="n">
         <v>101.45</v>
@@ -26788,6 +28197,9 @@
         <v>0</v>
       </c>
       <c r="R470" t="inlineStr"/>
+      <c r="S470" t="n">
+        <v>2.84099893747861</v>
+      </c>
     </row>
     <row r="471">
       <c r="A471" t="n">
@@ -26816,7 +28228,7 @@
         <v>167.36</v>
       </c>
       <c r="H471" t="n">
-        <v>160.7</v>
+        <v>71.5</v>
       </c>
       <c r="I471" t="n">
         <v>101.46</v>
@@ -26844,6 +28256,9 @@
         <v>0</v>
       </c>
       <c r="R471" t="inlineStr"/>
+      <c r="S471" t="n">
+        <v>4.129967513178914</v>
+      </c>
     </row>
     <row r="472">
       <c r="A472" t="n">
@@ -26872,7 +28287,7 @@
         <v>170.06</v>
       </c>
       <c r="H472" t="n">
-        <v>163.94</v>
+        <v>73.3</v>
       </c>
       <c r="I472" t="n">
         <v>101.47</v>
@@ -26900,6 +28315,9 @@
         <v>0.003048</v>
       </c>
       <c r="R472" t="inlineStr"/>
+      <c r="S472" t="n">
+        <v>4.168300385517161</v>
+      </c>
     </row>
     <row r="473">
       <c r="A473" t="n">
@@ -26928,7 +28346,7 @@
         <v>166.46</v>
       </c>
       <c r="H473" t="n">
-        <v>153.86</v>
+        <v>67.7</v>
       </c>
       <c r="I473" t="n">
         <v>101.8</v>
@@ -26956,6 +28374,9 @@
         <v>0</v>
       </c>
       <c r="R473" t="inlineStr"/>
+      <c r="S473" t="n">
+        <v>3.576805688008485</v>
+      </c>
     </row>
     <row r="474">
       <c r="A474" t="n">
@@ -26984,7 +28405,7 @@
         <v>170.78</v>
       </c>
       <c r="H474" t="n">
-        <v>154.04</v>
+        <v>67.8</v>
       </c>
       <c r="I474" t="n">
         <v>101.64</v>
@@ -27012,6 +28433,9 @@
         <v>0</v>
       </c>
       <c r="R474" t="inlineStr"/>
+      <c r="S474" t="n">
+        <v>3.22028401110147</v>
+      </c>
     </row>
     <row r="475">
       <c r="A475" t="n">
@@ -27040,7 +28464,7 @@
         <v>152.78</v>
       </c>
       <c r="H475" t="n">
-        <v>127.4</v>
+        <v>53</v>
       </c>
       <c r="I475" t="n">
         <v>102.51</v>
@@ -27068,6 +28492,9 @@
         <v>0</v>
       </c>
       <c r="R475" t="inlineStr"/>
+      <c r="S475" t="n">
+        <v>2.589093985796673</v>
+      </c>
     </row>
     <row r="476">
       <c r="A476" t="n">
@@ -27096,7 +28523,7 @@
         <v>160.16</v>
       </c>
       <c r="H476" t="n">
-        <v>140.36</v>
+        <v>60.2</v>
       </c>
       <c r="I476" t="n">
         <v>102.09</v>
@@ -27124,6 +28551,9 @@
         <v>0</v>
       </c>
       <c r="R476" t="inlineStr"/>
+      <c r="S476" t="n">
+        <v>2.994668621363386</v>
+      </c>
     </row>
     <row r="477">
       <c r="A477" t="n">
@@ -27152,7 +28582,7 @@
         <v>152.42</v>
       </c>
       <c r="H477" t="n">
-        <v>138.56</v>
+        <v>59.2</v>
       </c>
       <c r="I477" t="n">
         <v>102.03</v>
@@ -27180,6 +28610,9 @@
         <v>0.000508</v>
       </c>
       <c r="R477" t="inlineStr"/>
+      <c r="S477" t="n">
+        <v>3.519816234384873</v>
+      </c>
     </row>
     <row r="478">
       <c r="A478" t="n">
@@ -27208,7 +28641,7 @@
         <v>140.9</v>
       </c>
       <c r="H478" t="n">
-        <v>112.82</v>
+        <v>44.9</v>
       </c>
       <c r="I478" t="n">
         <v>102.95</v>
@@ -27236,6 +28669,9 @@
         <v>0</v>
       </c>
       <c r="R478" t="inlineStr"/>
+      <c r="S478" t="n">
+        <v>2.409204531942026</v>
+      </c>
     </row>
     <row r="479">
       <c r="A479" t="n">
@@ -27264,7 +28700,7 @@
         <v>146.84</v>
       </c>
       <c r="H479" t="n">
-        <v>120.2</v>
+        <v>49</v>
       </c>
       <c r="I479" t="n">
         <v>102.69</v>
@@ -27292,6 +28728,9 @@
         <v>0</v>
       </c>
       <c r="R479" t="inlineStr"/>
+      <c r="S479" t="n">
+        <v>2.504492689285924</v>
+      </c>
     </row>
     <row r="480">
       <c r="A480" t="n">
@@ -27320,7 +28759,7 @@
         <v>147.38</v>
       </c>
       <c r="H480" t="n">
-        <v>122</v>
+        <v>50</v>
       </c>
       <c r="I480" t="n">
         <v>102.51</v>
@@ -27348,6 +28787,9 @@
         <v>0</v>
       </c>
       <c r="R480" t="inlineStr"/>
+      <c r="S480" t="n">
+        <v>2.59341904379904</v>
+      </c>
     </row>
     <row r="481">
       <c r="A481" t="n">
@@ -27376,7 +28818,7 @@
         <v>155.3</v>
       </c>
       <c r="H481" t="n">
-        <v>123.8</v>
+        <v>51</v>
       </c>
       <c r="I481" t="n">
         <v>102.47</v>
@@ -27404,6 +28846,9 @@
         <v>0</v>
       </c>
       <c r="R481" t="inlineStr"/>
+      <c r="S481" t="n">
+        <v>2.1905433636356</v>
+      </c>
     </row>
     <row r="482">
       <c r="A482" t="n">
@@ -27432,7 +28877,7 @@
         <v>163.94</v>
       </c>
       <c r="H482" t="n">
-        <v>149</v>
+        <v>65</v>
       </c>
       <c r="I482" t="n">
         <v>101.89</v>
@@ -27460,6 +28905,9 @@
         <v>0</v>
       </c>
       <c r="R482" t="inlineStr"/>
+      <c r="S482" t="n">
+        <v>3.381697101560446</v>
+      </c>
     </row>
     <row r="483">
       <c r="A483" t="n">
@@ -27488,7 +28936,7 @@
         <v>163.22</v>
       </c>
       <c r="H483" t="n">
-        <v>150.08</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="I483" t="n">
         <v>101.63</v>
@@ -27516,6 +28964,9 @@
         <v>0</v>
       </c>
       <c r="R483" t="inlineStr"/>
+      <c r="S483" t="n">
+        <v>3.540063735924638</v>
+      </c>
     </row>
     <row r="484">
       <c r="A484" t="n">
@@ -27544,7 +28995,7 @@
         <v>161.78</v>
       </c>
       <c r="H484" t="n">
-        <v>147.02</v>
+        <v>63.9</v>
       </c>
       <c r="I484" t="n">
         <v>101.88</v>
@@ -27572,6 +29023,9 @@
         <v>0</v>
       </c>
       <c r="R484" t="inlineStr"/>
+      <c r="S484" t="n">
+        <v>3.40332167167878</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/result/NCDC_weather_data/stations_imputed/59562099999.xlsx
+++ b/result/NCDC_weather_data/stations_imputed/59562099999.xlsx
@@ -557,7 +557,7 @@
         <v>21.22222222222222</v>
       </c>
       <c r="H2" t="n">
-        <v>60.6</v>
+        <v>15.88888888888889</v>
       </c>
       <c r="I2" t="n">
         <v>102.29</v>
@@ -586,7 +586,7 @@
       </c>
       <c r="R2" t="inlineStr"/>
       <c r="S2" t="n">
-        <v>820.423162788227</v>
+        <v>71.59182826211874</v>
       </c>
     </row>
     <row r="3">
@@ -616,7 +616,7 @@
         <v>20.55555555555556</v>
       </c>
       <c r="H3" t="n">
-        <v>58.5</v>
+        <v>14.72222222222222</v>
       </c>
       <c r="I3" t="n">
         <v>102.13</v>
@@ -645,7 +645,7 @@
       </c>
       <c r="R3" t="inlineStr"/>
       <c r="S3" t="n">
-        <v>774.6955150832104</v>
+        <v>69.20493998969786</v>
       </c>
     </row>
     <row r="4">
@@ -675,7 +675,7 @@
         <v>21.05555555555556</v>
       </c>
       <c r="H4" t="n">
-        <v>60.5</v>
+        <v>15.83333333333333</v>
       </c>
       <c r="I4" t="n">
         <v>102.01</v>
@@ -704,7 +704,7 @@
       </c>
       <c r="R4" t="inlineStr"/>
       <c r="S4" t="n">
-        <v>825.0182543143741</v>
+        <v>72.07209373960211</v>
       </c>
     </row>
     <row r="5">
@@ -734,7 +734,7 @@
         <v>21.05555555555556</v>
       </c>
       <c r="H5" t="n">
-        <v>63.8</v>
+        <v>17.66666666666666</v>
       </c>
       <c r="I5" t="n">
         <v>101.89</v>
@@ -763,7 +763,7 @@
       </c>
       <c r="R5" t="inlineStr"/>
       <c r="S5" t="n">
-        <v>960.4432687825907</v>
+        <v>80.97442598860522</v>
       </c>
     </row>
     <row r="6">
@@ -793,7 +793,7 @@
         <v>22.55555555555555</v>
       </c>
       <c r="H6" t="n">
-        <v>66.09999999999999</v>
+        <v>18.94444444444444</v>
       </c>
       <c r="I6" t="n">
         <v>101.62</v>
@@ -822,7 +822,7 @@
       </c>
       <c r="R6" t="inlineStr"/>
       <c r="S6" t="n">
-        <v>972.3516821010625</v>
+        <v>80.0499981158743</v>
       </c>
     </row>
     <row r="7">
@@ -852,7 +852,7 @@
         <v>20.27777777777778</v>
       </c>
       <c r="H7" t="n">
-        <v>60.1</v>
+        <v>15.61111111111111</v>
       </c>
       <c r="I7" t="n">
         <v>102</v>
@@ -881,7 +881,7 @@
       </c>
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="n">
-        <v>849.555489925894</v>
+        <v>74.54425742101806</v>
       </c>
     </row>
     <row r="8">
@@ -911,7 +911,7 @@
         <v>20.05555555555555</v>
       </c>
       <c r="H8" t="n">
-        <v>58.9</v>
+        <v>14.94444444444444</v>
       </c>
       <c r="I8" t="n">
         <v>102.04</v>
@@ -940,7 +940,7 @@
       </c>
       <c r="R8" t="inlineStr"/>
       <c r="S8" t="n">
-        <v>814.2181338939929</v>
+        <v>72.40767149558692</v>
       </c>
     </row>
     <row r="9">
@@ -970,7 +970,7 @@
         <v>19.77777777777778</v>
       </c>
       <c r="H9" t="n">
-        <v>58.7</v>
+        <v>14.83333333333334</v>
       </c>
       <c r="I9" t="n">
         <v>101.85</v>
@@ -999,7 +999,7 @@
       </c>
       <c r="R9" t="inlineStr"/>
       <c r="S9" t="n">
-        <v>820.6004379234532</v>
+        <v>73.14005911874531</v>
       </c>
     </row>
     <row r="10">
@@ -1029,7 +1029,7 @@
         <v>20.66666666666667</v>
       </c>
       <c r="H10" t="n">
-        <v>60.3</v>
+        <v>15.72222222222222</v>
       </c>
       <c r="I10" t="n">
         <v>101.56</v>
@@ -1058,7 +1058,7 @@
       </c>
       <c r="R10" t="inlineStr"/>
       <c r="S10" t="n">
-        <v>837.1725698687078</v>
+        <v>73.29539005400292</v>
       </c>
     </row>
     <row r="11">
@@ -1088,7 +1088,7 @@
         <v>21.33333333333334</v>
       </c>
       <c r="H11" t="n">
-        <v>61.8</v>
+        <v>16.55555555555555</v>
       </c>
       <c r="I11" t="n">
         <v>101.44</v>
@@ -1117,7 +1117,7 @@
       </c>
       <c r="R11" t="inlineStr"/>
       <c r="S11" t="n">
-        <v>861.4471925161234</v>
+        <v>74.1941325589234</v>
       </c>
     </row>
     <row r="12">
@@ -1147,7 +1147,7 @@
         <v>17.77777777777778</v>
       </c>
       <c r="H12" t="n">
-        <v>55.6</v>
+        <v>13.11111111111111</v>
       </c>
       <c r="I12" t="n">
         <v>101.85</v>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="R12" t="inlineStr"/>
       <c r="S12" t="n">
-        <v>802.3684061525746</v>
+        <v>74.1205314399504</v>
       </c>
     </row>
     <row r="13">
@@ -1206,7 +1206,7 @@
         <v>16.77777777777778</v>
       </c>
       <c r="H13" t="n">
-        <v>50.5</v>
+        <v>10.27777777777778</v>
       </c>
       <c r="I13" t="n">
         <v>101.97</v>
@@ -1235,7 +1235,7 @@
       </c>
       <c r="R13" t="inlineStr"/>
       <c r="S13" t="n">
-        <v>666.0045926024604</v>
+        <v>65.48119696792493</v>
       </c>
     </row>
     <row r="14">
@@ -1265,7 +1265,7 @@
         <v>18.22222222222222</v>
       </c>
       <c r="H14" t="n">
-        <v>55.5</v>
+        <v>13.05555555555556</v>
       </c>
       <c r="I14" t="n">
         <v>101.99</v>
@@ -1294,7 +1294,7 @@
       </c>
       <c r="R14" t="inlineStr"/>
       <c r="S14" t="n">
-        <v>776.496424598214</v>
+        <v>71.81526479652265</v>
       </c>
     </row>
     <row r="15">
@@ -1324,7 +1324,7 @@
         <v>17.72222222222222</v>
       </c>
       <c r="H15" t="n">
-        <v>52.9</v>
+        <v>11.61111111111111</v>
       </c>
       <c r="I15" t="n">
         <v>102.05</v>
@@ -1353,7 +1353,7 @@
       </c>
       <c r="R15" t="inlineStr"/>
       <c r="S15" t="n">
-        <v>706.2928138364234</v>
+        <v>67.39745972094143</v>
       </c>
     </row>
     <row r="16">
@@ -1383,7 +1383,7 @@
         <v>20.66666666666667</v>
       </c>
       <c r="H16" t="n">
-        <v>59.1</v>
+        <v>15.05555555555556</v>
       </c>
       <c r="I16" t="n">
         <v>101.98</v>
@@ -1412,7 +1412,7 @@
       </c>
       <c r="R16" t="inlineStr"/>
       <c r="S16" t="n">
-        <v>791.4494114092782</v>
+        <v>70.22470975065782</v>
       </c>
     </row>
     <row r="17">
@@ -1442,7 +1442,7 @@
         <v>21.44444444444444</v>
       </c>
       <c r="H17" t="n">
-        <v>64.09999999999999</v>
+        <v>17.83333333333333</v>
       </c>
       <c r="I17" t="n">
         <v>101.97</v>
@@ -1471,7 +1471,7 @@
       </c>
       <c r="R17" t="inlineStr"/>
       <c r="S17" t="n">
-        <v>950.6808337575075</v>
+        <v>79.89938668245632</v>
       </c>
     </row>
     <row r="18">
@@ -1501,7 +1501,7 @@
         <v>21.77777777777778</v>
       </c>
       <c r="H18" t="n">
-        <v>63</v>
+        <v>17.22222222222222</v>
       </c>
       <c r="I18" t="n">
         <v>101.88</v>
@@ -1530,7 +1530,7 @@
       </c>
       <c r="R18" t="inlineStr"/>
       <c r="S18" t="n">
-        <v>885.8711185835633</v>
+        <v>75.32193758144484</v>
       </c>
     </row>
     <row r="19">
@@ -1560,7 +1560,7 @@
         <v>20.77777777777778</v>
       </c>
       <c r="H19" t="n">
-        <v>60.7</v>
+        <v>15.94444444444445</v>
       </c>
       <c r="I19" t="n">
         <v>101.77</v>
@@ -1589,7 +1589,7 @@
       </c>
       <c r="R19" t="inlineStr"/>
       <c r="S19" t="n">
-        <v>847.0886277234488</v>
+        <v>73.83750589608653</v>
       </c>
     </row>
     <row r="20">
@@ -1619,7 +1619,7 @@
         <v>20.44444444444444</v>
       </c>
       <c r="H20" t="n">
-        <v>60.6</v>
+        <v>15.88888888888889</v>
       </c>
       <c r="I20" t="n">
         <v>101.71</v>
@@ -1648,7 +1648,7 @@
       </c>
       <c r="R20" t="inlineStr"/>
       <c r="S20" t="n">
-        <v>860.6733366222885</v>
+        <v>75.10414198429038</v>
       </c>
     </row>
     <row r="21">
@@ -1678,7 +1678,7 @@
         <v>20.44444444444444</v>
       </c>
       <c r="H21" t="n">
-        <v>60.8</v>
+        <v>16</v>
       </c>
       <c r="I21" t="n">
         <v>101.84</v>
@@ -1707,7 +1707,7 @@
       </c>
       <c r="R21" t="inlineStr"/>
       <c r="S21" t="n">
-        <v>868.7142679804086</v>
+        <v>75.63945935957612</v>
       </c>
     </row>
     <row r="22">
@@ -1737,7 +1737,7 @@
         <v>19.11111111111111</v>
       </c>
       <c r="H22" t="n">
-        <v>61.8</v>
+        <v>16.55555555555555</v>
       </c>
       <c r="I22" t="n">
         <v>101.86</v>
@@ -1766,7 +1766,7 @@
       </c>
       <c r="R22" t="inlineStr"/>
       <c r="S22" t="n">
-        <v>988.4055009063779</v>
+        <v>85.12871060850816</v>
       </c>
     </row>
     <row r="23">
@@ -1796,7 +1796,7 @@
         <v>19.16666666666667</v>
       </c>
       <c r="H23" t="n">
-        <v>64</v>
+        <v>17.77777777777778</v>
       </c>
       <c r="I23" t="n">
         <v>101.4</v>
@@ -1825,7 +1825,7 @@
       </c>
       <c r="R23" t="inlineStr"/>
       <c r="S23" t="n">
-        <v>1089.481196239482</v>
+        <v>91.66079616633856</v>
       </c>
     </row>
     <row r="24">
@@ -1855,7 +1855,7 @@
         <v>23.16666666666667</v>
       </c>
       <c r="H24" t="n">
-        <v>67.2</v>
+        <v>19.55555555555556</v>
       </c>
       <c r="I24" t="n">
         <v>101</v>
@@ -1884,7 +1884,7 @@
       </c>
       <c r="R24" t="inlineStr"/>
       <c r="S24" t="n">
-        <v>984.2295302686732</v>
+        <v>80.13214698202692</v>
       </c>
     </row>
     <row r="25">
@@ -1914,7 +1914,7 @@
         <v>21.38888888888889</v>
       </c>
       <c r="H25" t="n">
-        <v>64.3</v>
+        <v>17.94444444444444</v>
       </c>
       <c r="I25" t="n">
         <v>101.41</v>
@@ -1943,7 +1943,7 @@
       </c>
       <c r="R25" t="inlineStr"/>
       <c r="S25" t="n">
-        <v>962.634000323016</v>
+        <v>80.73492734651671</v>
       </c>
     </row>
     <row r="26">
@@ -1973,7 +1973,7 @@
         <v>21.27777777777778</v>
       </c>
       <c r="H26" t="n">
-        <v>62.9</v>
+        <v>17.16666666666667</v>
       </c>
       <c r="I26" t="n">
         <v>101.67</v>
@@ -2002,7 +2002,7 @@
       </c>
       <c r="R26" t="inlineStr"/>
       <c r="S26" t="n">
-        <v>909.2482878819629</v>
+        <v>77.39193099504469</v>
       </c>
     </row>
     <row r="27">
@@ -2032,7 +2032,7 @@
         <v>22.27777777777778</v>
       </c>
       <c r="H27" t="n">
-        <v>64.59999999999999</v>
+        <v>18.11111111111111</v>
       </c>
       <c r="I27" t="n">
         <v>101.68</v>
@@ -2061,7 +2061,7 @@
       </c>
       <c r="R27" t="inlineStr"/>
       <c r="S27" t="n">
-        <v>924.2285342660143</v>
+        <v>77.27192565285092</v>
       </c>
     </row>
     <row r="28">
@@ -2091,7 +2091,7 @@
         <v>21.88888888888889</v>
       </c>
       <c r="H28" t="n">
-        <v>66.3</v>
+        <v>19.05555555555555</v>
       </c>
       <c r="I28" t="n">
         <v>101.66</v>
@@ -2120,7 +2120,7 @@
       </c>
       <c r="R28" t="inlineStr"/>
       <c r="S28" t="n">
-        <v>1021.792823909902</v>
+        <v>83.94938235088551</v>
       </c>
     </row>
     <row r="29">
@@ -2150,7 +2150,7 @@
         <v>20.61111111111111</v>
       </c>
       <c r="H29" t="n">
-        <v>65.3</v>
+        <v>18.5</v>
       </c>
       <c r="I29" t="n">
         <v>101.5</v>
@@ -2179,7 +2179,7 @@
       </c>
       <c r="R29" t="inlineStr"/>
       <c r="S29" t="n">
-        <v>1056.562014716813</v>
+        <v>87.69827712795617</v>
       </c>
     </row>
     <row r="30">
@@ -2209,7 +2209,7 @@
         <v>19.16666666666667</v>
       </c>
       <c r="H30" t="n">
-        <v>62.8</v>
+        <v>17.11111111111111</v>
       </c>
       <c r="I30" t="n">
         <v>101.12</v>
@@ -2238,7 +2238,7 @@
       </c>
       <c r="R30" t="inlineStr"/>
       <c r="S30" t="n">
-        <v>1031.365272888247</v>
+        <v>87.87970563686707</v>
       </c>
     </row>
     <row r="31">
@@ -2268,7 +2268,7 @@
         <v>19.22222222222222</v>
       </c>
       <c r="H31" t="n">
-        <v>58.1</v>
+        <v>14.5</v>
       </c>
       <c r="I31" t="n">
         <v>101.62</v>
@@ -2297,7 +2297,7 @@
       </c>
       <c r="R31" t="inlineStr"/>
       <c r="S31" t="n">
-        <v>825.7319191298299</v>
+        <v>74.10002625992246</v>
       </c>
     </row>
     <row r="32">
@@ -2327,7 +2327,7 @@
         <v>18.55555555555556</v>
       </c>
       <c r="H32" t="n">
-        <v>52.9</v>
+        <v>11.61111111111111</v>
       </c>
       <c r="I32" t="n">
         <v>102.07</v>
@@ -2356,7 +2356,7 @@
       </c>
       <c r="R32" t="inlineStr"/>
       <c r="S32" t="n">
-        <v>670.2506030344442</v>
+        <v>63.95815890519977</v>
       </c>
     </row>
     <row r="33">
@@ -2386,7 +2386,7 @@
         <v>20.66666666666667</v>
       </c>
       <c r="H33" t="n">
-        <v>57.5</v>
+        <v>14.16666666666667</v>
       </c>
       <c r="I33" t="n">
         <v>101.86</v>
@@ -2415,7 +2415,7 @@
       </c>
       <c r="R33" t="inlineStr"/>
       <c r="S33" t="n">
-        <v>733.8346030764594</v>
+        <v>66.30679914097676</v>
       </c>
     </row>
     <row r="34">
@@ -2445,7 +2445,7 @@
         <v>22.27777777777778</v>
       </c>
       <c r="H34" t="n">
-        <v>62.1</v>
+        <v>16.72222222222222</v>
       </c>
       <c r="I34" t="n">
         <v>101.7</v>
@@ -2474,7 +2474,7 @@
       </c>
       <c r="R34" t="inlineStr"/>
       <c r="S34" t="n">
-        <v>824.4497070070375</v>
+        <v>70.77807750832011</v>
       </c>
     </row>
     <row r="35">
@@ -2504,7 +2504,7 @@
         <v>21.44444444444444</v>
       </c>
       <c r="H35" t="n">
-        <v>63.4</v>
+        <v>17.44444444444444</v>
       </c>
       <c r="I35" t="n">
         <v>101.55</v>
@@ -2533,7 +2533,7 @@
       </c>
       <c r="R35" t="inlineStr"/>
       <c r="S35" t="n">
-        <v>920.8286886119639</v>
+        <v>77.96276662549305</v>
       </c>
     </row>
     <row r="36">
@@ -2563,7 +2563,7 @@
         <v>19.88888888888889</v>
       </c>
       <c r="H36" t="n">
-        <v>57.8</v>
+        <v>14.33333333333333</v>
       </c>
       <c r="I36" t="n">
         <v>101.94</v>
@@ -2592,7 +2592,7 @@
       </c>
       <c r="R36" t="inlineStr"/>
       <c r="S36" t="n">
-        <v>781.0297381034313</v>
+        <v>70.32893373379765</v>
       </c>
     </row>
     <row r="37">
@@ -2622,7 +2622,7 @@
         <v>18.61111111111111</v>
       </c>
       <c r="H37" t="n">
-        <v>55.1</v>
+        <v>12.83333333333333</v>
       </c>
       <c r="I37" t="n">
         <v>102.26</v>
@@ -2651,7 +2651,7 @@
       </c>
       <c r="R37" t="inlineStr"/>
       <c r="S37" t="n">
-        <v>743.3180038835195</v>
+        <v>69.07319127852845</v>
       </c>
     </row>
     <row r="38">
@@ -2681,7 +2681,7 @@
         <v>18.5</v>
       </c>
       <c r="H38" t="n">
-        <v>54.9</v>
+        <v>12.72222222222222</v>
       </c>
       <c r="I38" t="n">
         <v>102.2</v>
@@ -2710,7 +2710,7 @@
       </c>
       <c r="R38" t="inlineStr"/>
       <c r="S38" t="n">
-        <v>741.3165579000233</v>
+        <v>69.05126853160765</v>
       </c>
     </row>
     <row r="39">
@@ -2740,7 +2740,7 @@
         <v>19.27777777777778</v>
       </c>
       <c r="H39" t="n">
-        <v>62.3</v>
+        <v>16.83333333333333</v>
       </c>
       <c r="I39" t="n">
         <v>101.67</v>
@@ -2769,7 +2769,7 @@
       </c>
       <c r="R39" t="inlineStr"/>
       <c r="S39" t="n">
-        <v>1000.989764912529</v>
+        <v>85.74917852785528</v>
       </c>
     </row>
     <row r="40">
@@ -2799,7 +2799,7 @@
         <v>19.16666666666667</v>
       </c>
       <c r="H40" t="n">
-        <v>59.5</v>
+        <v>15.27777777777778</v>
       </c>
       <c r="I40" t="n">
         <v>101.92</v>
@@ -2828,7 +2828,7 @@
       </c>
       <c r="R40" t="inlineStr"/>
       <c r="S40" t="n">
-        <v>885.0550475769223</v>
+        <v>78.17919760461137</v>
       </c>
     </row>
     <row r="41">
@@ -2858,7 +2858,7 @@
         <v>20.66666666666667</v>
       </c>
       <c r="H41" t="n">
-        <v>61.1</v>
+        <v>16.16666666666667</v>
       </c>
       <c r="I41" t="n">
         <v>101.74</v>
@@ -2887,7 +2887,7 @@
       </c>
       <c r="R41" t="inlineStr"/>
       <c r="S41" t="n">
-        <v>868.8992832476079</v>
+        <v>75.40754068991833</v>
       </c>
     </row>
     <row r="42">
@@ -2917,7 +2917,7 @@
         <v>22</v>
       </c>
       <c r="H42" t="n">
-        <v>62.9</v>
+        <v>17.16666666666667</v>
       </c>
       <c r="I42" t="n">
         <v>101.68</v>
@@ -2946,7 +2946,7 @@
       </c>
       <c r="R42" t="inlineStr"/>
       <c r="S42" t="n">
-        <v>869.9313754578795</v>
+        <v>74.0454173817489</v>
       </c>
     </row>
     <row r="43">
@@ -2976,7 +2976,7 @@
         <v>22.22222222222222</v>
       </c>
       <c r="H43" t="n">
-        <v>65.40000000000001</v>
+        <v>18.55555555555556</v>
       </c>
       <c r="I43" t="n">
         <v>101.47</v>
@@ -3005,7 +3005,7 @@
       </c>
       <c r="R43" t="inlineStr"/>
       <c r="S43" t="n">
-        <v>961.5161172471287</v>
+        <v>79.72704803619877</v>
       </c>
     </row>
     <row r="44">
@@ -3035,7 +3035,7 @@
         <v>23.77777777777778</v>
       </c>
       <c r="H44" t="n">
-        <v>65.59999999999999</v>
+        <v>18.66666666666666</v>
       </c>
       <c r="I44" t="n">
         <v>101.39</v>
@@ -3064,7 +3064,7 @@
       </c>
       <c r="R44" t="inlineStr"/>
       <c r="S44" t="n">
-        <v>882.9644801669789</v>
+        <v>73.06347493995293</v>
       </c>
     </row>
     <row r="45">
@@ -3094,7 +3094,7 @@
         <v>23.61111111111111</v>
       </c>
       <c r="H45" t="n">
-        <v>63.9</v>
+        <v>17.72222222222222</v>
       </c>
       <c r="I45" t="n">
         <v>101.26</v>
@@ -3123,7 +3123,7 @@
       </c>
       <c r="R45" t="inlineStr"/>
       <c r="S45" t="n">
-        <v>825.7968927654957</v>
+        <v>69.5493296226295</v>
       </c>
     </row>
     <row r="46">
@@ -3153,7 +3153,7 @@
         <v>18.77777777777778</v>
       </c>
       <c r="H46" t="n">
-        <v>57.1</v>
+        <v>13.94444444444445</v>
       </c>
       <c r="I46" t="n">
         <v>101.68</v>
@@ -3182,7 +3182,7 @@
       </c>
       <c r="R46" t="inlineStr"/>
       <c r="S46" t="n">
-        <v>809.6188352787806</v>
+        <v>73.49223403659431</v>
       </c>
     </row>
     <row r="47">
@@ -3212,7 +3212,7 @@
         <v>20.33333333333333</v>
       </c>
       <c r="H47" t="n">
-        <v>54.2</v>
+        <v>12.33333333333334</v>
       </c>
       <c r="I47" t="n">
         <v>101.64</v>
@@ -3241,7 +3241,7 @@
       </c>
       <c r="R47" t="inlineStr"/>
       <c r="S47" t="n">
-        <v>639.3215230998718</v>
+        <v>60.05177687720519</v>
       </c>
     </row>
     <row r="48">
@@ -3271,7 +3271,7 @@
         <v>20.61111111111111</v>
       </c>
       <c r="H48" t="n">
-        <v>58</v>
+        <v>14.44444444444444</v>
       </c>
       <c r="I48" t="n">
         <v>101.47</v>
@@ -3300,7 +3300,7 @@
       </c>
       <c r="R48" t="inlineStr"/>
       <c r="S48" t="n">
-        <v>754.0173621951055</v>
+        <v>67.74163399014971</v>
       </c>
     </row>
     <row r="49">
@@ -3330,7 +3330,7 @@
         <v>21.72222222222222</v>
       </c>
       <c r="H49" t="n">
-        <v>62.3</v>
+        <v>16.83333333333333</v>
       </c>
       <c r="I49" t="n">
         <v>101.37</v>
@@ -3359,7 +3359,7 @@
       </c>
       <c r="R49" t="inlineStr"/>
       <c r="S49" t="n">
-        <v>860.7764746889899</v>
+        <v>73.73789242204087</v>
       </c>
     </row>
     <row r="50">
@@ -3389,7 +3389,7 @@
         <v>22.05555555555556</v>
       </c>
       <c r="H50" t="n">
-        <v>62.7</v>
+        <v>17.05555555555556</v>
       </c>
       <c r="I50" t="n">
         <v>101.34</v>
@@ -3418,7 +3418,7 @@
       </c>
       <c r="R50" t="inlineStr"/>
       <c r="S50" t="n">
-        <v>859.0712228659773</v>
+        <v>73.27719018682944</v>
       </c>
     </row>
     <row r="51">
@@ -3448,7 +3448,7 @@
         <v>19.72222222222222</v>
       </c>
       <c r="H51" t="n">
-        <v>61.8</v>
+        <v>16.55555555555555</v>
       </c>
       <c r="I51" t="n">
         <v>101.63</v>
@@ -3477,7 +3477,7 @@
       </c>
       <c r="R51" t="inlineStr"/>
       <c r="S51" t="n">
-        <v>951.5144106031945</v>
+        <v>81.95138010238271</v>
       </c>
     </row>
     <row r="52">
@@ -3507,7 +3507,7 @@
         <v>14.83333333333334</v>
       </c>
       <c r="H52" t="n">
-        <v>51.4</v>
+        <v>10.77777777777778</v>
       </c>
       <c r="I52" t="n">
         <v>102.19</v>
@@ -3536,7 +3536,7 @@
       </c>
       <c r="R52" t="inlineStr"/>
       <c r="S52" t="n">
-        <v>788.7008302369379</v>
+        <v>76.67134335134327</v>
       </c>
     </row>
     <row r="53">
@@ -3566,7 +3566,7 @@
         <v>15.88888888888889</v>
       </c>
       <c r="H53" t="n">
-        <v>51.9</v>
+        <v>11.05555555555556</v>
       </c>
       <c r="I53" t="n">
         <v>102.21</v>
@@ -3595,7 +3595,7 @@
       </c>
       <c r="R53" t="inlineStr"/>
       <c r="S53" t="n">
-        <v>755.4437527975632</v>
+        <v>72.98218178126817</v>
       </c>
     </row>
     <row r="54">
@@ -3625,7 +3625,7 @@
         <v>19.11111111111111</v>
       </c>
       <c r="H54" t="n">
-        <v>59.8</v>
+        <v>15.44444444444444</v>
       </c>
       <c r="I54" t="n">
         <v>102.03</v>
@@ -3654,7 +3654,7 @@
       </c>
       <c r="R54" t="inlineStr"/>
       <c r="S54" t="n">
-        <v>900.6897177988602</v>
+        <v>79.2946434402247</v>
       </c>
     </row>
     <row r="55">
@@ -3684,7 +3684,7 @@
         <v>16.88888888888889</v>
       </c>
       <c r="H55" t="n">
-        <v>57.6</v>
+        <v>14.22222222222222</v>
       </c>
       <c r="I55" t="n">
         <v>102.13</v>
@@ -3713,7 +3713,7 @@
       </c>
       <c r="R55" t="inlineStr"/>
       <c r="S55" t="n">
-        <v>933.8681889158662</v>
+        <v>84.28435338349779</v>
       </c>
     </row>
     <row r="56">
@@ -3743,7 +3743,7 @@
         <v>18</v>
       </c>
       <c r="H56" t="n">
-        <v>54.3</v>
+        <v>12.38888888888889</v>
       </c>
       <c r="I56" t="n">
         <v>102.39</v>
@@ -3772,7 +3772,7 @@
       </c>
       <c r="R56" t="inlineStr"/>
       <c r="S56" t="n">
-        <v>743.0600047024739</v>
+        <v>69.71214584819039</v>
       </c>
     </row>
     <row r="57">
@@ -3802,7 +3802,7 @@
         <v>20</v>
       </c>
       <c r="H57" t="n">
-        <v>57.6</v>
+        <v>14.22222222222222</v>
       </c>
       <c r="I57" t="n">
         <v>102.2</v>
@@ -3831,7 +3831,7 @@
       </c>
       <c r="R57" t="inlineStr"/>
       <c r="S57" t="n">
-        <v>768.3454839784574</v>
+        <v>69.34544195946398</v>
       </c>
     </row>
     <row r="58">
@@ -3861,7 +3861,7 @@
         <v>20.72222222222222</v>
       </c>
       <c r="H58" t="n">
-        <v>62</v>
+        <v>16.66666666666667</v>
       </c>
       <c r="I58" t="n">
         <v>101.96</v>
@@ -3890,7 +3890,7 @@
       </c>
       <c r="R58" t="inlineStr"/>
       <c r="S58" t="n">
-        <v>902.7235214010883</v>
+        <v>77.5813738152568</v>
       </c>
     </row>
     <row r="59">
@@ -3920,7 +3920,7 @@
         <v>20.55555555555556</v>
       </c>
       <c r="H59" t="n">
-        <v>59.8</v>
+        <v>15.44444444444444</v>
       </c>
       <c r="I59" t="n">
         <v>101.96</v>
@@ -3949,7 +3949,7 @@
       </c>
       <c r="R59" t="inlineStr"/>
       <c r="S59" t="n">
-        <v>823.4773742350209</v>
+        <v>72.4970469637808</v>
       </c>
     </row>
     <row r="60">
@@ -3979,7 +3979,7 @@
         <v>22.55555555555555</v>
       </c>
       <c r="H60" t="n">
-        <v>60.9</v>
+        <v>16.05555555555556</v>
       </c>
       <c r="I60" t="n">
         <v>101.81</v>
@@ -4008,7 +4008,7 @@
       </c>
       <c r="R60" t="inlineStr"/>
       <c r="S60" t="n">
-        <v>766.8649381792857</v>
+        <v>66.69822920594235</v>
       </c>
     </row>
     <row r="61">
@@ -4038,7 +4038,7 @@
         <v>22.94444444444444</v>
       </c>
       <c r="H61" t="n">
-        <v>66.09999999999999</v>
+        <v>18.94444444444444</v>
       </c>
       <c r="I61" t="n">
         <v>101.64</v>
@@ -4067,7 +4067,7 @@
       </c>
       <c r="R61" t="inlineStr"/>
       <c r="S61" t="n">
-        <v>949.6692301912756</v>
+        <v>78.18263853182091</v>
       </c>
     </row>
     <row r="62">
@@ -4097,7 +4097,7 @@
         <v>22.33333333333334</v>
       </c>
       <c r="H62" t="n">
-        <v>66.09999999999999</v>
+        <v>18.94444444444444</v>
       </c>
       <c r="I62" t="n">
         <v>101.71</v>
@@ -4126,7 +4126,7 @@
       </c>
       <c r="R62" t="inlineStr"/>
       <c r="S62" t="n">
-        <v>985.5860590508162</v>
+        <v>81.13953379457377</v>
       </c>
     </row>
     <row r="63">
@@ -4156,7 +4156,7 @@
         <v>22.88888888888889</v>
       </c>
       <c r="H63" t="n">
-        <v>65.5</v>
+        <v>18.61111111111111</v>
       </c>
       <c r="I63" t="n">
         <v>101.61</v>
@@ -4185,7 +4185,7 @@
       </c>
       <c r="R63" t="inlineStr"/>
       <c r="S63" t="n">
-        <v>927.5031521817432</v>
+        <v>76.82776235774388</v>
       </c>
     </row>
     <row r="64">
@@ -4215,7 +4215,7 @@
         <v>24.05555555555555</v>
       </c>
       <c r="H64" t="n">
-        <v>67.40000000000001</v>
+        <v>19.66666666666667</v>
       </c>
       <c r="I64" t="n">
         <v>101.27</v>
@@ -4244,7 +4244,7 @@
       </c>
       <c r="R64" t="inlineStr"/>
       <c r="S64" t="n">
-        <v>941.2071274717123</v>
+        <v>76.4761202335648</v>
       </c>
     </row>
     <row r="65">
@@ -4274,7 +4274,7 @@
         <v>23.33333333333334</v>
       </c>
       <c r="H65" t="n">
-        <v>66.2</v>
+        <v>19</v>
       </c>
       <c r="I65" t="n">
         <v>101.41</v>
@@ -4303,7 +4303,7 @@
       </c>
       <c r="R65" t="inlineStr"/>
       <c r="S65" t="n">
-        <v>931.7514785950696</v>
+        <v>76.62951678227365</v>
       </c>
     </row>
     <row r="66">
@@ -4333,7 +4333,7 @@
         <v>22.38888888888889</v>
       </c>
       <c r="H66" t="n">
-        <v>60.9</v>
+        <v>16.05555555555556</v>
       </c>
       <c r="I66" t="n">
         <v>101.5</v>
@@ -4362,7 +4362,7 @@
       </c>
       <c r="R66" t="inlineStr"/>
       <c r="S66" t="n">
-        <v>774.6782241160101</v>
+        <v>67.3777912908859</v>
       </c>
     </row>
     <row r="67">
@@ -4392,7 +4392,7 @@
         <v>20.61111111111111</v>
       </c>
       <c r="H67" t="n">
-        <v>60</v>
+        <v>15.55555555555556</v>
       </c>
       <c r="I67" t="n">
         <v>101.31</v>
@@ -4421,7 +4421,7 @@
       </c>
       <c r="R67" t="inlineStr"/>
       <c r="S67" t="n">
-        <v>828.3674896061965</v>
+        <v>72.76572862677895</v>
       </c>
     </row>
     <row r="68">
@@ -4451,7 +4451,7 @@
         <v>19.55555555555556</v>
       </c>
       <c r="H68" t="n">
-        <v>50.5</v>
+        <v>10.27777777777778</v>
       </c>
       <c r="I68" t="n">
         <v>101.73</v>
@@ -4480,7 +4480,7 @@
       </c>
       <c r="R68" t="inlineStr"/>
       <c r="S68" t="n">
-        <v>559.3274467585716</v>
+        <v>54.99275998630593</v>
       </c>
     </row>
     <row r="69">
@@ -4510,7 +4510,7 @@
         <v>21.66666666666667</v>
       </c>
       <c r="H69" t="n">
-        <v>54.2</v>
+        <v>12.33333333333334</v>
       </c>
       <c r="I69" t="n">
         <v>101.78</v>
@@ -4539,7 +4539,7 @@
       </c>
       <c r="R69" t="inlineStr"/>
       <c r="S69" t="n">
-        <v>588.9876789339578</v>
+        <v>55.32389478656688</v>
       </c>
     </row>
     <row r="70">
@@ -4569,7 +4569,7 @@
         <v>21.88888888888889</v>
       </c>
       <c r="H70" t="n">
-        <v>55.3</v>
+        <v>12.94444444444444</v>
       </c>
       <c r="I70" t="n">
         <v>101.61</v>
@@ -4598,7 +4598,7 @@
       </c>
       <c r="R70" t="inlineStr"/>
       <c r="S70" t="n">
-        <v>612.7918598876178</v>
+        <v>56.80906499479303</v>
       </c>
     </row>
     <row r="71">
@@ -4628,7 +4628,7 @@
         <v>22.72222222222222</v>
       </c>
       <c r="H71" t="n">
-        <v>62.7</v>
+        <v>17.05555555555556</v>
       </c>
       <c r="I71" t="n">
         <v>101.45</v>
@@ -4657,7 +4657,7 @@
       </c>
       <c r="R71" t="inlineStr"/>
       <c r="S71" t="n">
-        <v>824.9131740691693</v>
+        <v>70.36357165151831</v>
       </c>
     </row>
     <row r="72">
@@ -4687,7 +4687,7 @@
         <v>23.05555555555556</v>
       </c>
       <c r="H72" t="n">
-        <v>62.3</v>
+        <v>16.83333333333333</v>
       </c>
       <c r="I72" t="n">
         <v>101.47</v>
@@ -4716,7 +4716,7 @@
       </c>
       <c r="R72" t="inlineStr"/>
       <c r="S72" t="n">
-        <v>793.6853410808665</v>
+        <v>67.9905713254042</v>
       </c>
     </row>
     <row r="73">
@@ -4746,7 +4746,7 @@
         <v>23</v>
       </c>
       <c r="H73" t="n">
-        <v>66.09999999999999</v>
+        <v>18.94444444444444</v>
       </c>
       <c r="I73" t="n">
         <v>101.33</v>
@@ -4775,7 +4775,7 @@
       </c>
       <c r="R73" t="inlineStr"/>
       <c r="S73" t="n">
-        <v>946.4776871493607</v>
+        <v>77.91989098975878</v>
       </c>
     </row>
     <row r="74">
@@ -4805,7 +4805,7 @@
         <v>22.66666666666667</v>
       </c>
       <c r="H74" t="n">
-        <v>67.3</v>
+        <v>19.61111111111111</v>
       </c>
       <c r="I74" t="n">
         <v>101.22</v>
@@ -4834,7 +4834,7 @@
       </c>
       <c r="R74" t="inlineStr"/>
       <c r="S74" t="n">
-        <v>1019.048480107884</v>
+        <v>82.88387625954942</v>
       </c>
     </row>
     <row r="75">
@@ -4864,7 +4864,7 @@
         <v>23.94444444444444</v>
       </c>
       <c r="H75" t="n">
-        <v>67.3</v>
+        <v>19.61111111111111</v>
       </c>
       <c r="I75" t="n">
         <v>101.16</v>
@@ -4893,7 +4893,7 @@
       </c>
       <c r="R75" t="inlineStr"/>
       <c r="S75" t="n">
-        <v>943.3067154275399</v>
+        <v>76.7234519284313</v>
       </c>
     </row>
     <row r="76">
@@ -4923,7 +4923,7 @@
         <v>24.33333333333333</v>
       </c>
       <c r="H76" t="n">
-        <v>67.2</v>
+        <v>19.55555555555556</v>
       </c>
       <c r="I76" t="n">
         <v>101.25</v>
@@ -4952,7 +4952,7 @@
       </c>
       <c r="R76" t="inlineStr"/>
       <c r="S76" t="n">
-        <v>917.430061669909</v>
+        <v>74.69359360452739</v>
       </c>
     </row>
     <row r="77">
@@ -4982,7 +4982,7 @@
         <v>24.66666666666667</v>
       </c>
       <c r="H77" t="n">
-        <v>70.5</v>
+        <v>21.38888888888889</v>
       </c>
       <c r="I77" t="n">
         <v>100.74</v>
@@ -5011,7 +5011,7 @@
       </c>
       <c r="R77" t="inlineStr"/>
       <c r="S77" t="n">
-        <v>1040.17744578066</v>
+        <v>81.99275469847123</v>
       </c>
     </row>
     <row r="78">
@@ -5041,7 +5041,7 @@
         <v>23.22222222222222</v>
       </c>
       <c r="H78" t="n">
-        <v>67.7</v>
+        <v>19.83333333333334</v>
       </c>
       <c r="I78" t="n">
         <v>100.8</v>
@@ -5070,7 +5070,7 @@
       </c>
       <c r="R78" t="inlineStr"/>
       <c r="S78" t="n">
-        <v>1002.997321646048</v>
+        <v>81.2531806486175</v>
       </c>
     </row>
     <row r="79">
@@ -5100,7 +5100,7 @@
         <v>22.66666666666667</v>
       </c>
       <c r="H79" t="n">
-        <v>67.40000000000001</v>
+        <v>19.66666666666667</v>
       </c>
       <c r="I79" t="n">
         <v>101.18</v>
@@ -5129,7 +5129,7 @@
       </c>
       <c r="R79" t="inlineStr"/>
       <c r="S79" t="n">
-        <v>1023.596222979671</v>
+        <v>83.17050045030481</v>
       </c>
     </row>
     <row r="80">
@@ -5159,7 +5159,7 @@
         <v>22.33333333333334</v>
       </c>
       <c r="H80" t="n">
-        <v>70.2</v>
+        <v>21.22222222222222</v>
       </c>
       <c r="I80" t="n">
         <v>101.46</v>
@@ -5188,7 +5188,7 @@
       </c>
       <c r="R80" t="inlineStr"/>
       <c r="S80" t="n">
-        <v>1181.893713135963</v>
+        <v>93.43212625503746</v>
       </c>
     </row>
     <row r="81">
@@ -5218,7 +5218,7 @@
         <v>25.05555555555555</v>
       </c>
       <c r="H81" t="n">
-        <v>73.09999999999999</v>
+        <v>22.83333333333333</v>
       </c>
       <c r="I81" t="n">
         <v>101.31</v>
@@ -5247,7 +5247,7 @@
       </c>
       <c r="R81" t="inlineStr"/>
       <c r="S81" t="n">
-        <v>1137.334555815208</v>
+        <v>87.48708133285903</v>
       </c>
     </row>
     <row r="82">
@@ -5277,7 +5277,7 @@
         <v>23.61111111111111</v>
       </c>
       <c r="H82" t="n">
-        <v>68.40000000000001</v>
+        <v>20.22222222222222</v>
       </c>
       <c r="I82" t="n">
         <v>101.21</v>
@@ -5306,7 +5306,7 @@
       </c>
       <c r="R82" t="inlineStr"/>
       <c r="S82" t="n">
-        <v>1010.592270899942</v>
+        <v>81.30259202537503</v>
       </c>
     </row>
     <row r="83">
@@ -5336,7 +5336,7 @@
         <v>20</v>
       </c>
       <c r="H83" t="n">
-        <v>64.8</v>
+        <v>18.22222222222222</v>
       </c>
       <c r="I83" t="n">
         <v>101.45</v>
@@ -5365,7 +5365,7 @@
       </c>
       <c r="R83" t="inlineStr"/>
       <c r="S83" t="n">
-        <v>1072.728445311796</v>
+        <v>89.50144822755207</v>
       </c>
     </row>
     <row r="84">
@@ -5395,7 +5395,7 @@
         <v>21.44444444444444</v>
       </c>
       <c r="H84" t="n">
-        <v>63.4</v>
+        <v>17.44444444444444</v>
       </c>
       <c r="I84" t="n">
         <v>101.6</v>
@@ -5424,7 +5424,7 @@
       </c>
       <c r="R84" t="inlineStr"/>
       <c r="S84" t="n">
-        <v>920.8286886119639</v>
+        <v>77.96276662549305</v>
       </c>
     </row>
     <row r="85">
@@ -5454,7 +5454,7 @@
         <v>25.22222222222222</v>
       </c>
       <c r="H85" t="n">
-        <v>70.59999999999999</v>
+        <v>21.44444444444444</v>
       </c>
       <c r="I85" t="n">
         <v>101.16</v>
@@ -5483,7 +5483,7 @@
       </c>
       <c r="R85" t="inlineStr"/>
       <c r="S85" t="n">
-        <v>1010.639344313743</v>
+        <v>79.58822738266483</v>
       </c>
     </row>
     <row r="86">
@@ -5513,7 +5513,7 @@
         <v>26.61111111111111</v>
       </c>
       <c r="H86" t="n">
-        <v>72.5</v>
+        <v>22.5</v>
       </c>
       <c r="I86" t="n">
         <v>101.01</v>
@@ -5542,7 +5542,7 @@
       </c>
       <c r="R86" t="inlineStr"/>
       <c r="S86" t="n">
-        <v>1010.673284009782</v>
+        <v>78.17735695300571</v>
       </c>
     </row>
     <row r="87">
@@ -5572,7 +5572,7 @@
         <v>22.11111111111111</v>
       </c>
       <c r="H87" t="n">
-        <v>66</v>
+        <v>18.88888888888889</v>
       </c>
       <c r="I87" t="n">
         <v>101.47</v>
@@ -5601,7 +5601,7 @@
       </c>
       <c r="R87" t="inlineStr"/>
       <c r="S87" t="n">
-        <v>994.5473213470967</v>
+        <v>81.96076235568235</v>
       </c>
     </row>
     <row r="88">
@@ -5631,7 +5631,7 @@
         <v>22.44444444444445</v>
       </c>
       <c r="H88" t="n">
-        <v>63</v>
+        <v>17.22222222222222</v>
       </c>
       <c r="I88" t="n">
         <v>101.74</v>
@@ -5660,7 +5660,7 @@
       </c>
       <c r="R88" t="inlineStr"/>
       <c r="S88" t="n">
-        <v>850.5752384490199</v>
+        <v>72.32087566103024</v>
       </c>
     </row>
     <row r="89">
@@ -5690,7 +5690,7 @@
         <v>24.11111111111111</v>
       </c>
       <c r="H89" t="n">
-        <v>65.8</v>
+        <v>18.77777777777778</v>
       </c>
       <c r="I89" t="n">
         <v>101.7</v>
@@ -5719,7 +5719,7 @@
       </c>
       <c r="R89" t="inlineStr"/>
       <c r="S89" t="n">
-        <v>873.2609023709564</v>
+        <v>72.11267117659293</v>
       </c>
     </row>
     <row r="90">
@@ -5749,7 +5749,7 @@
         <v>25.16666666666667</v>
       </c>
       <c r="H90" t="n">
-        <v>69.3</v>
+        <v>20.72222222222222</v>
       </c>
       <c r="I90" t="n">
         <v>101.64</v>
@@ -5778,7 +5778,7 @@
       </c>
       <c r="R90" t="inlineStr"/>
       <c r="S90" t="n">
-        <v>957.8765686160109</v>
+        <v>76.38507946051459</v>
       </c>
     </row>
     <row r="91">
@@ -5808,7 +5808,7 @@
         <v>24.83333333333334</v>
       </c>
       <c r="H91" t="n">
-        <v>69.3</v>
+        <v>20.72222222222222</v>
       </c>
       <c r="I91" t="n">
         <v>101.66</v>
@@ -5837,7 +5837,7 @@
       </c>
       <c r="R91" t="inlineStr"/>
       <c r="S91" t="n">
-        <v>977.1235454479071</v>
+        <v>77.91991380436252</v>
       </c>
     </row>
     <row r="92">
@@ -5867,7 +5867,7 @@
         <v>21.11111111111111</v>
       </c>
       <c r="H92" t="n">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="I92" t="n">
         <v>102.03</v>
@@ -5896,7 +5896,7 @@
       </c>
       <c r="R92" t="inlineStr"/>
       <c r="S92" t="n">
-        <v>766.4799896827125</v>
+        <v>68.08568039805755</v>
       </c>
     </row>
     <row r="93">
@@ -5926,7 +5926,7 @@
         <v>20.33333333333333</v>
       </c>
       <c r="H93" t="n">
-        <v>57.4</v>
+        <v>14.11111111111111</v>
       </c>
       <c r="I93" t="n">
         <v>101.97</v>
@@ -5955,7 +5955,7 @@
       </c>
       <c r="R93" t="inlineStr"/>
       <c r="S93" t="n">
-        <v>745.5418329429261</v>
+        <v>67.44210077778185</v>
       </c>
     </row>
     <row r="94">
@@ -5985,7 +5985,7 @@
         <v>19.38888888888889</v>
       </c>
       <c r="H94" t="n">
-        <v>57.4</v>
+        <v>14.11111111111111</v>
       </c>
       <c r="I94" t="n">
         <v>102.12</v>
@@ -6014,7 +6014,7 @@
       </c>
       <c r="R94" t="inlineStr"/>
       <c r="S94" t="n">
-        <v>790.526698648768</v>
+        <v>71.51145505456678</v>
       </c>
     </row>
     <row r="95">
@@ -6044,7 +6044,7 @@
         <v>22.11111111111111</v>
       </c>
       <c r="H95" t="n">
-        <v>61.2</v>
+        <v>16.22222222222222</v>
       </c>
       <c r="I95" t="n">
         <v>102.17</v>
@@ -6073,7 +6073,7 @@
       </c>
       <c r="R95" t="inlineStr"/>
       <c r="S95" t="n">
-        <v>798.9416523170748</v>
+        <v>69.26061689987326</v>
       </c>
     </row>
     <row r="96">
@@ -6103,7 +6103,7 @@
         <v>21.11111111111111</v>
       </c>
       <c r="H96" t="n">
-        <v>63.2</v>
+        <v>17.33333333333334</v>
       </c>
       <c r="I96" t="n">
         <v>101.92</v>
@@ -6132,7 +6132,7 @@
       </c>
       <c r="R96" t="inlineStr"/>
       <c r="S96" t="n">
-        <v>931.3071807815005</v>
+        <v>79.01714453230558</v>
       </c>
     </row>
     <row r="97">
@@ -6162,7 +6162,7 @@
         <v>22.33333333333334</v>
       </c>
       <c r="H97" t="n">
-        <v>63.8</v>
+        <v>17.66666666666666</v>
       </c>
       <c r="I97" t="n">
         <v>101.66</v>
@@ -6191,7 +6191,7 @@
       </c>
       <c r="R97" t="inlineStr"/>
       <c r="S97" t="n">
-        <v>888.2209434781307</v>
+        <v>74.8854027998605</v>
       </c>
     </row>
     <row r="98">
@@ -6221,7 +6221,7 @@
         <v>22.61111111111111</v>
       </c>
       <c r="H98" t="n">
-        <v>61.8</v>
+        <v>16.55555555555555</v>
       </c>
       <c r="I98" t="n">
         <v>101.62</v>
@@ -6250,7 +6250,7 @@
       </c>
       <c r="R98" t="inlineStr"/>
       <c r="S98" t="n">
-        <v>796.7993372157362</v>
+        <v>68.62618644745324</v>
       </c>
     </row>
     <row r="99">
@@ -6280,7 +6280,7 @@
         <v>22</v>
       </c>
       <c r="H99" t="n">
-        <v>59.4</v>
+        <v>15.22222222222222</v>
       </c>
       <c r="I99" t="n">
         <v>101.56</v>
@@ -6309,7 +6309,7 @@
       </c>
       <c r="R99" t="inlineStr"/>
       <c r="S99" t="n">
-        <v>739.6320370487222</v>
+        <v>65.40667733371353</v>
       </c>
     </row>
     <row r="100">
@@ -6339,7 +6339,7 @@
         <v>23.88888888888889</v>
       </c>
       <c r="H100" t="n">
-        <v>64.7</v>
+        <v>18.16666666666667</v>
       </c>
       <c r="I100" t="n">
         <v>101.34</v>
@@ -6368,7 +6368,7 @@
       </c>
       <c r="R100" t="inlineStr"/>
       <c r="S100" t="n">
-        <v>842.1405337219031</v>
+        <v>70.33566032328061</v>
       </c>
     </row>
     <row r="101">
@@ -6398,7 +6398,7 @@
         <v>24.72222222222222</v>
       </c>
       <c r="H101" t="n">
-        <v>70.5</v>
+        <v>21.38888888888889</v>
       </c>
       <c r="I101" t="n">
         <v>101.26</v>
@@ -6427,7 +6427,7 @@
       </c>
       <c r="R101" t="inlineStr"/>
       <c r="S101" t="n">
-        <v>1036.726410039366</v>
+        <v>81.7207242596847</v>
       </c>
     </row>
     <row r="102">
@@ -6457,7 +6457,7 @@
         <v>25.44444444444444</v>
       </c>
       <c r="H102" t="n">
-        <v>72</v>
+        <v>22.22222222222222</v>
       </c>
       <c r="I102" t="n">
         <v>101.06</v>
@@ -6486,7 +6486,7 @@
       </c>
       <c r="R102" t="inlineStr"/>
       <c r="S102" t="n">
-        <v>1059.861471581386</v>
+        <v>82.36583383213568</v>
       </c>
     </row>
     <row r="103">
@@ -6516,7 +6516,7 @@
         <v>25.38888888888889</v>
       </c>
       <c r="H103" t="n">
-        <v>72.2</v>
+        <v>22.33333333333334</v>
       </c>
       <c r="I103" t="n">
         <v>100.87</v>
@@ -6545,7 +6545,7 @@
       </c>
       <c r="R103" t="inlineStr"/>
       <c r="S103" t="n">
-        <v>1072.597415769047</v>
+        <v>83.19972707188603</v>
       </c>
     </row>
     <row r="104">
@@ -6575,7 +6575,7 @@
         <v>25</v>
       </c>
       <c r="H104" t="n">
-        <v>69.8</v>
+        <v>21</v>
       </c>
       <c r="I104" t="n">
         <v>100.66</v>
@@ -6604,7 +6604,7 @@
       </c>
       <c r="R104" t="inlineStr"/>
       <c r="S104" t="n">
-        <v>988.9186313532075</v>
+        <v>78.47891127036732</v>
       </c>
     </row>
     <row r="105">
@@ -6634,7 +6634,7 @@
         <v>25.22222222222222</v>
       </c>
       <c r="H105" t="n">
-        <v>69</v>
+        <v>20.55555555555556</v>
       </c>
       <c r="I105" t="n">
         <v>100.81</v>
@@ -6663,7 +6663,7 @@
       </c>
       <c r="R105" t="inlineStr"/>
       <c r="S105" t="n">
-        <v>942.1862583549522</v>
+        <v>75.35409160668327</v>
       </c>
     </row>
     <row r="106">
@@ -6693,7 +6693,7 @@
         <v>22.72222222222222</v>
       </c>
       <c r="H106" t="n">
-        <v>64.3</v>
+        <v>17.94444444444444</v>
       </c>
       <c r="I106" t="n">
         <v>101.19</v>
@@ -6722,7 +6722,7 @@
       </c>
       <c r="R106" t="inlineStr"/>
       <c r="S106" t="n">
-        <v>887.4229117495727</v>
+        <v>74.42706603100963</v>
       </c>
     </row>
     <row r="107">
@@ -6752,7 +6752,7 @@
         <v>22.22222222222222</v>
       </c>
       <c r="H107" t="n">
-        <v>60.8</v>
+        <v>16</v>
       </c>
       <c r="I107" t="n">
         <v>101.39</v>
@@ -6781,7 +6781,7 @@
       </c>
       <c r="R107" t="inlineStr"/>
       <c r="S107" t="n">
-        <v>778.9543818191994</v>
+        <v>67.82401357762188</v>
       </c>
     </row>
     <row r="108">
@@ -6811,7 +6811,7 @@
         <v>22.05555555555556</v>
       </c>
       <c r="H108" t="n">
-        <v>60.9</v>
+        <v>16.05555555555556</v>
       </c>
       <c r="I108" t="n">
         <v>101.55</v>
@@ -6840,7 +6840,7 @@
       </c>
       <c r="R108" t="inlineStr"/>
       <c r="S108" t="n">
-        <v>790.5746046148414</v>
+        <v>68.76038211916556</v>
       </c>
     </row>
     <row r="109">
@@ -6870,7 +6870,7 @@
         <v>23.66666666666666</v>
       </c>
       <c r="H109" t="n">
-        <v>66.3</v>
+        <v>19.05555555555555</v>
       </c>
       <c r="I109" t="n">
         <v>101.55</v>
@@ -6899,7 +6899,7 @@
       </c>
       <c r="R109" t="inlineStr"/>
       <c r="S109" t="n">
-        <v>917.2979012338692</v>
+        <v>75.36419363925484</v>
       </c>
     </row>
     <row r="110">
@@ -6929,7 +6929,7 @@
         <v>21.61111111111111</v>
       </c>
       <c r="H110" t="n">
-        <v>64.8</v>
+        <v>18.22222222222222</v>
       </c>
       <c r="I110" t="n">
         <v>101.68</v>
@@ -6958,7 +6958,7 @@
       </c>
       <c r="R110" t="inlineStr"/>
       <c r="S110" t="n">
-        <v>971.3904198304722</v>
+        <v>81.0464659058492</v>
       </c>
     </row>
     <row r="111">
@@ -6988,7 +6988,7 @@
         <v>22</v>
       </c>
       <c r="H111" t="n">
-        <v>65</v>
+        <v>18.33333333333334</v>
       </c>
       <c r="I111" t="n">
         <v>101.38</v>
@@ -7017,7 +7017,7 @@
       </c>
       <c r="R111" t="inlineStr"/>
       <c r="S111" t="n">
-        <v>957.1919841567702</v>
+        <v>79.69659191126568</v>
       </c>
     </row>
     <row r="112">
@@ -7047,7 +7047,7 @@
         <v>24.77777777777778</v>
       </c>
       <c r="H112" t="n">
-        <v>69.2</v>
+        <v>20.66666666666667</v>
       </c>
       <c r="I112" t="n">
         <v>101.33</v>
@@ -7076,7 +7076,7 @@
       </c>
       <c r="R112" t="inlineStr"/>
       <c r="S112" t="n">
-        <v>976.0704165071065</v>
+        <v>77.91179931859699</v>
       </c>
     </row>
     <row r="113">
@@ -7106,7 +7106,7 @@
         <v>27</v>
       </c>
       <c r="H113" t="n">
-        <v>74.3</v>
+        <v>23.5</v>
       </c>
       <c r="I113" t="n">
         <v>101.26</v>
@@ -7135,7 +7135,7 @@
       </c>
       <c r="R113" t="inlineStr"/>
       <c r="S113" t="n">
-        <v>1066.98391273532</v>
+        <v>81.1793641545204</v>
       </c>
     </row>
     <row r="114">
@@ -7165,7 +7165,7 @@
         <v>27.27777777777778</v>
       </c>
       <c r="H114" t="n">
-        <v>74.5</v>
+        <v>23.61111111111111</v>
       </c>
       <c r="I114" t="n">
         <v>100.94</v>
@@ -7194,7 +7194,7 @@
       </c>
       <c r="R114" t="inlineStr"/>
       <c r="S114" t="n">
-        <v>1058.69119735547</v>
+        <v>80.4026334515414</v>
       </c>
     </row>
     <row r="115">
@@ -7224,7 +7224,7 @@
         <v>27.44444444444445</v>
       </c>
       <c r="H115" t="n">
-        <v>73.59999999999999</v>
+        <v>23.11111111111111</v>
       </c>
       <c r="I115" t="n">
         <v>101.01</v>
@@ -7253,7 +7253,7 @@
       </c>
       <c r="R115" t="inlineStr"/>
       <c r="S115" t="n">
-        <v>1008.896272049954</v>
+        <v>77.25128744606272</v>
       </c>
     </row>
     <row r="116">
@@ -7283,7 +7283,7 @@
         <v>28.77777777777778</v>
       </c>
       <c r="H116" t="n">
-        <v>77.5</v>
+        <v>25.27777777777778</v>
       </c>
       <c r="I116" t="n">
         <v>100.83</v>
@@ -7312,7 +7312,7 @@
       </c>
       <c r="R116" t="inlineStr"/>
       <c r="S116" t="n">
-        <v>1100.699750789946</v>
+        <v>81.40141293859205</v>
       </c>
     </row>
     <row r="117">
@@ -7342,7 +7342,7 @@
         <v>27.22222222222222</v>
       </c>
       <c r="H117" t="n">
-        <v>76.59999999999999</v>
+        <v>24.77777777777778</v>
       </c>
       <c r="I117" t="n">
         <v>101.08</v>
@@ -7371,7 +7371,7 @@
       </c>
       <c r="R117" t="inlineStr"/>
       <c r="S117" t="n">
-        <v>1160.741810993523</v>
+        <v>86.51842032183502</v>
       </c>
     </row>
     <row r="118">
@@ -7401,7 +7401,7 @@
         <v>27.66666666666667</v>
       </c>
       <c r="H118" t="n">
-        <v>74.90000000000001</v>
+        <v>23.83333333333334</v>
       </c>
       <c r="I118" t="n">
         <v>101.13</v>
@@ -7430,7 +7430,7 @@
       </c>
       <c r="R118" t="inlineStr"/>
       <c r="S118" t="n">
-        <v>1052.578679364411</v>
+        <v>79.65051953406405</v>
       </c>
     </row>
     <row r="119">
@@ -7460,7 +7460,7 @@
         <v>26.22222222222222</v>
       </c>
       <c r="H119" t="n">
-        <v>74.40000000000001</v>
+        <v>23.55555555555556</v>
       </c>
       <c r="I119" t="n">
         <v>101.18</v>
@@ -7489,7 +7489,7 @@
       </c>
       <c r="R119" t="inlineStr"/>
       <c r="S119" t="n">
-        <v>1121.831302696296</v>
+        <v>85.27498425631428</v>
       </c>
     </row>
     <row r="120">
@@ -7519,7 +7519,7 @@
         <v>21.33333333333334</v>
       </c>
       <c r="H120" t="n">
-        <v>65.3</v>
+        <v>18.5</v>
       </c>
       <c r="I120" t="n">
         <v>101.48</v>
@@ -7548,7 +7548,7 @@
       </c>
       <c r="R120" t="inlineStr"/>
       <c r="S120" t="n">
-        <v>1010.649556069752</v>
+        <v>83.88738532418925</v>
       </c>
     </row>
     <row r="121">
@@ -7578,7 +7578,7 @@
         <v>24.33333333333333</v>
       </c>
       <c r="H121" t="n">
-        <v>69.40000000000001</v>
+        <v>20.77777777777778</v>
       </c>
       <c r="I121" t="n">
         <v>101.27</v>
@@ -7607,7 +7607,7 @@
       </c>
       <c r="R121" t="inlineStr"/>
       <c r="S121" t="n">
-        <v>1011.250798648342</v>
+        <v>80.56294975117864</v>
       </c>
     </row>
     <row r="122">
@@ -7637,7 +7637,7 @@
         <v>26.44444444444444</v>
       </c>
       <c r="H122" t="n">
-        <v>72.2</v>
+        <v>22.33333333333334</v>
       </c>
       <c r="I122" t="n">
         <v>101.03</v>
@@ -7666,7 +7666,7 @@
       </c>
       <c r="R122" t="inlineStr"/>
       <c r="S122" t="n">
-        <v>1007.541027841069</v>
+        <v>78.15340340905152</v>
       </c>
     </row>
     <row r="123">
@@ -7696,7 +7696,7 @@
         <v>26.55555555555555</v>
       </c>
       <c r="H123" t="n">
-        <v>73.2</v>
+        <v>22.88888888888889</v>
       </c>
       <c r="I123" t="n">
         <v>101.15</v>
@@ -7725,7 +7725,7 @@
       </c>
       <c r="R123" t="inlineStr"/>
       <c r="S123" t="n">
-        <v>1044.970797605376</v>
+        <v>80.30811262225053</v>
       </c>
     </row>
     <row r="124">
@@ -7755,7 +7755,7 @@
         <v>25.55555555555556</v>
       </c>
       <c r="H124" t="n">
-        <v>71.90000000000001</v>
+        <v>22.16666666666667</v>
       </c>
       <c r="I124" t="n">
         <v>101.28</v>
@@ -7784,7 +7784,7 @@
       </c>
       <c r="R124" t="inlineStr"/>
       <c r="S124" t="n">
-        <v>1048.339585257602</v>
+        <v>81.54686350589874</v>
       </c>
     </row>
     <row r="125">
@@ -7814,7 +7814,7 @@
         <v>26.38888888888889</v>
       </c>
       <c r="H125" t="n">
-        <v>71.8</v>
+        <v>22.11111111111111</v>
       </c>
       <c r="I125" t="n">
         <v>101.27</v>
@@ -7843,7 +7843,7 @@
       </c>
       <c r="R125" t="inlineStr"/>
       <c r="S125" t="n">
-        <v>993.524694326843</v>
+        <v>77.35560742920362</v>
       </c>
     </row>
     <row r="126">
@@ -7873,7 +7873,7 @@
         <v>26.22222222222222</v>
       </c>
       <c r="H126" t="n">
-        <v>71.40000000000001</v>
+        <v>21.88888888888889</v>
       </c>
       <c r="I126" t="n">
         <v>101.23</v>
@@ -7902,7 +7902,7 @@
       </c>
       <c r="R126" t="inlineStr"/>
       <c r="S126" t="n">
-        <v>986.1179423365693</v>
+        <v>77.06890745823416</v>
       </c>
     </row>
     <row r="127">
@@ -7932,7 +7932,7 @@
         <v>27.66666666666667</v>
       </c>
       <c r="H127" t="n">
-        <v>74.09999999999999</v>
+        <v>23.38888888888889</v>
       </c>
       <c r="I127" t="n">
         <v>100.97</v>
@@ -7961,7 +7961,7 @@
       </c>
       <c r="R127" t="inlineStr"/>
       <c r="S127" t="n">
-        <v>1017.353266545498</v>
+        <v>77.54407032428233</v>
       </c>
     </row>
     <row r="128">
@@ -7991,7 +7991,7 @@
         <v>25.55555555555556</v>
       </c>
       <c r="H128" t="n">
-        <v>73.8</v>
+        <v>23.22222222222222</v>
       </c>
       <c r="I128" t="n">
         <v>100.89</v>
@@ -8020,7 +8020,7 @@
       </c>
       <c r="R128" t="inlineStr"/>
       <c r="S128" t="n">
-        <v>1137.571121526403</v>
+        <v>86.94470181617416</v>
       </c>
     </row>
     <row r="129">
@@ -8050,7 +8050,7 @@
         <v>27</v>
       </c>
       <c r="H129" t="n">
-        <v>72.59999999999999</v>
+        <v>22.55555555555555</v>
       </c>
       <c r="I129" t="n">
         <v>100.81</v>
@@ -8079,7 +8079,7 @@
       </c>
       <c r="R129" t="inlineStr"/>
       <c r="S129" t="n">
-        <v>992.0551063340324</v>
+        <v>76.66588490430539</v>
       </c>
     </row>
     <row r="130">
@@ -8109,7 +8109,7 @@
         <v>27.38888888888889</v>
       </c>
       <c r="H130" t="n">
-        <v>73.09999999999999</v>
+        <v>22.83333333333333</v>
       </c>
       <c r="I130" t="n">
         <v>100.66</v>
@@ -8138,7 +8138,7 @@
       </c>
       <c r="R130" t="inlineStr"/>
       <c r="S130" t="n">
-        <v>990.7281625564335</v>
+        <v>76.20969124094007</v>
       </c>
     </row>
     <row r="131">
@@ -8168,7 +8168,7 @@
         <v>24.27777777777778</v>
       </c>
       <c r="H131" t="n">
-        <v>72.2</v>
+        <v>22.33333333333334</v>
       </c>
       <c r="I131" t="n">
         <v>101.03</v>
@@ -8197,7 +8197,7 @@
       </c>
       <c r="R131" t="inlineStr"/>
       <c r="S131" t="n">
-        <v>1146.231682244925</v>
+        <v>88.91142354240108</v>
       </c>
     </row>
     <row r="132">
@@ -8227,7 +8227,7 @@
         <v>22.27777777777778</v>
       </c>
       <c r="H132" t="n">
-        <v>69.3</v>
+        <v>20.72222222222222</v>
       </c>
       <c r="I132" t="n">
         <v>101.09</v>
@@ -8256,7 +8256,7 @@
       </c>
       <c r="R132" t="inlineStr"/>
       <c r="S132" t="n">
-        <v>1140.010695708142</v>
+        <v>90.90921568665188</v>
       </c>
     </row>
     <row r="133">
@@ -8286,7 +8286,7 @@
         <v>21.55555555555555</v>
       </c>
       <c r="H133" t="n">
-        <v>65.40000000000001</v>
+        <v>18.55555555555556</v>
       </c>
       <c r="I133" t="n">
         <v>101.11</v>
@@ -8315,7 +8315,7 @@
       </c>
       <c r="R133" t="inlineStr"/>
       <c r="S133" t="n">
-        <v>1001.483871549201</v>
+        <v>83.04109655809296</v>
       </c>
     </row>
     <row r="134">
@@ -8345,7 +8345,7 @@
         <v>23.27777777777778</v>
       </c>
       <c r="H134" t="n">
-        <v>67.09999999999999</v>
+        <v>19.5</v>
       </c>
       <c r="I134" t="n">
         <v>101.31</v>
@@ -8374,7 +8374,7 @@
       </c>
       <c r="R134" t="inlineStr"/>
       <c r="S134" t="n">
-        <v>973.2884651388771</v>
+        <v>79.32092244987903</v>
       </c>
     </row>
     <row r="135">
@@ -8404,7 +8404,7 @@
         <v>24.61111111111111</v>
       </c>
       <c r="H135" t="n">
-        <v>71.2</v>
+        <v>21.77777777777778</v>
       </c>
       <c r="I135" t="n">
         <v>101.36</v>
@@ -8433,7 +8433,7 @@
       </c>
       <c r="R135" t="inlineStr"/>
       <c r="S135" t="n">
-        <v>1075.940758283221</v>
+        <v>84.24822894392598</v>
       </c>
     </row>
     <row r="136">
@@ -8463,7 +8463,7 @@
         <v>25.16666666666667</v>
       </c>
       <c r="H136" t="n">
-        <v>74.40000000000001</v>
+        <v>23.55555555555556</v>
       </c>
       <c r="I136" t="n">
         <v>101.03</v>
@@ -8492,7 +8492,7 @@
       </c>
       <c r="R136" t="inlineStr"/>
       <c r="S136" t="n">
-        <v>1194.39078423943</v>
+        <v>90.79052712926283</v>
       </c>
     </row>
     <row r="137">
@@ -8522,7 +8522,7 @@
         <v>26.55555555555555</v>
       </c>
       <c r="H137" t="n">
-        <v>74.7</v>
+        <v>23.72222222222222</v>
       </c>
       <c r="I137" t="n">
         <v>100.62</v>
@@ -8551,7 +8551,7 @@
       </c>
       <c r="R137" t="inlineStr"/>
       <c r="S137" t="n">
-        <v>1114.084457116078</v>
+        <v>84.45677856141755</v>
       </c>
     </row>
     <row r="138">
@@ -8581,7 +8581,7 @@
         <v>25.44444444444444</v>
       </c>
       <c r="H138" t="n">
-        <v>71.5</v>
+        <v>21.94444444444445</v>
       </c>
       <c r="I138" t="n">
         <v>100.83</v>
@@ -8610,7 +8610,7 @@
       </c>
       <c r="R138" t="inlineStr"/>
       <c r="S138" t="n">
-        <v>1037.165299125223</v>
+        <v>80.98193507739944</v>
       </c>
     </row>
     <row r="139">
@@ -8640,7 +8640,7 @@
         <v>25.44444444444444</v>
       </c>
       <c r="H139" t="n">
-        <v>72.90000000000001</v>
+        <v>22.72222222222222</v>
       </c>
       <c r="I139" t="n">
         <v>100.82</v>
@@ -8669,7 +8669,7 @@
       </c>
       <c r="R139" t="inlineStr"/>
       <c r="S139" t="n">
-        <v>1101.783481583626</v>
+        <v>84.90915308568749</v>
       </c>
     </row>
     <row r="140">
@@ -8699,7 +8699,7 @@
         <v>26.83333333333333</v>
       </c>
       <c r="H140" t="n">
-        <v>74.2</v>
+        <v>23.44444444444445</v>
       </c>
       <c r="I140" t="n">
         <v>100.86</v>
@@ -8728,7 +8728,7 @@
       </c>
       <c r="R140" t="inlineStr"/>
       <c r="S140" t="n">
-        <v>1072.916833502801</v>
+        <v>81.70489410369029</v>
       </c>
     </row>
     <row r="141">
@@ -8758,7 +8758,7 @@
         <v>27.22222222222222</v>
       </c>
       <c r="H141" t="n">
-        <v>76.90000000000001</v>
+        <v>24.94444444444445</v>
       </c>
       <c r="I141" t="n">
         <v>100.99</v>
@@ -8787,7 +8787,7 @@
       </c>
       <c r="R141" t="inlineStr"/>
       <c r="S141" t="n">
-        <v>1175.442918064522</v>
+        <v>87.38422063249281</v>
       </c>
     </row>
     <row r="142">
@@ -8817,7 +8817,7 @@
         <v>25.16666666666667</v>
       </c>
       <c r="H142" t="n">
-        <v>75.3</v>
+        <v>24.05555555555555</v>
       </c>
       <c r="I142" t="n">
         <v>100.78</v>
@@ -8846,7 +8846,7 @@
       </c>
       <c r="R142" t="inlineStr"/>
       <c r="S142" t="n">
-        <v>1240.910718468143</v>
+        <v>93.56566689582789</v>
       </c>
     </row>
     <row r="143">
@@ -8876,7 +8876,7 @@
         <v>26.83333333333333</v>
       </c>
       <c r="H143" t="n">
-        <v>75.40000000000001</v>
+        <v>24.11111111111111</v>
       </c>
       <c r="I143" t="n">
         <v>100.52</v>
@@ -8905,7 +8905,7 @@
       </c>
       <c r="R143" t="inlineStr"/>
       <c r="S143" t="n">
-        <v>1129.011852901717</v>
+        <v>85.05235576593084</v>
       </c>
     </row>
     <row r="144">
@@ -8935,7 +8935,7 @@
         <v>26.88888888888889</v>
       </c>
       <c r="H144" t="n">
-        <v>75.5</v>
+        <v>24.16666666666667</v>
       </c>
       <c r="I144" t="n">
         <v>100.56</v>
@@ -8964,7 +8964,7 @@
       </c>
       <c r="R144" t="inlineStr"/>
       <c r="S144" t="n">
-        <v>1130.095445583131</v>
+        <v>85.05804276103451</v>
       </c>
     </row>
     <row r="145">
@@ -8994,7 +8994,7 @@
         <v>28.61111111111111</v>
       </c>
       <c r="H145" t="n">
-        <v>76.2</v>
+        <v>24.55555555555556</v>
       </c>
       <c r="I145" t="n">
         <v>100.59</v>
@@ -9023,7 +9023,7 @@
       </c>
       <c r="R145" t="inlineStr"/>
       <c r="S145" t="n">
-        <v>1052.449869667684</v>
+        <v>78.72341700424055</v>
       </c>
     </row>
     <row r="146">
@@ -9053,7 +9053,7 @@
         <v>29.44444444444445</v>
       </c>
       <c r="H146" t="n">
-        <v>76.3</v>
+        <v>24.61111111111111</v>
       </c>
       <c r="I146" t="n">
         <v>100.54</v>
@@ -9082,7 +9082,7 @@
       </c>
       <c r="R146" t="inlineStr"/>
       <c r="S146" t="n">
-        <v>1007.077686842794</v>
+        <v>75.26313159318475</v>
       </c>
     </row>
     <row r="147">
@@ -9112,7 +9112,7 @@
         <v>30.5</v>
       </c>
       <c r="H147" t="n">
-        <v>76.5</v>
+        <v>24.72222222222222</v>
       </c>
       <c r="I147" t="n">
         <v>100.49</v>
@@ -9141,7 +9141,7 @@
       </c>
       <c r="R147" t="inlineStr"/>
       <c r="S147" t="n">
-        <v>955.742478293736</v>
+        <v>71.30096670988965</v>
       </c>
     </row>
     <row r="148">
@@ -9171,7 +9171,7 @@
         <v>28.94444444444444</v>
       </c>
       <c r="H148" t="n">
-        <v>76.59999999999999</v>
+        <v>24.77777777777778</v>
       </c>
       <c r="I148" t="n">
         <v>100.78</v>
@@ -9200,7 +9200,7 @@
       </c>
       <c r="R148" t="inlineStr"/>
       <c r="S148" t="n">
-        <v>1049.792399820572</v>
+        <v>78.24856418379761</v>
       </c>
     </row>
     <row r="149">
@@ -9230,7 +9230,7 @@
         <v>29.05555555555555</v>
       </c>
       <c r="H149" t="n">
-        <v>77.59999999999999</v>
+        <v>25.33333333333333</v>
       </c>
       <c r="I149" t="n">
         <v>100.6</v>
@@ -9259,7 +9259,7 @@
       </c>
       <c r="R149" t="inlineStr"/>
       <c r="S149" t="n">
-        <v>1087.645523852947</v>
+        <v>80.36635382289562</v>
       </c>
     </row>
     <row r="150">
@@ -9289,7 +9289,7 @@
         <v>28.44444444444445</v>
       </c>
       <c r="H150" t="n">
-        <v>75.09999999999999</v>
+        <v>23.94444444444444</v>
       </c>
       <c r="I150" t="n">
         <v>100.68</v>
@@ -9318,7 +9318,7 @@
       </c>
       <c r="R150" t="inlineStr"/>
       <c r="S150" t="n">
-        <v>1014.448315135335</v>
+        <v>76.62735460262978</v>
       </c>
     </row>
     <row r="151">
@@ -9348,7 +9348,7 @@
         <v>28.83333333333334</v>
       </c>
       <c r="H151" t="n">
-        <v>77</v>
+        <v>25</v>
       </c>
       <c r="I151" t="n">
         <v>100.61</v>
@@ -9377,7 +9377,7 @@
       </c>
       <c r="R151" t="inlineStr"/>
       <c r="S151" t="n">
-        <v>1074.452857176389</v>
+        <v>79.80671343280041</v>
       </c>
     </row>
     <row r="152">
@@ -9407,7 +9407,7 @@
         <v>30.72222222222222</v>
       </c>
       <c r="H152" t="n">
-        <v>75.8</v>
+        <v>24.33333333333333</v>
       </c>
       <c r="I152" t="n">
         <v>100.21</v>
@@ -9436,7 +9436,7 @@
       </c>
       <c r="R152" t="inlineStr"/>
       <c r="S152" t="n">
-        <v>916.2470719372285</v>
+        <v>68.77861088457409</v>
       </c>
     </row>
     <row r="153">
@@ -9466,7 +9466,7 @@
         <v>31.88888888888889</v>
       </c>
       <c r="H153" t="n">
-        <v>74</v>
+        <v>23.33333333333334</v>
       </c>
       <c r="I153" t="n">
         <v>100.22</v>
@@ -9495,7 +9495,7 @@
       </c>
       <c r="R153" t="inlineStr"/>
       <c r="S153" t="n">
-        <v>794.2671158567957</v>
+        <v>60.5952734013149</v>
       </c>
     </row>
     <row r="154">
@@ -9525,7 +9525,7 @@
         <v>26.83333333333333</v>
       </c>
       <c r="H154" t="n">
-        <v>75.09999999999999</v>
+        <v>23.94444444444444</v>
       </c>
       <c r="I154" t="n">
         <v>100.73</v>
@@ -9554,7 +9554,7 @@
       </c>
       <c r="R154" t="inlineStr"/>
       <c r="S154" t="n">
-        <v>1114.759086705346</v>
+        <v>84.20442772589992</v>
       </c>
     </row>
     <row r="155">
@@ -9584,7 +9584,7 @@
         <v>29.72222222222222</v>
       </c>
       <c r="H155" t="n">
-        <v>74.90000000000001</v>
+        <v>23.83333333333334</v>
       </c>
       <c r="I155" t="n">
         <v>100.71</v>
@@ -9613,7 +9613,7 @@
       </c>
       <c r="R155" t="inlineStr"/>
       <c r="S155" t="n">
-        <v>934.137445003733</v>
+        <v>70.6878585605581</v>
       </c>
     </row>
     <row r="156">
@@ -9643,7 +9643,7 @@
         <v>28.44444444444445</v>
       </c>
       <c r="H156" t="n">
-        <v>76.40000000000001</v>
+        <v>24.66666666666667</v>
       </c>
       <c r="I156" t="n">
         <v>100.85</v>
@@ -9672,7 +9672,7 @@
       </c>
       <c r="R156" t="inlineStr"/>
       <c r="S156" t="n">
-        <v>1071.677881131746</v>
+        <v>80.02043642394837</v>
       </c>
     </row>
     <row r="157">
@@ -9702,7 +9702,7 @@
         <v>29.27777777777778</v>
       </c>
       <c r="H157" t="n">
-        <v>75.7</v>
+        <v>24.27777777777778</v>
       </c>
       <c r="I157" t="n">
         <v>100.72</v>
@@ -9731,7 +9731,7 @@
       </c>
       <c r="R157" t="inlineStr"/>
       <c r="S157" t="n">
-        <v>991.4315335059257</v>
+        <v>74.48854075409218</v>
       </c>
     </row>
     <row r="158">
@@ -9761,7 +9761,7 @@
         <v>29.66666666666667</v>
       </c>
       <c r="H158" t="n">
-        <v>78.3</v>
+        <v>25.72222222222222</v>
       </c>
       <c r="I158" t="n">
         <v>100.93</v>
@@ -9790,7 +9790,7 @@
       </c>
       <c r="R158" t="inlineStr"/>
       <c r="S158" t="n">
-        <v>1080.957333554613</v>
+        <v>79.39206124573572</v>
       </c>
     </row>
     <row r="159">
@@ -9820,7 +9820,7 @@
         <v>29.16666666666667</v>
       </c>
       <c r="H159" t="n">
-        <v>77.3</v>
+        <v>25.16666666666667</v>
       </c>
       <c r="I159" t="n">
         <v>100.89</v>
@@ -9849,7 +9849,7 @@
       </c>
       <c r="R159" t="inlineStr"/>
       <c r="S159" t="n">
-        <v>1067.213992750761</v>
+        <v>79.06214049575276</v>
       </c>
     </row>
     <row r="160">
@@ -9879,7 +9879,7 @@
         <v>29.88888888888889</v>
       </c>
       <c r="H160" t="n">
-        <v>75.8</v>
+        <v>24.33333333333333</v>
       </c>
       <c r="I160" t="n">
         <v>100.71</v>
@@ -9908,7 +9908,7 @@
       </c>
       <c r="R160" t="inlineStr"/>
       <c r="S160" t="n">
-        <v>961.1329988754492</v>
+        <v>72.14799868141586</v>
       </c>
     </row>
     <row r="161">
@@ -9938,7 +9938,7 @@
         <v>29.27777777777778</v>
       </c>
       <c r="H161" t="n">
-        <v>75.7</v>
+        <v>24.27777777777778</v>
       </c>
       <c r="I161" t="n">
         <v>100.73</v>
@@ -9967,7 +9967,7 @@
       </c>
       <c r="R161" t="inlineStr"/>
       <c r="S161" t="n">
-        <v>991.4315335059257</v>
+        <v>74.48854075409218</v>
       </c>
     </row>
     <row r="162">
@@ -9997,7 +9997,7 @@
         <v>29.27777777777778</v>
       </c>
       <c r="H162" t="n">
-        <v>75.40000000000001</v>
+        <v>24.11111111111111</v>
       </c>
       <c r="I162" t="n">
         <v>100.67</v>
@@ -10026,7 +10026,7 @@
       </c>
       <c r="R162" t="inlineStr"/>
       <c r="S162" t="n">
-        <v>978.9389733036426</v>
+        <v>73.74684828734433</v>
       </c>
     </row>
     <row r="163">
@@ -10056,7 +10056,7 @@
         <v>30.11111111111111</v>
       </c>
       <c r="H163" t="n">
-        <v>74.90000000000001</v>
+        <v>23.83333333333334</v>
       </c>
       <c r="I163" t="n">
         <v>100.41</v>
@@ -10085,7 +10085,7 @@
       </c>
       <c r="R163" t="inlineStr"/>
       <c r="S163" t="n">
-        <v>913.4612404903464</v>
+        <v>69.12325302201701</v>
       </c>
     </row>
     <row r="164">
@@ -10115,7 +10115,7 @@
         <v>29.55555555555556</v>
       </c>
       <c r="H164" t="n">
-        <v>76.59999999999999</v>
+        <v>24.77777777777778</v>
       </c>
       <c r="I164" t="n">
         <v>101.1</v>
@@ -10144,7 +10144,7 @@
       </c>
       <c r="R164" t="inlineStr"/>
       <c r="S164" t="n">
-        <v>1013.335670400987</v>
+        <v>75.53118241154692</v>
       </c>
     </row>
     <row r="165">
@@ -10174,7 +10174,7 @@
         <v>29.44444444444445</v>
       </c>
       <c r="H165" t="n">
-        <v>74.3</v>
+        <v>23.5</v>
       </c>
       <c r="I165" t="n">
         <v>101.14</v>
@@ -10203,7 +10203,7 @@
       </c>
       <c r="R165" t="inlineStr"/>
       <c r="S165" t="n">
-        <v>925.317882246874</v>
+        <v>70.4009839558306</v>
       </c>
     </row>
     <row r="166">
@@ -10233,7 +10233,7 @@
         <v>29.38888888888889</v>
       </c>
       <c r="H166" t="n">
-        <v>75.2</v>
+        <v>24</v>
       </c>
       <c r="I166" t="n">
         <v>100.91</v>
@@ -10262,7 +10262,7 @@
       </c>
       <c r="R166" t="inlineStr"/>
       <c r="S166" t="n">
-        <v>964.4711356116766</v>
+        <v>72.78701400108174</v>
       </c>
     </row>
     <row r="167">
@@ -10292,7 +10292,7 @@
         <v>28.94444444444444</v>
       </c>
       <c r="H167" t="n">
-        <v>75.3</v>
+        <v>24.05555555555555</v>
       </c>
       <c r="I167" t="n">
         <v>101</v>
@@ -10321,7 +10321,7 @@
       </c>
       <c r="R167" t="inlineStr"/>
       <c r="S167" t="n">
-        <v>993.7998280505977</v>
+        <v>74.93330687585676</v>
       </c>
     </row>
     <row r="168">
@@ -10351,7 +10351,7 @@
         <v>29.44444444444445</v>
       </c>
       <c r="H168" t="n">
-        <v>76</v>
+        <v>24.44444444444445</v>
       </c>
       <c r="I168" t="n">
         <v>101.12</v>
@@ -10380,7 +10380,7 @@
       </c>
       <c r="R168" t="inlineStr"/>
       <c r="S168" t="n">
-        <v>994.4352706778382</v>
+        <v>74.5155799784842</v>
       </c>
     </row>
     <row r="169">
@@ -10410,7 +10410,7 @@
         <v>28.83333333333334</v>
       </c>
       <c r="H169" t="n">
-        <v>76.8</v>
+        <v>24.88888888888889</v>
       </c>
       <c r="I169" t="n">
         <v>100.91</v>
@@ -10439,7 +10439,7 @@
       </c>
       <c r="R169" t="inlineStr"/>
       <c r="S169" t="n">
-        <v>1065.483756294637</v>
+        <v>79.27901740854081</v>
       </c>
     </row>
     <row r="170">
@@ -10469,7 +10469,7 @@
         <v>30.44444444444444</v>
       </c>
       <c r="H170" t="n">
-        <v>77</v>
+        <v>25</v>
       </c>
       <c r="I170" t="n">
         <v>100.68</v>
@@ -10498,7 +10498,7 @@
       </c>
       <c r="R170" t="inlineStr"/>
       <c r="S170" t="n">
-        <v>979.1151932302311</v>
+        <v>72.72535516278876</v>
       </c>
     </row>
     <row r="171">
@@ -10528,7 +10528,7 @@
         <v>27.44444444444445</v>
       </c>
       <c r="H171" t="n">
-        <v>75.90000000000001</v>
+        <v>24.38888888888889</v>
       </c>
       <c r="I171" t="n">
         <v>100.64</v>
@@ -10557,7 +10557,7 @@
       </c>
       <c r="R171" t="inlineStr"/>
       <c r="S171" t="n">
-        <v>1112.450678188472</v>
+        <v>83.4326763566351</v>
       </c>
     </row>
     <row r="172">
@@ -10587,7 +10587,7 @@
         <v>30.33333333333333</v>
       </c>
       <c r="H172" t="n">
-        <v>78.5</v>
+        <v>25.83333333333334</v>
       </c>
       <c r="I172" t="n">
         <v>100.41</v>
@@ -10616,7 +10616,7 @@
       </c>
       <c r="R172" t="inlineStr"/>
       <c r="S172" t="n">
-        <v>1048.965943960862</v>
+        <v>76.91066982327186</v>
       </c>
     </row>
     <row r="173">
@@ -10646,7 +10646,7 @@
         <v>29.05555555555555</v>
       </c>
       <c r="H173" t="n">
-        <v>76.5</v>
+        <v>24.72222222222222</v>
       </c>
       <c r="I173" t="n">
         <v>100.37</v>
@@ -10675,7 +10675,7 @@
       </c>
       <c r="R173" t="inlineStr"/>
       <c r="S173" t="n">
-        <v>1038.683251955144</v>
+        <v>77.48857213293444</v>
       </c>
     </row>
     <row r="174">
@@ -10705,7 +10705,7 @@
         <v>30.05555555555555</v>
       </c>
       <c r="H174" t="n">
-        <v>78.3</v>
+        <v>25.72222222222222</v>
       </c>
       <c r="I174" t="n">
         <v>100.95</v>
@@ -10734,7 +10734,7 @@
       </c>
       <c r="R174" t="inlineStr"/>
       <c r="S174" t="n">
-        <v>1057.021799134006</v>
+        <v>77.63409045846947</v>
       </c>
     </row>
     <row r="175">
@@ -10764,7 +10764,7 @@
         <v>30.22222222222222</v>
       </c>
       <c r="H175" t="n">
-        <v>79</v>
+        <v>26.11111111111111</v>
       </c>
       <c r="I175" t="n">
         <v>101.19</v>
@@ -10793,7 +10793,7 @@
       </c>
       <c r="R175" t="inlineStr"/>
       <c r="S175" t="n">
-        <v>1077.776056081404</v>
+        <v>78.68730689793951</v>
       </c>
     </row>
     <row r="176">
@@ -10823,7 +10823,7 @@
         <v>30.27777777777778</v>
       </c>
       <c r="H176" t="n">
-        <v>77.59999999999999</v>
+        <v>25.33333333333333</v>
       </c>
       <c r="I176" t="n">
         <v>101.2</v>
@@ -10852,7 +10852,7 @@
       </c>
       <c r="R176" t="inlineStr"/>
       <c r="S176" t="n">
-        <v>1013.632806980191</v>
+        <v>74.89753878974156</v>
       </c>
     </row>
     <row r="177">
@@ -10882,7 +10882,7 @@
         <v>29.11111111111111</v>
       </c>
       <c r="H177" t="n">
-        <v>76.09999999999999</v>
+        <v>24.5</v>
       </c>
       <c r="I177" t="n">
         <v>100.96</v>
@@ -10911,7 +10911,7 @@
       </c>
       <c r="R177" t="inlineStr"/>
       <c r="S177" t="n">
-        <v>1018.069783919182</v>
+        <v>76.21910017335294</v>
       </c>
     </row>
     <row r="178">
@@ -10941,7 +10941,7 @@
         <v>30.94444444444445</v>
       </c>
       <c r="H178" t="n">
-        <v>79.3</v>
+        <v>26.27777777777778</v>
       </c>
       <c r="I178" t="n">
         <v>100.7</v>
@@ -10970,7 +10970,7 @@
       </c>
       <c r="R178" t="inlineStr"/>
       <c r="S178" t="n">
-        <v>1047.004327824339</v>
+        <v>76.24678002034453</v>
       </c>
     </row>
     <row r="179">
@@ -11000,7 +11000,7 @@
         <v>30.05555555555555</v>
       </c>
       <c r="H179" t="n">
-        <v>76.3</v>
+        <v>24.61111111111111</v>
       </c>
       <c r="I179" t="n">
         <v>100.87</v>
@@ -11029,7 +11029,7 @@
       </c>
       <c r="R179" t="inlineStr"/>
       <c r="S179" t="n">
-        <v>972.2299701784099</v>
+        <v>72.65881583949557</v>
       </c>
     </row>
     <row r="180">
@@ -11059,7 +11059,7 @@
         <v>30.38888888888889</v>
       </c>
       <c r="H180" t="n">
-        <v>76</v>
+        <v>24.44444444444445</v>
       </c>
       <c r="I180" t="n">
         <v>100.78</v>
@@ -11088,7 +11088,7 @@
       </c>
       <c r="R180" t="inlineStr"/>
       <c r="S180" t="n">
-        <v>941.8226952954774</v>
+        <v>70.57318504904246</v>
       </c>
     </row>
     <row r="181">
@@ -11118,7 +11118,7 @@
         <v>30.11111111111111</v>
       </c>
       <c r="H181" t="n">
-        <v>76.8</v>
+        <v>24.88888888888889</v>
       </c>
       <c r="I181" t="n">
         <v>100.6</v>
@@ -11147,7 +11147,7 @@
       </c>
       <c r="R181" t="inlineStr"/>
       <c r="S181" t="n">
-        <v>989.6993453585105</v>
+        <v>73.64015750250601</v>
       </c>
     </row>
     <row r="182">
@@ -11177,7 +11177,7 @@
         <v>30.83333333333334</v>
       </c>
       <c r="H182" t="n">
-        <v>74.8</v>
+        <v>23.77777777777778</v>
       </c>
       <c r="I182" t="n">
         <v>100.28</v>
@@ -11206,7 +11206,7 @@
       </c>
       <c r="R182" t="inlineStr"/>
       <c r="S182" t="n">
-        <v>872.7036829642119</v>
+        <v>66.09852249694069</v>
       </c>
     </row>
     <row r="183">
@@ -11236,7 +11236,7 @@
         <v>29.55555555555556</v>
       </c>
       <c r="H183" t="n">
-        <v>73.3</v>
+        <v>22.94444444444444</v>
       </c>
       <c r="I183" t="n">
         <v>100.42</v>
@@ -11265,7 +11265,7 @@
       </c>
       <c r="R183" t="inlineStr"/>
       <c r="S183" t="n">
-        <v>880.9373478083027</v>
+        <v>67.6395058331712</v>
       </c>
     </row>
     <row r="184">
@@ -11295,7 +11295,7 @@
         <v>30</v>
       </c>
       <c r="H184" t="n">
-        <v>77.90000000000001</v>
+        <v>25.5</v>
       </c>
       <c r="I184" t="n">
         <v>100.68</v>
@@ -11324,7 +11324,7 @@
       </c>
       <c r="R184" t="inlineStr"/>
       <c r="S184" t="n">
-        <v>1042.904759444803</v>
+        <v>76.86102732271256</v>
       </c>
     </row>
     <row r="185">
@@ -11354,7 +11354,7 @@
         <v>27.16666666666667</v>
       </c>
       <c r="H185" t="n">
-        <v>76.3</v>
+        <v>24.61111111111111</v>
       </c>
       <c r="I185" t="n">
         <v>100.91</v>
@@ -11383,7 +11383,7 @@
       </c>
       <c r="R185" t="inlineStr"/>
       <c r="S185" t="n">
-        <v>1149.942680201927</v>
+        <v>85.94003064052347</v>
       </c>
     </row>
     <row r="186">
@@ -11413,7 +11413,7 @@
         <v>27.33333333333334</v>
       </c>
       <c r="H186" t="n">
-        <v>74.90000000000001</v>
+        <v>23.83333333333334</v>
       </c>
       <c r="I186" t="n">
         <v>101.01</v>
@@ -11442,7 +11442,7 @@
       </c>
       <c r="R186" t="inlineStr"/>
       <c r="S186" t="n">
-        <v>1073.33631769232</v>
+        <v>81.2212873156388</v>
       </c>
     </row>
     <row r="187">
@@ -11472,7 +11472,7 @@
         <v>28.11111111111111</v>
       </c>
       <c r="H187" t="n">
-        <v>75</v>
+        <v>23.88888888888889</v>
       </c>
       <c r="I187" t="n">
         <v>101.01</v>
@@ -11501,7 +11501,7 @@
       </c>
       <c r="R187" t="inlineStr"/>
       <c r="S187" t="n">
-        <v>1029.962082826149</v>
+        <v>77.86906068422162</v>
       </c>
     </row>
     <row r="188">
@@ -11531,7 +11531,7 @@
         <v>28.72222222222222</v>
       </c>
       <c r="H188" t="n">
-        <v>75.5</v>
+        <v>24.16666666666667</v>
       </c>
       <c r="I188" t="n">
         <v>100.94</v>
@@ -11560,7 +11560,7 @@
       </c>
       <c r="R188" t="inlineStr"/>
       <c r="S188" t="n">
-        <v>1015.249342928045</v>
+        <v>76.41400764988167</v>
       </c>
     </row>
     <row r="189">
@@ -11590,7 +11590,7 @@
         <v>29.22222222222222</v>
       </c>
       <c r="H189" t="n">
-        <v>76.3</v>
+        <v>24.61111111111111</v>
       </c>
       <c r="I189" t="n">
         <v>100.81</v>
@@ -11619,7 +11619,7 @@
       </c>
       <c r="R189" t="inlineStr"/>
       <c r="S189" t="n">
-        <v>1020.096859693156</v>
+        <v>76.23610888408582</v>
       </c>
     </row>
     <row r="190">
@@ -11649,7 +11649,7 @@
         <v>27.77777777777778</v>
       </c>
       <c r="H190" t="n">
-        <v>75.5</v>
+        <v>24.16666666666667</v>
       </c>
       <c r="I190" t="n">
         <v>101</v>
@@ -11678,7 +11678,7 @@
       </c>
       <c r="R190" t="inlineStr"/>
       <c r="S190" t="n">
-        <v>1072.680895900548</v>
+        <v>80.7366650923662</v>
       </c>
     </row>
     <row r="191">
@@ -11708,7 +11708,7 @@
         <v>29.55555555555556</v>
       </c>
       <c r="H191" t="n">
-        <v>75</v>
+        <v>23.88888888888889</v>
       </c>
       <c r="I191" t="n">
         <v>100.85</v>
@@ -11737,7 +11737,7 @@
       </c>
       <c r="R191" t="inlineStr"/>
       <c r="S191" t="n">
-        <v>947.1698812853233</v>
+        <v>71.60965456290805</v>
       </c>
     </row>
     <row r="192">
@@ -11767,7 +11767,7 @@
         <v>29.77777777777778</v>
       </c>
       <c r="H192" t="n">
-        <v>75.09999999999999</v>
+        <v>23.94444444444444</v>
       </c>
       <c r="I192" t="n">
         <v>100.96</v>
@@ -11796,7 +11796,7 @@
       </c>
       <c r="R192" t="inlineStr"/>
       <c r="S192" t="n">
-        <v>939.0841672885207</v>
+        <v>70.93464932112666</v>
       </c>
     </row>
     <row r="193">
@@ -11826,7 +11826,7 @@
         <v>30.94444444444445</v>
       </c>
       <c r="H193" t="n">
-        <v>76.59999999999999</v>
+        <v>24.77777777777778</v>
       </c>
       <c r="I193" t="n">
         <v>100.9</v>
@@ -11855,7 +11855,7 @@
       </c>
       <c r="R193" t="inlineStr"/>
       <c r="S193" t="n">
-        <v>935.6663004029512</v>
+        <v>69.74192666493913</v>
       </c>
     </row>
     <row r="194">
@@ -11885,7 +11885,7 @@
         <v>30</v>
       </c>
       <c r="H194" t="n">
-        <v>76.90000000000001</v>
+        <v>24.94444444444445</v>
       </c>
       <c r="I194" t="n">
         <v>100.78</v>
@@ -11914,7 +11914,7 @@
       </c>
       <c r="R194" t="inlineStr"/>
       <c r="S194" t="n">
-        <v>1000.227122538912</v>
+        <v>74.35841095751618</v>
       </c>
     </row>
     <row r="195">
@@ -11944,7 +11944,7 @@
         <v>28.38888888888889</v>
       </c>
       <c r="H195" t="n">
-        <v>75.7</v>
+        <v>24.27777777777778</v>
       </c>
       <c r="I195" t="n">
         <v>100.78</v>
@@ -11973,7 +11973,7 @@
       </c>
       <c r="R195" t="inlineStr"/>
       <c r="S195" t="n">
-        <v>1043.899145849685</v>
+        <v>78.43055363976023</v>
       </c>
     </row>
     <row r="196">
@@ -12003,7 +12003,7 @@
         <v>28.94444444444444</v>
       </c>
       <c r="H196" t="n">
-        <v>76.2</v>
+        <v>24.55555555555556</v>
       </c>
       <c r="I196" t="n">
         <v>100.78</v>
@@ -12032,7 +12032,7 @@
       </c>
       <c r="R196" t="inlineStr"/>
       <c r="S196" t="n">
-        <v>1032.284912674264</v>
+        <v>77.21507502614061</v>
       </c>
     </row>
     <row r="197">
@@ -12062,7 +12062,7 @@
         <v>30</v>
       </c>
       <c r="H197" t="n">
-        <v>76.3</v>
+        <v>24.61111111111111</v>
       </c>
       <c r="I197" t="n">
         <v>100.73</v>
@@ -12091,7 +12091,7 @@
       </c>
       <c r="R197" t="inlineStr"/>
       <c r="S197" t="n">
-        <v>975.3411355603154</v>
+        <v>72.89132625314657</v>
       </c>
     </row>
     <row r="198">
@@ -12121,7 +12121,7 @@
         <v>29.77777777777778</v>
       </c>
       <c r="H198" t="n">
-        <v>75.7</v>
+        <v>24.27777777777778</v>
       </c>
       <c r="I198" t="n">
         <v>100.93</v>
@@ -12150,7 +12150,7 @@
       </c>
       <c r="R198" t="inlineStr"/>
       <c r="S198" t="n">
-        <v>963.2280206794039</v>
+        <v>72.36954570139511</v>
       </c>
     </row>
     <row r="199">
@@ -12180,7 +12180,7 @@
         <v>29.72222222222222</v>
       </c>
       <c r="H199" t="n">
-        <v>75.59999999999999</v>
+        <v>24.22222222222222</v>
       </c>
       <c r="I199" t="n">
         <v>100.75</v>
@@ -12209,7 +12209,7 @@
       </c>
       <c r="R199" t="inlineStr"/>
       <c r="S199" t="n">
-        <v>962.2433414060096</v>
+        <v>72.35993022808601</v>
       </c>
     </row>
     <row r="200">
@@ -12239,7 +12239,7 @@
         <v>30.27777777777778</v>
       </c>
       <c r="H200" t="n">
-        <v>74.90000000000001</v>
+        <v>23.83333333333334</v>
       </c>
       <c r="I200" t="n">
         <v>100.64</v>
@@ -12268,7 +12268,7 @@
       </c>
       <c r="R200" t="inlineStr"/>
       <c r="S200" t="n">
-        <v>904.7583132528463</v>
+        <v>68.46468688389933</v>
       </c>
     </row>
     <row r="201">
@@ -12298,7 +12298,7 @@
         <v>26.5</v>
       </c>
       <c r="H201" t="n">
-        <v>76.2</v>
+        <v>24.55555555555556</v>
       </c>
       <c r="I201" t="n">
         <v>100.86</v>
@@ -12327,7 +12327,7 @@
       </c>
       <c r="R201" t="inlineStr"/>
       <c r="S201" t="n">
-        <v>1190.953527997074</v>
+        <v>89.0835125921855</v>
       </c>
     </row>
     <row r="202">
@@ -12357,7 +12357,7 @@
         <v>30.5</v>
       </c>
       <c r="H202" t="n">
-        <v>77.09999999999999</v>
+        <v>25.05555555555555</v>
       </c>
       <c r="I202" t="n">
         <v>100.86</v>
@@ -12386,7 +12386,7 @@
       </c>
       <c r="R202" t="inlineStr"/>
       <c r="S202" t="n">
-        <v>980.0975733359526</v>
+        <v>72.73484238359664</v>
       </c>
     </row>
     <row r="203">
@@ -12416,7 +12416,7 @@
         <v>28.94444444444444</v>
       </c>
       <c r="H203" t="n">
-        <v>76.90000000000001</v>
+        <v>24.94444444444445</v>
       </c>
       <c r="I203" t="n">
         <v>100.93</v>
@@ -12445,7 +12445,7 @@
       </c>
       <c r="R203" t="inlineStr"/>
       <c r="S203" t="n">
-        <v>1063.088302773248</v>
+        <v>79.03160704249576</v>
       </c>
     </row>
     <row r="204">
@@ -12475,7 +12475,7 @@
         <v>29.33333333333333</v>
       </c>
       <c r="H204" t="n">
-        <v>75.90000000000001</v>
+        <v>24.38888888888889</v>
       </c>
       <c r="I204" t="n">
         <v>100.99</v>
@@ -12504,7 +12504,7 @@
       </c>
       <c r="R204" t="inlineStr"/>
       <c r="S204" t="n">
-        <v>996.6289391673162</v>
+        <v>74.74616300707196</v>
       </c>
     </row>
     <row r="205">
@@ -12534,7 +12534,7 @@
         <v>29.55555555555556</v>
       </c>
       <c r="H205" t="n">
-        <v>76.40000000000001</v>
+        <v>24.66666666666667</v>
       </c>
       <c r="I205" t="n">
         <v>100.68</v>
@@ -12563,7 +12563,7 @@
       </c>
       <c r="R205" t="inlineStr"/>
       <c r="S205" t="n">
-        <v>1004.855679516264</v>
+        <v>75.03093180672782</v>
       </c>
     </row>
     <row r="206">
@@ -12593,7 +12593,7 @@
         <v>30.11111111111111</v>
       </c>
       <c r="H206" t="n">
-        <v>77.40000000000001</v>
+        <v>25.22222222222222</v>
       </c>
       <c r="I206" t="n">
         <v>100.5</v>
@@ -12622,7 +12622,7 @@
       </c>
       <c r="R206" t="inlineStr"/>
       <c r="S206" t="n">
-        <v>1014.871987345299</v>
+        <v>75.11921884913073</v>
       </c>
     </row>
     <row r="207">
@@ -12652,7 +12652,7 @@
         <v>29.05555555555555</v>
       </c>
       <c r="H207" t="n">
-        <v>77.09999999999999</v>
+        <v>25.05555555555555</v>
       </c>
       <c r="I207" t="n">
         <v>100.07</v>
@@ -12681,7 +12681,7 @@
       </c>
       <c r="R207" t="inlineStr"/>
       <c r="S207" t="n">
-        <v>1065.151918876059</v>
+        <v>79.04688170009341</v>
       </c>
     </row>
     <row r="208">
@@ -12711,7 +12711,7 @@
         <v>29.33333333333333</v>
       </c>
       <c r="H208" t="n">
-        <v>75.90000000000001</v>
+        <v>24.38888888888889</v>
       </c>
       <c r="I208" t="n">
         <v>99.63</v>
@@ -12740,7 +12740,7 @@
       </c>
       <c r="R208" t="inlineStr"/>
       <c r="S208" t="n">
-        <v>996.6289391673162</v>
+        <v>74.74616300707196</v>
       </c>
     </row>
     <row r="209">
@@ -12770,7 +12770,7 @@
         <v>29.88888888888889</v>
       </c>
       <c r="H209" t="n">
-        <v>76.3</v>
+        <v>24.61111111111111</v>
       </c>
       <c r="I209" t="n">
         <v>99.19</v>
@@ -12799,7 +12799,7 @@
       </c>
       <c r="R209" t="inlineStr"/>
       <c r="S209" t="n">
-        <v>981.5971894124831</v>
+        <v>73.35886734802067</v>
       </c>
     </row>
     <row r="210">
@@ -12829,7 +12829,7 @@
         <v>30.5</v>
       </c>
       <c r="H210" t="n">
-        <v>77.2</v>
+        <v>25.11111111111111</v>
       </c>
       <c r="I210" t="n">
         <v>100.33</v>
@@ -12858,7 +12858,7 @@
       </c>
       <c r="R210" t="inlineStr"/>
       <c r="S210" t="n">
-        <v>984.2076638122409</v>
+        <v>72.97625899152703</v>
       </c>
     </row>
     <row r="211">
@@ -12888,7 +12888,7 @@
         <v>28.38888888888889</v>
       </c>
       <c r="H211" t="n">
-        <v>76.40000000000001</v>
+        <v>24.66666666666667</v>
       </c>
       <c r="I211" t="n">
         <v>101.1</v>
@@ -12917,7 +12917,7 @@
       </c>
       <c r="R211" t="inlineStr"/>
       <c r="S211" t="n">
-        <v>1075.148107689786</v>
+        <v>80.27955257120993</v>
       </c>
     </row>
     <row r="212">
@@ -12947,7 +12947,7 @@
         <v>27.11111111111111</v>
       </c>
       <c r="H212" t="n">
-        <v>70.59999999999999</v>
+        <v>21.44444444444444</v>
       </c>
       <c r="I212" t="n">
         <v>101.4</v>
@@ -12976,7 +12976,7 @@
       </c>
       <c r="R212" t="inlineStr"/>
       <c r="S212" t="n">
-        <v>903.7717101864088</v>
+        <v>71.17236111679217</v>
       </c>
     </row>
     <row r="213">
@@ -13006,7 +13006,7 @@
         <v>27.66666666666667</v>
       </c>
       <c r="H213" t="n">
-        <v>67.8</v>
+        <v>19.88888888888889</v>
       </c>
       <c r="I213" t="n">
         <v>101.29</v>
@@ -13035,7 +13035,7 @@
       </c>
       <c r="R213" t="inlineStr"/>
       <c r="S213" t="n">
-        <v>773.3965321756434</v>
+        <v>62.59082668584202</v>
       </c>
     </row>
     <row r="214">
@@ -13065,7 +13065,7 @@
         <v>28.27777777777778</v>
       </c>
       <c r="H214" t="n">
-        <v>69.09999999999999</v>
+        <v>20.61111111111111</v>
       </c>
       <c r="I214" t="n">
         <v>101.13</v>
@@ -13094,7 +13094,7 @@
       </c>
       <c r="R214" t="inlineStr"/>
       <c r="S214" t="n">
-        <v>790.4423270864958</v>
+        <v>63.15619659460799</v>
       </c>
     </row>
     <row r="215">
@@ -13124,7 +13124,7 @@
         <v>29.22222222222222</v>
       </c>
       <c r="H215" t="n">
-        <v>72.8</v>
+        <v>22.66666666666667</v>
       </c>
       <c r="I215" t="n">
         <v>100.36</v>
@@ -13153,7 +13153,7 @@
       </c>
       <c r="R215" t="inlineStr"/>
       <c r="S215" t="n">
-        <v>878.9925703519204</v>
+        <v>67.80248137771352</v>
       </c>
     </row>
     <row r="216">
@@ -13183,7 +13183,7 @@
         <v>28.94444444444444</v>
       </c>
       <c r="H216" t="n">
-        <v>75.5</v>
+        <v>24.16666666666667</v>
       </c>
       <c r="I216" t="n">
         <v>100.34</v>
@@ -13212,7 +13212,7 @@
       </c>
       <c r="R216" t="inlineStr"/>
       <c r="S216" t="n">
-        <v>1002.244721180933</v>
+        <v>75.43519857939103</v>
       </c>
     </row>
     <row r="217">
@@ -13242,7 +13242,7 @@
         <v>27.33333333333334</v>
       </c>
       <c r="H217" t="n">
-        <v>74.40000000000001</v>
+        <v>23.55555555555556</v>
       </c>
       <c r="I217" t="n">
         <v>100.48</v>
@@ -13271,7 +13271,7 @@
       </c>
       <c r="R217" t="inlineStr"/>
       <c r="S217" t="n">
-        <v>1050.764285005471</v>
+        <v>79.87288966315877</v>
       </c>
     </row>
     <row r="218">
@@ -13301,7 +13301,7 @@
         <v>28.33333333333334</v>
       </c>
       <c r="H218" t="n">
-        <v>72.5</v>
+        <v>22.5</v>
       </c>
       <c r="I218" t="n">
         <v>100.5</v>
@@ -13330,7 +13330,7 @@
       </c>
       <c r="R218" t="inlineStr"/>
       <c r="S218" t="n">
-        <v>913.6535675539888</v>
+        <v>70.67271116405999</v>
       </c>
     </row>
     <row r="219">
@@ -13360,7 +13360,7 @@
         <v>28.38888888888889</v>
       </c>
       <c r="H219" t="n">
-        <v>74.40000000000001</v>
+        <v>23.55555555555556</v>
       </c>
       <c r="I219" t="n">
         <v>100.46</v>
@@ -13389,7 +13389,7 @@
       </c>
       <c r="R219" t="inlineStr"/>
       <c r="S219" t="n">
-        <v>987.9144431439199</v>
+        <v>75.09541620313485</v>
       </c>
     </row>
     <row r="220">
@@ -13419,7 +13419,7 @@
         <v>27.55555555555555</v>
       </c>
       <c r="H220" t="n">
-        <v>73.90000000000001</v>
+        <v>23.27777777777778</v>
       </c>
       <c r="I220" t="n">
         <v>100.71</v>
@@ -13448,7 +13448,7 @@
       </c>
       <c r="R220" t="inlineStr"/>
       <c r="S220" t="n">
-        <v>1015.28790243398</v>
+        <v>77.5277707283508</v>
       </c>
     </row>
     <row r="221">
@@ -13478,7 +13478,7 @@
         <v>26.83333333333333</v>
       </c>
       <c r="H221" t="n">
-        <v>69.5</v>
+        <v>20.83333333333334</v>
       </c>
       <c r="I221" t="n">
         <v>100.94</v>
@@ -13507,7 +13507,7 @@
       </c>
       <c r="R221" t="inlineStr"/>
       <c r="S221" t="n">
-        <v>875.4808577446356</v>
+        <v>69.67889068974387</v>
       </c>
     </row>
     <row r="222">
@@ -13537,7 +13537,7 @@
         <v>26.38888888888889</v>
       </c>
       <c r="H222" t="n">
-        <v>70.5</v>
+        <v>21.38888888888889</v>
       </c>
       <c r="I222" t="n">
         <v>101.05</v>
@@ -13566,7 +13566,7 @@
       </c>
       <c r="R222" t="inlineStr"/>
       <c r="S222" t="n">
-        <v>938.949723923072</v>
+        <v>74.013404828291</v>
       </c>
     </row>
     <row r="223">
@@ -13596,7 +13596,7 @@
         <v>26.44444444444444</v>
       </c>
       <c r="H223" t="n">
-        <v>67.7</v>
+        <v>19.83333333333334</v>
       </c>
       <c r="I223" t="n">
         <v>101.02</v>
@@ -13625,7 +13625,7 @@
       </c>
       <c r="R223" t="inlineStr"/>
       <c r="S223" t="n">
-        <v>827.3203310679797</v>
+        <v>67.02152325214583</v>
       </c>
     </row>
     <row r="224">
@@ -13655,7 +13655,7 @@
         <v>29.05555555555555</v>
       </c>
       <c r="H224" t="n">
-        <v>74.2</v>
+        <v>23.44444444444445</v>
       </c>
       <c r="I224" t="n">
         <v>100.99</v>
@@ -13684,7 +13684,7 @@
       </c>
       <c r="R224" t="inlineStr"/>
       <c r="S224" t="n">
-        <v>942.3417555654158</v>
+        <v>71.76132477723573</v>
       </c>
     </row>
     <row r="225">
@@ -13714,7 +13714,7 @@
         <v>28.33333333333334</v>
       </c>
       <c r="H225" t="n">
-        <v>74.40000000000001</v>
+        <v>23.55555555555556</v>
       </c>
       <c r="I225" t="n">
         <v>100.99</v>
@@ -13743,7 +13743,7 @@
       </c>
       <c r="R225" t="inlineStr"/>
       <c r="S225" t="n">
-        <v>991.1147429429381</v>
+        <v>75.33868407622846</v>
       </c>
     </row>
     <row r="226">
@@ -13773,7 +13773,7 @@
         <v>28.44444444444445</v>
       </c>
       <c r="H226" t="n">
-        <v>74.8</v>
+        <v>23.77777777777778</v>
       </c>
       <c r="I226" t="n">
         <v>101.24</v>
@@ -13802,7 +13802,7 @@
       </c>
       <c r="R226" t="inlineStr"/>
       <c r="S226" t="n">
-        <v>1001.617824141206</v>
+        <v>75.86247150632144</v>
       </c>
     </row>
     <row r="227">
@@ -13832,7 +13832,7 @@
         <v>28.55555555555556</v>
       </c>
       <c r="H227" t="n">
-        <v>74.5</v>
+        <v>23.61111111111111</v>
       </c>
       <c r="I227" t="n">
         <v>101.39</v>
@@ -13861,7 +13861,7 @@
       </c>
       <c r="R227" t="inlineStr"/>
       <c r="S227" t="n">
-        <v>982.5561956132617</v>
+        <v>74.62053697883796</v>
       </c>
     </row>
     <row r="228">
@@ -13891,7 +13891,7 @@
         <v>28.66666666666666</v>
       </c>
       <c r="H228" t="n">
-        <v>74.3</v>
+        <v>23.5</v>
       </c>
       <c r="I228" t="n">
         <v>101.48</v>
@@ -13920,7 +13920,7 @@
       </c>
       <c r="R228" t="inlineStr"/>
       <c r="S228" t="n">
-        <v>967.9553811645318</v>
+        <v>73.64497386979394</v>
       </c>
     </row>
     <row r="229">
@@ -13950,7 +13950,7 @@
         <v>28</v>
       </c>
       <c r="H229" t="n">
-        <v>75.90000000000001</v>
+        <v>24.38888888888889</v>
       </c>
       <c r="I229" t="n">
         <v>101.42</v>
@@ -13979,7 +13979,7 @@
       </c>
       <c r="R229" t="inlineStr"/>
       <c r="S229" t="n">
-        <v>1076.882906555165</v>
+        <v>80.76512943739482</v>
       </c>
     </row>
     <row r="230">
@@ -14009,7 +14009,7 @@
         <v>27.55555555555555</v>
       </c>
       <c r="H230" t="n">
-        <v>73.3</v>
+        <v>22.94444444444444</v>
       </c>
       <c r="I230" t="n">
         <v>101.38</v>
@@ -14038,7 +14038,7 @@
       </c>
       <c r="R230" t="inlineStr"/>
       <c r="S230" t="n">
-        <v>989.5531048600079</v>
+        <v>75.97916375657645</v>
       </c>
     </row>
     <row r="231">
@@ -14068,7 +14068,7 @@
         <v>27.94444444444444</v>
       </c>
       <c r="H231" t="n">
-        <v>71.7</v>
+        <v>22.05555555555556</v>
       </c>
       <c r="I231" t="n">
         <v>101.41</v>
@@ -14097,7 +14097,7 @@
       </c>
       <c r="R231" t="inlineStr"/>
       <c r="S231" t="n">
-        <v>902.8620329081617</v>
+        <v>70.36277514190651</v>
       </c>
     </row>
     <row r="232">
@@ -14127,7 +14127,7 @@
         <v>29.44444444444445</v>
       </c>
       <c r="H232" t="n">
-        <v>72.8</v>
+        <v>22.66666666666667</v>
       </c>
       <c r="I232" t="n">
         <v>101.5</v>
@@ -14156,7 +14156,7 @@
       </c>
       <c r="R232" t="inlineStr"/>
       <c r="S232" t="n">
-        <v>867.7742668164718</v>
+        <v>66.937139801223</v>
       </c>
     </row>
     <row r="233">
@@ -14186,7 +14186,7 @@
         <v>25.88888888888889</v>
       </c>
       <c r="H233" t="n">
-        <v>72.7</v>
+        <v>22.61111111111111</v>
       </c>
       <c r="I233" t="n">
         <v>101.52</v>
@@ -14215,7 +14215,7 @@
       </c>
       <c r="R233" t="inlineStr"/>
       <c r="S233" t="n">
-        <v>1063.892675425602</v>
+        <v>82.14117364186004</v>
       </c>
     </row>
     <row r="234">
@@ -14245,7 +14245,7 @@
         <v>24.61111111111111</v>
       </c>
       <c r="H234" t="n">
-        <v>65.3</v>
+        <v>18.5</v>
       </c>
       <c r="I234" t="n">
         <v>101.55</v>
@@ -14274,7 +14274,7 @@
       </c>
       <c r="R234" t="inlineStr"/>
       <c r="S234" t="n">
-        <v>828.5908038339535</v>
+        <v>68.77588341066988</v>
       </c>
     </row>
     <row r="235">
@@ -14304,7 +14304,7 @@
         <v>24.38888888888889</v>
       </c>
       <c r="H235" t="n">
-        <v>62</v>
+        <v>16.66666666666667</v>
       </c>
       <c r="I235" t="n">
         <v>101.53</v>
@@ -14333,7 +14333,7 @@
       </c>
       <c r="R235" t="inlineStr"/>
       <c r="S235" t="n">
-        <v>722.3647971203162</v>
+        <v>62.0810824441489</v>
       </c>
     </row>
     <row r="236">
@@ -14363,7 +14363,7 @@
         <v>25.55555555555556</v>
       </c>
       <c r="H236" t="n">
-        <v>68.09999999999999</v>
+        <v>20.05555555555555</v>
       </c>
       <c r="I236" t="n">
         <v>101.34</v>
@@ -14392,7 +14392,7 @@
       </c>
       <c r="R236" t="inlineStr"/>
       <c r="S236" t="n">
-        <v>887.6687167751612</v>
+        <v>71.62532979112602</v>
       </c>
     </row>
     <row r="237">
@@ -14422,7 +14422,7 @@
         <v>26.61111111111111</v>
       </c>
       <c r="H237" t="n">
-        <v>69.40000000000001</v>
+        <v>20.77777777777778</v>
       </c>
       <c r="I237" t="n">
         <v>101.18</v>
@@ -14451,7 +14451,7 @@
       </c>
       <c r="R237" t="inlineStr"/>
       <c r="S237" t="n">
-        <v>883.1316645426716</v>
+        <v>70.35612927013104</v>
       </c>
     </row>
     <row r="238">
@@ -14481,7 +14481,7 @@
         <v>28.22222222222222</v>
       </c>
       <c r="H238" t="n">
-        <v>75.7</v>
+        <v>24.27777777777778</v>
       </c>
       <c r="I238" t="n">
         <v>100.53</v>
@@ -14510,7 +14510,7 @@
       </c>
       <c r="R238" t="inlineStr"/>
       <c r="S238" t="n">
-        <v>1054.081205995783</v>
+        <v>79.19555533329242</v>
       </c>
     </row>
     <row r="239">
@@ -14540,7 +14540,7 @@
         <v>27.66666666666667</v>
       </c>
       <c r="H239" t="n">
-        <v>77.5</v>
+        <v>25.27777777777778</v>
       </c>
       <c r="I239" t="n">
         <v>100.68</v>
@@ -14569,7 +14569,7 @@
       </c>
       <c r="R239" t="inlineStr"/>
       <c r="S239" t="n">
-        <v>1174.328882136029</v>
+        <v>86.84659934906497</v>
       </c>
     </row>
     <row r="240">
@@ -14599,7 +14599,7 @@
         <v>23.83333333333334</v>
       </c>
       <c r="H240" t="n">
-        <v>63.6</v>
+        <v>17.55555555555556</v>
       </c>
       <c r="I240" t="n">
         <v>101.45</v>
@@ -14628,7 +14628,7 @@
       </c>
       <c r="R240" t="inlineStr"/>
       <c r="S240" t="n">
-        <v>803.7478818297554</v>
+        <v>67.90642047996985</v>
       </c>
     </row>
     <row r="241">
@@ -14658,7 +14658,7 @@
         <v>24.5</v>
       </c>
       <c r="H241" t="n">
-        <v>63.1</v>
+        <v>17.27777777777778</v>
       </c>
       <c r="I241" t="n">
         <v>101.66</v>
@@ -14687,7 +14687,7 @@
       </c>
       <c r="R241" t="inlineStr"/>
       <c r="S241" t="n">
-        <v>754.7607680880964</v>
+        <v>64.10599638681134</v>
       </c>
     </row>
     <row r="242">
@@ -14717,7 +14717,7 @@
         <v>25.66666666666667</v>
       </c>
       <c r="H242" t="n">
-        <v>65</v>
+        <v>18.33333333333334</v>
       </c>
       <c r="I242" t="n">
         <v>101.73</v>
@@ -14746,7 +14746,7 @@
       </c>
       <c r="R242" t="inlineStr"/>
       <c r="S242" t="n">
-        <v>767.5806813583415</v>
+        <v>63.90939888101686</v>
       </c>
     </row>
     <row r="243">
@@ -14776,7 +14776,7 @@
         <v>26.05555555555556</v>
       </c>
       <c r="H243" t="n">
-        <v>76</v>
+        <v>24.44444444444445</v>
       </c>
       <c r="I243" t="n">
         <v>101.39</v>
@@ -14805,7 +14805,7 @@
       </c>
       <c r="R243" t="inlineStr"/>
       <c r="S243" t="n">
-        <v>1212.403205176741</v>
+        <v>90.84847517519913</v>
       </c>
     </row>
     <row r="244">
@@ -14835,7 +14835,7 @@
         <v>24</v>
       </c>
       <c r="H244" t="n">
-        <v>70.7</v>
+        <v>21.5</v>
       </c>
       <c r="I244" t="n">
         <v>101.44</v>
@@ -14864,7 +14864,7 @@
       </c>
       <c r="R244" t="inlineStr"/>
       <c r="S244" t="n">
-        <v>1092.097657138425</v>
+        <v>85.92099104307499</v>
       </c>
     </row>
     <row r="245">
@@ -14894,7 +14894,7 @@
         <v>23</v>
       </c>
       <c r="H245" t="n">
-        <v>60</v>
+        <v>15.55555555555556</v>
       </c>
       <c r="I245" t="n">
         <v>101.88</v>
@@ -14923,7 +14923,7 @@
       </c>
       <c r="R245" t="inlineStr"/>
       <c r="S245" t="n">
-        <v>715.8173498003285</v>
+        <v>62.87906234305839</v>
       </c>
     </row>
     <row r="246">
@@ -14953,7 +14953,7 @@
         <v>25.44444444444444</v>
       </c>
       <c r="H246" t="n">
-        <v>65.5</v>
+        <v>18.61111111111111</v>
       </c>
       <c r="I246" t="n">
         <v>101.47</v>
@@ -14982,7 +14982,7 @@
       </c>
       <c r="R246" t="inlineStr"/>
       <c r="S246" t="n">
-        <v>795.5387811637027</v>
+        <v>65.89677272993015</v>
       </c>
     </row>
     <row r="247">
@@ -15012,7 +15012,7 @@
         <v>25.66666666666667</v>
       </c>
       <c r="H247" t="n">
-        <v>66.59999999999999</v>
+        <v>19.22222222222222</v>
       </c>
       <c r="I247" t="n">
         <v>101.41</v>
@@ -15041,7 +15041,7 @@
       </c>
       <c r="R247" t="inlineStr"/>
       <c r="S247" t="n">
-        <v>824.8526990365485</v>
+        <v>67.56328432194778</v>
       </c>
     </row>
     <row r="248">
@@ -15071,7 +15071,7 @@
         <v>25.83333333333334</v>
       </c>
       <c r="H248" t="n">
-        <v>68.7</v>
+        <v>20.38888888888889</v>
       </c>
       <c r="I248" t="n">
         <v>101.26</v>
@@ -15100,7 +15100,7 @@
       </c>
       <c r="R248" t="inlineStr"/>
       <c r="S248" t="n">
-        <v>896.6295944077814</v>
+        <v>71.92164519116481</v>
       </c>
     </row>
     <row r="249">
@@ -15130,7 +15130,7 @@
         <v>25.05555555555555</v>
       </c>
       <c r="H249" t="n">
-        <v>69.59999999999999</v>
+        <v>20.88888888888889</v>
       </c>
       <c r="I249" t="n">
         <v>100.93</v>
@@ -15159,7 +15159,7 @@
       </c>
       <c r="R249" t="inlineStr"/>
       <c r="S249" t="n">
-        <v>977.0370499011747</v>
+        <v>77.68627392339002</v>
       </c>
     </row>
     <row r="250">
@@ -15189,7 +15189,7 @@
         <v>23.61111111111111</v>
       </c>
       <c r="H250" t="n">
-        <v>72.8</v>
+        <v>22.66666666666667</v>
       </c>
       <c r="I250" t="n">
         <v>100.76</v>
@@ -15218,7 +15218,7 @@
       </c>
       <c r="R250" t="inlineStr"/>
       <c r="S250" t="n">
-        <v>1224.381684665359</v>
+        <v>94.44461668259554</v>
       </c>
     </row>
     <row r="251">
@@ -15248,7 +15248,7 @@
         <v>24.61111111111111</v>
       </c>
       <c r="H251" t="n">
-        <v>68.59999999999999</v>
+        <v>20.33333333333333</v>
       </c>
       <c r="I251" t="n">
         <v>100.96</v>
@@ -15277,7 +15277,7 @@
       </c>
       <c r="R251" t="inlineStr"/>
       <c r="S251" t="n">
-        <v>960.1140609458282</v>
+        <v>77.08964828906578</v>
       </c>
     </row>
     <row r="252">
@@ -15307,7 +15307,7 @@
         <v>25.16666666666667</v>
       </c>
       <c r="H252" t="n">
-        <v>69.8</v>
+        <v>21</v>
       </c>
       <c r="I252" t="n">
         <v>101.11</v>
@@ -15336,7 +15336,7 @@
       </c>
       <c r="R252" t="inlineStr"/>
       <c r="S252" t="n">
-        <v>979.1365810114975</v>
+        <v>77.70262428732318</v>
       </c>
     </row>
     <row r="253">
@@ -15366,7 +15366,7 @@
         <v>25.44444444444444</v>
       </c>
       <c r="H253" t="n">
-        <v>70.59999999999999</v>
+        <v>21.44444444444444</v>
       </c>
       <c r="I253" t="n">
         <v>101.61</v>
@@ -15395,7 +15395,7 @@
       </c>
       <c r="R253" t="inlineStr"/>
       <c r="S253" t="n">
-        <v>997.356735819645</v>
+        <v>78.54221698240576</v>
       </c>
     </row>
     <row r="254">
@@ -15425,7 +15425,7 @@
         <v>21.83333333333333</v>
       </c>
       <c r="H254" t="n">
-        <v>65.5</v>
+        <v>18.61111111111111</v>
       </c>
       <c r="I254" t="n">
         <v>101.89</v>
@@ -15454,7 +15454,7 @@
       </c>
       <c r="R254" t="inlineStr"/>
       <c r="S254" t="n">
-        <v>989.0564956234695</v>
+        <v>81.9264034040213</v>
       </c>
     </row>
     <row r="255">
@@ -15484,7 +15484,7 @@
         <v>23.16666666666667</v>
       </c>
       <c r="H255" t="n">
-        <v>66.09999999999999</v>
+        <v>18.94444444444444</v>
       </c>
       <c r="I255" t="n">
         <v>101.75</v>
@@ -15513,7 +15513,7 @@
       </c>
       <c r="R255" t="inlineStr"/>
       <c r="S255" t="n">
-        <v>936.9751540944084</v>
+        <v>77.13758375756345</v>
       </c>
     </row>
     <row r="256">
@@ -15543,7 +15543,7 @@
         <v>24.27777777777778</v>
       </c>
       <c r="H256" t="n">
-        <v>69.5</v>
+        <v>20.83333333333334</v>
       </c>
       <c r="I256" t="n">
         <v>101.69</v>
@@ -15572,7 +15572,7 @@
       </c>
       <c r="R256" t="inlineStr"/>
       <c r="S256" t="n">
-        <v>1019.094143513271</v>
+        <v>81.10896863164963</v>
       </c>
     </row>
     <row r="257">
@@ -15602,7 +15602,7 @@
         <v>25.11111111111111</v>
       </c>
       <c r="H257" t="n">
-        <v>69.90000000000001</v>
+        <v>21.05555555555556</v>
       </c>
       <c r="I257" t="n">
         <v>101.65</v>
@@ -15631,7 +15631,7 @@
       </c>
       <c r="R257" t="inlineStr"/>
       <c r="S257" t="n">
-        <v>986.6994137887973</v>
+        <v>78.22719256206618</v>
       </c>
     </row>
     <row r="258">
@@ -15661,7 +15661,7 @@
         <v>25.72222222222222</v>
       </c>
       <c r="H258" t="n">
-        <v>69.3</v>
+        <v>20.72222222222222</v>
       </c>
       <c r="I258" t="n">
         <v>101.65</v>
@@ -15690,7 +15690,7 @@
       </c>
       <c r="R258" t="inlineStr"/>
       <c r="S258" t="n">
-        <v>926.7385150072411</v>
+        <v>73.90200097516421</v>
       </c>
     </row>
     <row r="259">
@@ -15720,7 +15720,7 @@
         <v>26.55555555555555</v>
       </c>
       <c r="H259" t="n">
-        <v>73</v>
+        <v>22.77777777777778</v>
       </c>
       <c r="I259" t="n">
         <v>101.46</v>
@@ -15749,7 +15749,7 @@
       </c>
       <c r="R259" t="inlineStr"/>
       <c r="S259" t="n">
-        <v>1036.038051363814</v>
+        <v>79.76867813968012</v>
       </c>
     </row>
     <row r="260">
@@ -15779,7 +15779,7 @@
         <v>26.66666666666667</v>
       </c>
       <c r="H260" t="n">
-        <v>72.59999999999999</v>
+        <v>22.55555555555555</v>
       </c>
       <c r="I260" t="n">
         <v>101.58</v>
@@ -15808,7 +15808,7 @@
       </c>
       <c r="R260" t="inlineStr"/>
       <c r="S260" t="n">
-        <v>1011.716738273915</v>
+        <v>78.18533317054542</v>
       </c>
     </row>
     <row r="261">
@@ -15838,7 +15838,7 @@
         <v>25.27777777777778</v>
       </c>
       <c r="H261" t="n">
-        <v>70.40000000000001</v>
+        <v>21.33333333333334</v>
       </c>
       <c r="I261" t="n">
         <v>101.69</v>
@@ -15867,7 +15867,7 @@
       </c>
       <c r="R261" t="inlineStr"/>
       <c r="S261" t="n">
-        <v>998.5468439425706</v>
+        <v>78.7866235595779</v>
       </c>
     </row>
     <row r="262">
@@ -15897,7 +15897,7 @@
         <v>25.5</v>
       </c>
       <c r="H262" t="n">
-        <v>69.8</v>
+        <v>21</v>
       </c>
       <c r="I262" t="n">
         <v>101.61</v>
@@ -15926,7 +15926,7 @@
       </c>
       <c r="R262" t="inlineStr"/>
       <c r="S262" t="n">
-        <v>959.8972778603036</v>
+        <v>76.17582570447095</v>
       </c>
     </row>
     <row r="263">
@@ -15956,7 +15956,7 @@
         <v>25.05555555555555</v>
       </c>
       <c r="H263" t="n">
-        <v>71.8</v>
+        <v>22.11111111111111</v>
       </c>
       <c r="I263" t="n">
         <v>101.42</v>
@@ -15985,7 +15985,7 @@
       </c>
       <c r="R263" t="inlineStr"/>
       <c r="S263" t="n">
-        <v>1075.35883030604</v>
+        <v>83.72719470152995</v>
       </c>
     </row>
     <row r="264">
@@ -16015,7 +16015,7 @@
         <v>25</v>
       </c>
       <c r="H264" t="n">
-        <v>71.2</v>
+        <v>21.77777777777778</v>
       </c>
       <c r="I264" t="n">
         <v>101.52</v>
@@ -16044,7 +16044,7 @@
       </c>
       <c r="R264" t="inlineStr"/>
       <c r="S264" t="n">
-        <v>1051.220510673942</v>
+        <v>82.31258605271312</v>
       </c>
     </row>
     <row r="265">
@@ -16074,7 +16074,7 @@
         <v>24.83333333333334</v>
       </c>
       <c r="H265" t="n">
-        <v>72.40000000000001</v>
+        <v>22.44444444444445</v>
       </c>
       <c r="I265" t="n">
         <v>101.35</v>
@@ -16103,7 +16103,7 @@
       </c>
       <c r="R265" t="inlineStr"/>
       <c r="S265" t="n">
-        <v>1118.335441388866</v>
+        <v>86.5858051146691</v>
       </c>
     </row>
     <row r="266">
@@ -16133,7 +16133,7 @@
         <v>24.77777777777778</v>
       </c>
       <c r="H266" t="n">
-        <v>70.90000000000001</v>
+        <v>21.61111111111111</v>
       </c>
       <c r="I266" t="n">
         <v>101.4</v>
@@ -16162,7 +16162,7 @@
       </c>
       <c r="R266" t="inlineStr"/>
       <c r="S266" t="n">
-        <v>1051.459961888721</v>
+        <v>82.5662651241709</v>
       </c>
     </row>
     <row r="267">
@@ -16192,7 +16192,7 @@
         <v>24.16666666666667</v>
       </c>
       <c r="H267" t="n">
-        <v>68.40000000000001</v>
+        <v>20.22222222222222</v>
       </c>
       <c r="I267" t="n">
         <v>101.63</v>
@@ -16221,7 +16221,7 @@
       </c>
       <c r="R267" t="inlineStr"/>
       <c r="S267" t="n">
-        <v>977.3635933721674</v>
+        <v>78.6293303249094</v>
       </c>
     </row>
     <row r="268">
@@ -16251,7 +16251,7 @@
         <v>23.94444444444444</v>
       </c>
       <c r="H268" t="n">
-        <v>66.59999999999999</v>
+        <v>19.22222222222222</v>
       </c>
       <c r="I268" t="n">
         <v>101.56</v>
@@ -16280,7 +16280,7 @@
       </c>
       <c r="R268" t="inlineStr"/>
       <c r="S268" t="n">
-        <v>914.2841690938351</v>
+        <v>74.88857263811353</v>
       </c>
     </row>
     <row r="269">
@@ -16310,7 +16310,7 @@
         <v>21.94444444444445</v>
       </c>
       <c r="H269" t="n">
-        <v>60.8</v>
+        <v>16</v>
       </c>
       <c r="I269" t="n">
         <v>101.74</v>
@@ -16339,7 +16339,7 @@
       </c>
       <c r="R269" t="inlineStr"/>
       <c r="S269" t="n">
-        <v>792.2659184966773</v>
+        <v>68.98305686106005</v>
       </c>
     </row>
     <row r="270">
@@ -16369,7 +16369,7 @@
         <v>24.27777777777778</v>
       </c>
       <c r="H270" t="n">
-        <v>63.9</v>
+        <v>17.72222222222222</v>
       </c>
       <c r="I270" t="n">
         <v>101.64</v>
@@ -16398,7 +16398,7 @@
       </c>
       <c r="R270" t="inlineStr"/>
       <c r="S270" t="n">
-        <v>793.3351492952677</v>
+        <v>66.81537346886464</v>
       </c>
     </row>
     <row r="271">
@@ -16428,7 +16428,7 @@
         <v>22.5</v>
       </c>
       <c r="H271" t="n">
-        <v>60.6</v>
+        <v>15.88888888888889</v>
       </c>
       <c r="I271" t="n">
         <v>101.25</v>
@@ -16457,7 +16457,7 @@
       </c>
       <c r="R271" t="inlineStr"/>
       <c r="S271" t="n">
-        <v>758.8043978776332</v>
+        <v>66.21484692457231</v>
       </c>
     </row>
     <row r="272">
@@ -16487,7 +16487,7 @@
         <v>22.77777777777778</v>
       </c>
       <c r="H272" t="n">
-        <v>61.5</v>
+        <v>16.38888888888889</v>
       </c>
       <c r="I272" t="n">
         <v>101.42</v>
@@ -16516,7 +16516,7 @@
       </c>
       <c r="R272" t="inlineStr"/>
       <c r="S272" t="n">
-        <v>777.9175982912826</v>
+        <v>67.21817589997573</v>
       </c>
     </row>
     <row r="273">
@@ -16546,7 +16546,7 @@
         <v>21.05555555555556</v>
       </c>
       <c r="H273" t="n">
-        <v>60.4</v>
+        <v>15.77777777777778</v>
       </c>
       <c r="I273" t="n">
         <v>101.83</v>
@@ -16575,7 +16575,7 @@
       </c>
       <c r="R273" t="inlineStr"/>
       <c r="S273" t="n">
-        <v>821.1848566950812</v>
+        <v>71.81633246868931</v>
       </c>
     </row>
     <row r="274">
@@ -16605,7 +16605,7 @@
         <v>13.16666666666667</v>
       </c>
       <c r="H274" t="n">
-        <v>45.4</v>
+        <v>7.444444444444444</v>
       </c>
       <c r="I274" t="n">
         <v>102.35</v>
@@ -16634,7 +16634,7 @@
       </c>
       <c r="R274" t="inlineStr"/>
       <c r="S274" t="n">
-        <v>649.0591128399426</v>
+        <v>68.23210367906249</v>
       </c>
     </row>
     <row r="275">
@@ -16664,7 +16664,7 @@
         <v>18.33333333333334</v>
       </c>
       <c r="H275" t="n">
-        <v>48.4</v>
+        <v>9.111111111111111</v>
       </c>
       <c r="I275" t="n">
         <v>102.05</v>
@@ -16693,7 +16693,7 @@
       </c>
       <c r="R275" t="inlineStr"/>
       <c r="S275" t="n">
-        <v>543.3747070610633</v>
+        <v>54.88552594950817</v>
       </c>
     </row>
     <row r="276">
@@ -16723,7 +16723,7 @@
         <v>18.11111111111111</v>
       </c>
       <c r="H276" t="n">
-        <v>47.7</v>
+        <v>8.722222222222225</v>
       </c>
       <c r="I276" t="n">
         <v>101.51</v>
@@ -16752,7 +16752,7 @@
       </c>
       <c r="R276" t="inlineStr"/>
       <c r="S276" t="n">
-        <v>531.8304509545528</v>
+        <v>54.2143928694921</v>
       </c>
     </row>
     <row r="277">
@@ -16782,7 +16782,7 @@
         <v>15.38888888888889</v>
       </c>
       <c r="H277" t="n">
-        <v>44.4</v>
+        <v>6.888888888888888</v>
       </c>
       <c r="I277" t="n">
         <v>102.12</v>
@@ -16811,7 +16811,7 @@
       </c>
       <c r="R277" t="inlineStr"/>
       <c r="S277" t="n">
-        <v>533.735388798081</v>
+        <v>56.88202675222583</v>
       </c>
     </row>
     <row r="278">
@@ -16841,7 +16841,7 @@
         <v>17</v>
       </c>
       <c r="H278" t="n">
-        <v>45.9</v>
+        <v>7.722222222222221</v>
       </c>
       <c r="I278" t="n">
         <v>102.2</v>
@@ -16870,7 +16870,7 @@
       </c>
       <c r="R278" t="inlineStr"/>
       <c r="S278" t="n">
-        <v>520.3878576687737</v>
+        <v>54.33631824444115</v>
       </c>
     </row>
     <row r="279">
@@ -16900,7 +16900,7 @@
         <v>18.94444444444444</v>
       </c>
       <c r="H279" t="n">
-        <v>47.7</v>
+        <v>8.722222222222225</v>
       </c>
       <c r="I279" t="n">
         <v>102.25</v>
@@ -16929,7 +16929,7 @@
       </c>
       <c r="R279" t="inlineStr"/>
       <c r="S279" t="n">
-        <v>504.7694910128469</v>
+        <v>51.45581913406188</v>
       </c>
     </row>
     <row r="280">
@@ -16959,7 +16959,7 @@
         <v>20.27777777777778</v>
       </c>
       <c r="H280" t="n">
-        <v>56.4</v>
+        <v>13.55555555555556</v>
       </c>
       <c r="I280" t="n">
         <v>102.23</v>
@@ -16988,7 +16988,7 @@
       </c>
       <c r="R280" t="inlineStr"/>
       <c r="S280" t="n">
-        <v>713.2742074322535</v>
+        <v>65.27487420230489</v>
       </c>
     </row>
     <row r="281">
@@ -17018,7 +17018,7 @@
         <v>22.44444444444445</v>
       </c>
       <c r="H281" t="n">
-        <v>60.7</v>
+        <v>15.94444444444445</v>
       </c>
       <c r="I281" t="n">
         <v>102.07</v>
@@ -17047,7 +17047,7 @@
       </c>
       <c r="R281" t="inlineStr"/>
       <c r="S281" t="n">
-        <v>764.9222514125798</v>
+        <v>66.67537421735202</v>
       </c>
     </row>
     <row r="282">
@@ -17077,7 +17077,7 @@
         <v>21.16666666666666</v>
       </c>
       <c r="H282" t="n">
-        <v>61.4</v>
+        <v>16.33333333333333</v>
       </c>
       <c r="I282" t="n">
         <v>102.18</v>
@@ -17106,7 +17106,7 @@
       </c>
       <c r="R282" t="inlineStr"/>
       <c r="S282" t="n">
-        <v>854.3626169147146</v>
+        <v>73.90391142896659</v>
       </c>
     </row>
     <row r="283">
@@ -17136,7 +17136,7 @@
         <v>21.27777777777778</v>
       </c>
       <c r="H283" t="n">
-        <v>60.2</v>
+        <v>15.66666666666667</v>
       </c>
       <c r="I283" t="n">
         <v>102.18</v>
@@ -17165,7 +17165,7 @@
       </c>
       <c r="R283" t="inlineStr"/>
       <c r="S283" t="n">
-        <v>802.5344328287769</v>
+        <v>70.3404909699431</v>
       </c>
     </row>
     <row r="284">
@@ -17195,7 +17195,7 @@
         <v>21.27777777777778</v>
       </c>
       <c r="H284" t="n">
-        <v>62.9</v>
+        <v>17.16666666666667</v>
       </c>
       <c r="I284" t="n">
         <v>102.02</v>
@@ -17224,7 +17224,7 @@
       </c>
       <c r="R284" t="inlineStr"/>
       <c r="S284" t="n">
-        <v>909.2482878819629</v>
+        <v>77.39193099504469</v>
       </c>
     </row>
     <row r="285">
@@ -17254,7 +17254,7 @@
         <v>19.94444444444445</v>
       </c>
       <c r="H285" t="n">
-        <v>58</v>
+        <v>14.44444444444444</v>
       </c>
       <c r="I285" t="n">
         <v>102.2</v>
@@ -17283,7 +17283,7 @@
       </c>
       <c r="R285" t="inlineStr"/>
       <c r="S285" t="n">
-        <v>785.7519379521677</v>
+        <v>70.59269833369373</v>
       </c>
     </row>
     <row r="286">
@@ -17313,7 +17313,7 @@
         <v>21.33333333333334</v>
       </c>
       <c r="H286" t="n">
-        <v>64.90000000000001</v>
+        <v>18.27777777777778</v>
       </c>
       <c r="I286" t="n">
         <v>101.76</v>
@@ -17342,7 +17342,7 @@
       </c>
       <c r="R286" t="inlineStr"/>
       <c r="S286" t="n">
-        <v>992.5492432229677</v>
+        <v>82.72603861575455</v>
       </c>
     </row>
     <row r="287">
@@ -17372,7 +17372,7 @@
         <v>23.61111111111111</v>
       </c>
       <c r="H287" t="n">
-        <v>65.8</v>
+        <v>18.77777777777778</v>
       </c>
       <c r="I287" t="n">
         <v>101.28</v>
@@ -17401,7 +17401,7 @@
       </c>
       <c r="R287" t="inlineStr"/>
       <c r="S287" t="n">
-        <v>899.9420867550725</v>
+        <v>74.31596628675975</v>
       </c>
     </row>
     <row r="288">
@@ -17431,7 +17431,7 @@
         <v>24.55555555555556</v>
       </c>
       <c r="H288" t="n">
-        <v>68.90000000000001</v>
+        <v>20.5</v>
       </c>
       <c r="I288" t="n">
         <v>100.84</v>
@@ -17460,7 +17460,7 @@
       </c>
       <c r="R288" t="inlineStr"/>
       <c r="S288" t="n">
-        <v>976.1507211333077</v>
+        <v>78.14691599324412</v>
       </c>
     </row>
     <row r="289">
@@ -17490,7 +17490,7 @@
         <v>22.27777777777778</v>
       </c>
       <c r="H289" t="n">
-        <v>62.8</v>
+        <v>17.11111111111111</v>
       </c>
       <c r="I289" t="n">
         <v>101.28</v>
@@ -17519,7 +17519,7 @@
       </c>
       <c r="R289" t="inlineStr"/>
       <c r="S289" t="n">
-        <v>851.4086623177132</v>
+        <v>72.54611395982754</v>
       </c>
     </row>
     <row r="290">
@@ -17549,7 +17549,7 @@
         <v>18.83333333333334</v>
       </c>
       <c r="H290" t="n">
-        <v>54.1</v>
+        <v>12.27777777777778</v>
       </c>
       <c r="I290" t="n">
         <v>101.98</v>
@@ -17578,7 +17578,7 @@
       </c>
       <c r="R290" t="inlineStr"/>
       <c r="S290" t="n">
-        <v>698.405494318566</v>
+        <v>65.68056551343558</v>
       </c>
     </row>
     <row r="291">
@@ -17608,7 +17608,7 @@
         <v>19.72222222222222</v>
       </c>
       <c r="H291" t="n">
-        <v>59.1</v>
+        <v>15.05555555555556</v>
       </c>
       <c r="I291" t="n">
         <v>102.19</v>
@@ -17637,7 +17637,7 @@
       </c>
       <c r="R291" t="inlineStr"/>
       <c r="S291" t="n">
-        <v>839.0800541646425</v>
+        <v>74.45094078262838</v>
       </c>
     </row>
     <row r="292">
@@ -17667,7 +17667,7 @@
         <v>19.88888888888889</v>
       </c>
       <c r="H292" t="n">
-        <v>60.3</v>
+        <v>15.72222222222222</v>
       </c>
       <c r="I292" t="n">
         <v>102.12</v>
@@ -17696,7 +17696,7 @@
       </c>
       <c r="R292" t="inlineStr"/>
       <c r="S292" t="n">
-        <v>878.4218621757141</v>
+        <v>76.90681149554365</v>
       </c>
     </row>
     <row r="293">
@@ -17726,7 +17726,7 @@
         <v>15.83333333333333</v>
       </c>
       <c r="H293" t="n">
-        <v>50.2</v>
+        <v>10.11111111111111</v>
       </c>
       <c r="I293" t="n">
         <v>102.32</v>
@@ -17755,7 +17755,7 @@
       </c>
       <c r="R293" t="inlineStr"/>
       <c r="S293" t="n">
-        <v>696.8363342501056</v>
+        <v>68.77386647851699</v>
       </c>
     </row>
     <row r="294">
@@ -17785,7 +17785,7 @@
         <v>14.05555555555556</v>
       </c>
       <c r="H294" t="n">
-        <v>43.5</v>
+        <v>6.388888888888889</v>
       </c>
       <c r="I294" t="n">
         <v>102.28</v>
@@ -17814,7 +17814,7 @@
       </c>
       <c r="R294" t="inlineStr"/>
       <c r="S294" t="n">
-        <v>555.0579275214941</v>
+        <v>59.89747553050859</v>
       </c>
     </row>
     <row r="295">
@@ -17844,7 +17844,7 @@
         <v>19.11111111111111</v>
       </c>
       <c r="H295" t="n">
-        <v>51.2</v>
+        <v>10.66666666666667</v>
       </c>
       <c r="I295" t="n">
         <v>101.8</v>
@@ -17873,7 +17873,7 @@
       </c>
       <c r="R295" t="inlineStr"/>
       <c r="S295" t="n">
-        <v>595.3674984586198</v>
+        <v>58.02212173893327</v>
       </c>
     </row>
     <row r="296">
@@ -17903,7 +17903,7 @@
         <v>15.05555555555556</v>
       </c>
       <c r="H296" t="n">
-        <v>49.9</v>
+        <v>9.944444444444445</v>
       </c>
       <c r="I296" t="n">
         <v>102.13</v>
@@ -17932,7 +17932,7 @@
       </c>
       <c r="R296" t="inlineStr"/>
       <c r="S296" t="n">
-        <v>721.6066778696975</v>
+        <v>71.49133016863655</v>
       </c>
     </row>
     <row r="297">
@@ -17962,7 +17962,7 @@
         <v>12.83333333333333</v>
       </c>
       <c r="H297" t="n">
-        <v>43.4</v>
+        <v>6.333333333333333</v>
       </c>
       <c r="I297" t="n">
         <v>102.25</v>
@@ -17991,7 +17991,7 @@
       </c>
       <c r="R297" t="inlineStr"/>
       <c r="S297" t="n">
-        <v>597.9465829379088</v>
+        <v>64.61586165278163</v>
       </c>
     </row>
     <row r="298">
@@ -18021,7 +18021,7 @@
         <v>19.66666666666667</v>
       </c>
       <c r="H298" t="n">
-        <v>51</v>
+        <v>10.55555555555556</v>
       </c>
       <c r="I298" t="n">
         <v>101.95</v>
@@ -18050,7 +18050,7 @@
       </c>
       <c r="R298" t="inlineStr"/>
       <c r="S298" t="n">
-        <v>569.4529723851978</v>
+        <v>55.63615228916197</v>
       </c>
     </row>
     <row r="299">
@@ -18080,7 +18080,7 @@
         <v>20.5</v>
       </c>
       <c r="H299" t="n">
-        <v>56.1</v>
+        <v>13.38888888888889</v>
       </c>
       <c r="I299" t="n">
         <v>101.66</v>
@@ -18109,7 +18109,7 @@
       </c>
       <c r="R299" t="inlineStr"/>
       <c r="S299" t="n">
-        <v>693.512674273621</v>
+        <v>63.68934675675184</v>
       </c>
     </row>
     <row r="300">
@@ -18139,7 +18139,7 @@
         <v>21.05555555555556</v>
       </c>
       <c r="H300" t="n">
-        <v>62.2</v>
+        <v>16.77777777777778</v>
       </c>
       <c r="I300" t="n">
         <v>101.86</v>
@@ -18168,7 +18168,7 @@
       </c>
       <c r="R300" t="inlineStr"/>
       <c r="S300" t="n">
-        <v>892.5770897158991</v>
+        <v>76.54430269690263</v>
       </c>
     </row>
     <row r="301">
@@ -18198,7 +18198,7 @@
         <v>21.5</v>
       </c>
       <c r="H301" t="n">
-        <v>66.59999999999999</v>
+        <v>19.22222222222222</v>
       </c>
       <c r="I301" t="n">
         <v>101.56</v>
@@ -18227,7 +18227,7 @@
       </c>
       <c r="R301" t="inlineStr"/>
       <c r="S301" t="n">
-        <v>1060.549264181573</v>
+        <v>86.86907560225755</v>
       </c>
     </row>
     <row r="302">
@@ -18257,7 +18257,7 @@
         <v>22.77777777777778</v>
       </c>
       <c r="H302" t="n">
-        <v>67.8</v>
+        <v>19.88888888888889</v>
       </c>
       <c r="I302" t="n">
         <v>101.34</v>
@@ -18286,7 +18286,7 @@
       </c>
       <c r="R302" t="inlineStr"/>
       <c r="S302" t="n">
-        <v>1034.956506406041</v>
+        <v>83.75882309378311</v>
       </c>
     </row>
     <row r="303">
@@ -18316,7 +18316,7 @@
         <v>22.88888888888889</v>
       </c>
       <c r="H303" t="n">
-        <v>67.5</v>
+        <v>19.72222222222222</v>
       </c>
       <c r="I303" t="n">
         <v>101.59</v>
@@ -18345,7 +18345,7 @@
       </c>
       <c r="R303" t="inlineStr"/>
       <c r="S303" t="n">
-        <v>1014.389554232303</v>
+        <v>82.34011155817662</v>
       </c>
     </row>
     <row r="304">
@@ -18375,7 +18375,7 @@
         <v>22.72222222222222</v>
       </c>
       <c r="H304" t="n">
-        <v>67.7</v>
+        <v>19.83333333333334</v>
       </c>
       <c r="I304" t="n">
         <v>101.74</v>
@@ -18404,7 +18404,7 @@
       </c>
       <c r="R304" t="inlineStr"/>
       <c r="S304" t="n">
-        <v>1033.850317715226</v>
+        <v>83.75259316852916</v>
       </c>
     </row>
     <row r="305">
@@ -18434,7 +18434,7 @@
         <v>23.38888888888889</v>
       </c>
       <c r="H305" t="n">
-        <v>69.3</v>
+        <v>20.72222222222222</v>
       </c>
       <c r="I305" t="n">
         <v>101.58</v>
@@ -18463,7 +18463,7 @@
       </c>
       <c r="R305" t="inlineStr"/>
       <c r="S305" t="n">
-        <v>1065.708818922092</v>
+        <v>84.98407360851535</v>
       </c>
     </row>
     <row r="306">
@@ -18493,7 +18493,7 @@
         <v>22.72222222222222</v>
       </c>
       <c r="H306" t="n">
-        <v>67.40000000000001</v>
+        <v>19.66666666666667</v>
       </c>
       <c r="I306" t="n">
         <v>101.55</v>
@@ -18522,7 +18522,7 @@
       </c>
       <c r="R306" t="inlineStr"/>
       <c r="S306" t="n">
-        <v>1020.149063304353</v>
+        <v>82.89040758859639</v>
       </c>
     </row>
     <row r="307">
@@ -18552,7 +18552,7 @@
         <v>24.38888888888889</v>
       </c>
       <c r="H307" t="n">
-        <v>67.59999999999999</v>
+        <v>19.77777777777778</v>
       </c>
       <c r="I307" t="n">
         <v>101.54</v>
@@ -18581,7 +18581,7 @@
       </c>
       <c r="R307" t="inlineStr"/>
       <c r="S307" t="n">
-        <v>930.8054839961807</v>
+        <v>75.4800655507695</v>
       </c>
     </row>
     <row r="308">
@@ -18611,7 +18611,7 @@
         <v>24.27777777777778</v>
       </c>
       <c r="H308" t="n">
-        <v>66.40000000000001</v>
+        <v>19.11111111111111</v>
       </c>
       <c r="I308" t="n">
         <v>101.38</v>
@@ -18640,7 +18640,7 @@
       </c>
       <c r="R308" t="inlineStr"/>
       <c r="S308" t="n">
-        <v>888.1675102300549</v>
+        <v>72.89685962654751</v>
       </c>
     </row>
     <row r="309">
@@ -18670,7 +18670,7 @@
         <v>24.72222222222222</v>
       </c>
       <c r="H309" t="n">
-        <v>68.2</v>
+        <v>20.11111111111111</v>
       </c>
       <c r="I309" t="n">
         <v>101.3</v>
@@ -18699,7 +18699,7 @@
       </c>
       <c r="R309" t="inlineStr"/>
       <c r="S309" t="n">
-        <v>937.0275606081627</v>
+        <v>75.53328631143717</v>
       </c>
     </row>
     <row r="310">
@@ -18729,7 +18729,7 @@
         <v>22.11111111111111</v>
       </c>
       <c r="H310" t="n">
-        <v>63.4</v>
+        <v>17.44444444444444</v>
       </c>
       <c r="I310" t="n">
         <v>101.84</v>
@@ -18758,7 +18758,7 @@
       </c>
       <c r="R310" t="inlineStr"/>
       <c r="S310" t="n">
-        <v>884.0495968452856</v>
+        <v>74.84883264019835</v>
       </c>
     </row>
     <row r="311">
@@ -18788,7 +18788,7 @@
         <v>22.27777777777778</v>
       </c>
       <c r="H311" t="n">
-        <v>61.1</v>
+        <v>16.16666666666667</v>
       </c>
       <c r="I311" t="n">
         <v>101.65</v>
@@ -18817,7 +18817,7 @@
       </c>
       <c r="R311" t="inlineStr"/>
       <c r="S311" t="n">
-        <v>787.2089900468293</v>
+        <v>68.31803765167766</v>
       </c>
     </row>
     <row r="312">
@@ -18847,7 +18847,7 @@
         <v>21.27777777777778</v>
       </c>
       <c r="H312" t="n">
-        <v>56.3</v>
+        <v>13.5</v>
       </c>
       <c r="I312" t="n">
         <v>101.9</v>
@@ -18876,7 +18876,7 @@
       </c>
       <c r="R312" t="inlineStr"/>
       <c r="S312" t="n">
-        <v>667.4573240777195</v>
+        <v>61.15330619375668</v>
       </c>
     </row>
     <row r="313">
@@ -18906,7 +18906,7 @@
         <v>22.11111111111111</v>
       </c>
       <c r="H313" t="n">
-        <v>62.3</v>
+        <v>16.83333333333333</v>
       </c>
       <c r="I313" t="n">
         <v>101.67</v>
@@ -18935,7 +18935,7 @@
       </c>
       <c r="R313" t="inlineStr"/>
       <c r="S313" t="n">
-        <v>840.5719907350336</v>
+        <v>72.00708761028302</v>
       </c>
     </row>
     <row r="314">
@@ -18965,7 +18965,7 @@
         <v>19.38888888888889</v>
       </c>
       <c r="H314" t="n">
-        <v>53.2</v>
+        <v>11.77777777777778</v>
       </c>
       <c r="I314" t="n">
         <v>102.58</v>
@@ -18994,7 +18994,7 @@
       </c>
       <c r="R314" t="inlineStr"/>
       <c r="S314" t="n">
-        <v>645.6666325248832</v>
+        <v>61.38676933506259</v>
       </c>
     </row>
     <row r="315">
@@ -19024,7 +19024,7 @@
         <v>21.77777777777778</v>
       </c>
       <c r="H315" t="n">
-        <v>58.6</v>
+        <v>14.77777777777778</v>
       </c>
       <c r="I315" t="n">
         <v>102.05</v>
@@ -19053,7 +19053,7 @@
       </c>
       <c r="R315" t="inlineStr"/>
       <c r="S315" t="n">
-        <v>722.0628032331571</v>
+        <v>64.43019395631698</v>
       </c>
     </row>
     <row r="316">
@@ -19083,7 +19083,7 @@
         <v>19.11111111111111</v>
       </c>
       <c r="H316" t="n">
-        <v>53.7</v>
+        <v>12.05555555555556</v>
       </c>
       <c r="I316" t="n">
         <v>102.42</v>
@@ -19112,7 +19112,7 @@
       </c>
       <c r="R316" t="inlineStr"/>
       <c r="S316" t="n">
-        <v>673.1663618573455</v>
+        <v>63.61356506956495</v>
       </c>
     </row>
     <row r="317">
@@ -19142,7 +19142,7 @@
         <v>18.61111111111111</v>
       </c>
       <c r="H317" t="n">
-        <v>54.5</v>
+        <v>12.5</v>
       </c>
       <c r="I317" t="n">
         <v>102.36</v>
@@ -19171,7 +19171,7 @@
       </c>
       <c r="R317" t="inlineStr"/>
       <c r="S317" t="n">
-        <v>722.0625363874281</v>
+        <v>67.57991068425532</v>
       </c>
     </row>
     <row r="318">
@@ -19201,7 +19201,7 @@
         <v>19.88888888888889</v>
       </c>
       <c r="H318" t="n">
-        <v>48.8</v>
+        <v>9.333333333333332</v>
       </c>
       <c r="I318" t="n">
         <v>102.3</v>
@@ -19230,7 +19230,7 @@
       </c>
       <c r="R318" t="inlineStr"/>
       <c r="S318" t="n">
-        <v>503.1657776778257</v>
+        <v>50.56044091757691</v>
       </c>
     </row>
     <row r="319">
@@ -19260,7 +19260,7 @@
         <v>21.94444444444445</v>
       </c>
       <c r="H319" t="n">
-        <v>52.1</v>
+        <v>11.16666666666667</v>
       </c>
       <c r="I319" t="n">
         <v>102.1</v>
@@ -19289,7 +19289,7 @@
       </c>
       <c r="R319" t="inlineStr"/>
       <c r="S319" t="n">
-        <v>522.5645627527762</v>
+        <v>50.35904640025534</v>
       </c>
     </row>
     <row r="320">
@@ -19319,7 +19319,7 @@
         <v>22.88888888888889</v>
       </c>
       <c r="H320" t="n">
-        <v>57.3</v>
+        <v>14.05555555555556</v>
       </c>
       <c r="I320" t="n">
         <v>101.82</v>
@@ -19348,7 +19348,7 @@
       </c>
       <c r="R320" t="inlineStr"/>
       <c r="S320" t="n">
-        <v>634.5446688403806</v>
+        <v>57.46734925459855</v>
       </c>
     </row>
     <row r="321">
@@ -19378,7 +19378,7 @@
         <v>22.22222222222222</v>
       </c>
       <c r="H321" t="n">
-        <v>58.8</v>
+        <v>14.88888888888889</v>
       </c>
       <c r="I321" t="n">
         <v>101.85</v>
@@ -19407,7 +19407,7 @@
       </c>
       <c r="R321" t="inlineStr"/>
       <c r="S321" t="n">
-        <v>709.3907077200129</v>
+        <v>63.15661427023087</v>
       </c>
     </row>
     <row r="322">
@@ -19437,7 +19437,7 @@
         <v>22.72222222222222</v>
       </c>
       <c r="H322" t="n">
-        <v>55.6</v>
+        <v>13.11111111111111</v>
       </c>
       <c r="I322" t="n">
         <v>101.85</v>
@@ -19466,7 +19466,7 @@
       </c>
       <c r="R322" t="inlineStr"/>
       <c r="S322" t="n">
-        <v>590.9429275933404</v>
+        <v>54.58964175063684</v>
       </c>
     </row>
     <row r="323">
@@ -19496,7 +19496,7 @@
         <v>20.11111111111111</v>
       </c>
       <c r="H323" t="n">
-        <v>54.8</v>
+        <v>12.66666666666667</v>
       </c>
       <c r="I323" t="n">
         <v>102</v>
@@ -19525,7 +19525,7 @@
       </c>
       <c r="R323" t="inlineStr"/>
       <c r="S323" t="n">
-        <v>667.2907287826423</v>
+        <v>62.2301256775234</v>
       </c>
     </row>
     <row r="324">
@@ -19555,7 +19555,7 @@
         <v>19.61111111111111</v>
       </c>
       <c r="H324" t="n">
-        <v>57.5</v>
+        <v>14.16666666666667</v>
       </c>
       <c r="I324" t="n">
         <v>101.58</v>
@@ -19584,7 +19584,7 @@
       </c>
       <c r="R324" t="inlineStr"/>
       <c r="S324" t="n">
-        <v>783.3869143479519</v>
+        <v>70.7841774721096</v>
       </c>
     </row>
     <row r="325">
@@ -19614,7 +19614,7 @@
         <v>21.44444444444444</v>
       </c>
       <c r="H325" t="n">
-        <v>59.5</v>
+        <v>15.27777777777778</v>
       </c>
       <c r="I325" t="n">
         <v>101.79</v>
@@ -19643,7 +19643,7 @@
       </c>
       <c r="R325" t="inlineStr"/>
       <c r="S325" t="n">
-        <v>768.7935500205247</v>
+        <v>67.90951933301247</v>
       </c>
     </row>
     <row r="326">
@@ -19673,7 +19673,7 @@
         <v>22.83333333333333</v>
       </c>
       <c r="H326" t="n">
-        <v>65.40000000000001</v>
+        <v>18.55555555555556</v>
       </c>
       <c r="I326" t="n">
         <v>101.44</v>
@@ -19702,7 +19702,7 @@
       </c>
       <c r="R326" t="inlineStr"/>
       <c r="S326" t="n">
-        <v>926.4477121747117</v>
+        <v>76.81924403207422</v>
       </c>
     </row>
     <row r="327">
@@ -19732,7 +19732,7 @@
         <v>25.83333333333334</v>
       </c>
       <c r="H327" t="n">
-        <v>71.09999999999999</v>
+        <v>21.72222222222222</v>
       </c>
       <c r="I327" t="n">
         <v>101.41</v>
@@ -19761,7 +19761,7 @@
       </c>
       <c r="R327" t="inlineStr"/>
       <c r="S327" t="n">
-        <v>996.0323448639398</v>
+        <v>78.06525327530255</v>
       </c>
     </row>
     <row r="328">
@@ -19791,7 +19791,7 @@
         <v>25.22222222222222</v>
       </c>
       <c r="H328" t="n">
-        <v>69.2</v>
+        <v>20.66666666666667</v>
       </c>
       <c r="I328" t="n">
         <v>101.34</v>
@@ -19820,7 +19820,7 @@
       </c>
       <c r="R328" t="inlineStr"/>
       <c r="S328" t="n">
-        <v>950.5199612781755</v>
+        <v>75.87231332800734</v>
       </c>
     </row>
     <row r="329">
@@ -19850,7 +19850,7 @@
         <v>22.33333333333334</v>
       </c>
       <c r="H329" t="n">
-        <v>64.8</v>
+        <v>18.22222222222222</v>
       </c>
       <c r="I329" t="n">
         <v>101.47</v>
@@ -19879,7 +19879,7 @@
       </c>
       <c r="R329" t="inlineStr"/>
       <c r="S329" t="n">
-        <v>929.4895215924031</v>
+        <v>77.55052889519928</v>
       </c>
     </row>
     <row r="330">
@@ -19909,7 +19909,7 @@
         <v>24</v>
       </c>
       <c r="H330" t="n">
-        <v>63.8</v>
+        <v>17.66666666666666</v>
       </c>
       <c r="I330" t="n">
         <v>101.58</v>
@@ -19938,7 +19938,7 @@
       </c>
       <c r="R330" t="inlineStr"/>
       <c r="S330" t="n">
-        <v>803.0173299917747</v>
+        <v>67.70193458423347</v>
       </c>
     </row>
     <row r="331">
@@ -19968,7 +19968,7 @@
         <v>23.11111111111111</v>
       </c>
       <c r="H331" t="n">
-        <v>64.2</v>
+        <v>17.88888888888889</v>
       </c>
       <c r="I331" t="n">
         <v>101.68</v>
@@ -19997,7 +19997,7 @@
       </c>
       <c r="R331" t="inlineStr"/>
       <c r="S331" t="n">
-        <v>862.8185456472532</v>
+        <v>72.43919866719781</v>
       </c>
     </row>
     <row r="332">
@@ -20027,7 +20027,7 @@
         <v>22.66666666666667</v>
       </c>
       <c r="H332" t="n">
-        <v>67.59999999999999</v>
+        <v>19.77777777777778</v>
       </c>
       <c r="I332" t="n">
         <v>101.3</v>
@@ -20056,7 +20056,7 @@
       </c>
       <c r="R332" t="inlineStr"/>
       <c r="S332" t="n">
-        <v>1032.74381630521</v>
+        <v>83.74635978421992</v>
       </c>
     </row>
     <row r="333">
@@ -20086,7 +20086,7 @@
         <v>22</v>
       </c>
       <c r="H333" t="n">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="I333" t="n">
         <v>101.2</v>
@@ -20115,7 +20115,7 @@
       </c>
       <c r="R333" t="inlineStr"/>
       <c r="S333" t="n">
-        <v>1094.797691481278</v>
+        <v>88.42598422209137</v>
       </c>
     </row>
     <row r="334">
@@ -20145,7 +20145,7 @@
         <v>22.83333333333333</v>
       </c>
       <c r="H334" t="n">
-        <v>67.3</v>
+        <v>19.61111111111111</v>
       </c>
       <c r="I334" t="n">
         <v>101.33</v>
@@ -20174,7 +20174,7 @@
       </c>
       <c r="R334" t="inlineStr"/>
       <c r="S334" t="n">
-        <v>1008.791839712861</v>
+        <v>82.04965675975706</v>
       </c>
     </row>
     <row r="335">
@@ -20204,7 +20204,7 @@
         <v>21.33333333333334</v>
       </c>
       <c r="H335" t="n">
-        <v>63.9</v>
+        <v>17.72222222222222</v>
       </c>
       <c r="I335" t="n">
         <v>101.64</v>
@@ -20233,7 +20233,7 @@
       </c>
       <c r="R335" t="inlineStr"/>
       <c r="S335" t="n">
-        <v>948.5088407829569</v>
+        <v>79.88423617903496</v>
       </c>
     </row>
     <row r="336">
@@ -20263,7 +20263,7 @@
         <v>20.33333333333333</v>
       </c>
       <c r="H336" t="n">
-        <v>54.9</v>
+        <v>12.72222222222222</v>
       </c>
       <c r="I336" t="n">
         <v>102.1</v>
@@ -20292,7 +20292,7 @@
       </c>
       <c r="R336" t="inlineStr"/>
       <c r="S336" t="n">
-        <v>661.368968312736</v>
+        <v>61.60440602973021</v>
       </c>
     </row>
     <row r="337">
@@ -20322,7 +20322,7 @@
         <v>21.94444444444445</v>
       </c>
       <c r="H337" t="n">
-        <v>61.7</v>
+        <v>16.5</v>
       </c>
       <c r="I337" t="n">
         <v>101.5</v>
@@ -20351,7 +20351,7 @@
       </c>
       <c r="R337" t="inlineStr"/>
       <c r="S337" t="n">
-        <v>825.9983842474444</v>
+        <v>71.21806709303947</v>
       </c>
     </row>
     <row r="338">
@@ -20381,7 +20381,7 @@
         <v>24.5</v>
       </c>
       <c r="H338" t="n">
-        <v>63.4</v>
+        <v>17.44444444444444</v>
       </c>
       <c r="I338" t="n">
         <v>101.33</v>
@@ -20410,7 +20410,7 @@
       </c>
       <c r="R338" t="inlineStr"/>
       <c r="S338" t="n">
-        <v>765.1858447826603</v>
+        <v>64.78512906873632</v>
       </c>
     </row>
     <row r="339">
@@ -20440,7 +20440,7 @@
         <v>25.5</v>
       </c>
       <c r="H339" t="n">
-        <v>67.40000000000001</v>
+        <v>19.66666666666667</v>
       </c>
       <c r="I339" t="n">
         <v>101.29</v>
@@ -20469,7 +20469,7 @@
       </c>
       <c r="R339" t="inlineStr"/>
       <c r="S339" t="n">
-        <v>863.3426746992999</v>
+        <v>70.1493818586233</v>
       </c>
     </row>
     <row r="340">
@@ -20499,7 +20499,7 @@
         <v>25.77777777777778</v>
       </c>
       <c r="H340" t="n">
-        <v>70.40000000000001</v>
+        <v>21.33333333333334</v>
       </c>
       <c r="I340" t="n">
         <v>100.66</v>
@@ -20528,7 +20528,7 @@
       </c>
       <c r="R340" t="inlineStr"/>
       <c r="S340" t="n">
-        <v>969.3025239524962</v>
+        <v>76.47920929625033</v>
       </c>
     </row>
     <row r="341">
@@ -20558,7 +20558,7 @@
         <v>25.22222222222222</v>
       </c>
       <c r="H341" t="n">
-        <v>68.2</v>
+        <v>20.11111111111111</v>
       </c>
       <c r="I341" t="n">
         <v>101.11</v>
@@ -20587,7 +20587,7 @@
       </c>
       <c r="R341" t="inlineStr"/>
       <c r="S341" t="n">
-        <v>909.4729438045492</v>
+        <v>73.31212351140336</v>
       </c>
     </row>
     <row r="342">
@@ -20617,7 +20617,7 @@
         <v>24.22222222222222</v>
       </c>
       <c r="H342" t="n">
-        <v>61.9</v>
+        <v>16.61111111111111</v>
       </c>
       <c r="I342" t="n">
         <v>101.45</v>
@@ -20646,7 +20646,7 @@
       </c>
       <c r="R342" t="inlineStr"/>
       <c r="S342" t="n">
-        <v>726.2667479633545</v>
+        <v>62.48382921163974</v>
       </c>
     </row>
     <row r="343">
@@ -20676,7 +20676,7 @@
         <v>26.61111111111111</v>
       </c>
       <c r="H343" t="n">
-        <v>69</v>
+        <v>20.55555555555556</v>
       </c>
       <c r="I343" t="n">
         <v>101.29</v>
@@ -20705,7 +20705,7 @@
       </c>
       <c r="R343" t="inlineStr"/>
       <c r="S343" t="n">
-        <v>867.7235693513106</v>
+        <v>69.3987210642841</v>
       </c>
     </row>
     <row r="344">
@@ -20735,7 +20735,7 @@
         <v>27.44444444444445</v>
       </c>
       <c r="H344" t="n">
-        <v>73.8</v>
+        <v>23.22222222222222</v>
       </c>
       <c r="I344" t="n">
         <v>100.43</v>
@@ -20764,7 +20764,7 @@
       </c>
       <c r="R344" t="inlineStr"/>
       <c r="S344" t="n">
-        <v>1017.561983332366</v>
+        <v>77.77238850929635</v>
       </c>
     </row>
     <row r="345">
@@ -20794,7 +20794,7 @@
         <v>24.38888888888889</v>
       </c>
       <c r="H345" t="n">
-        <v>68.90000000000001</v>
+        <v>20.5</v>
       </c>
       <c r="I345" t="n">
         <v>101.45</v>
@@ -20823,7 +20823,7 @@
       </c>
       <c r="R345" t="inlineStr"/>
       <c r="S345" t="n">
-        <v>985.9476946355818</v>
+        <v>78.93122444960768</v>
       </c>
     </row>
     <row r="346">
@@ -20853,7 +20853,7 @@
         <v>27.33333333333334</v>
       </c>
       <c r="H346" t="n">
-        <v>74.90000000000001</v>
+        <v>23.83333333333334</v>
       </c>
       <c r="I346" t="n">
         <v>100.98</v>
@@ -20882,7 +20882,7 @@
       </c>
       <c r="R346" t="inlineStr"/>
       <c r="S346" t="n">
-        <v>1073.33631769232</v>
+        <v>81.2212873156388</v>
       </c>
     </row>
     <row r="347">
@@ -20912,7 +20912,7 @@
         <v>24.77777777777778</v>
       </c>
       <c r="H347" t="n">
-        <v>68.5</v>
+        <v>20.27777777777778</v>
       </c>
       <c r="I347" t="n">
         <v>101.25</v>
@@ -20941,7 +20941,7 @@
       </c>
       <c r="R347" t="inlineStr"/>
       <c r="S347" t="n">
-        <v>946.3984782363272</v>
+        <v>76.0631941648892</v>
       </c>
     </row>
     <row r="348">
@@ -20971,7 +20971,7 @@
         <v>24.77777777777778</v>
       </c>
       <c r="H348" t="n">
-        <v>65.2</v>
+        <v>18.44444444444445</v>
       </c>
       <c r="I348" t="n">
         <v>101.51</v>
@@ -21000,7 +21000,7 @@
       </c>
       <c r="R348" t="inlineStr"/>
       <c r="S348" t="n">
-        <v>816.6765242977299</v>
+        <v>67.85685400235128</v>
       </c>
     </row>
     <row r="349">
@@ -21030,7 +21030,7 @@
         <v>26.11111111111111</v>
       </c>
       <c r="H349" t="n">
-        <v>70.7</v>
+        <v>21.5</v>
       </c>
       <c r="I349" t="n">
         <v>101.58</v>
@@ -21059,7 +21059,7 @@
       </c>
       <c r="R349" t="inlineStr"/>
       <c r="S349" t="n">
-        <v>962.8613188951949</v>
+        <v>75.75329753319973</v>
       </c>
     </row>
     <row r="350">
@@ -21089,7 +21089,7 @@
         <v>28.33333333333334</v>
       </c>
       <c r="H350" t="n">
-        <v>74.09999999999999</v>
+        <v>23.38888888888889</v>
       </c>
       <c r="I350" t="n">
         <v>101.56</v>
@@ -21118,7 +21118,7 @@
       </c>
       <c r="R350" t="inlineStr"/>
       <c r="S350" t="n">
-        <v>978.5244304229261</v>
+        <v>74.5844828359336</v>
       </c>
     </row>
     <row r="351">
@@ -21148,7 +21148,7 @@
         <v>28.55555555555556</v>
       </c>
       <c r="H351" t="n">
-        <v>73.59999999999999</v>
+        <v>23.11111111111111</v>
       </c>
       <c r="I351" t="n">
         <v>101.13</v>
@@ -21177,7 +21177,7 @@
       </c>
       <c r="R351" t="inlineStr"/>
       <c r="S351" t="n">
-        <v>945.5393129345168</v>
+        <v>72.40003881334628</v>
       </c>
     </row>
     <row r="352">
@@ -21207,7 +21207,7 @@
         <v>26.22222222222222</v>
       </c>
       <c r="H352" t="n">
-        <v>73.7</v>
+        <v>23.16666666666667</v>
       </c>
       <c r="I352" t="n">
         <v>100.59</v>
@@ -21236,7 +21236,7 @@
       </c>
       <c r="R352" t="inlineStr"/>
       <c r="S352" t="n">
-        <v>1088.819614333592</v>
+        <v>83.29473305841705</v>
       </c>
     </row>
     <row r="353">
@@ -21266,7 +21266,7 @@
         <v>21.27777777777778</v>
       </c>
       <c r="H353" t="n">
-        <v>62.1</v>
+        <v>16.72222222222222</v>
       </c>
       <c r="I353" t="n">
         <v>101.42</v>
@@ -21295,7 +21295,7 @@
       </c>
       <c r="R353" t="inlineStr"/>
       <c r="S353" t="n">
-        <v>876.4306091844857</v>
+        <v>75.24057933468855</v>
       </c>
     </row>
     <row r="354">
@@ -21325,7 +21325,7 @@
         <v>23.22222222222222</v>
       </c>
       <c r="H354" t="n">
-        <v>63.3</v>
+        <v>17.38888888888889</v>
       </c>
       <c r="I354" t="n">
         <v>101.46</v>
@@ -21354,7 +21354,7 @@
       </c>
       <c r="R354" t="inlineStr"/>
       <c r="S354" t="n">
-        <v>822.5930208712792</v>
+        <v>69.71931132985691</v>
       </c>
     </row>
     <row r="355">
@@ -21384,7 +21384,7 @@
         <v>22.05555555555556</v>
       </c>
       <c r="H355" t="n">
-        <v>69</v>
+        <v>20.55555555555556</v>
       </c>
       <c r="I355" t="n">
         <v>101.13</v>
@@ -21413,7 +21413,7 @@
       </c>
       <c r="R355" t="inlineStr"/>
       <c r="S355" t="n">
-        <v>1140.400797416381</v>
+        <v>91.20687697874976</v>
       </c>
     </row>
     <row r="356">
@@ -21443,7 +21443,7 @@
         <v>21.83333333333333</v>
       </c>
       <c r="H356" t="n">
-        <v>67.7</v>
+        <v>19.83333333333334</v>
       </c>
       <c r="I356" t="n">
         <v>101.23</v>
@@ -21472,7 +21472,7 @@
       </c>
       <c r="R356" t="inlineStr"/>
       <c r="S356" t="n">
-        <v>1091.369766274506</v>
+        <v>88.41226477854501</v>
       </c>
     </row>
     <row r="357">
@@ -21502,7 +21502,7 @@
         <v>26.83333333333333</v>
       </c>
       <c r="H357" t="n">
-        <v>73.3</v>
+        <v>22.94444444444444</v>
       </c>
       <c r="I357" t="n">
         <v>100.98</v>
@@ -21531,7 +21531,7 @@
       </c>
       <c r="R357" t="inlineStr"/>
       <c r="S357" t="n">
-        <v>1032.420677570002</v>
+        <v>79.27059128157059</v>
       </c>
     </row>
     <row r="358">
@@ -21561,7 +21561,7 @@
         <v>28.55555555555556</v>
       </c>
       <c r="H358" t="n">
-        <v>75.2</v>
+        <v>24</v>
       </c>
       <c r="I358" t="n">
         <v>100.95</v>
@@ -21590,7 +21590,7 @@
       </c>
       <c r="R358" t="inlineStr"/>
       <c r="S358" t="n">
-        <v>1012.194339667846</v>
+        <v>76.38860392280591</v>
       </c>
     </row>
     <row r="359">
@@ -21620,7 +21620,7 @@
         <v>28.11111111111111</v>
       </c>
       <c r="H359" t="n">
-        <v>75.90000000000001</v>
+        <v>24.38888888888889</v>
       </c>
       <c r="I359" t="n">
         <v>100.63</v>
@@ -21649,7 +21649,7 @@
       </c>
       <c r="R359" t="inlineStr"/>
       <c r="S359" t="n">
-        <v>1069.92406226069</v>
+        <v>80.24322314957395</v>
       </c>
     </row>
     <row r="360">
@@ -21679,7 +21679,7 @@
         <v>23</v>
       </c>
       <c r="H360" t="n">
-        <v>69.5</v>
+        <v>20.83333333333334</v>
       </c>
       <c r="I360" t="n">
         <v>101.17</v>
@@ -21708,7 +21708,7 @@
       </c>
       <c r="R360" t="inlineStr"/>
       <c r="S360" t="n">
-        <v>1100.709133932112</v>
+        <v>87.60464691602586</v>
       </c>
     </row>
     <row r="361">
@@ -21738,7 +21738,7 @@
         <v>25.44444444444444</v>
       </c>
       <c r="H361" t="n">
-        <v>74.3</v>
+        <v>23.5</v>
       </c>
       <c r="I361" t="n">
         <v>101.27</v>
@@ -21767,7 +21767,7 @@
       </c>
       <c r="R361" t="inlineStr"/>
       <c r="S361" t="n">
-        <v>1169.804462017159</v>
+        <v>89.00226261914685</v>
       </c>
     </row>
     <row r="362">
@@ -21797,7 +21797,7 @@
         <v>25.66666666666667</v>
       </c>
       <c r="H362" t="n">
-        <v>68.90000000000001</v>
+        <v>20.5</v>
       </c>
       <c r="I362" t="n">
         <v>101.14</v>
@@ -21826,7 +21826,7 @@
       </c>
       <c r="R362" t="inlineStr"/>
       <c r="S362" t="n">
-        <v>913.5678891630787</v>
+        <v>73.13677236817077</v>
       </c>
     </row>
     <row r="363">
@@ -21856,7 +21856,7 @@
         <v>28.88888888888889</v>
       </c>
       <c r="H363" t="n">
-        <v>74.59999999999999</v>
+        <v>23.66666666666666</v>
       </c>
       <c r="I363" t="n">
         <v>100.85</v>
@@ -21885,7 +21885,7 @@
       </c>
       <c r="R363" t="inlineStr"/>
       <c r="S363" t="n">
-        <v>967.8307009290313</v>
+        <v>73.43579493600069</v>
       </c>
     </row>
     <row r="364">
@@ -21915,7 +21915,7 @@
         <v>29.77777777777778</v>
       </c>
       <c r="H364" t="n">
-        <v>72.40000000000001</v>
+        <v>22.44444444444445</v>
       </c>
       <c r="I364" t="n">
         <v>99.59999999999999</v>
@@ -21944,7 +21944,7 @@
       </c>
       <c r="R364" t="inlineStr"/>
       <c r="S364" t="n">
-        <v>836.711265548832</v>
+        <v>64.78138481070278</v>
       </c>
     </row>
     <row r="365">
@@ -21974,7 +21974,7 @@
         <v>29</v>
       </c>
       <c r="H365" t="n">
-        <v>76.7</v>
+        <v>24.83333333333334</v>
       </c>
       <c r="I365" t="n">
         <v>100.97</v>
@@ -22003,7 +22003,7 @@
       </c>
       <c r="R365" t="inlineStr"/>
       <c r="S365" t="n">
-        <v>1050.819748395957</v>
+        <v>78.25645033459348</v>
       </c>
     </row>
     <row r="366">
@@ -22033,7 +22033,7 @@
         <v>28</v>
       </c>
       <c r="H366" t="n">
-        <v>76.7</v>
+        <v>24.83333333333334</v>
       </c>
       <c r="I366" t="n">
         <v>101</v>
@@ -22062,7 +22062,7 @@
       </c>
       <c r="R366" t="inlineStr"/>
       <c r="S366" t="n">
-        <v>1113.743868553775</v>
+        <v>82.94252355647093</v>
       </c>
     </row>
     <row r="367">
@@ -22092,7 +22092,7 @@
         <v>29</v>
       </c>
       <c r="H367" t="n">
-        <v>77.09999999999999</v>
+        <v>25.05555555555555</v>
       </c>
       <c r="I367" t="n">
         <v>101.04</v>
@@ -22121,7 +22121,7 @@
       </c>
       <c r="R367" t="inlineStr"/>
       <c r="S367" t="n">
-        <v>1068.585537651808</v>
+        <v>79.3016968605977</v>
       </c>
     </row>
     <row r="368">
@@ -22151,7 +22151,7 @@
         <v>27.33333333333334</v>
       </c>
       <c r="H368" t="n">
-        <v>76.09999999999999</v>
+        <v>24.5</v>
       </c>
       <c r="I368" t="n">
         <v>100.77</v>
@@ -22180,7 +22180,7 @@
       </c>
       <c r="R368" t="inlineStr"/>
       <c r="S368" t="n">
-        <v>1129.200963257493</v>
+        <v>84.53907845397924</v>
       </c>
     </row>
     <row r="369">
@@ -22210,7 +22210,7 @@
         <v>29.83333333333334</v>
       </c>
       <c r="H369" t="n">
-        <v>78.09999999999999</v>
+        <v>25.61111111111111</v>
       </c>
       <c r="I369" t="n">
         <v>100.41</v>
@@ -22239,7 +22239,7 @@
       </c>
       <c r="R369" t="inlineStr"/>
       <c r="S369" t="n">
-        <v>1061.759868459425</v>
+        <v>78.11604972274124</v>
       </c>
     </row>
     <row r="370">
@@ -22269,7 +22269,7 @@
         <v>30.27777777777778</v>
       </c>
       <c r="H370" t="n">
-        <v>77.2</v>
+        <v>25.11111111111111</v>
       </c>
       <c r="I370" t="n">
         <v>100.75</v>
@@ -22298,7 +22298,7 @@
       </c>
       <c r="R370" t="inlineStr"/>
       <c r="S370" t="n">
-        <v>996.8326725549671</v>
+        <v>73.91236825144766</v>
       </c>
     </row>
     <row r="371">
@@ -22328,7 +22328,7 @@
         <v>28.72222222222222</v>
       </c>
       <c r="H371" t="n">
-        <v>76.09999999999999</v>
+        <v>24.5</v>
       </c>
       <c r="I371" t="n">
         <v>100.91</v>
@@ -22357,7 +22357,7 @@
       </c>
       <c r="R371" t="inlineStr"/>
       <c r="S371" t="n">
-        <v>1041.285214681712</v>
+        <v>77.95715317404712</v>
       </c>
     </row>
     <row r="372">
@@ -22387,7 +22387,7 @@
         <v>28.11111111111111</v>
       </c>
       <c r="H372" t="n">
-        <v>75.59999999999999</v>
+        <v>24.22222222222222</v>
       </c>
       <c r="I372" t="n">
         <v>101.05</v>
@@ -22416,7 +22416,7 @@
       </c>
       <c r="R372" t="inlineStr"/>
       <c r="S372" t="n">
-        <v>1056.459234406272</v>
+        <v>79.44489008233064</v>
       </c>
     </row>
     <row r="373">
@@ -22446,7 +22446,7 @@
         <v>29.5</v>
       </c>
       <c r="H373" t="n">
-        <v>74.90000000000001</v>
+        <v>23.83333333333334</v>
       </c>
       <c r="I373" t="n">
         <v>101.12</v>
@@ -22475,7 +22475,7 @@
       </c>
       <c r="R373" t="inlineStr"/>
       <c r="S373" t="n">
-        <v>946.188959768064</v>
+        <v>71.59981833227894</v>
       </c>
     </row>
     <row r="374">
@@ -22505,7 +22505,7 @@
         <v>30.33333333333333</v>
       </c>
       <c r="H374" t="n">
-        <v>75.8</v>
+        <v>24.33333333333333</v>
       </c>
       <c r="I374" t="n">
         <v>101.14</v>
@@ -22534,7 +22534,7 @@
       </c>
       <c r="R374" t="inlineStr"/>
       <c r="S374" t="n">
-        <v>936.8929020896401</v>
+        <v>70.32840194195714</v>
       </c>
     </row>
     <row r="375">
@@ -22564,7 +22564,7 @@
         <v>26.83333333333333</v>
       </c>
       <c r="H375" t="n">
-        <v>74.09999999999999</v>
+        <v>23.38888888888889</v>
       </c>
       <c r="I375" t="n">
         <v>101.19</v>
@@ -22593,7 +22593,7 @@
       </c>
       <c r="R375" t="inlineStr"/>
       <c r="S375" t="n">
-        <v>1068.351439805395</v>
+        <v>81.43122148771596</v>
       </c>
     </row>
     <row r="376">
@@ -22623,7 +22623,7 @@
         <v>27.05555555555556</v>
       </c>
       <c r="H376" t="n">
-        <v>76.8</v>
+        <v>24.88888888888889</v>
       </c>
       <c r="I376" t="n">
         <v>100.85</v>
@@ -22652,7 +22652,7 @@
       </c>
       <c r="R376" t="inlineStr"/>
       <c r="S376" t="n">
-        <v>1182.041325566025</v>
+        <v>87.9516691582952</v>
       </c>
     </row>
     <row r="377">
@@ -22682,7 +22682,7 @@
         <v>29.22222222222222</v>
       </c>
       <c r="H377" t="n">
-        <v>76.90000000000001</v>
+        <v>24.94444444444445</v>
       </c>
       <c r="I377" t="n">
         <v>100.96</v>
@@ -22711,7 +22711,7 @@
       </c>
       <c r="R377" t="inlineStr"/>
       <c r="S377" t="n">
-        <v>1046.124796218818</v>
+        <v>77.7705140734779</v>
       </c>
     </row>
     <row r="378">
@@ -22741,7 +22741,7 @@
         <v>30.22222222222222</v>
       </c>
       <c r="H378" t="n">
-        <v>78.40000000000001</v>
+        <v>25.77777777777778</v>
       </c>
       <c r="I378" t="n">
         <v>101.1</v>
@@ -22770,7 +22770,7 @@
       </c>
       <c r="R378" t="inlineStr"/>
       <c r="S378" t="n">
-        <v>1051.304721753005</v>
+        <v>77.1480965657135</v>
       </c>
     </row>
     <row r="379">
@@ -22800,7 +22800,7 @@
         <v>29.5</v>
       </c>
       <c r="H379" t="n">
-        <v>76.5</v>
+        <v>24.72222222222222</v>
       </c>
       <c r="I379" t="n">
         <v>100.62</v>
@@ -22829,7 +22829,7 @@
       </c>
       <c r="R379" t="inlineStr"/>
       <c r="S379" t="n">
-        <v>1012.329061513177</v>
+        <v>75.52247844342567</v>
       </c>
     </row>
     <row r="380">
@@ -22859,7 +22859,7 @@
         <v>29.72222222222222</v>
       </c>
       <c r="H380" t="n">
-        <v>73.90000000000001</v>
+        <v>23.27777777777778</v>
       </c>
       <c r="I380" t="n">
         <v>100.73</v>
@@ -22888,7 +22888,7 @@
       </c>
       <c r="R380" t="inlineStr"/>
       <c r="S380" t="n">
-        <v>895.2012012048039</v>
+        <v>68.35790450804005</v>
       </c>
     </row>
     <row r="381">
@@ -22918,7 +22918,7 @@
         <v>30.22222222222222</v>
       </c>
       <c r="H381" t="n">
-        <v>75.59999999999999</v>
+        <v>24.22222222222222</v>
       </c>
       <c r="I381" t="n">
         <v>100.78</v>
@@ -22947,7 +22947,7 @@
       </c>
       <c r="R381" t="inlineStr"/>
       <c r="S381" t="n">
-        <v>934.9577812458764</v>
+        <v>70.30807791125257</v>
       </c>
     </row>
     <row r="382">
@@ -22977,7 +22977,7 @@
         <v>30.05555555555555</v>
       </c>
       <c r="H382" t="n">
-        <v>77.90000000000001</v>
+        <v>25.5</v>
       </c>
       <c r="I382" t="n">
         <v>100.87</v>
@@ -23006,7 +23006,7 @@
       </c>
       <c r="R382" t="inlineStr"/>
       <c r="S382" t="n">
-        <v>1039.578078075679</v>
+        <v>76.6158542661217</v>
       </c>
     </row>
     <row r="383">
@@ -23036,7 +23036,7 @@
         <v>29.5</v>
       </c>
       <c r="H383" t="n">
-        <v>76.90000000000001</v>
+        <v>24.94444444444445</v>
       </c>
       <c r="I383" t="n">
         <v>100.84</v>
@@ -23065,7 +23065,7 @@
       </c>
       <c r="R383" t="inlineStr"/>
       <c r="S383" t="n">
-        <v>1029.46567125202</v>
+        <v>76.53204929626864</v>
       </c>
     </row>
     <row r="384">
@@ -23095,7 +23095,7 @@
         <v>30.55555555555556</v>
       </c>
       <c r="H384" t="n">
-        <v>75.90000000000001</v>
+        <v>24.38888888888889</v>
       </c>
       <c r="I384" t="n">
         <v>100.89</v>
@@ -23124,7 +23124,7 @@
       </c>
       <c r="R384" t="inlineStr"/>
       <c r="S384" t="n">
-        <v>928.9427024623342</v>
+        <v>69.6697636740234</v>
       </c>
     </row>
     <row r="385">
@@ -23154,7 +23154,7 @@
         <v>29.55555555555556</v>
       </c>
       <c r="H385" t="n">
-        <v>76.59999999999999</v>
+        <v>24.77777777777778</v>
       </c>
       <c r="I385" t="n">
         <v>100.99</v>
@@ -23183,7 +23183,7 @@
       </c>
       <c r="R385" t="inlineStr"/>
       <c r="S385" t="n">
-        <v>1013.335670400987</v>
+        <v>75.53118241154692</v>
       </c>
     </row>
     <row r="386">
@@ -23213,7 +23213,7 @@
         <v>29.77777777777778</v>
       </c>
       <c r="H386" t="n">
-        <v>75.40000000000001</v>
+        <v>24.11111111111111</v>
       </c>
       <c r="I386" t="n">
         <v>100.72</v>
@@ -23242,7 +23242,7 @@
       </c>
       <c r="R386" t="inlineStr"/>
       <c r="S386" t="n">
-        <v>951.0908396132426</v>
+        <v>71.64895235475018</v>
       </c>
     </row>
     <row r="387">
@@ -23272,7 +23272,7 @@
         <v>27.83333333333333</v>
       </c>
       <c r="H387" t="n">
-        <v>76.59999999999999</v>
+        <v>24.77777777777778</v>
       </c>
       <c r="I387" t="n">
         <v>100.3</v>
@@ -23301,7 +23301,7 @@
       </c>
       <c r="R387" t="inlineStr"/>
       <c r="S387" t="n">
-        <v>1119.927303963422</v>
+        <v>83.47622209909999</v>
       </c>
     </row>
     <row r="388">
@@ -23331,7 +23331,7 @@
         <v>30.44444444444444</v>
       </c>
       <c r="H388" t="n">
-        <v>77.5</v>
+        <v>25.27777777777778</v>
       </c>
       <c r="I388" t="n">
         <v>100.62</v>
@@ -23360,7 +23360,7 @@
       </c>
       <c r="R388" t="inlineStr"/>
       <c r="S388" t="n">
-        <v>999.8049267364845</v>
+        <v>73.939812960716</v>
       </c>
     </row>
     <row r="389">
@@ -23390,7 +23390,7 @@
         <v>28.77777777777778</v>
       </c>
       <c r="H389" t="n">
-        <v>77.3</v>
+        <v>25.16666666666667</v>
       </c>
       <c r="I389" t="n">
         <v>100.96</v>
@@ -23419,7 +23419,7 @@
       </c>
       <c r="R389" t="inlineStr"/>
       <c r="S389" t="n">
-        <v>1091.540042297602</v>
+        <v>80.8642809849547</v>
       </c>
     </row>
     <row r="390">
@@ -23449,7 +23449,7 @@
         <v>29.38888888888889</v>
       </c>
       <c r="H390" t="n">
-        <v>74.90000000000001</v>
+        <v>23.83333333333334</v>
       </c>
       <c r="I390" t="n">
         <v>101.14</v>
@@ -23478,7 +23478,7 @@
       </c>
       <c r="R390" t="inlineStr"/>
       <c r="S390" t="n">
-        <v>952.2803525019185</v>
+        <v>72.06076496310992</v>
       </c>
     </row>
     <row r="391">
@@ -23508,7 +23508,7 @@
         <v>29.77777777777778</v>
       </c>
       <c r="H391" t="n">
-        <v>74.90000000000001</v>
+        <v>23.83333333333334</v>
       </c>
       <c r="I391" t="n">
         <v>101.19</v>
@@ -23537,7 +23537,7 @@
       </c>
       <c r="R391" t="inlineStr"/>
       <c r="S391" t="n">
-        <v>931.1516604960859</v>
+        <v>70.46191888316081</v>
       </c>
     </row>
     <row r="392">
@@ -23567,7 +23567,7 @@
         <v>30.72222222222222</v>
       </c>
       <c r="H392" t="n">
-        <v>77</v>
+        <v>25</v>
       </c>
       <c r="I392" t="n">
         <v>101.01</v>
@@ -23596,7 +23596,7 @@
       </c>
       <c r="R392" t="inlineStr"/>
       <c r="S392" t="n">
-        <v>963.6608182064183</v>
+        <v>71.57745661091589</v>
       </c>
     </row>
     <row r="393">
@@ -23626,7 +23626,7 @@
         <v>29.77777777777778</v>
       </c>
       <c r="H393" t="n">
-        <v>76.09999999999999</v>
+        <v>24.5</v>
       </c>
       <c r="I393" t="n">
         <v>100.72</v>
@@ -23655,7 +23655,7 @@
       </c>
       <c r="R393" t="inlineStr"/>
       <c r="S393" t="n">
-        <v>979.6159271230424</v>
+        <v>73.34020286248899</v>
       </c>
     </row>
     <row r="394">
@@ -23685,7 +23685,7 @@
         <v>29.33333333333333</v>
       </c>
       <c r="H394" t="n">
-        <v>75.5</v>
+        <v>24.16666666666667</v>
       </c>
       <c r="I394" t="n">
         <v>100.51</v>
@@ -23714,7 +23714,7 @@
       </c>
       <c r="R394" t="inlineStr"/>
       <c r="S394" t="n">
-        <v>979.9357001646958</v>
+        <v>73.75608229680417</v>
       </c>
     </row>
     <row r="395">
@@ -23744,7 +23744,7 @@
         <v>27.33333333333334</v>
       </c>
       <c r="H395" t="n">
-        <v>76.3</v>
+        <v>24.61111111111111</v>
       </c>
       <c r="I395" t="n">
         <v>100.74</v>
@@ -23773,7 +23773,7 @@
       </c>
       <c r="R395" t="inlineStr"/>
       <c r="S395" t="n">
-        <v>1138.748273805052</v>
+        <v>85.10342578593979</v>
       </c>
     </row>
     <row r="396">
@@ -23803,7 +23803,7 @@
         <v>28.44444444444445</v>
       </c>
       <c r="H396" t="n">
-        <v>76.7</v>
+        <v>24.83333333333334</v>
       </c>
       <c r="I396" t="n">
         <v>100.81</v>
@@ -23832,7 +23832,7 @@
       </c>
       <c r="R396" t="inlineStr"/>
       <c r="S396" t="n">
-        <v>1085.268045744702</v>
+        <v>80.82187744490273</v>
       </c>
     </row>
     <row r="397">
@@ -23862,7 +23862,7 @@
         <v>28.22222222222222</v>
       </c>
       <c r="H397" t="n">
-        <v>74.2</v>
+        <v>23.44444444444445</v>
       </c>
       <c r="I397" t="n">
         <v>100.54</v>
@@ -23891,7 +23891,7 @@
       </c>
       <c r="R397" t="inlineStr"/>
       <c r="S397" t="n">
-        <v>989.0870569204889</v>
+        <v>75.32107869086596</v>
       </c>
     </row>
     <row r="398">
@@ -23921,7 +23921,7 @@
         <v>28.66666666666666</v>
       </c>
       <c r="H398" t="n">
-        <v>74</v>
+        <v>23.33333333333334</v>
       </c>
       <c r="I398" t="n">
         <v>100.17</v>
@@ -23950,7 +23950,7 @@
       </c>
       <c r="R398" t="inlineStr"/>
       <c r="S398" t="n">
-        <v>955.65157254352</v>
+        <v>72.90742265239616</v>
       </c>
     </row>
     <row r="399">
@@ -23980,7 +23980,7 @@
         <v>30.5</v>
       </c>
       <c r="H399" t="n">
-        <v>76.3</v>
+        <v>24.61111111111111</v>
       </c>
       <c r="I399" t="n">
         <v>99.67</v>
@@ -24009,7 +24009,7 @@
       </c>
       <c r="R399" t="inlineStr"/>
       <c r="S399" t="n">
-        <v>947.7394697456295</v>
+        <v>70.82853821450531</v>
       </c>
     </row>
     <row r="400">
@@ -24039,7 +24039,7 @@
         <v>35.22222222222223</v>
       </c>
       <c r="H400" t="n">
-        <v>69.3</v>
+        <v>20.72222222222222</v>
       </c>
       <c r="I400" t="n">
         <v>99.40000000000001</v>
@@ -24068,7 +24068,7 @@
       </c>
       <c r="R400" t="inlineStr"/>
       <c r="S400" t="n">
-        <v>537.5099717477115</v>
+        <v>42.8632907913075</v>
       </c>
     </row>
     <row r="401">
@@ -24098,7 +24098,7 @@
         <v>30.22222222222222</v>
       </c>
       <c r="H401" t="n">
-        <v>74.8</v>
+        <v>23.77777777777778</v>
       </c>
       <c r="I401" t="n">
         <v>99.82000000000001</v>
@@ -24127,7 +24127,7 @@
       </c>
       <c r="R401" t="inlineStr"/>
       <c r="S401" t="n">
-        <v>903.8036329347145</v>
+        <v>68.45403076728141</v>
       </c>
     </row>
     <row r="402">
@@ -24157,7 +24157,7 @@
         <v>27.55555555555555</v>
       </c>
       <c r="H402" t="n">
-        <v>73.40000000000001</v>
+        <v>23</v>
       </c>
       <c r="I402" t="n">
         <v>100</v>
@@ -24186,7 +24186,7 @@
       </c>
       <c r="R402" t="inlineStr"/>
       <c r="S402" t="n">
-        <v>993.8031954065979</v>
+        <v>76.23536712482294</v>
       </c>
     </row>
     <row r="403">
@@ -24216,7 +24216,7 @@
         <v>29.16666666666667</v>
       </c>
       <c r="H403" t="n">
-        <v>72.5</v>
+        <v>22.5</v>
       </c>
       <c r="I403" t="n">
         <v>99.84999999999999</v>
@@ -24245,7 +24245,7 @@
       </c>
       <c r="R403" t="inlineStr"/>
       <c r="S403" t="n">
-        <v>870.5077257637754</v>
+        <v>67.33530437985257</v>
       </c>
     </row>
     <row r="404">
@@ -24275,7 +24275,7 @@
         <v>30.77777777777778</v>
       </c>
       <c r="H404" t="n">
-        <v>73.90000000000001</v>
+        <v>23.27777777777778</v>
       </c>
       <c r="I404" t="n">
         <v>99.94</v>
@@ -24304,7 +24304,7 @@
       </c>
       <c r="R404" t="inlineStr"/>
       <c r="S404" t="n">
-        <v>842.5586613850757</v>
+        <v>64.33810012751128</v>
       </c>
     </row>
     <row r="405">
@@ -24334,7 +24334,7 @@
         <v>28.5</v>
       </c>
       <c r="H405" t="n">
-        <v>77.8</v>
+        <v>25.44444444444444</v>
       </c>
       <c r="I405" t="n">
         <v>100.36</v>
@@ -24363,7 +24363,7 @@
       </c>
       <c r="R405" t="inlineStr"/>
       <c r="S405" t="n">
-        <v>1132.694705713246</v>
+        <v>83.55048777112953</v>
       </c>
     </row>
     <row r="406">
@@ -24393,7 +24393,7 @@
         <v>28.83333333333334</v>
       </c>
       <c r="H406" t="n">
-        <v>77.7</v>
+        <v>25.38888888888889</v>
       </c>
       <c r="I406" t="n">
         <v>100.48</v>
@@ -24422,7 +24422,7 @@
       </c>
       <c r="R406" t="inlineStr"/>
       <c r="S406" t="n">
-        <v>1106.352507215928</v>
+        <v>81.67793716446418</v>
       </c>
     </row>
     <row r="407">
@@ -24452,7 +24452,7 @@
         <v>29</v>
       </c>
       <c r="H407" t="n">
-        <v>77.40000000000001</v>
+        <v>25.22222222222222</v>
       </c>
       <c r="I407" t="n">
         <v>100.42</v>
@@ -24481,7 +24481,7 @@
       </c>
       <c r="R407" t="inlineStr"/>
       <c r="S407" t="n">
-        <v>1082.077033966325</v>
+        <v>80.0936300732463</v>
       </c>
     </row>
     <row r="408">
@@ -24511,7 +24511,7 @@
         <v>30</v>
       </c>
       <c r="H408" t="n">
-        <v>77.5</v>
+        <v>25.27777777777778</v>
       </c>
       <c r="I408" t="n">
         <v>100.47</v>
@@ -24540,7 +24540,7 @@
       </c>
       <c r="R408" t="inlineStr"/>
       <c r="S408" t="n">
-        <v>1025.651471686394</v>
+        <v>75.85127453504046</v>
       </c>
     </row>
     <row r="409">
@@ -24570,7 +24570,7 @@
         <v>29.5</v>
       </c>
       <c r="H409" t="n">
-        <v>76.5</v>
+        <v>24.72222222222222</v>
       </c>
       <c r="I409" t="n">
         <v>100.53</v>
@@ -24599,7 +24599,7 @@
       </c>
       <c r="R409" t="inlineStr"/>
       <c r="S409" t="n">
-        <v>1012.329061513177</v>
+        <v>75.52247844342567</v>
       </c>
     </row>
     <row r="410">
@@ -24629,7 +24629,7 @@
         <v>27.33333333333334</v>
       </c>
       <c r="H410" t="n">
-        <v>75.8</v>
+        <v>24.33333333333333</v>
       </c>
       <c r="I410" t="n">
         <v>100.62</v>
@@ -24658,7 +24658,7 @@
       </c>
       <c r="R410" t="inlineStr"/>
       <c r="S410" t="n">
-        <v>1115.007821101828</v>
+        <v>83.6987002847124</v>
       </c>
     </row>
     <row r="411">
@@ -24688,7 +24688,7 @@
         <v>29.05555555555555</v>
       </c>
       <c r="H411" t="n">
-        <v>77</v>
+        <v>25</v>
       </c>
       <c r="I411" t="n">
         <v>100.77</v>
@@ -24717,7 +24717,7 @@
       </c>
       <c r="R411" t="inlineStr"/>
       <c r="S411" t="n">
-        <v>1060.701032032269</v>
+        <v>78.78527451053915</v>
       </c>
     </row>
     <row r="412">
@@ -24747,7 +24747,7 @@
         <v>30.44444444444444</v>
       </c>
       <c r="H412" t="n">
-        <v>77.3</v>
+        <v>25.16666666666667</v>
       </c>
       <c r="I412" t="n">
         <v>100.58</v>
@@ -24776,7 +24776,7 @@
       </c>
       <c r="R412" t="inlineStr"/>
       <c r="S412" t="n">
-        <v>991.4848361109133</v>
+        <v>73.4519168081378</v>
       </c>
     </row>
     <row r="413">
@@ -24806,7 +24806,7 @@
         <v>30.27777777777778</v>
       </c>
       <c r="H413" t="n">
-        <v>77.59999999999999</v>
+        <v>25.33333333333333</v>
       </c>
       <c r="I413" t="n">
         <v>100.56</v>
@@ -24835,7 +24835,7 @@
       </c>
       <c r="R413" t="inlineStr"/>
       <c r="S413" t="n">
-        <v>1013.632806980191</v>
+        <v>74.89753878974156</v>
       </c>
     </row>
     <row r="414">
@@ -24865,7 +24865,7 @@
         <v>29.61111111111111</v>
       </c>
       <c r="H414" t="n">
-        <v>76.5</v>
+        <v>24.72222222222222</v>
       </c>
       <c r="I414" t="n">
         <v>100.37</v>
@@ -24894,7 +24894,7 @@
       </c>
       <c r="R414" t="inlineStr"/>
       <c r="S414" t="n">
-        <v>1005.858810968517</v>
+        <v>75.03978030123038</v>
       </c>
     </row>
     <row r="415">
@@ -24924,7 +24924,7 @@
         <v>30.11111111111111</v>
       </c>
       <c r="H415" t="n">
-        <v>75.3</v>
+        <v>24.05555555555555</v>
       </c>
       <c r="I415" t="n">
         <v>100.34</v>
@@ -24953,7 +24953,7 @@
       </c>
       <c r="R415" t="inlineStr"/>
       <c r="S415" t="n">
-        <v>929.0812482849424</v>
+        <v>70.05347387401147</v>
       </c>
     </row>
     <row r="416">
@@ -24983,7 +24983,7 @@
         <v>26.11111111111111</v>
       </c>
       <c r="H416" t="n">
-        <v>75.8</v>
+        <v>24.33333333333333</v>
       </c>
       <c r="I416" t="n">
         <v>100.32</v>
@@ -25012,7 +25012,7 @@
       </c>
       <c r="R416" t="inlineStr"/>
       <c r="S416" t="n">
-        <v>1198.271622810656</v>
+        <v>89.94894521743963</v>
       </c>
     </row>
     <row r="417">
@@ -25042,7 +25042,7 @@
         <v>26.5</v>
       </c>
       <c r="H417" t="n">
-        <v>76.90000000000001</v>
+        <v>24.94444444444445</v>
       </c>
       <c r="I417" t="n">
         <v>99.26000000000001</v>
@@ -25071,7 +25071,7 @@
       </c>
       <c r="R417" t="inlineStr"/>
       <c r="S417" t="n">
-        <v>1226.491590853788</v>
+        <v>91.17925688432403</v>
       </c>
     </row>
     <row r="418">
@@ -25101,7 +25101,7 @@
         <v>27.61111111111111</v>
       </c>
       <c r="H418" t="n">
-        <v>78.2</v>
+        <v>25.66666666666667</v>
       </c>
       <c r="I418" t="n">
         <v>100.05</v>
@@ -25130,7 +25130,7 @@
       </c>
       <c r="R418" t="inlineStr"/>
       <c r="S418" t="n">
-        <v>1213.021466966833</v>
+        <v>89.16809067297014</v>
       </c>
     </row>
     <row r="419">
@@ -25160,7 +25160,7 @@
         <v>28.22222222222222</v>
       </c>
       <c r="H419" t="n">
-        <v>77.7</v>
+        <v>25.38888888888889</v>
       </c>
       <c r="I419" t="n">
         <v>100.86</v>
@@ -25189,7 +25189,7 @@
       </c>
       <c r="R419" t="inlineStr"/>
       <c r="S419" t="n">
-        <v>1146.371113709477</v>
+        <v>84.63236371953646</v>
       </c>
     </row>
     <row r="420">
@@ -25219,7 +25219,7 @@
         <v>25.94444444444445</v>
       </c>
       <c r="H420" t="n">
-        <v>71.7</v>
+        <v>22.05555555555556</v>
       </c>
       <c r="I420" t="n">
         <v>100.88</v>
@@ -25248,7 +25248,7 @@
       </c>
       <c r="R420" t="inlineStr"/>
       <c r="S420" t="n">
-        <v>1015.591103833389</v>
+        <v>79.14809336369359</v>
       </c>
     </row>
     <row r="421">
@@ -25278,7 +25278,7 @@
         <v>28.27777777777778</v>
       </c>
       <c r="H421" t="n">
-        <v>71.3</v>
+        <v>21.83333333333333</v>
       </c>
       <c r="I421" t="n">
         <v>100.83</v>
@@ -25307,7 +25307,7 @@
       </c>
       <c r="R421" t="inlineStr"/>
       <c r="S421" t="n">
-        <v>870.2527698491267</v>
+        <v>68.07795555096578</v>
       </c>
     </row>
     <row r="422">
@@ -25337,7 +25337,7 @@
         <v>28.77777777777778</v>
       </c>
       <c r="H422" t="n">
-        <v>75</v>
+        <v>23.88888888888889</v>
       </c>
       <c r="I422" t="n">
         <v>101.2</v>
@@ -25366,7 +25366,7 @@
       </c>
       <c r="R422" t="inlineStr"/>
       <c r="S422" t="n">
-        <v>990.7779239635008</v>
+        <v>74.90658886587724</v>
       </c>
     </row>
     <row r="423">
@@ -25396,7 +25396,7 @@
         <v>29.05555555555555</v>
       </c>
       <c r="H423" t="n">
-        <v>75.5</v>
+        <v>24.16666666666667</v>
       </c>
       <c r="I423" t="n">
         <v>101.23</v>
@@ -25425,7 +25425,7 @@
       </c>
       <c r="R423" t="inlineStr"/>
       <c r="S423" t="n">
-        <v>995.8128621841796</v>
+        <v>74.95109669249557</v>
       </c>
     </row>
     <row r="424">
@@ -25455,7 +25455,7 @@
         <v>29.22222222222222</v>
       </c>
       <c r="H424" t="n">
-        <v>75.5</v>
+        <v>24.16666666666667</v>
       </c>
       <c r="I424" t="n">
         <v>101.1</v>
@@ -25484,7 +25484,7 @@
       </c>
       <c r="R424" t="inlineStr"/>
       <c r="S424" t="n">
-        <v>986.2520845838185</v>
+        <v>74.23149284563586</v>
       </c>
     </row>
     <row r="425">
@@ -25514,7 +25514,7 @@
         <v>29.83333333333334</v>
       </c>
       <c r="H425" t="n">
-        <v>75.3</v>
+        <v>24.05555555555555</v>
       </c>
       <c r="I425" t="n">
         <v>101.09</v>
@@ -25543,7 +25543,7 @@
       </c>
       <c r="R425" t="inlineStr"/>
       <c r="S425" t="n">
-        <v>944.0482653938848</v>
+        <v>71.18199900994406</v>
       </c>
     </row>
     <row r="426">
@@ -25573,7 +25573,7 @@
         <v>28.16666666666667</v>
       </c>
       <c r="H426" t="n">
-        <v>71.40000000000001</v>
+        <v>21.88888888888889</v>
       </c>
       <c r="I426" t="n">
         <v>100.82</v>
@@ -25602,7 +25602,7 @@
       </c>
       <c r="R426" t="inlineStr"/>
       <c r="S426" t="n">
-        <v>879.7160078566501</v>
+        <v>68.75318730981081</v>
       </c>
     </row>
     <row r="427">
@@ -25632,7 +25632,7 @@
         <v>31</v>
       </c>
       <c r="H427" t="n">
-        <v>71.09999999999999</v>
+        <v>21.72222222222222</v>
       </c>
       <c r="I427" t="n">
         <v>100.49</v>
@@ -25661,7 +25661,7 @@
       </c>
       <c r="R427" t="inlineStr"/>
       <c r="S427" t="n">
-        <v>737.3727470323472</v>
+        <v>57.79249092884532</v>
       </c>
     </row>
     <row r="428">
@@ -25691,7 +25691,7 @@
         <v>29.22222222222222</v>
       </c>
       <c r="H428" t="n">
-        <v>75.90000000000001</v>
+        <v>24.38888888888889</v>
       </c>
       <c r="I428" t="n">
         <v>99.84999999999999</v>
@@ -25720,7 +25720,7 @@
       </c>
       <c r="R428" t="inlineStr"/>
       <c r="S428" t="n">
-        <v>1003.052923416431</v>
+        <v>75.22795533214769</v>
       </c>
     </row>
     <row r="429">
@@ -25750,7 +25750,7 @@
         <v>25.5</v>
       </c>
       <c r="H429" t="n">
-        <v>75.3</v>
+        <v>24.05555555555555</v>
       </c>
       <c r="I429" t="n">
         <v>100.56</v>
@@ -25779,7 +25779,7 @@
       </c>
       <c r="R429" t="inlineStr"/>
       <c r="S429" t="n">
-        <v>1216.527748860868</v>
+        <v>91.7271713632712</v>
       </c>
     </row>
     <row r="430">
@@ -25809,7 +25809,7 @@
         <v>24.94444444444445</v>
       </c>
       <c r="H430" t="n">
-        <v>72.7</v>
+        <v>22.61111111111111</v>
       </c>
       <c r="I430" t="n">
         <v>101.04</v>
@@ -25838,7 +25838,7 @@
       </c>
       <c r="R430" t="inlineStr"/>
       <c r="S430" t="n">
-        <v>1125.386969357112</v>
+        <v>86.88903363985372</v>
       </c>
     </row>
     <row r="431">
@@ -25868,7 +25868,7 @@
         <v>26.94444444444445</v>
       </c>
       <c r="H431" t="n">
-        <v>75.90000000000001</v>
+        <v>24.38888888888889</v>
       </c>
       <c r="I431" t="n">
         <v>101.37</v>
@@ -25897,7 +25897,7 @@
       </c>
       <c r="R431" t="inlineStr"/>
       <c r="S431" t="n">
-        <v>1145.595743607831</v>
+        <v>85.91852275879295</v>
       </c>
     </row>
     <row r="432">
@@ -25927,7 +25927,7 @@
         <v>26.77777777777778</v>
       </c>
       <c r="H432" t="n">
-        <v>73.40000000000001</v>
+        <v>23</v>
       </c>
       <c r="I432" t="n">
         <v>101.44</v>
@@ -25956,7 +25956,7 @@
       </c>
       <c r="R432" t="inlineStr"/>
       <c r="S432" t="n">
-        <v>1040.252556154483</v>
+        <v>79.79853142706649</v>
       </c>
     </row>
     <row r="433">
@@ -25986,7 +25986,7 @@
         <v>24.38888888888889</v>
       </c>
       <c r="H433" t="n">
-        <v>66.40000000000001</v>
+        <v>19.11111111111111</v>
       </c>
       <c r="I433" t="n">
         <v>101.48</v>
@@ -26015,7 +26015,7 @@
       </c>
       <c r="R433" t="inlineStr"/>
       <c r="S433" t="n">
-        <v>882.2680498002695</v>
+        <v>72.41265801607537</v>
       </c>
     </row>
     <row r="434">
@@ -26045,7 +26045,7 @@
         <v>24.77777777777778</v>
       </c>
       <c r="H434" t="n">
-        <v>65.3</v>
+        <v>18.5</v>
       </c>
       <c r="I434" t="n">
         <v>101.82</v>
@@ -26074,7 +26074,7 @@
       </c>
       <c r="R434" t="inlineStr"/>
       <c r="S434" t="n">
-        <v>820.3709943188638</v>
+        <v>68.09361098107988</v>
       </c>
     </row>
     <row r="435">
@@ -26104,7 +26104,7 @@
         <v>26.16666666666666</v>
       </c>
       <c r="H435" t="n">
-        <v>69.40000000000001</v>
+        <v>20.77777777777778</v>
       </c>
       <c r="I435" t="n">
         <v>101.47</v>
@@ -26133,7 +26133,7 @@
       </c>
       <c r="R435" t="inlineStr"/>
       <c r="S435" t="n">
-        <v>906.6237749250797</v>
+        <v>72.22766668776943</v>
       </c>
     </row>
     <row r="436">
@@ -26163,7 +26163,7 @@
         <v>26.72222222222222</v>
       </c>
       <c r="H436" t="n">
-        <v>69.7</v>
+        <v>20.94444444444445</v>
       </c>
       <c r="I436" t="n">
         <v>101.58</v>
@@ -26192,7 +26192,7 @@
       </c>
       <c r="R436" t="inlineStr"/>
       <c r="S436" t="n">
-        <v>888.9987261465554</v>
+        <v>70.6177176314512</v>
       </c>
     </row>
     <row r="437">
@@ -26222,7 +26222,7 @@
         <v>25.05555555555555</v>
       </c>
       <c r="H437" t="n">
-        <v>67.09999999999999</v>
+        <v>19.5</v>
       </c>
       <c r="I437" t="n">
         <v>101.9</v>
@@ -26251,7 +26251,7 @@
       </c>
       <c r="R437" t="inlineStr"/>
       <c r="S437" t="n">
-        <v>874.7301477460395</v>
+        <v>71.2886309651625</v>
       </c>
     </row>
     <row r="438">
@@ -26281,7 +26281,7 @@
         <v>25.72222222222222</v>
       </c>
       <c r="H438" t="n">
-        <v>69.90000000000001</v>
+        <v>21.05555555555556</v>
       </c>
       <c r="I438" t="n">
         <v>101.87</v>
@@ -26310,7 +26310,7 @@
       </c>
       <c r="R438" t="inlineStr"/>
       <c r="S438" t="n">
-        <v>951.4676657143215</v>
+        <v>75.43396019321615</v>
       </c>
     </row>
     <row r="439">
@@ -26340,7 +26340,7 @@
         <v>26.77777777777778</v>
       </c>
       <c r="H439" t="n">
-        <v>70.90000000000001</v>
+        <v>21.61111111111111</v>
       </c>
       <c r="I439" t="n">
         <v>101.51</v>
@@ -26369,7 +26369,7 @@
       </c>
       <c r="R439" t="inlineStr"/>
       <c r="S439" t="n">
-        <v>933.794925609417</v>
+        <v>73.32657656405586</v>
       </c>
     </row>
     <row r="440">
@@ -26399,7 +26399,7 @@
         <v>26.27777777777778</v>
       </c>
       <c r="H440" t="n">
-        <v>70.09999999999999</v>
+        <v>21.16666666666666</v>
       </c>
       <c r="I440" t="n">
         <v>101.41</v>
@@ -26428,7 +26428,7 @@
       </c>
       <c r="R440" t="inlineStr"/>
       <c r="S440" t="n">
-        <v>928.759688437632</v>
+        <v>73.49180802862803</v>
       </c>
     </row>
     <row r="441">
@@ -26458,7 +26458,7 @@
         <v>25.33333333333333</v>
       </c>
       <c r="H441" t="n">
-        <v>68.90000000000001</v>
+        <v>20.5</v>
       </c>
       <c r="I441" t="n">
         <v>101.41</v>
@@ -26487,7 +26487,7 @@
       </c>
       <c r="R441" t="inlineStr"/>
       <c r="S441" t="n">
-        <v>931.8557000441375</v>
+        <v>74.60082498799899</v>
       </c>
     </row>
     <row r="442">
@@ -26517,7 +26517,7 @@
         <v>24.27777777777778</v>
       </c>
       <c r="H442" t="n">
-        <v>67.09999999999999</v>
+        <v>19.5</v>
       </c>
       <c r="I442" t="n">
         <v>101.58</v>
@@ -26546,7 +26546,7 @@
       </c>
       <c r="R442" t="inlineStr"/>
       <c r="S442" t="n">
-        <v>916.3979563737898</v>
+        <v>74.68446800135565</v>
       </c>
     </row>
     <row r="443">
@@ -26576,7 +26576,7 @@
         <v>24.66666666666667</v>
       </c>
       <c r="H443" t="n">
-        <v>68.09999999999999</v>
+        <v>20.05555555555555</v>
       </c>
       <c r="I443" t="n">
         <v>101.68</v>
@@ -26605,7 +26605,7 @@
       </c>
       <c r="R443" t="inlineStr"/>
       <c r="S443" t="n">
-        <v>935.9911057323466</v>
+        <v>75.52442748370602</v>
       </c>
     </row>
     <row r="444">
@@ -26635,7 +26635,7 @@
         <v>25.44444444444444</v>
       </c>
       <c r="H444" t="n">
-        <v>67.5</v>
+        <v>19.72222222222222</v>
       </c>
       <c r="I444" t="n">
         <v>101.72</v>
@@ -26664,7 +26664,7 @@
       </c>
       <c r="R444" t="inlineStr"/>
       <c r="S444" t="n">
-        <v>870.0630587625536</v>
+        <v>70.62482950682148</v>
       </c>
     </row>
     <row r="445">
@@ -26694,7 +26694,7 @@
         <v>26.5</v>
       </c>
       <c r="H445" t="n">
-        <v>68.09999999999999</v>
+        <v>20.05555555555555</v>
       </c>
       <c r="I445" t="n">
         <v>101.5</v>
@@ -26723,7 +26723,7 @@
       </c>
       <c r="R445" t="inlineStr"/>
       <c r="S445" t="n">
-        <v>839.3776302828309</v>
+        <v>67.72875787119766</v>
       </c>
     </row>
     <row r="446">
@@ -26753,7 +26753,7 @@
         <v>26.5</v>
       </c>
       <c r="H446" t="n">
-        <v>68.5</v>
+        <v>20.27777777777778</v>
       </c>
       <c r="I446" t="n">
         <v>101.39</v>
@@ -26782,7 +26782,7 @@
       </c>
       <c r="R446" t="inlineStr"/>
       <c r="S446" t="n">
-        <v>854.3693223366608</v>
+        <v>68.66669922644407</v>
       </c>
     </row>
     <row r="447">
@@ -26812,7 +26812,7 @@
         <v>26.77777777777778</v>
       </c>
       <c r="H447" t="n">
-        <v>68.5</v>
+        <v>20.27777777777778</v>
       </c>
       <c r="I447" t="n">
         <v>101.44</v>
@@ -26841,7 +26841,7 @@
       </c>
       <c r="R447" t="inlineStr"/>
       <c r="S447" t="n">
-        <v>840.4904880962887</v>
+        <v>67.55124047636762</v>
       </c>
     </row>
     <row r="448">
@@ -26871,7 +26871,7 @@
         <v>26.55555555555555</v>
       </c>
       <c r="H448" t="n">
-        <v>71.7</v>
+        <v>22.05555555555556</v>
       </c>
       <c r="I448" t="n">
         <v>101.59</v>
@@ -26900,7 +26900,7 @@
       </c>
       <c r="R448" t="inlineStr"/>
       <c r="S448" t="n">
-        <v>979.5474217028984</v>
+        <v>76.33909995318871</v>
       </c>
     </row>
     <row r="449">
@@ -26930,7 +26930,7 @@
         <v>25.11111111111111</v>
       </c>
       <c r="H449" t="n">
-        <v>66.7</v>
+        <v>19.27777777777778</v>
       </c>
       <c r="I449" t="n">
         <v>101.78</v>
@@ -26959,7 +26959,7 @@
       </c>
       <c r="R449" t="inlineStr"/>
       <c r="S449" t="n">
-        <v>856.4011395729573</v>
+        <v>70.07655181570854</v>
       </c>
     </row>
     <row r="450">
@@ -26989,7 +26989,7 @@
         <v>25.77777777777778</v>
       </c>
       <c r="H450" t="n">
-        <v>67.09999999999999</v>
+        <v>19.5</v>
       </c>
       <c r="I450" t="n">
         <v>101.7</v>
@@ -27018,7 +27018,7 @@
       </c>
       <c r="R450" t="inlineStr"/>
       <c r="S450" t="n">
-        <v>837.9385828434044</v>
+        <v>68.29019733425001</v>
       </c>
     </row>
     <row r="451">
@@ -27048,7 +27048,7 @@
         <v>26.77777777777778</v>
       </c>
       <c r="H451" t="n">
-        <v>69.90000000000001</v>
+        <v>21.05555555555556</v>
       </c>
       <c r="I451" t="n">
         <v>101.58</v>
@@ -27077,7 +27077,7 @@
       </c>
       <c r="R451" t="inlineStr"/>
       <c r="S451" t="n">
-        <v>893.8963108939847</v>
+        <v>70.86960614916528</v>
       </c>
     </row>
     <row r="452">
@@ -27107,7 +27107,7 @@
         <v>26.77777777777778</v>
       </c>
       <c r="H452" t="n">
-        <v>71.5</v>
+        <v>21.94444444444445</v>
       </c>
       <c r="I452" t="n">
         <v>101.65</v>
@@ -27136,7 +27136,7 @@
       </c>
       <c r="R452" t="inlineStr"/>
       <c r="S452" t="n">
-        <v>958.4563349012177</v>
+        <v>74.83633395077689</v>
       </c>
     </row>
     <row r="453">
@@ -27166,7 +27166,7 @@
         <v>26.05555555555556</v>
       </c>
       <c r="H453" t="n">
-        <v>70</v>
+        <v>21.11111111111111</v>
       </c>
       <c r="I453" t="n">
         <v>101.77</v>
@@ -27195,7 +27195,7 @@
       </c>
       <c r="R453" t="inlineStr"/>
       <c r="S453" t="n">
-        <v>936.9424360452522</v>
+        <v>74.21075308640461</v>
       </c>
     </row>
     <row r="454">
@@ -27225,7 +27225,7 @@
         <v>24.55555555555556</v>
       </c>
       <c r="H454" t="n">
-        <v>66.59999999999999</v>
+        <v>19.22222222222222</v>
       </c>
       <c r="I454" t="n">
         <v>101.99</v>
@@ -27254,7 +27254,7 @@
       </c>
       <c r="R454" t="inlineStr"/>
       <c r="S454" t="n">
-        <v>881.3582072492823</v>
+        <v>72.19162308060405</v>
       </c>
     </row>
     <row r="455">
@@ -27284,7 +27284,7 @@
         <v>22.5</v>
       </c>
       <c r="H455" t="n">
-        <v>60.9</v>
+        <v>16.05555555555556</v>
       </c>
       <c r="I455" t="n">
         <v>102.26</v>
@@ -27313,7 +27313,7 @@
       </c>
       <c r="R455" t="inlineStr"/>
       <c r="S455" t="n">
-        <v>769.4594853303078</v>
+        <v>66.92389045598641</v>
       </c>
     </row>
     <row r="456">
@@ -27343,7 +27343,7 @@
         <v>22.33333333333334</v>
       </c>
       <c r="H456" t="n">
-        <v>61.3</v>
+        <v>16.27777777777778</v>
       </c>
       <c r="I456" t="n">
         <v>102.25</v>
@@ -27372,7 +27372,7 @@
       </c>
       <c r="R456" t="inlineStr"/>
       <c r="S456" t="n">
-        <v>791.8557556408412</v>
+        <v>68.57155315661664</v>
       </c>
     </row>
     <row r="457">
@@ -27402,7 +27402,7 @@
         <v>23.11111111111111</v>
       </c>
       <c r="H457" t="n">
-        <v>66.3</v>
+        <v>19.05555555555555</v>
       </c>
       <c r="I457" t="n">
         <v>102.15</v>
@@ -27431,7 +27431,7 @@
       </c>
       <c r="R457" t="inlineStr"/>
       <c r="S457" t="n">
-        <v>948.6033840713617</v>
+        <v>77.93621791551406</v>
       </c>
     </row>
     <row r="458">
@@ -27461,7 +27461,7 @@
         <v>24</v>
       </c>
       <c r="H458" t="n">
-        <v>66.7</v>
+        <v>19.27777777777778</v>
       </c>
       <c r="I458" t="n">
         <v>102</v>
@@ -27490,7 +27490,7 @@
       </c>
       <c r="R458" t="inlineStr"/>
       <c r="S458" t="n">
-        <v>915.3194539484979</v>
+        <v>74.89764805139384</v>
       </c>
     </row>
     <row r="459">
@@ -27520,7 +27520,7 @@
         <v>19.94444444444445</v>
       </c>
       <c r="H459" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="I459" t="n">
         <v>102.22</v>
@@ -27549,7 +27549,7 @@
       </c>
       <c r="R459" t="inlineStr"/>
       <c r="S459" t="n">
-        <v>532.5403274541321</v>
+        <v>52.69278726115931</v>
       </c>
     </row>
     <row r="460">
@@ -27579,7 +27579,7 @@
         <v>21.5</v>
       </c>
       <c r="H460" t="n">
-        <v>51.4</v>
+        <v>10.77777777777778</v>
       </c>
       <c r="I460" t="n">
         <v>101.99</v>
@@ -27608,7 +27608,7 @@
       </c>
       <c r="R460" t="inlineStr"/>
       <c r="S460" t="n">
-        <v>518.7298873830778</v>
+        <v>50.42687388854853</v>
       </c>
     </row>
     <row r="461">
@@ -27638,7 +27638,7 @@
         <v>23.05555555555556</v>
       </c>
       <c r="H461" t="n">
-        <v>60.5</v>
+        <v>15.83333333333333</v>
       </c>
       <c r="I461" t="n">
         <v>101.69</v>
@@ -27667,7 +27667,7 @@
       </c>
       <c r="R461" t="inlineStr"/>
       <c r="S461" t="n">
-        <v>730.2428289083297</v>
+        <v>63.79268500124435</v>
       </c>
     </row>
     <row r="462">
@@ -27697,7 +27697,7 @@
         <v>24.88888888888889</v>
       </c>
       <c r="H462" t="n">
-        <v>61.5</v>
+        <v>16.38888888888889</v>
       </c>
       <c r="I462" t="n">
         <v>101.52</v>
@@ -27726,7 +27726,7 @@
       </c>
       <c r="R462" t="inlineStr"/>
       <c r="S462" t="n">
-        <v>685.0693921884213</v>
+        <v>59.19536337647961</v>
       </c>
     </row>
     <row r="463">
@@ -27756,7 +27756,7 @@
         <v>23.33333333333334</v>
       </c>
       <c r="H463" t="n">
-        <v>62.7</v>
+        <v>17.05555555555556</v>
       </c>
       <c r="I463" t="n">
         <v>101.77</v>
@@ -27785,7 +27785,7 @@
       </c>
       <c r="R463" t="inlineStr"/>
       <c r="S463" t="n">
-        <v>794.9376520611994</v>
+        <v>67.80671493386502</v>
       </c>
     </row>
     <row r="464">
@@ -27815,7 +27815,7 @@
         <v>22.94444444444444</v>
       </c>
       <c r="H464" t="n">
-        <v>57.4</v>
+        <v>14.11111111111111</v>
       </c>
       <c r="I464" t="n">
         <v>102.07</v>
@@ -27844,7 +27844,7 @@
       </c>
       <c r="R464" t="inlineStr"/>
       <c r="S464" t="n">
-        <v>635.4247497296537</v>
+        <v>57.48085233366746</v>
       </c>
     </row>
     <row r="465">
@@ -27874,7 +27874,7 @@
         <v>24</v>
       </c>
       <c r="H465" t="n">
-        <v>61.1</v>
+        <v>16.16666666666667</v>
       </c>
       <c r="I465" t="n">
         <v>101.99</v>
@@ -27903,7 +27903,7 @@
       </c>
       <c r="R465" t="inlineStr"/>
       <c r="S465" t="n">
-        <v>709.291285871862</v>
+        <v>61.55593925739861</v>
       </c>
     </row>
     <row r="466">
@@ -27933,7 +27933,7 @@
         <v>22.33333333333334</v>
       </c>
       <c r="H466" t="n">
-        <v>62.1</v>
+        <v>16.72222222222222</v>
       </c>
       <c r="I466" t="n">
         <v>102.15</v>
@@ -27962,7 +27962,7 @@
       </c>
       <c r="R466" t="inlineStr"/>
       <c r="S466" t="n">
-        <v>821.6650954747026</v>
+        <v>70.53902174883461</v>
       </c>
     </row>
     <row r="467">
@@ -27992,7 +27992,7 @@
         <v>23</v>
       </c>
       <c r="H467" t="n">
-        <v>63.2</v>
+        <v>17.33333333333334</v>
       </c>
       <c r="I467" t="n">
         <v>101.93</v>
@@ -28021,7 +28021,7 @@
       </c>
       <c r="R467" t="inlineStr"/>
       <c r="S467" t="n">
-        <v>829.9291288759989</v>
+        <v>70.4156816153134</v>
       </c>
     </row>
     <row r="468">
@@ -28051,7 +28051,7 @@
         <v>22.55555555555555</v>
       </c>
       <c r="H468" t="n">
-        <v>67.59999999999999</v>
+        <v>19.77777777777778</v>
       </c>
       <c r="I468" t="n">
         <v>101.45</v>
@@ -28080,7 +28080,7 @@
       </c>
       <c r="R468" t="inlineStr"/>
       <c r="S468" t="n">
-        <v>1039.739439245145</v>
+        <v>84.31364273125175</v>
       </c>
     </row>
     <row r="469">
@@ -28110,7 +28110,7 @@
         <v>22.05555555555556</v>
       </c>
       <c r="H469" t="n">
-        <v>59.1</v>
+        <v>15.05555555555556</v>
       </c>
       <c r="I469" t="n">
         <v>101.58</v>
@@ -28139,7 +28139,7 @@
       </c>
       <c r="R469" t="inlineStr"/>
       <c r="S469" t="n">
-        <v>726.8206081682974</v>
+        <v>64.49024475048959</v>
       </c>
     </row>
     <row r="470">
@@ -28169,7 +28169,7 @@
         <v>25.61111111111111</v>
       </c>
       <c r="H470" t="n">
-        <v>66</v>
+        <v>18.88888888888889</v>
       </c>
       <c r="I470" t="n">
         <v>101.45</v>
@@ -28198,7 +28198,7 @@
       </c>
       <c r="R470" t="inlineStr"/>
       <c r="S470" t="n">
-        <v>805.6154542912758</v>
+        <v>66.39086485075181</v>
       </c>
     </row>
     <row r="471">
@@ -28228,7 +28228,7 @@
         <v>24</v>
       </c>
       <c r="H471" t="n">
-        <v>71.5</v>
+        <v>21.94444444444445</v>
       </c>
       <c r="I471" t="n">
         <v>101.46</v>
@@ -28257,7 +28257,7 @@
       </c>
       <c r="R471" t="inlineStr"/>
       <c r="S471" t="n">
-        <v>1130.747181097067</v>
+        <v>88.28881460437225</v>
       </c>
     </row>
     <row r="472">
@@ -28287,7 +28287,7 @@
         <v>24.83333333333334</v>
       </c>
       <c r="H472" t="n">
-        <v>73.3</v>
+        <v>22.94444444444444</v>
       </c>
       <c r="I472" t="n">
         <v>101.47</v>
@@ -28316,7 +28316,7 @@
       </c>
       <c r="R472" t="inlineStr"/>
       <c r="S472" t="n">
-        <v>1162.456375084334</v>
+        <v>89.2548998619977</v>
       </c>
     </row>
     <row r="473">
@@ -28346,7 +28346,7 @@
         <v>23.72222222222222</v>
       </c>
       <c r="H473" t="n">
-        <v>67.7</v>
+        <v>19.83333333333334</v>
       </c>
       <c r="I473" t="n">
         <v>101.8</v>
@@ -28375,7 +28375,7 @@
       </c>
       <c r="R473" t="inlineStr"/>
       <c r="S473" t="n">
-        <v>973.1753961918353</v>
+        <v>78.83729553713576</v>
       </c>
     </row>
     <row r="474">
@@ -28405,7 +28405,7 @@
         <v>25.05555555555555</v>
       </c>
       <c r="H474" t="n">
-        <v>67.8</v>
+        <v>19.88888888888889</v>
       </c>
       <c r="I474" t="n">
         <v>101.64</v>
@@ -28434,7 +28434,7 @@
       </c>
       <c r="R474" t="inlineStr"/>
       <c r="S474" t="n">
-        <v>902.4064900564083</v>
+        <v>73.03157677783865</v>
       </c>
     </row>
     <row r="475">
@@ -28464,7 +28464,7 @@
         <v>19.5</v>
       </c>
       <c r="H475" t="n">
-        <v>53</v>
+        <v>11.66666666666667</v>
       </c>
       <c r="I475" t="n">
         <v>102.51</v>
@@ -28493,7 +28493,7 @@
       </c>
       <c r="R475" t="inlineStr"/>
       <c r="S475" t="n">
-        <v>634.9757779401978</v>
+        <v>60.51797554158458</v>
       </c>
     </row>
     <row r="476">
@@ -28523,7 +28523,7 @@
         <v>21.77777777777778</v>
       </c>
       <c r="H476" t="n">
-        <v>60.2</v>
+        <v>15.66666666666667</v>
       </c>
       <c r="I476" t="n">
         <v>102.09</v>
@@ -28552,7 +28552,7 @@
       </c>
       <c r="R476" t="inlineStr"/>
       <c r="S476" t="n">
-        <v>778.3267672222473</v>
+        <v>68.21873891252977</v>
       </c>
     </row>
     <row r="477">
@@ -28582,7 +28582,7 @@
         <v>19.38888888888889</v>
       </c>
       <c r="H477" t="n">
-        <v>59.2</v>
+        <v>15.11111111111111</v>
       </c>
       <c r="I477" t="n">
         <v>102.03</v>
@@ -28611,7 +28611,7 @@
       </c>
       <c r="R477" t="inlineStr"/>
       <c r="S477" t="n">
-        <v>860.6859363573996</v>
+        <v>76.2823409865301</v>
       </c>
     </row>
     <row r="478">
@@ -28641,7 +28641,7 @@
         <v>15.83333333333333</v>
       </c>
       <c r="H478" t="n">
-        <v>44.9</v>
+        <v>7.166666666666666</v>
       </c>
       <c r="I478" t="n">
         <v>102.95</v>
@@ -28670,7 +28670,7 @@
       </c>
       <c r="R478" t="inlineStr"/>
       <c r="S478" t="n">
-        <v>532.3640471866034</v>
+        <v>56.34756895544892</v>
       </c>
     </row>
     <row r="479">
@@ -28700,7 +28700,7 @@
         <v>17.66666666666666</v>
       </c>
       <c r="H479" t="n">
-        <v>49</v>
+        <v>9.444444444444445</v>
       </c>
       <c r="I479" t="n">
         <v>102.69</v>
@@ -28729,7 +28729,7 @@
       </c>
       <c r="R479" t="inlineStr"/>
       <c r="S479" t="n">
-        <v>584.0475415848604</v>
+        <v>58.53603900935894</v>
       </c>
     </row>
     <row r="480">
@@ -28759,7 +28759,7 @@
         <v>17.83333333333333</v>
       </c>
       <c r="H480" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="I480" t="n">
         <v>102.51</v>
@@ -28788,7 +28788,7 @@
       </c>
       <c r="R480" t="inlineStr"/>
       <c r="S480" t="n">
-        <v>607.6472041300258</v>
+        <v>60.12431961750253</v>
       </c>
     </row>
     <row r="481">
@@ -28818,7 +28818,7 @@
         <v>20.27777777777778</v>
       </c>
       <c r="H481" t="n">
-        <v>51</v>
+        <v>10.55555555555556</v>
       </c>
       <c r="I481" t="n">
         <v>102.47</v>
@@ -28847,7 +28847,7 @@
       </c>
       <c r="R481" t="inlineStr"/>
       <c r="S481" t="n">
-        <v>548.286653167246</v>
+        <v>53.56818071553322</v>
       </c>
     </row>
     <row r="482">
@@ -28877,7 +28877,7 @@
         <v>22.94444444444444</v>
       </c>
       <c r="H482" t="n">
-        <v>65</v>
+        <v>18.33333333333334</v>
       </c>
       <c r="I482" t="n">
         <v>101.89</v>
@@ -28906,7 +28906,7 @@
       </c>
       <c r="R482" t="inlineStr"/>
       <c r="S482" t="n">
-        <v>903.7569851105779</v>
+        <v>75.24754993927841</v>
       </c>
     </row>
     <row r="483">
@@ -28936,7 +28936,7 @@
         <v>22.72222222222222</v>
       </c>
       <c r="H483" t="n">
-        <v>65.59999999999999</v>
+        <v>18.66666666666666</v>
       </c>
       <c r="I483" t="n">
         <v>101.63</v>
@@ -28965,7 +28965,7 @@
       </c>
       <c r="R483" t="inlineStr"/>
       <c r="S483" t="n">
-        <v>941.1595808448091</v>
+        <v>77.87899852613229</v>
       </c>
     </row>
     <row r="484">
@@ -28995,7 +28995,7 @@
         <v>22.27777777777778</v>
       </c>
       <c r="H484" t="n">
-        <v>63.9</v>
+        <v>17.72222222222222</v>
       </c>
       <c r="I484" t="n">
         <v>101.88</v>
@@ -29024,7 +29024,7 @@
       </c>
       <c r="R484" t="inlineStr"/>
       <c r="S484" t="n">
-        <v>895.2997481319926</v>
+        <v>75.40292030569728</v>
       </c>
     </row>
   </sheetData>
